--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>PNW</t>
   </si>
@@ -24,22 +23,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,26 +57,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -361,18 +373,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B731"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
@@ -380,5846 +386,5846 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>300758.5786738342</v>
+      <c r="B2">
+        <v>325826.9780125857</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>287973.9222943362</v>
+      <c r="B3">
+        <v>337552.5927646344</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>298630.1302816309</v>
+      <c r="B4">
+        <v>366837.0290762206</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>305992.0422536416</v>
+      <c r="B5">
+        <v>352332.8634683134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>310571.8127091213</v>
+      <c r="B6">
+        <v>346835.6191388365</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>320515.1469382426</v>
+      <c r="B7">
+        <v>359750.8542128644</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>321467.4401641448</v>
+      <c r="B8">
+        <v>361697.9965776592</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>326305.2086177048</v>
+      <c r="B9">
+        <v>348631.353473488</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>348309.5757038625</v>
+      <c r="B10">
+        <v>335248.5879381015</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>353121.2978325844</v>
+      <c r="B11">
+        <v>332121.1479418036</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>341763.7959656122</v>
+      <c r="B12">
+        <v>338126.4978228401</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>327142.2536225056</v>
+      <c r="B13">
+        <v>332650.6514159712</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>327669.4856310185</v>
+      <c r="B14">
+        <v>333603.6800147371</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>332730.0786498728</v>
+      <c r="B15">
+        <v>334962.6381065845</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>326604.6503858826</v>
+      <c r="B16">
+        <v>341118.17549745</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>332541.3675059627</v>
+      <c r="B17">
+        <v>336248.1248472545</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>337759.3293911076</v>
+      <c r="B18">
+        <v>337138.7915231698</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>337431.562220227</v>
+      <c r="B19">
+        <v>337666.2925233667</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>326116.956236275</v>
+      <c r="B20">
+        <v>336822.8801489154</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>324455.7884559205</v>
+      <c r="B21">
+        <v>337690.7316782145</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>329522.7580173982</v>
+      <c r="B22">
+        <v>337961.2542555991</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>323351.2089141111</v>
+      <c r="B23">
+        <v>383106.2792992926</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>324514.6907802986</v>
+      <c r="B24">
+        <v>387990.2246397611</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>359435.6227970155</v>
+      <c r="B25">
+        <v>395039.6229678169</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>364698.6986309716</v>
+      <c r="B26">
+        <v>393835.2689430286</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>360417.8763189912</v>
+      <c r="B27">
+        <v>384043.9754978235</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>358008.2445655943</v>
+      <c r="B28">
+        <v>389522.1498666873</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>356067.0862569399</v>
+      <c r="B29">
+        <v>410132.744224834</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>350385.1584664822</v>
+      <c r="B30">
+        <v>436374.4263701125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>347927.2937976387</v>
+      <c r="B31">
+        <v>448866.0351715622</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>348490.7666599613</v>
+      <c r="B32">
+        <v>457547.1660114135</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>343952.4211616644</v>
+      <c r="B33">
+        <v>457261.1529331635</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>336205.8142111077</v>
+      <c r="B34">
+        <v>427258.41174601</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>341266.5174680214</v>
+      <c r="B35">
+        <v>405098.621932123</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>332653.8236498571</v>
+      <c r="B36">
+        <v>396663.3686595939</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>337606.475737657</v>
+      <c r="B37">
+        <v>392215.7910863603</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>346245.2635471321</v>
+      <c r="B38">
+        <v>404460.3082201393</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>364383.8572851236</v>
+      <c r="B39">
+        <v>409506.2027452856</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>369924.9792981441</v>
+      <c r="B40">
+        <v>390303.0066672585</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>369130.344763978</v>
+      <c r="B41">
+        <v>388265.5298469941</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>374101.9864988977</v>
+      <c r="B42">
+        <v>383173.3557057565</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>372730.2050185453</v>
+      <c r="B43">
+        <v>385493.2887653073</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>362660.434628569</v>
+      <c r="B44">
+        <v>378302.2410155651</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>357530.3630622919</v>
+      <c r="B45">
+        <v>369185.075442318</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>356448.8911749077</v>
+      <c r="B46">
+        <v>378490.9026476883</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>353057.0851361841</v>
+      <c r="B47">
+        <v>365973.5329499938</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>344861.9778827067</v>
+      <c r="B48">
+        <v>364362.3445627261</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>343335.0535147726</v>
+      <c r="B49">
+        <v>377967.6798637962</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>333306.0129713746</v>
+      <c r="B50">
+        <v>382176.875165932</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>328502.4297587681</v>
+      <c r="B51">
+        <v>388748.9687709195</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>337664.0826277554</v>
+      <c r="B52">
+        <v>392396.6635523448</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>336632.5562098461</v>
+      <c r="B53">
+        <v>397146.3108672195</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>351541.5527424497</v>
+      <c r="B54">
+        <v>400737.7044467089</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>396670.4273965108</v>
+      <c r="B55">
+        <v>400053.3705585544</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>402658.2511290826</v>
+      <c r="B56">
+        <v>396753.4768681931</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>400267.7876314404</v>
+      <c r="B57">
+        <v>376409.3948691673</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>409557.3303524429</v>
+      <c r="B58">
+        <v>373007.6090426618</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>415354.2785551581</v>
+      <c r="B59">
+        <v>385630.9399750828</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>406389.4974220419</v>
+      <c r="B60">
+        <v>411457.3222853137</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>412324.0202226734</v>
+      <c r="B61">
+        <v>415807.8110372548</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>342825.6376385263</v>
+      <c r="B62">
+        <v>328844.1638410502</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>326040.9313645287</v>
+      <c r="B63">
+        <v>318370.4922796923</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>328507.1792169743</v>
+      <c r="B64">
+        <v>314392.9963841162</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>330987.3053179376</v>
+      <c r="B65">
+        <v>305548.047482505</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>328151.0407166964</v>
+      <c r="B66">
+        <v>302794.2197539933</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>337731.655946792</v>
+      <c r="B67">
+        <v>306643.8074112409</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>346293.8701971637</v>
+      <c r="B68">
+        <v>371313.9863967562</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>343889.3890159482</v>
+      <c r="B69">
+        <v>373714.8442512031</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>371340.9951296205</v>
+      <c r="B70">
+        <v>371269.5327305913</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>380668.2915167556</v>
+      <c r="B71">
+        <v>376637.3353245759</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>370351.1009033155</v>
+      <c r="B72">
+        <v>381984.0510164746</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>369322.560974739</v>
+      <c r="B73">
+        <v>379140.6373936458</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>369799.1297404207</v>
+      <c r="B74">
+        <v>379185.4741399301</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>356145.6178304853</v>
+      <c r="B75">
+        <v>380179.0717910804</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>350356.5775812917</v>
+      <c r="B76">
+        <v>372015.8151949308</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>343973.2865604865</v>
+      <c r="B77">
+        <v>374210.9734380255</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>347140.9043792084</v>
+      <c r="B78">
+        <v>353834.053982483</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>351851.6519824534</v>
+      <c r="B79">
+        <v>344318.2457723403</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>365868.1399164285</v>
+      <c r="B80">
+        <v>338831.3889036129</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>378978.5122571415</v>
+      <c r="B81">
+        <v>335511.8953958963</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>401951.4166566555</v>
+      <c r="B82">
+        <v>345078.7223805518</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>416284.0482758181</v>
+      <c r="B83">
+        <v>353319.6822058735</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>433734.5575237152</v>
+      <c r="B84">
+        <v>333447.6723304566</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>422701.6159854855</v>
+      <c r="B85">
+        <v>276180.6186172337</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>489426.3200607057</v>
+      <c r="B86">
+        <v>285253.4323568085</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>498467.0128207107</v>
+      <c r="B87">
+        <v>278704.3584119469</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>494711.7848958306</v>
+      <c r="B88">
+        <v>287408.5638279324</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>505116.6936049886</v>
+      <c r="B89">
+        <v>273294.6945921815</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>516787.2093198274</v>
+      <c r="B90">
+        <v>283152.1878858468</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>523692.2647209813</v>
+      <c r="B91">
+        <v>272929.9931662568</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>518562.6652063021</v>
+      <c r="B92">
+        <v>253057.6005951782</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>493783.3817702748</v>
+      <c r="B93">
+        <v>265883.7877849801</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>496674.8475046566</v>
+      <c r="B94">
+        <v>280068.8109736089</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>473704.6103385455</v>
+      <c r="B95">
+        <v>280635.2153133207</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>465646.0921592899</v>
+      <c r="B96">
+        <v>290830.3452587416</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>447007.3453573213</v>
+      <c r="B97">
+        <v>306680.8348228075</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>450320.6446009481</v>
+      <c r="B98">
+        <v>303559.6101599049</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>431107.5278985522</v>
+      <c r="B99">
+        <v>300114.2022538578</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>421164.2167113535</v>
+      <c r="B100">
+        <v>314900.6729666699</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>408375.6209476503</v>
+      <c r="B101">
+        <v>329054.4592762178</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>409142.0569759727</v>
+      <c r="B102">
+        <v>327942.6632189315</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>387776.1482424409</v>
+      <c r="B103">
+        <v>335532.4016339087</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>390070.5862084352</v>
+      <c r="B104">
+        <v>370968.1770512533</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>388475.7428851164</v>
+      <c r="B105">
+        <v>375245.8415928221</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>388260.4886021441</v>
+      <c r="B106">
+        <v>396857.3229892502</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>365360.4656091674</v>
+      <c r="B107">
+        <v>408703.3052929005</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
-        <v>369707.433098283</v>
+      <c r="B108">
+        <v>416594.7542472169</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
-        <v>369101.6616624131</v>
+      <c r="B109">
+        <v>421466.791409086</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
-        <v>361383.1937988897</v>
+      <c r="B110">
+        <v>422646.5694786806</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
-        <v>366226.5862020598</v>
+      <c r="B111">
+        <v>460011.9943825881</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
-        <v>380297.8026658664</v>
+      <c r="B112">
+        <v>466083.3250328022</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
-        <v>428887.2852402695</v>
+      <c r="B113">
+        <v>494199.4180468526</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
-        <v>411645.3586318097</v>
+      <c r="B114">
+        <v>521096.9546178865</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
-        <v>401710.4299555157</v>
+      <c r="B115">
+        <v>543171.5766403467</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
-        <v>391681.1781425045</v>
+      <c r="B116">
+        <v>535080.7058464059</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
-        <v>400385.3876533494</v>
+      <c r="B117">
+        <v>532604.6173829199</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
-        <v>441516.2426209413</v>
+      <c r="B118">
+        <v>531667.6271149918</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
-        <v>478709.6482625258</v>
+      <c r="B119">
+        <v>534565.794100804</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
-        <v>513776.5696026218</v>
+      <c r="B120">
+        <v>536299.981951607</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
-        <v>524316.1531170631</v>
+      <c r="B121">
+        <v>539889.6885058668</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
-        <v>396485.7202458592</v>
+      <c r="B122">
+        <v>468093.5593602896</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
-        <v>379032.875421883</v>
+      <c r="B123">
+        <v>429911.4068750553</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
-        <v>397197.192446409</v>
+      <c r="B124">
+        <v>425534.9575403783</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
-        <v>374450.7492901136</v>
+      <c r="B125">
+        <v>383242.7469065376</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
-        <v>386609.9618205578</v>
+      <c r="B126">
+        <v>357156.0606002822</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
-        <v>344201.9063802909</v>
+      <c r="B127">
+        <v>290641.42118275</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
-        <v>328925.7012555744</v>
+      <c r="B128">
+        <v>265869.8962684424</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
-        <v>288631.6840405587</v>
+      <c r="B129">
+        <v>239861.6067634382</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
-        <v>307540.9514040165</v>
+      <c r="B130">
+        <v>233796.1872503041</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
-        <v>306987.0306592075</v>
+      <c r="B131">
+        <v>239649.5791372125</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
-        <v>360921.3234107562</v>
+      <c r="B132">
+        <v>244734.7758042274</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
-        <v>362051.7422854138</v>
+      <c r="B133">
+        <v>267384.4851445251</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
-        <v>385026.5576644099</v>
+      <c r="B134">
+        <v>282821.9745626486</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
-        <v>372337.3848754886</v>
+      <c r="B135">
+        <v>361914.5098007174</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
-        <v>406649.2110213732</v>
+      <c r="B136">
+        <v>433637.4243949524</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
-        <v>420250.9987376262</v>
+      <c r="B137">
+        <v>446994.6994680488</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
-        <v>475796.7722915319</v>
+      <c r="B138">
+        <v>469409.7281648716</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
-        <v>466832.7389716416</v>
+      <c r="B139">
+        <v>443865.5309271551</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
-        <v>464855.0614901779</v>
+      <c r="B140">
+        <v>445508.1951703835</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
-        <v>450536.1625211407</v>
+      <c r="B141">
+        <v>464243.0942220925</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
-        <v>529056.7594527106</v>
+      <c r="B142">
+        <v>507771.3591936821</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
-        <v>545487.9302125892</v>
+      <c r="B143">
+        <v>480800.0259377609</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
-        <v>556383.0207887278</v>
+      <c r="B144">
+        <v>484316.6457338523</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
-        <v>547822.9563021496</v>
+      <c r="B145">
+        <v>478414.9667601969</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
-        <v>549401.044893617</v>
+      <c r="B146">
+        <v>488415.6456400313</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
-        <v>537623.0871643587</v>
+      <c r="B147">
+        <v>478687.5432921293</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
-        <v>524819.4996157993</v>
+      <c r="B148">
+        <v>502993.6691005991</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
-        <v>491265.3087744806</v>
+      <c r="B149">
+        <v>503881.0793201933</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
-        <v>508238.1625642416</v>
+      <c r="B150">
+        <v>538192.0470107627</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
-        <v>494398.330401316</v>
+      <c r="B151">
+        <v>536167.3056434545</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
-        <v>493120.7858207901</v>
+      <c r="B152">
+        <v>548518.5425979249</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
-        <v>507297.801375473</v>
+      <c r="B153">
+        <v>555159.6220599223</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
-        <v>529286.1349752892</v>
+      <c r="B154">
+        <v>560112.2271282924</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
-        <v>520906.0453545304</v>
+      <c r="B155">
+        <v>553796.1264125485</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
-        <v>549594.9068413395</v>
+      <c r="B156">
+        <v>560334.0925983955</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
-        <v>552491.370036317</v>
+      <c r="B157">
+        <v>551814.9295256376</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
-        <v>565328.1669352039</v>
+      <c r="B158">
+        <v>558261.2244407273</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
-        <v>564566.2829750042</v>
+      <c r="B159">
+        <v>550861.6434346752</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
-        <v>564927.8310907609</v>
+      <c r="B160">
+        <v>560283.9172123238</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
-        <v>565378.7321870873</v>
+      <c r="B161">
+        <v>543544.0613185122</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
-        <v>567886.0917784943</v>
+      <c r="B162">
+        <v>556656.4547472353</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
-        <v>570135.9240006899</v>
+      <c r="B163">
+        <v>551583.6230573553</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
-        <v>572162.740684533</v>
+      <c r="B164">
+        <v>556880.3784694195</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
-        <v>571716.3731942225</v>
+      <c r="B165">
+        <v>551816.7871852986</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
-        <v>571904.0234527192</v>
+      <c r="B166">
+        <v>560954.6241269954</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
-        <v>571840.1854222923</v>
+      <c r="B167">
+        <v>550594.7276378665</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
-        <v>573043.6578542413</v>
+      <c r="B168">
+        <v>559962.194968063</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
-        <v>563483.8341024497</v>
+      <c r="B169">
+        <v>549973.6269694937</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
-        <v>541795.548307276</v>
+      <c r="B170">
+        <v>556905.507249566</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
-        <v>507361.890750426</v>
+      <c r="B171">
+        <v>552551.3149066942</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
-        <v>538934.604209936</v>
+      <c r="B172">
+        <v>558161.3404260116</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
-        <v>510390.1921342606</v>
+      <c r="B173">
+        <v>553736.8540299387</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
-        <v>541715.0560739547</v>
+      <c r="B174">
+        <v>562197.9943572929</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
-        <v>526348.8085446835</v>
+      <c r="B175">
+        <v>547691.6095378849</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
-        <v>546112.1760949164</v>
+      <c r="B176">
+        <v>551389.1277214511</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
-        <v>542311.7012053761</v>
+      <c r="B177">
+        <v>545833.766230182</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
-        <v>539750.910992846</v>
+      <c r="B178">
+        <v>530872.6597721885</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
-        <v>533013.560199209</v>
+      <c r="B179">
+        <v>520740.3844783318</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
-        <v>532847.0647186069</v>
+      <c r="B180">
+        <v>514782.9990606687</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
-        <v>533546.9332361498</v>
+      <c r="B181">
+        <v>489545.2717225248</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
-        <v>533178.4267661449</v>
+      <c r="B182">
+        <v>468677.5785702943</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
-        <v>527123.0204738604</v>
+      <c r="B183">
+        <v>449139.9475473272</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
-        <v>506346.4064580378</v>
+      <c r="B184">
+        <v>445040.6754429414</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
-        <v>506973.4616145878</v>
+      <c r="B185">
+        <v>422274.909580939</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
-        <v>503539.6171207174</v>
+      <c r="B186">
+        <v>431921.2268424624</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
-        <v>502086.3774454814</v>
+      <c r="B187">
+        <v>406918.7059468959</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
-        <v>490364.8257112203</v>
+      <c r="B188">
+        <v>426120.8263398378</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
-        <v>492972.6739617782</v>
+      <c r="B189">
+        <v>423294.1272724162</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
-        <v>484667.5803462877</v>
+      <c r="B190">
+        <v>427205.5786012989</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
-        <v>492277.3626397984</v>
+      <c r="B191">
+        <v>427486.5896240057</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
-        <v>473255.6378049128</v>
+      <c r="B192">
+        <v>403034.2640583048</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
-        <v>458730.8627234055</v>
+      <c r="B193">
+        <v>389406.2419106407</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
-        <v>429056.3046622644</v>
+      <c r="B194">
+        <v>393836.5065488826</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
-        <v>412999.2980522119</v>
+      <c r="B195">
+        <v>388147.3935510622</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
-        <v>397538.5157799848</v>
+      <c r="B196">
+        <v>380425.0221069871</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
-        <v>391344.643889718</v>
+      <c r="B197">
+        <v>379797.5185206563</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
-        <v>390898.8914954136</v>
+      <c r="B198">
+        <v>375978.5150485859</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
-        <v>398537.0980075374</v>
+      <c r="B199">
+        <v>376058.8272545284</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
-        <v>382027.3643622891</v>
+      <c r="B200">
+        <v>355810.3126790391</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
-        <v>388717.3516375981</v>
+      <c r="B201">
+        <v>341603.9520532371</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
-        <v>373365.6079510063</v>
+      <c r="B202">
+        <v>348331.3694708062</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
-        <v>379680.6063883886</v>
+      <c r="B203">
+        <v>332120.8250600256</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
-        <v>376930.4350679395</v>
+      <c r="B204">
+        <v>339878.411859861</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
-        <v>364099.6187085658</v>
+      <c r="B205">
+        <v>344959.6260620633</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
-        <v>355006.2712399507</v>
+      <c r="B206">
+        <v>324621.6193561955</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
-        <v>355861.0627852974</v>
+      <c r="B207">
+        <v>315091.1494388353</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
-        <v>329590.0273790121</v>
+      <c r="B208">
+        <v>309020.2210317833</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
-        <v>355456.4923702068</v>
+      <c r="B209">
+        <v>315374.0973226324</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
-        <v>348402.0944093547</v>
+      <c r="B210">
+        <v>316765.7259129341</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
-        <v>339702.4840059252</v>
+      <c r="B211">
+        <v>311607.4920571167</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
-        <v>326206.0351618048</v>
+      <c r="B212">
+        <v>302567.6771968344</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
-        <v>307735.850316973</v>
+      <c r="B213">
+        <v>298868.2646414796</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
-        <v>313038.313160638</v>
+      <c r="B214">
+        <v>295681.660858545</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
-        <v>259911.5639046069</v>
+      <c r="B215">
+        <v>244240.0894887586</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
-        <v>259790.0373854483</v>
+      <c r="B216">
+        <v>234509.0580696072</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
-        <v>273961.6780694733</v>
+      <c r="B217">
+        <v>252785.639892586</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
-        <v>239794.9477278077</v>
+      <c r="B218">
+        <v>263811.7260875565</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
-        <v>246511.4466130278</v>
+      <c r="B219">
+        <v>288914.0129549517</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
-        <v>239051.8662267959</v>
+      <c r="B220">
+        <v>271449.894659797</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
-        <v>237084.5244382852</v>
+      <c r="B221">
+        <v>249496.8361866827</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
-        <v>239037.2477828852</v>
+      <c r="B222">
+        <v>253481.4466411723</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
-        <v>237716.1913390423</v>
+      <c r="B223">
+        <v>247506.2399344913</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
-        <v>237798.8573326741</v>
+      <c r="B224">
+        <v>241660.3029230769</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
-        <v>316942.0853113796</v>
+      <c r="B225">
+        <v>243548.3913846333</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
-        <v>284639.1152187755</v>
+      <c r="B226">
+        <v>245367.262970591</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
-        <v>300981.5726833667</v>
+      <c r="B227">
+        <v>245140.1766324047</v>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
-        <v>282570.0400242029</v>
+      <c r="B228">
+        <v>237763.2751970868</v>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
-        <v>313218.2326611365</v>
+      <c r="B229">
+        <v>250284.3989919586</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
-        <v>318901.4755956018</v>
+      <c r="B230">
+        <v>250865.3135845908</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
-        <v>327658.9217636792</v>
+      <c r="B231">
+        <v>234656.72600348</v>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
-        <v>311903.8840230053</v>
+      <c r="B232">
+        <v>235599.4108585542</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
-        <v>336347.9157676379</v>
+      <c r="B233">
+        <v>241332.6366570636</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
-        <v>325736.1610872843</v>
+      <c r="B234">
+        <v>256212.1047501447</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
-        <v>318783.1100513815</v>
+      <c r="B235">
+        <v>245705.0099389302</v>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
-        <v>310353.4411538701</v>
+      <c r="B236">
+        <v>253014.134732067</v>
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
-        <v>279350.8213910436</v>
+      <c r="B237">
+        <v>260777.7449810324</v>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
-        <v>298347.6325199879</v>
+      <c r="B238">
+        <v>313639.8005214849</v>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
-        <v>312735.3881230659</v>
+      <c r="B239">
+        <v>324123.5466464026</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
-        <v>326675.3113234393</v>
+      <c r="B240">
+        <v>325075.8119944794</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
-        <v>297755.5913892773</v>
+      <c r="B241">
+        <v>294475.2308700017</v>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1" t="n">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
-        <v>287881.9095582591</v>
+      <c r="B242">
+        <v>306531.5259326491</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="1" t="n">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
-        <v>275840.4243106755</v>
+      <c r="B243">
+        <v>291271.5814377253</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="1" t="n">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
-        <v>339625.9552792958</v>
+      <c r="B244">
+        <v>335117.3338603555</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="1" t="n">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
-        <v>273347.9396249438</v>
+      <c r="B245">
+        <v>244476.3168823923</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="1" t="n">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
-        <v>270884.100565917</v>
+      <c r="B246">
+        <v>239836.4063207296</v>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="1" t="n">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
-        <v>250438.4371595955</v>
+      <c r="B247">
+        <v>202813.4564858352</v>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="1" t="n">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
-        <v>269253.2642632434</v>
+      <c r="B248">
+        <v>213449.5091781756</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="1" t="n">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
-        <v>252367.815053517</v>
+      <c r="B249">
+        <v>209461.7990113701</v>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="1" t="n">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
-        <v>274648.2656302154</v>
+      <c r="B250">
+        <v>199281.806852907</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="1" t="n">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
-        <v>288574.7164150886</v>
+      <c r="B251">
+        <v>187169.1422873283</v>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="1" t="n">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
-        <v>307466.8154014616</v>
+      <c r="B252">
+        <v>187494.6718817805</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="1" t="n">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
-        <v>300765.657360322</v>
+      <c r="B253">
+        <v>184584.0499859785</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="1" t="n">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
-        <v>280952.9213673301</v>
+      <c r="B254">
+        <v>190666.3873064356</v>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="1" t="n">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
-        <v>277332.9703540953</v>
+      <c r="B255">
+        <v>183411.0340814787</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1" t="n">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
-        <v>277411.6384741081</v>
+      <c r="B256">
+        <v>186246.5796263547</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="1" t="n">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
-        <v>259357.0116294893</v>
+      <c r="B257">
+        <v>190795.636935409</v>
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="1" t="n">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
-        <v>260172.9586036996</v>
+      <c r="B258">
+        <v>194730.9751492671</v>
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="1" t="n">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
-        <v>247217.5002670554</v>
+      <c r="B259">
+        <v>199610.8338624057</v>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="1" t="n">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
-        <v>228477.0372201004</v>
+      <c r="B260">
+        <v>220666.4432561278</v>
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="1" t="n">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
-        <v>255107.5322414616</v>
+      <c r="B261">
+        <v>203949.9762731046</v>
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="1" t="n">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
-        <v>243878.594731192</v>
+      <c r="B262">
+        <v>204079.4152677861</v>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="1" t="n">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
-        <v>232210.2129589755</v>
+      <c r="B263">
+        <v>210343.6693133334</v>
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="1" t="n">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
-        <v>223728.0904449013</v>
+      <c r="B264">
+        <v>204372.0101603244</v>
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="1" t="n">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
-        <v>241712.0433613863</v>
+      <c r="B265">
+        <v>221311.4274889486</v>
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="1" t="n">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
-        <v>256582.4230791471</v>
+      <c r="B266">
+        <v>219753.2684590168</v>
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="1" t="n">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
-        <v>261037.5302950878</v>
+      <c r="B267">
+        <v>228866.0392023163</v>
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="1" t="n">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
-        <v>272185.7026641066</v>
+      <c r="B268">
+        <v>231457.5079072379</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="1" t="n">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
-        <v>265638.0290620004</v>
+      <c r="B269">
+        <v>224188.8620504106</v>
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="1" t="n">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
-        <v>264261.4812408784</v>
+      <c r="B270">
+        <v>222221.8765534047</v>
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="1" t="n">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
-        <v>258623.9101736138</v>
+      <c r="B271">
+        <v>230321.7305672474</v>
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="1" t="n">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
-        <v>261060.0097979069</v>
+      <c r="B272">
+        <v>224305.3546184401</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="1" t="n">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
-        <v>291305.3799355555</v>
+      <c r="B273">
+        <v>214546.1255442511</v>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="1" t="n">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
-        <v>282451.2714763072</v>
+      <c r="B274">
+        <v>201924.6469446199</v>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="1" t="n">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
-        <v>257340.0736154914</v>
+      <c r="B275">
+        <v>215428.643715682</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="1" t="n">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
-        <v>278716.773312844</v>
+      <c r="B276">
+        <v>229737.1421316116</v>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="1" t="n">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
-        <v>262440.7700514666</v>
+      <c r="B277">
+        <v>237513.9022529013</v>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="1" t="n">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
-        <v>254525.9893625254</v>
+      <c r="B278">
+        <v>230660.473000333</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="1" t="n">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
-        <v>256276.0447550491</v>
+      <c r="B279">
+        <v>231811.5763055887</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="1" t="n">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
-        <v>263356.5758426042</v>
+      <c r="B280">
+        <v>240006.5303377511</v>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="1" t="n">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
-        <v>238791.6061190991</v>
+      <c r="B281">
+        <v>254756.1434501933</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1" t="n">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
-        <v>238758.567344931</v>
+      <c r="B282">
+        <v>237979.0449322575</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="1" t="n">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
-        <v>244022.1456803023</v>
+      <c r="B283">
+        <v>241451.9162489453</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="1" t="n">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
-        <v>242203.6461370059</v>
+      <c r="B284">
+        <v>254094.7450530221</v>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="1" t="n">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
-        <v>267148.1585515321</v>
+      <c r="B285">
+        <v>253410.4258980679</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="1" t="n">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
-        <v>257333.4752210119</v>
+      <c r="B286">
+        <v>250924.3096076486</v>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="1" t="n">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
-        <v>229989.7294185374</v>
+      <c r="B287">
+        <v>243304.7726757586</v>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="1" t="n">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
-        <v>224797.6633826719</v>
+      <c r="B288">
+        <v>248364.2986700173</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="1" t="n">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
-        <v>223565.5141806941</v>
+      <c r="B289">
+        <v>216658.9417474807</v>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="1" t="n">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
-        <v>215549.6653283208</v>
+      <c r="B290">
+        <v>230445.9989130931</v>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="1" t="n">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
-        <v>217727.2362481829</v>
+      <c r="B291">
+        <v>244712.1465810772</v>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="1" t="n">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
-        <v>221483.8592536063</v>
+      <c r="B292">
+        <v>226283.5103765051</v>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="1" t="n">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
-        <v>220462.9734086365</v>
+      <c r="B293">
+        <v>230121.4612462631</v>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="1" t="n">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
-        <v>232031.9956147443</v>
+      <c r="B294">
+        <v>227076.4011147206</v>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="1" t="n">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
-        <v>231392.8731023782</v>
+      <c r="B295">
+        <v>226397.4733730664</v>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="1" t="n">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
-        <v>222479.4233063398</v>
+      <c r="B296">
+        <v>226467.8841317921</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="1" t="n">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
-        <v>220052.1224180301</v>
+      <c r="B297">
+        <v>225399.930148613</v>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="1" t="n">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
-        <v>254691.6122349393</v>
+      <c r="B298">
+        <v>221828.3648172958</v>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="1" t="n">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
-        <v>220295.5403893394</v>
+      <c r="B299">
+        <v>219197.4517022208</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="1" t="n">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
-        <v>222910.5879499305</v>
+      <c r="B300">
+        <v>224376.4227691325</v>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="1" t="n">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
-        <v>221995.0994706572</v>
+      <c r="B301">
+        <v>228957.7882827469</v>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="1" t="n">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
-        <v>215072.2674349718</v>
+      <c r="B302">
+        <v>232101.2225398649</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="1" t="n">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
-        <v>217448.3025332543</v>
+      <c r="B303">
+        <v>221669.1426428218</v>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="1" t="n">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
-        <v>228645.7607872232</v>
+      <c r="B304">
+        <v>230921.8330881863</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="1" t="n">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="n">
-        <v>225926.0110824253</v>
+      <c r="B305">
+        <v>239493.5362745942</v>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="1" t="n">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="n">
-        <v>215808.0746771518</v>
+      <c r="B306">
+        <v>233281.8321546123</v>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="1" t="n">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="n">
-        <v>202403.0446177478</v>
+      <c r="B307">
+        <v>204944.6038574702</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="1" t="n">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="n">
-        <v>210881.7888546725</v>
+      <c r="B308">
+        <v>202631.864036059</v>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="1" t="n">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="n">
-        <v>202639.7394757789</v>
+      <c r="B309">
+        <v>213365.8314597328</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="1" t="n">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="n">
-        <v>231064.0646622377</v>
+      <c r="B310">
+        <v>236672.5654622372</v>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="1" t="n">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="n">
-        <v>223762.5226016274</v>
+      <c r="B311">
+        <v>232150.1574313529</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="1" t="n">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="n">
-        <v>208180.6198567027</v>
+      <c r="B312">
+        <v>220468.2106392651</v>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="1" t="n">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="n">
-        <v>217355.7834962785</v>
+      <c r="B313">
+        <v>205148.5958901104</v>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="1" t="n">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="n">
-        <v>227167.5961074801</v>
+      <c r="B314">
+        <v>200675.2470161327</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="1" t="n">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="n">
-        <v>218159.0703481178</v>
+      <c r="B315">
+        <v>205683.4111073096</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="1" t="n">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="n">
-        <v>208355.7207642433</v>
+      <c r="B316">
+        <v>208619.1189965417</v>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="1" t="n">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="n">
-        <v>198923.9632283247</v>
+      <c r="B317">
+        <v>215256.8302834965</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="1" t="n">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="n">
-        <v>193758.073359087</v>
+      <c r="B318">
+        <v>204256.0608440521</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="1" t="n">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="n">
-        <v>195756.0316637802</v>
+      <c r="B319">
+        <v>211116.4476205516</v>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="1" t="n">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="n">
-        <v>192162.276058992</v>
+      <c r="B320">
+        <v>212578.4687072064</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="1" t="n">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="n">
-        <v>194739.831076439</v>
+      <c r="B321">
+        <v>212438.872263998</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="1" t="n">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="n">
-        <v>206664.7613071025</v>
+      <c r="B322">
+        <v>211474.0371357473</v>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="1" t="n">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="n">
-        <v>199399.0012312517</v>
+      <c r="B323">
+        <v>207483.9780569968</v>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="1" t="n">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="n">
-        <v>202463.6270472181</v>
+      <c r="B324">
+        <v>216723.5242261679</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="1" t="n">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="n">
-        <v>199371.123367341</v>
+      <c r="B325">
+        <v>225638.4516280797</v>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="1" t="n">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="n">
-        <v>201347.9357928023</v>
+      <c r="B326">
+        <v>215704.5099868462</v>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="1" t="n">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="n">
-        <v>193901.421539745</v>
+      <c r="B327">
+        <v>218765.1283873351</v>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="1" t="n">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="n">
-        <v>192265.3494372524</v>
+      <c r="B328">
+        <v>227490.9594171788</v>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="1" t="n">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="n">
-        <v>192611.7408415226</v>
+      <c r="B329">
+        <v>219472.3436286602</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="1" t="n">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="n">
-        <v>190148.3608770143</v>
+      <c r="B330">
+        <v>218082.4775429694</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="1" t="n">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="n">
-        <v>187450.1683012718</v>
+      <c r="B331">
+        <v>206340.66767323</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="1" t="n">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="n">
-        <v>195880.8332622673</v>
+      <c r="B332">
+        <v>202433.0809354215</v>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="1" t="n">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="n">
-        <v>193739.2281204577</v>
+      <c r="B333">
+        <v>200098.0943828828</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="1" t="n">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="n">
-        <v>193792.4626833273</v>
+      <c r="B334">
+        <v>199238.7209819848</v>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="1" t="n">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="n">
-        <v>202118.2667768548</v>
+      <c r="B335">
+        <v>203057.4901075531</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="1" t="n">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="n">
-        <v>211515.1662173008</v>
+      <c r="B336">
+        <v>198452.0455764605</v>
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="1" t="n">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="n">
-        <v>227943.4505937517</v>
+      <c r="B337">
+        <v>217023.6892674644</v>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="1" t="n">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="n">
-        <v>226583.5548058256</v>
+      <c r="B338">
+        <v>222584.1326281491</v>
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="1" t="n">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="n">
-        <v>227645.1513768255</v>
+      <c r="B339">
+        <v>218092.9028451433</v>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="1" t="n">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="n">
-        <v>227004.6375502755</v>
+      <c r="B340">
+        <v>228989.3531044248</v>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="1" t="n">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="n">
-        <v>221081.7077605397</v>
+      <c r="B341">
+        <v>217812.0299327254</v>
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="1" t="n">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="n">
-        <v>223229.4745454274</v>
+      <c r="B342">
+        <v>227848.611718668</v>
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="1" t="n">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="n">
-        <v>226404.1353593337</v>
+      <c r="B343">
+        <v>237247.06734994</v>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="1" t="n">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="n">
-        <v>231001.6874385039</v>
+      <c r="B344">
+        <v>238277.2931238873</v>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="1" t="n">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="n">
-        <v>233147.8075957914</v>
+      <c r="B345">
+        <v>239699.0750657646</v>
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="1" t="n">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="n">
-        <v>236490.0054292527</v>
+      <c r="B346">
+        <v>234885.3575563252</v>
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="1" t="n">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="n">
-        <v>236662.0802891313</v>
+      <c r="B347">
+        <v>237743.0590960589</v>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="1" t="n">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="n">
-        <v>230678.9595847521</v>
+      <c r="B348">
+        <v>220282.9876349051</v>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="1" t="n">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="n">
-        <v>239464.6244356648</v>
+      <c r="B349">
+        <v>223055.649814399</v>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="1" t="n">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="n">
-        <v>232947.8006638445</v>
+      <c r="B350">
+        <v>219420.7310216167</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="1" t="n">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="n">
-        <v>234414.4503548877</v>
+      <c r="B351">
+        <v>221030.007593212</v>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="1" t="n">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="n">
-        <v>227842.0107936733</v>
+      <c r="B352">
+        <v>209834.2991898211</v>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="1" t="n">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="n">
-        <v>227523.6052105871</v>
+      <c r="B353">
+        <v>212474.0546943586</v>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="1" t="n">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="n">
-        <v>230131.6000754343</v>
+      <c r="B354">
+        <v>209517.3410433994</v>
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="1" t="n">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="n">
-        <v>229652.4978417477</v>
+      <c r="B355">
+        <v>215912.4600433081</v>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="1" t="n">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="n">
-        <v>233793.3681159607</v>
+      <c r="B356">
+        <v>223599.536125482</v>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="1" t="n">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="n">
-        <v>232524.6293367973</v>
+      <c r="B357">
+        <v>217941.7629693055</v>
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="1" t="n">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="n">
-        <v>237479.0149981442</v>
+      <c r="B358">
+        <v>214233.4565390136</v>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="1" t="n">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="n">
-        <v>257080.194841421</v>
+      <c r="B359">
+        <v>222716.1658639624</v>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="1" t="n">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="n">
-        <v>282112.65956844</v>
+      <c r="B360">
+        <v>228879.6742683196</v>
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="1" t="n">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="n">
-        <v>280120.1261343105</v>
+      <c r="B361">
+        <v>221461.1361249044</v>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="1" t="n">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="n">
-        <v>274455.8351681711</v>
+      <c r="B362">
+        <v>227292.9436247751</v>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="1" t="n">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="n">
-        <v>272740.562749679</v>
+      <c r="B363">
+        <v>233806.2157606449</v>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="1" t="n">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="n">
-        <v>270182.0764681152</v>
+      <c r="B364">
+        <v>249790.9652944033</v>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="1" t="n">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="n">
-        <v>267357.163974644</v>
+      <c r="B365">
+        <v>242209.5471928552</v>
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="1" t="n">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="n">
-        <v>257089.8059578068</v>
+      <c r="B366">
+        <v>234502.8201382725</v>
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="1" t="n">
+      <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" t="n">
-        <v>244898.6945642044</v>
+      <c r="B367">
+        <v>255599.0323175034</v>
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="1" t="n">
+      <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" t="n">
-        <v>271502.0759651267</v>
+      <c r="B368">
+        <v>296744.6685531667</v>
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="1" t="n">
+      <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" t="n">
-        <v>297539.4832126125</v>
+      <c r="B369">
+        <v>288355.1816642412</v>
       </c>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="1" t="n">
+      <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" t="n">
-        <v>294955.2059936713</v>
+      <c r="B370">
+        <v>284177.1281067614</v>
       </c>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="1" t="n">
+      <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" t="n">
-        <v>291598.6629522016</v>
+      <c r="B371">
+        <v>277011.8150167864</v>
       </c>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="1" t="n">
+      <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" t="n">
-        <v>294390.1091586812</v>
+      <c r="B372">
+        <v>271298.7322054366</v>
       </c>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="1" t="n">
+      <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" t="n">
-        <v>293810.8445772829</v>
+      <c r="B373">
+        <v>279719.0468776007</v>
       </c>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="1" t="n">
+      <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374" t="n">
-        <v>272518.0785911398</v>
+      <c r="B374">
+        <v>287601.851523938</v>
       </c>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="1" t="n">
+      <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375" t="n">
-        <v>280853.2856628279</v>
+      <c r="B375">
+        <v>292509.6460449366</v>
       </c>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="1" t="n">
+      <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" t="n">
-        <v>287084.2884559183</v>
+      <c r="B376">
+        <v>293830.304703898</v>
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="1" t="n">
+      <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377" t="n">
-        <v>279005.9367740728</v>
+      <c r="B377">
+        <v>294251.1208017023</v>
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="1" t="n">
+      <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378" t="n">
-        <v>286843.1762442572</v>
+      <c r="B378">
+        <v>282960.6618439437</v>
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="1" t="n">
+      <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" t="n">
-        <v>285484.5073487625</v>
+      <c r="B379">
+        <v>287854.2832505243</v>
       </c>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="1" t="n">
+      <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" t="n">
-        <v>280366.6263055072</v>
+      <c r="B380">
+        <v>280416.6714686126</v>
       </c>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="1" t="n">
+      <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" t="n">
-        <v>280418.6160693623</v>
+      <c r="B381">
+        <v>290137.8806629573</v>
       </c>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="1" t="n">
+      <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" t="n">
-        <v>282042.3742362598</v>
+      <c r="B382">
+        <v>307133.3767173512</v>
       </c>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="1" t="n">
+      <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383" t="n">
-        <v>287953.672842291</v>
+      <c r="B383">
+        <v>300308.7071499162</v>
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="1" t="n">
+      <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384" t="n">
-        <v>290641.1999812428</v>
+      <c r="B384">
+        <v>322102.1022898815</v>
       </c>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="1" t="n">
+      <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385" t="n">
-        <v>283823.4595862258</v>
+      <c r="B385">
+        <v>349148.0855774242</v>
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="1" t="n">
+      <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386" t="n">
-        <v>278394.5537902995</v>
+      <c r="B386">
+        <v>354066.1116532261</v>
       </c>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="1" t="n">
+      <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" t="n">
-        <v>300765.6123074004</v>
+      <c r="B387">
+        <v>358654.4996291869</v>
       </c>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="1" t="n">
+      <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" t="n">
-        <v>328161.6100857047</v>
+      <c r="B388">
+        <v>371762.8792688174</v>
       </c>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="1" t="n">
+      <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389" t="n">
-        <v>330569.8618873993</v>
+      <c r="B389">
+        <v>378568.9773796508</v>
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="1" t="n">
+      <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" t="n">
-        <v>341241.623550482</v>
+      <c r="B390">
+        <v>372323.8188820226</v>
       </c>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="1" t="n">
+      <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" t="n">
-        <v>350313.5016737126</v>
+      <c r="B391">
+        <v>379509.8123441085</v>
       </c>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="1" t="n">
+      <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" t="n">
-        <v>357261.9379267233</v>
+      <c r="B392">
+        <v>374826.9651630792</v>
       </c>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="1" t="n">
+      <c r="A393" s="1">
         <v>391</v>
       </c>
-      <c r="B393" t="n">
-        <v>383421.2101723377</v>
+      <c r="B393">
+        <v>364583.861883628</v>
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="1" t="n">
+      <c r="A394" s="1">
         <v>392</v>
       </c>
-      <c r="B394" t="n">
-        <v>389415.0427455587</v>
+      <c r="B394">
+        <v>349509.4048937698</v>
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="1" t="n">
+      <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B395" t="n">
-        <v>416315.5796237633</v>
+      <c r="B395">
+        <v>346908.3576975268</v>
       </c>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="1" t="n">
+      <c r="A396" s="1">
         <v>394</v>
       </c>
-      <c r="B396" t="n">
-        <v>436638.5130571101</v>
+      <c r="B396">
+        <v>352931.2276293788</v>
       </c>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="1" t="n">
+      <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B397" t="n">
-        <v>431568.2497382183</v>
+      <c r="B397">
+        <v>352890.9666778427</v>
       </c>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="1" t="n">
+      <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398" t="n">
-        <v>449307.7893863994</v>
+      <c r="B398">
+        <v>348537.6271509988</v>
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="1" t="n">
+      <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399" t="n">
-        <v>406034.534819488</v>
+      <c r="B399">
+        <v>341766.7951856945</v>
       </c>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="1" t="n">
+      <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B400" t="n">
-        <v>389714.1480396809</v>
+      <c r="B400">
+        <v>367330.6944321299</v>
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="1" t="n">
+      <c r="A401" s="1">
         <v>399</v>
       </c>
-      <c r="B401" t="n">
-        <v>388879.0820855576</v>
+      <c r="B401">
+        <v>364792.9991071874</v>
       </c>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="1" t="n">
+      <c r="A402" s="1">
         <v>400</v>
       </c>
-      <c r="B402" t="n">
-        <v>381872.5459195341</v>
+      <c r="B402">
+        <v>382952.5208201051</v>
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="1" t="n">
+      <c r="A403" s="1">
         <v>401</v>
       </c>
-      <c r="B403" t="n">
-        <v>373247.6375926351</v>
+      <c r="B403">
+        <v>370972.6646519285</v>
       </c>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="1" t="n">
+      <c r="A404" s="1">
         <v>402</v>
       </c>
-      <c r="B404" t="n">
-        <v>374057.9747644235</v>
+      <c r="B404">
+        <v>360252.727067992</v>
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="1" t="n">
+      <c r="A405" s="1">
         <v>403</v>
       </c>
-      <c r="B405" t="n">
-        <v>358725.3827802262</v>
+      <c r="B405">
+        <v>353383.7330182957</v>
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="1" t="n">
+      <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B406" t="n">
-        <v>351965.882483109</v>
+      <c r="B406">
+        <v>340036.2724473106</v>
       </c>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="1" t="n">
+      <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B407" t="n">
-        <v>354479.8805454054</v>
+      <c r="B407">
+        <v>337973.8528250392</v>
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="1" t="n">
+      <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B408" t="n">
-        <v>362840.0058425369</v>
+      <c r="B408">
+        <v>343663.9947512841</v>
       </c>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="1" t="n">
+      <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B409" t="n">
-        <v>362443.0375131295</v>
+      <c r="B409">
+        <v>341597.2665653636</v>
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="1" t="n">
+      <c r="A410" s="1">
         <v>408</v>
       </c>
-      <c r="B410" t="n">
-        <v>360529.6499168593</v>
+      <c r="B410">
+        <v>337024.504696819</v>
       </c>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="1" t="n">
+      <c r="A411" s="1">
         <v>409</v>
       </c>
-      <c r="B411" t="n">
-        <v>353112.4510952132</v>
+      <c r="B411">
+        <v>322323.2534883423</v>
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="1" t="n">
+      <c r="A412" s="1">
         <v>410</v>
       </c>
-      <c r="B412" t="n">
-        <v>358841.9875334513</v>
+      <c r="B412">
+        <v>321485.1478284613</v>
       </c>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="1" t="n">
+      <c r="A413" s="1">
         <v>411</v>
       </c>
-      <c r="B413" t="n">
-        <v>360643.8421978015</v>
+      <c r="B413">
+        <v>317448.2537513172</v>
       </c>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="1" t="n">
+      <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B414" t="n">
-        <v>370303.4408175641</v>
+      <c r="B414">
+        <v>310606.7830779997</v>
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="1" t="n">
+      <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415" t="n">
-        <v>392960.4450523583</v>
+      <c r="B415">
+        <v>316666.1297561321</v>
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="1" t="n">
+      <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416" t="n">
-        <v>397854.858084742</v>
+      <c r="B416">
+        <v>370853.6530514213</v>
       </c>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="1" t="n">
+      <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417" t="n">
-        <v>412750.677245144</v>
+      <c r="B417">
+        <v>415778.3105931819</v>
       </c>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="1" t="n">
+      <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B418" t="n">
-        <v>428784.3544088656</v>
+      <c r="B418">
+        <v>447777.6752190727</v>
       </c>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="1" t="n">
+      <c r="A419" s="1">
         <v>417</v>
       </c>
-      <c r="B419" t="n">
-        <v>432473.8661933428</v>
+      <c r="B419">
+        <v>487549.5737352609</v>
       </c>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="1" t="n">
+      <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420" t="n">
-        <v>432562.0153817051</v>
+      <c r="B420">
+        <v>491798.2156398548</v>
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="1" t="n">
+      <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421" t="n">
-        <v>431218.241114182</v>
+      <c r="B421">
+        <v>486981.3444513828</v>
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="1" t="n">
+      <c r="A422" s="1">
         <v>420</v>
       </c>
-      <c r="B422" t="n">
-        <v>434600.6537238836</v>
+      <c r="B422">
+        <v>495119.3808443624</v>
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="1" t="n">
+      <c r="A423" s="1">
         <v>421</v>
       </c>
-      <c r="B423" t="n">
-        <v>419409.4539473905</v>
+      <c r="B423">
+        <v>480019.6995890986</v>
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="1" t="n">
+      <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B424" t="n">
-        <v>409378.7227516676</v>
+      <c r="B424">
+        <v>470742.4294083244</v>
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="1" t="n">
+      <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425" t="n">
-        <v>398226.1875662662</v>
+      <c r="B425">
+        <v>430249.0899645021</v>
       </c>
     </row>
     <row r="426" spans="1:2">
-      <c r="A426" s="1" t="n">
+      <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B426" t="n">
-        <v>434417.3554036377</v>
+      <c r="B426">
+        <v>433630.4013263025</v>
       </c>
     </row>
     <row r="427" spans="1:2">
-      <c r="A427" s="1" t="n">
+      <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427" t="n">
-        <v>370300.8681564133</v>
+      <c r="B427">
+        <v>372244.7959890516</v>
       </c>
     </row>
     <row r="428" spans="1:2">
-      <c r="A428" s="1" t="n">
+      <c r="A428" s="1">
         <v>426</v>
       </c>
-      <c r="B428" t="n">
-        <v>371325.6748972255</v>
+      <c r="B428">
+        <v>370906.9017697338</v>
       </c>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" s="1" t="n">
+      <c r="A429" s="1">
         <v>427</v>
       </c>
-      <c r="B429" t="n">
-        <v>379175.1057052224</v>
+      <c r="B429">
+        <v>370844.4034821794</v>
       </c>
     </row>
     <row r="430" spans="1:2">
-      <c r="A430" s="1" t="n">
+      <c r="A430" s="1">
         <v>428</v>
       </c>
-      <c r="B430" t="n">
-        <v>386295.5210803637</v>
+      <c r="B430">
+        <v>373323.9275479093</v>
       </c>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="1" t="n">
+      <c r="A431" s="1">
         <v>429</v>
       </c>
-      <c r="B431" t="n">
-        <v>386870.6076614973</v>
+      <c r="B431">
+        <v>388554.8277912315</v>
       </c>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="1" t="n">
+      <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B432" t="n">
-        <v>385438.1650759676</v>
+      <c r="B432">
+        <v>400737.4699685182</v>
       </c>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="1" t="n">
+      <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433" t="n">
-        <v>380516.4695216223</v>
+      <c r="B433">
+        <v>397179.5054790506</v>
       </c>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="1" t="n">
+      <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434" t="n">
-        <v>376127.8497103105</v>
+      <c r="B434">
+        <v>398666.2948256651</v>
       </c>
     </row>
     <row r="435" spans="1:2">
-      <c r="A435" s="1" t="n">
+      <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" t="n">
-        <v>385051.9419877316</v>
+      <c r="B435">
+        <v>380508.1414738658</v>
       </c>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="1" t="n">
+      <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B436" t="n">
-        <v>384303.7786037421</v>
+      <c r="B436">
+        <v>368054.4086703585</v>
       </c>
     </row>
     <row r="437" spans="1:2">
-      <c r="A437" s="1" t="n">
+      <c r="A437" s="1">
         <v>435</v>
       </c>
-      <c r="B437" t="n">
-        <v>367752.2122250031</v>
+      <c r="B437">
+        <v>352398.4273155782</v>
       </c>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="1" t="n">
+      <c r="A438" s="1">
         <v>436</v>
       </c>
-      <c r="B438" t="n">
-        <v>412984.4373965827</v>
+      <c r="B438">
+        <v>341657.1524052644</v>
       </c>
     </row>
     <row r="439" spans="1:2">
-      <c r="A439" s="1" t="n">
+      <c r="A439" s="1">
         <v>437</v>
       </c>
-      <c r="B439" t="n">
-        <v>432928.6015217258</v>
+      <c r="B439">
+        <v>351316.5193812695</v>
       </c>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="1" t="n">
+      <c r="A440" s="1">
         <v>438</v>
       </c>
-      <c r="B440" t="n">
-        <v>447610.1686099319</v>
+      <c r="B440">
+        <v>348224.4955603498</v>
       </c>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="1" t="n">
+      <c r="A441" s="1">
         <v>439</v>
       </c>
-      <c r="B441" t="n">
-        <v>461999.3730341382</v>
+      <c r="B441">
+        <v>354286.2016561089</v>
       </c>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="1" t="n">
+      <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B442" t="n">
-        <v>472664.6009735708</v>
+      <c r="B442">
+        <v>357959.9190918025</v>
       </c>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="1" t="n">
+      <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B443" t="n">
-        <v>490200.2462590932</v>
+      <c r="B443">
+        <v>349367.4151012219</v>
       </c>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="1" t="n">
+      <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B444" t="n">
-        <v>493908.595688818</v>
+      <c r="B444">
+        <v>340749.5785182533</v>
       </c>
     </row>
     <row r="445" spans="1:2">
-      <c r="A445" s="1" t="n">
+      <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B445" t="n">
-        <v>483010.605943947</v>
+      <c r="B445">
+        <v>331501.8073363797</v>
       </c>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="1" t="n">
+      <c r="A446" s="1">
         <v>444</v>
       </c>
-      <c r="B446" t="n">
-        <v>472626.5902538213</v>
+      <c r="B446">
+        <v>328992.8573276624</v>
       </c>
     </row>
     <row r="447" spans="1:2">
-      <c r="A447" s="1" t="n">
+      <c r="A447" s="1">
         <v>445</v>
       </c>
-      <c r="B447" t="n">
-        <v>467315.2000591043</v>
+      <c r="B447">
+        <v>323101.2949158062</v>
       </c>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="1" t="n">
+      <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B448" t="n">
-        <v>462928.5621627093</v>
+      <c r="B448">
+        <v>340701.724405842</v>
       </c>
     </row>
     <row r="449" spans="1:2">
-      <c r="A449" s="1" t="n">
+      <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B449" t="n">
-        <v>446284.4050391701</v>
+      <c r="B449">
+        <v>389456.8522140136</v>
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="1" t="n">
+      <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B450" t="n">
-        <v>403594.7366641785</v>
+      <c r="B450">
+        <v>336182.879130553</v>
       </c>
     </row>
     <row r="451" spans="1:2">
-      <c r="A451" s="1" t="n">
+      <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451" t="n">
-        <v>423584.7510693086</v>
+      <c r="B451">
+        <v>361791.5738432339</v>
       </c>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="1" t="n">
+      <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452" t="n">
-        <v>399092.7599957801</v>
+      <c r="B452">
+        <v>362435.2213210692</v>
       </c>
     </row>
     <row r="453" spans="1:2">
-      <c r="A453" s="1" t="n">
+      <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453" t="n">
-        <v>425594.4637006753</v>
+      <c r="B453">
+        <v>367272.7964180116</v>
       </c>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="1" t="n">
+      <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454" t="n">
-        <v>398011.1137366422</v>
+      <c r="B454">
+        <v>371763.4268951338</v>
       </c>
     </row>
     <row r="455" spans="1:2">
-      <c r="A455" s="1" t="n">
+      <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B455" t="n">
-        <v>409726.9048570007</v>
+      <c r="B455">
+        <v>375885.2005010159</v>
       </c>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="1" t="n">
+      <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B456" t="n">
-        <v>404536.4606928714</v>
+      <c r="B456">
+        <v>377791.426653326</v>
       </c>
     </row>
     <row r="457" spans="1:2">
-      <c r="A457" s="1" t="n">
+      <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457" t="n">
-        <v>388282.8103279739</v>
+      <c r="B457">
+        <v>362643.1584973928</v>
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="1" t="n">
+      <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B458" t="n">
-        <v>363061.1428401519</v>
+      <c r="B458">
+        <v>320731.1490754659</v>
       </c>
     </row>
     <row r="459" spans="1:2">
-      <c r="A459" s="1" t="n">
+      <c r="A459" s="1">
         <v>457</v>
       </c>
-      <c r="B459" t="n">
-        <v>384160.7745314259</v>
+      <c r="B459">
+        <v>308198.2195364988</v>
       </c>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="1" t="n">
+      <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B460" t="n">
-        <v>429841.4638351486</v>
+      <c r="B460">
+        <v>321820.6285839693</v>
       </c>
     </row>
     <row r="461" spans="1:2">
-      <c r="A461" s="1" t="n">
+      <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B461" t="n">
-        <v>462555.1989286033</v>
+      <c r="B461">
+        <v>303476.966372418</v>
       </c>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="1" t="n">
+      <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B462" t="n">
-        <v>455447.2305568988</v>
+      <c r="B462">
+        <v>320358.3886454212</v>
       </c>
     </row>
     <row r="463" spans="1:2">
-      <c r="A463" s="1" t="n">
+      <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B463" t="n">
-        <v>436718.0596373374</v>
+      <c r="B463">
+        <v>307458.0376548522</v>
       </c>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="1" t="n">
+      <c r="A464" s="1">
         <v>462</v>
       </c>
-      <c r="B464" t="n">
-        <v>413541.2385946785</v>
+      <c r="B464">
+        <v>296875.9463208443</v>
       </c>
     </row>
     <row r="465" spans="1:2">
-      <c r="A465" s="1" t="n">
+      <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B465" t="n">
-        <v>395131.6504348576</v>
+      <c r="B465">
+        <v>283804.4576143681</v>
       </c>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="1" t="n">
+      <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B466" t="n">
-        <v>410559.1737811108</v>
+      <c r="B466">
+        <v>282179.3575117123</v>
       </c>
     </row>
     <row r="467" spans="1:2">
-      <c r="A467" s="1" t="n">
+      <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B467" t="n">
-        <v>415241.715848555</v>
+      <c r="B467">
+        <v>295915.1667200202</v>
       </c>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="1" t="n">
+      <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B468" t="n">
-        <v>417141.2203241555</v>
+      <c r="B468">
+        <v>290392.9596612432</v>
       </c>
     </row>
     <row r="469" spans="1:2">
-      <c r="A469" s="1" t="n">
+      <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469" t="n">
-        <v>400587.270198001</v>
+      <c r="B469">
+        <v>296636.4883375002</v>
       </c>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="1" t="n">
+      <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470" t="n">
-        <v>413841.2351592451</v>
+      <c r="B470">
+        <v>304851.9000712511</v>
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="1" t="n">
+      <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471" t="n">
-        <v>411423.7434867601</v>
+      <c r="B471">
+        <v>287503.1402694474</v>
       </c>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="1" t="n">
+      <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472" t="n">
-        <v>397458.339711969</v>
+      <c r="B472">
+        <v>277005.1599776533</v>
       </c>
     </row>
     <row r="473" spans="1:2">
-      <c r="A473" s="1" t="n">
+      <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B473" t="n">
-        <v>474022.7606155341</v>
+      <c r="B473">
+        <v>275244.0066117158</v>
       </c>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="1" t="n">
+      <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B474" t="n">
-        <v>513419.9371243141</v>
+      <c r="B474">
+        <v>267324.3265777849</v>
       </c>
     </row>
     <row r="475" spans="1:2">
-      <c r="A475" s="1" t="n">
+      <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B475" t="n">
-        <v>503015.6077825172</v>
+      <c r="B475">
+        <v>265198.5392188401</v>
       </c>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="1" t="n">
+      <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B476" t="n">
-        <v>506980.6461326822</v>
+      <c r="B476">
+        <v>261901.1396857057</v>
       </c>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="1" t="n">
+      <c r="A477" s="1">
         <v>475</v>
       </c>
-      <c r="B477" t="n">
-        <v>491184.2909316042</v>
+      <c r="B477">
+        <v>248352.2957545502</v>
       </c>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="1" t="n">
+      <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478" t="n">
-        <v>515909.286508133</v>
+      <c r="B478">
+        <v>243947.0215534564</v>
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="1" t="n">
+      <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479" t="n">
-        <v>499348.0772811102</v>
+      <c r="B479">
+        <v>256018.3856577761</v>
       </c>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="1" t="n">
+      <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B480" t="n">
-        <v>523555.49143186</v>
+      <c r="B480">
+        <v>247264.1226832965</v>
       </c>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="1" t="n">
+      <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B481" t="n">
-        <v>481637.6177079437</v>
+      <c r="B481">
+        <v>250206.4512788314</v>
       </c>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="1" t="n">
+      <c r="A482" s="1">
         <v>480</v>
       </c>
-      <c r="B482" t="n">
-        <v>501861.0135006643</v>
+      <c r="B482">
+        <v>246380.8308421128</v>
       </c>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="1" t="n">
+      <c r="A483" s="1">
         <v>481</v>
       </c>
-      <c r="B483" t="n">
-        <v>474145.1397710999</v>
+      <c r="B483">
+        <v>239132.1975948233</v>
       </c>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="1" t="n">
+      <c r="A484" s="1">
         <v>482</v>
       </c>
-      <c r="B484" t="n">
-        <v>518422.3628219563</v>
+      <c r="B484">
+        <v>245829.7776898135</v>
       </c>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="1" t="n">
+      <c r="A485" s="1">
         <v>483</v>
       </c>
-      <c r="B485" t="n">
-        <v>518615.390266507</v>
+      <c r="B485">
+        <v>255642.8775207521</v>
       </c>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="1" t="n">
+      <c r="A486" s="1">
         <v>484</v>
       </c>
-      <c r="B486" t="n">
-        <v>540973.3305975778</v>
+      <c r="B486">
+        <v>284873.3934832665</v>
       </c>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="1" t="n">
+      <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B487" t="n">
-        <v>506796.927956427</v>
+      <c r="B487">
+        <v>187927.5078455263</v>
       </c>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="1" t="n">
+      <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488" t="n">
-        <v>517304.4347241245</v>
+      <c r="B488">
+        <v>213805.6692527145</v>
       </c>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="1" t="n">
+      <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489" t="n">
-        <v>510267.3895530503</v>
+      <c r="B489">
+        <v>228152.4373899777</v>
       </c>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="1" t="n">
+      <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490" t="n">
-        <v>469953.5698752467</v>
+      <c r="B490">
+        <v>234288.7198651015</v>
       </c>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="1" t="n">
+      <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B491" t="n">
-        <v>438670.083850167</v>
+      <c r="B491">
+        <v>246644.9083944802</v>
       </c>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="1" t="n">
+      <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B492" t="n">
-        <v>488738.916015138</v>
+      <c r="B492">
+        <v>248938.4757734616</v>
       </c>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="1" t="n">
+      <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B493" t="n">
-        <v>505778.8602525982</v>
+      <c r="B493">
+        <v>239317.2771986663</v>
       </c>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="1" t="n">
+      <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B494" t="n">
-        <v>529074.1397533234</v>
+      <c r="B494">
+        <v>230089.8795776555</v>
       </c>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="1" t="n">
+      <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B495" t="n">
-        <v>528823.048580286</v>
+      <c r="B495">
+        <v>228009.4234696843</v>
       </c>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="1" t="n">
+      <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496" t="n">
-        <v>529257.3010537217</v>
+      <c r="B496">
+        <v>229670.9693797204</v>
       </c>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="1" t="n">
+      <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497" t="n">
-        <v>517532.1735992865</v>
+      <c r="B497">
+        <v>250541.6821314207</v>
       </c>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="1" t="n">
+      <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498" t="n">
-        <v>495193.0975460797</v>
+      <c r="B498">
+        <v>270139.3262731293</v>
       </c>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="1" t="n">
+      <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499" t="n">
-        <v>453883.4222243876</v>
+      <c r="B499">
+        <v>287860.7185725202</v>
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="1" t="n">
+      <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B500" t="n">
-        <v>398481.3703055747</v>
+      <c r="B500">
+        <v>297901.464835415</v>
       </c>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="1" t="n">
+      <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B501" t="n">
-        <v>364468.2797924643</v>
+      <c r="B501">
+        <v>330760.8449621305</v>
       </c>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="1" t="n">
+      <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B502" t="n">
-        <v>369254.7331236672</v>
+      <c r="B502">
+        <v>274876.4716928029</v>
       </c>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="1" t="n">
+      <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B503" t="n">
-        <v>344022.8483026014</v>
+      <c r="B503">
+        <v>288181.3725237098</v>
       </c>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="1" t="n">
+      <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B504" t="n">
-        <v>320246.7294442714</v>
+      <c r="B504">
+        <v>320055.5340638223</v>
       </c>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="1" t="n">
+      <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505" t="n">
-        <v>331691.1716608627</v>
+      <c r="B505">
+        <v>430473.2124540037</v>
       </c>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="1" t="n">
+      <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506" t="n">
-        <v>486412.3117873278</v>
+      <c r="B506">
+        <v>464133.7518857539</v>
       </c>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="1" t="n">
+      <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507" t="n">
-        <v>524555.6708516246</v>
+      <c r="B507">
+        <v>491054.2806382064</v>
       </c>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="1" t="n">
+      <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508" t="n">
-        <v>524367.4538394794</v>
+      <c r="B508">
+        <v>498689.5823994403</v>
       </c>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="1" t="n">
+      <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B509" t="n">
-        <v>512256.9813453415</v>
+      <c r="B509">
+        <v>520516.1400907665</v>
       </c>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="1" t="n">
+      <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B510" t="n">
-        <v>505508.0564569065</v>
+      <c r="B510">
+        <v>496528.3745161495</v>
       </c>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="1" t="n">
+      <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B511" t="n">
-        <v>491521.7180832624</v>
+      <c r="B511">
+        <v>514260.9925039525</v>
       </c>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="1" t="n">
+      <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B512" t="n">
-        <v>520232.8294901223</v>
+      <c r="B512">
+        <v>469551.5932099699</v>
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="1" t="n">
+      <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B513" t="n">
-        <v>530089.2259390788</v>
+      <c r="B513">
+        <v>521236.5115240647</v>
       </c>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="1" t="n">
+      <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514" t="n">
-        <v>535486.4506130419</v>
+      <c r="B514">
+        <v>470424.1260808316</v>
       </c>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="1" t="n">
+      <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515" t="n">
-        <v>517197.6365035222</v>
+      <c r="B515">
+        <v>514769.1524222827</v>
       </c>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="1" t="n">
+      <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516" t="n">
-        <v>525618.7991459612</v>
+      <c r="B516">
+        <v>475286.0406561476</v>
       </c>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="1" t="n">
+      <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517" t="n">
-        <v>511312.0806896338</v>
+      <c r="B517">
+        <v>518552.0785382052</v>
       </c>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="1" t="n">
+      <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B518" t="n">
-        <v>515395.8443078665</v>
+      <c r="B518">
+        <v>490218.8839330646</v>
       </c>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="1" t="n">
+      <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B519" t="n">
-        <v>483668.4514414212</v>
+      <c r="B519">
+        <v>536751.6296527854</v>
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="1" t="n">
+      <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B520" t="n">
-        <v>509296.680438755</v>
+      <c r="B520">
+        <v>543398.0270636564</v>
       </c>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="1" t="n">
+      <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B521" t="n">
-        <v>475482.0935136754</v>
+      <c r="B521">
+        <v>557886.5003123898</v>
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="1" t="n">
+      <c r="A522" s="1">
         <v>520</v>
       </c>
-      <c r="B522" t="n">
-        <v>455775.294389448</v>
+      <c r="B522">
+        <v>555804.7802254159</v>
       </c>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="1" t="n">
+      <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B523" t="n">
-        <v>448740.9516804701</v>
+      <c r="B523">
+        <v>548424.7049076912</v>
       </c>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="1" t="n">
+      <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B524" t="n">
-        <v>408700.636945054</v>
+      <c r="B524">
+        <v>530427.413435018</v>
       </c>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="1" t="n">
+      <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B525" t="n">
-        <v>428441.4386840086</v>
+      <c r="B525">
+        <v>553162.6917161116</v>
       </c>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="1" t="n">
+      <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B526" t="n">
-        <v>400471.9200863757</v>
+      <c r="B526">
+        <v>530562.2087734189</v>
       </c>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="1" t="n">
+      <c r="A527" s="1">
         <v>525</v>
       </c>
-      <c r="B527" t="n">
-        <v>404674.1067827797</v>
+      <c r="B527">
+        <v>549930.7019149326</v>
       </c>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="1" t="n">
+      <c r="A528" s="1">
         <v>526</v>
       </c>
-      <c r="B528" t="n">
-        <v>389768.9524101436</v>
+      <c r="B528">
+        <v>519785.3995099306</v>
       </c>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="1" t="n">
+      <c r="A529" s="1">
         <v>527</v>
       </c>
-      <c r="B529" t="n">
-        <v>386953.4708080381</v>
+      <c r="B529">
+        <v>546114.5686027054</v>
       </c>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="1" t="n">
+      <c r="A530" s="1">
         <v>528</v>
       </c>
-      <c r="B530" t="n">
-        <v>420373.6080929266</v>
+      <c r="B530">
+        <v>522827.4750390422</v>
       </c>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="1" t="n">
+      <c r="A531" s="1">
         <v>529</v>
       </c>
-      <c r="B531" t="n">
-        <v>478257.9236028204</v>
+      <c r="B531">
+        <v>540989.4752158002</v>
       </c>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="1" t="n">
+      <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B532" t="n">
-        <v>447143.7915503149</v>
+      <c r="B532">
+        <v>486367.1526906759</v>
       </c>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="1" t="n">
+      <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B533" t="n">
-        <v>418940.3804420727</v>
+      <c r="B533">
+        <v>521702.680010644</v>
       </c>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="1" t="n">
+      <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B534" t="n">
-        <v>417086.3343700418</v>
+      <c r="B534">
+        <v>457768.3864720478</v>
       </c>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="1" t="n">
+      <c r="A535" s="1">
         <v>533</v>
       </c>
-      <c r="B535" t="n">
-        <v>422705.8141906623</v>
+      <c r="B535">
+        <v>515407.2672496906</v>
       </c>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="1" t="n">
+      <c r="A536" s="1">
         <v>534</v>
       </c>
-      <c r="B536" t="n">
-        <v>376429.1734480857</v>
+      <c r="B536">
+        <v>463765.4251105828</v>
       </c>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="1" t="n">
+      <c r="A537" s="1">
         <v>535</v>
       </c>
-      <c r="B537" t="n">
-        <v>384198.620557132</v>
+      <c r="B537">
+        <v>519427.4573715299</v>
       </c>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="1" t="n">
+      <c r="A538" s="1">
         <v>536</v>
       </c>
-      <c r="B538" t="n">
-        <v>367949.5591742694</v>
+      <c r="B538">
+        <v>483914.8538791811</v>
       </c>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="1" t="n">
+      <c r="A539" s="1">
         <v>537</v>
       </c>
-      <c r="B539" t="n">
-        <v>350481.0201735161</v>
+      <c r="B539">
+        <v>500774.2938054989</v>
       </c>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="1" t="n">
+      <c r="A540" s="1">
         <v>538</v>
       </c>
-      <c r="B540" t="n">
-        <v>343371.9591006264</v>
+      <c r="B540">
+        <v>472102.1091181925</v>
       </c>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="1" t="n">
+      <c r="A541" s="1">
         <v>539</v>
       </c>
-      <c r="B541" t="n">
-        <v>326960.3455822108</v>
+      <c r="B541">
+        <v>522687.8631719901</v>
       </c>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="1" t="n">
+      <c r="A542" s="1">
         <v>540</v>
       </c>
-      <c r="B542" t="n">
-        <v>351610.6451727396</v>
+      <c r="B542">
+        <v>508823.0529601206</v>
       </c>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="1" t="n">
+      <c r="A543" s="1">
         <v>541</v>
       </c>
-      <c r="B543" t="n">
-        <v>366762.8317790432</v>
+      <c r="B543">
+        <v>504194.6425461835</v>
       </c>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="1" t="n">
+      <c r="A544" s="1">
         <v>542</v>
       </c>
-      <c r="B544" t="n">
-        <v>340998.8936485717</v>
+      <c r="B544">
+        <v>505673.3476532298</v>
       </c>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="1" t="n">
+      <c r="A545" s="1">
         <v>543</v>
       </c>
-      <c r="B545" t="n">
-        <v>333277.4522285002</v>
+      <c r="B545">
+        <v>494749.8105397534</v>
       </c>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="1" t="n">
+      <c r="A546" s="1">
         <v>544</v>
       </c>
-      <c r="B546" t="n">
-        <v>328932.5907703888</v>
+      <c r="B546">
+        <v>454939.8443606587</v>
       </c>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="1" t="n">
+      <c r="A547" s="1">
         <v>545</v>
       </c>
-      <c r="B547" t="n">
-        <v>350882.5270105127</v>
+      <c r="B547">
+        <v>420748.1060305863</v>
       </c>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="1" t="n">
+      <c r="A548" s="1">
         <v>546</v>
       </c>
-      <c r="B548" t="n">
-        <v>367501.764710294</v>
+      <c r="B548">
+        <v>417900.2452383456</v>
       </c>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="1" t="n">
+      <c r="A549" s="1">
         <v>547</v>
       </c>
-      <c r="B549" t="n">
-        <v>427261.0362032788</v>
+      <c r="B549">
+        <v>442242.7313169421</v>
       </c>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="1" t="n">
+      <c r="A550" s="1">
         <v>548</v>
       </c>
-      <c r="B550" t="n">
-        <v>378443.080248339</v>
+      <c r="B550">
+        <v>390966.1291695798</v>
       </c>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="1" t="n">
+      <c r="A551" s="1">
         <v>549</v>
       </c>
-      <c r="B551" t="n">
-        <v>366864.318527781</v>
+      <c r="B551">
+        <v>392323.6302719478</v>
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="1" t="n">
+      <c r="A552" s="1">
         <v>550</v>
       </c>
-      <c r="B552" t="n">
-        <v>334744.120171929</v>
+      <c r="B552">
+        <v>387173.5144162895</v>
       </c>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="1" t="n">
+      <c r="A553" s="1">
         <v>551</v>
       </c>
-      <c r="B553" t="n">
-        <v>362284.7470010479</v>
+      <c r="B553">
+        <v>393127.7942988602</v>
       </c>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="1" t="n">
+      <c r="A554" s="1">
         <v>552</v>
       </c>
-      <c r="B554" t="n">
-        <v>357612.3450738344</v>
+      <c r="B554">
+        <v>391887.3457658048</v>
       </c>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="1" t="n">
+      <c r="A555" s="1">
         <v>553</v>
       </c>
-      <c r="B555" t="n">
-        <v>365651.4512398341</v>
+      <c r="B555">
+        <v>381274.2231158348</v>
       </c>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="1" t="n">
+      <c r="A556" s="1">
         <v>554</v>
       </c>
-      <c r="B556" t="n">
-        <v>336166.3435035627</v>
+      <c r="B556">
+        <v>371255.1657809175</v>
       </c>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="1" t="n">
+      <c r="A557" s="1">
         <v>555</v>
       </c>
-      <c r="B557" t="n">
-        <v>334521.9736532909</v>
+      <c r="B557">
+        <v>355886.2281527594</v>
       </c>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="1" t="n">
+      <c r="A558" s="1">
         <v>556</v>
       </c>
-      <c r="B558" t="n">
-        <v>320058.6314628687</v>
+      <c r="B558">
+        <v>356147.4175998389</v>
       </c>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="1" t="n">
+      <c r="A559" s="1">
         <v>557</v>
       </c>
-      <c r="B559" t="n">
-        <v>320834.5386952168</v>
+      <c r="B559">
+        <v>336619.765594889</v>
       </c>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="1" t="n">
+      <c r="A560" s="1">
         <v>558</v>
       </c>
-      <c r="B560" t="n">
-        <v>310024.6819561464</v>
+      <c r="B560">
+        <v>327532.6925921326</v>
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="1" t="n">
+      <c r="A561" s="1">
         <v>559</v>
       </c>
-      <c r="B561" t="n">
-        <v>305916.6227342325</v>
+      <c r="B561">
+        <v>323105.6275515768</v>
       </c>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="1" t="n">
+      <c r="A562" s="1">
         <v>560</v>
       </c>
-      <c r="B562" t="n">
-        <v>286019.3757858976</v>
+      <c r="B562">
+        <v>302902.6399739924</v>
       </c>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="1" t="n">
+      <c r="A563" s="1">
         <v>561</v>
       </c>
-      <c r="B563" t="n">
-        <v>287428.7021892487</v>
+      <c r="B563">
+        <v>305072.9683835098</v>
       </c>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="1" t="n">
+      <c r="A564" s="1">
         <v>562</v>
       </c>
-      <c r="B564" t="n">
-        <v>254845.5700434634</v>
+      <c r="B564">
+        <v>317157.8383578254</v>
       </c>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="1" t="n">
+      <c r="A565" s="1">
         <v>563</v>
       </c>
-      <c r="B565" t="n">
-        <v>272926.0762455332</v>
+      <c r="B565">
+        <v>295316.7745226742</v>
       </c>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="1" t="n">
+      <c r="A566" s="1">
         <v>564</v>
       </c>
-      <c r="B566" t="n">
-        <v>261259.1624817037</v>
+      <c r="B566">
+        <v>264230.2565466419</v>
       </c>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="1" t="n">
+      <c r="A567" s="1">
         <v>565</v>
       </c>
-      <c r="B567" t="n">
-        <v>294372.2499286705</v>
+      <c r="B567">
+        <v>289459.7501420639</v>
       </c>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="1" t="n">
+      <c r="A568" s="1">
         <v>566</v>
       </c>
-      <c r="B568" t="n">
-        <v>279495.3499750732</v>
+      <c r="B568">
+        <v>301994.5502957655</v>
       </c>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="1" t="n">
+      <c r="A569" s="1">
         <v>567</v>
       </c>
-      <c r="B569" t="n">
-        <v>262845.0567570864</v>
+      <c r="B569">
+        <v>303387.1302329217</v>
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="1" t="n">
+      <c r="A570" s="1">
         <v>568</v>
       </c>
-      <c r="B570" t="n">
-        <v>294032.4762681737</v>
+      <c r="B570">
+        <v>282392.060856113</v>
       </c>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="1" t="n">
+      <c r="A571" s="1">
         <v>569</v>
       </c>
-      <c r="B571" t="n">
-        <v>302809.8081807028</v>
+      <c r="B571">
+        <v>265547.2663460663</v>
       </c>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="1" t="n">
+      <c r="A572" s="1">
         <v>570</v>
       </c>
-      <c r="B572" t="n">
-        <v>326755.2431471581</v>
+      <c r="B572">
+        <v>282845.7578567243</v>
       </c>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="1" t="n">
+      <c r="A573" s="1">
         <v>571</v>
       </c>
-      <c r="B573" t="n">
-        <v>277232.7958036461</v>
+      <c r="B573">
+        <v>278184.3716726924</v>
       </c>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="1" t="n">
+      <c r="A574" s="1">
         <v>572</v>
       </c>
-      <c r="B574" t="n">
-        <v>273021.7381729689</v>
+      <c r="B574">
+        <v>271367.9282781875</v>
       </c>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="1" t="n">
+      <c r="A575" s="1">
         <v>573</v>
       </c>
-      <c r="B575" t="n">
-        <v>273604.0159869206</v>
+      <c r="B575">
+        <v>268639.1058497405</v>
       </c>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="1" t="n">
+      <c r="A576" s="1">
         <v>574</v>
       </c>
-      <c r="B576" t="n">
-        <v>255057.8295867686</v>
+      <c r="B576">
+        <v>283953.8216611501</v>
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="1" t="n">
+      <c r="A577" s="1">
         <v>575</v>
       </c>
-      <c r="B577" t="n">
-        <v>315140.9553489093</v>
+      <c r="B577">
+        <v>292306.7527066902</v>
       </c>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="1" t="n">
+      <c r="A578" s="1">
         <v>576</v>
       </c>
-      <c r="B578" t="n">
-        <v>294208.7720152478</v>
+      <c r="B578">
+        <v>275163.0059473044</v>
       </c>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="1" t="n">
+      <c r="A579" s="1">
         <v>577</v>
       </c>
-      <c r="B579" t="n">
-        <v>287751.1127225886</v>
+      <c r="B579">
+        <v>261399.4514791212</v>
       </c>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="1" t="n">
+      <c r="A580" s="1">
         <v>578</v>
       </c>
-      <c r="B580" t="n">
-        <v>270036.8138891734</v>
+      <c r="B580">
+        <v>220070.6809076317</v>
       </c>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="1" t="n">
+      <c r="A581" s="1">
         <v>579</v>
       </c>
-      <c r="B581" t="n">
-        <v>251364.5426420045</v>
+      <c r="B581">
+        <v>223210.6518206566</v>
       </c>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="1" t="n">
+      <c r="A582" s="1">
         <v>580</v>
       </c>
-      <c r="B582" t="n">
-        <v>263534.7639268058</v>
+      <c r="B582">
+        <v>220571.1279473515</v>
       </c>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="1" t="n">
+      <c r="A583" s="1">
         <v>581</v>
       </c>
-      <c r="B583" t="n">
-        <v>240097.5255132488</v>
+      <c r="B583">
+        <v>224360.9273092073</v>
       </c>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="1" t="n">
+      <c r="A584" s="1">
         <v>582</v>
       </c>
-      <c r="B584" t="n">
-        <v>255547.8371940129</v>
+      <c r="B584">
+        <v>217616.291930475</v>
       </c>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="1" t="n">
+      <c r="A585" s="1">
         <v>583</v>
       </c>
-      <c r="B585" t="n">
-        <v>239986.3587533314</v>
+      <c r="B585">
+        <v>217564.2724551469</v>
       </c>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="1" t="n">
+      <c r="A586" s="1">
         <v>584</v>
       </c>
-      <c r="B586" t="n">
-        <v>248574.5953649211</v>
+      <c r="B586">
+        <v>281661.4019397749</v>
       </c>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="1" t="n">
+      <c r="A587" s="1">
         <v>585</v>
       </c>
-      <c r="B587" t="n">
-        <v>244554.5866137662</v>
+      <c r="B587">
+        <v>269984.3524496975</v>
       </c>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="1" t="n">
+      <c r="A588" s="1">
         <v>586</v>
       </c>
-      <c r="B588" t="n">
-        <v>229120.2041964667</v>
+      <c r="B588">
+        <v>257785.377892905</v>
       </c>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="1" t="n">
+      <c r="A589" s="1">
         <v>587</v>
       </c>
-      <c r="B589" t="n">
-        <v>237914.5796945534</v>
+      <c r="B589">
+        <v>250495.4081474713</v>
       </c>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="1" t="n">
+      <c r="A590" s="1">
         <v>588</v>
       </c>
-      <c r="B590" t="n">
-        <v>222605.82641473</v>
+      <c r="B590">
+        <v>248502.8993224154</v>
       </c>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="1" t="n">
+      <c r="A591" s="1">
         <v>589</v>
       </c>
-      <c r="B591" t="n">
-        <v>237637.4067488422</v>
+      <c r="B591">
+        <v>249372.5060379705</v>
       </c>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="1" t="n">
+      <c r="A592" s="1">
         <v>590</v>
       </c>
-      <c r="B592" t="n">
-        <v>238824.3444230357</v>
+      <c r="B592">
+        <v>253112.2449800926</v>
       </c>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="1" t="n">
+      <c r="A593" s="1">
         <v>591</v>
       </c>
-      <c r="B593" t="n">
-        <v>258084.320406297</v>
+      <c r="B593">
+        <v>258496.9198351741</v>
       </c>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="1" t="n">
+      <c r="A594" s="1">
         <v>592</v>
       </c>
-      <c r="B594" t="n">
-        <v>265562.813116927</v>
+      <c r="B594">
+        <v>312357.2957180986</v>
       </c>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="1" t="n">
+      <c r="A595" s="1">
         <v>593</v>
       </c>
-      <c r="B595" t="n">
-        <v>247953.222100763</v>
+      <c r="B595">
+        <v>306471.2826567172</v>
       </c>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="1" t="n">
+      <c r="A596" s="1">
         <v>594</v>
       </c>
-      <c r="B596" t="n">
-        <v>244588.4089339864</v>
+      <c r="B596">
+        <v>292738.7252011496</v>
       </c>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="1" t="n">
+      <c r="A597" s="1">
         <v>595</v>
       </c>
-      <c r="B597" t="n">
-        <v>245344.1238978101</v>
+      <c r="B597">
+        <v>288781.155854906</v>
       </c>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="1" t="n">
+      <c r="A598" s="1">
         <v>596</v>
       </c>
-      <c r="B598" t="n">
-        <v>253516.3079349109</v>
+      <c r="B598">
+        <v>292894.4281028638</v>
       </c>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="1" t="n">
+      <c r="A599" s="1">
         <v>597</v>
       </c>
-      <c r="B599" t="n">
-        <v>219165.7745049135</v>
+      <c r="B599">
+        <v>283184.9804549892</v>
       </c>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="1" t="n">
+      <c r="A600" s="1">
         <v>598</v>
       </c>
-      <c r="B600" t="n">
-        <v>210020.128999336</v>
+      <c r="B600">
+        <v>283275.4064012027</v>
       </c>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="1" t="n">
+      <c r="A601" s="1">
         <v>599</v>
       </c>
-      <c r="B601" t="n">
-        <v>213940.603645763</v>
+      <c r="B601">
+        <v>282235.2580607429</v>
       </c>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="1" t="n">
+      <c r="A602" s="1">
         <v>600</v>
       </c>
-      <c r="B602" t="n">
-        <v>219708.4354173611</v>
+      <c r="B602">
+        <v>273940.3615892018</v>
       </c>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="1" t="n">
+      <c r="A603" s="1">
         <v>601</v>
       </c>
-      <c r="B603" t="n">
-        <v>213229.6158367011</v>
+      <c r="B603">
+        <v>280127.8105106342</v>
       </c>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="1" t="n">
+      <c r="A604" s="1">
         <v>602</v>
       </c>
-      <c r="B604" t="n">
-        <v>206987.1926924016</v>
+      <c r="B604">
+        <v>290886.2229789976</v>
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="1" t="n">
+      <c r="A605" s="1">
         <v>603</v>
       </c>
-      <c r="B605" t="n">
-        <v>214102.9697541322</v>
+      <c r="B605">
+        <v>315120.4181634797</v>
       </c>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="1" t="n">
+      <c r="A606" s="1">
         <v>604</v>
       </c>
-      <c r="B606" t="n">
-        <v>216905.8667629392</v>
+      <c r="B606">
+        <v>323819.8430304707</v>
       </c>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="1" t="n">
+      <c r="A607" s="1">
         <v>605</v>
       </c>
-      <c r="B607" t="n">
-        <v>206829.5834826098</v>
+      <c r="B607">
+        <v>317837.5026941242</v>
       </c>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="1" t="n">
+      <c r="A608" s="1">
         <v>606</v>
       </c>
-      <c r="B608" t="n">
-        <v>202788.6680824145</v>
+      <c r="B608">
+        <v>289017.60882098</v>
       </c>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="1" t="n">
+      <c r="A609" s="1">
         <v>607</v>
       </c>
-      <c r="B609" t="n">
-        <v>257485.2844103037</v>
+      <c r="B609">
+        <v>331927.2215634966</v>
       </c>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="1" t="n">
+      <c r="A610" s="1">
         <v>608</v>
       </c>
-      <c r="B610" t="n">
-        <v>205362.2380061939</v>
+      <c r="B610">
+        <v>261688.1617401035</v>
       </c>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="1" t="n">
+      <c r="A611" s="1">
         <v>609</v>
       </c>
-      <c r="B611" t="n">
-        <v>197353.8596647058</v>
+      <c r="B611">
+        <v>241659.6418918372</v>
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="1" t="n">
+      <c r="A612" s="1">
         <v>610</v>
       </c>
-      <c r="B612" t="n">
-        <v>196838.6945012127</v>
+      <c r="B612">
+        <v>211831.4269727277</v>
       </c>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="1" t="n">
+      <c r="A613" s="1">
         <v>611</v>
       </c>
-      <c r="B613" t="n">
-        <v>197841.1546047762</v>
+      <c r="B613">
+        <v>209573.8196371081</v>
       </c>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="1" t="n">
+      <c r="A614" s="1">
         <v>612</v>
       </c>
-      <c r="B614" t="n">
-        <v>193685.6066725293</v>
+      <c r="B614">
+        <v>207803.6580569367</v>
       </c>
     </row>
     <row r="615" spans="1:2">
-      <c r="A615" s="1" t="n">
+      <c r="A615" s="1">
         <v>613</v>
       </c>
-      <c r="B615" t="n">
-        <v>179941.439065881</v>
+      <c r="B615">
+        <v>219140.1934422507</v>
       </c>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="1" t="n">
+      <c r="A616" s="1">
         <v>614</v>
       </c>
-      <c r="B616" t="n">
-        <v>174249.1201095677</v>
+      <c r="B616">
+        <v>210901.0707490798</v>
       </c>
     </row>
     <row r="617" spans="1:2">
-      <c r="A617" s="1" t="n">
+      <c r="A617" s="1">
         <v>615</v>
       </c>
-      <c r="B617" t="n">
-        <v>180222.343163822</v>
+      <c r="B617">
+        <v>190707.6953317826</v>
       </c>
     </row>
     <row r="618" spans="1:2">
-      <c r="A618" s="1" t="n">
+      <c r="A618" s="1">
         <v>616</v>
       </c>
-      <c r="B618" t="n">
-        <v>171537.2642557139</v>
+      <c r="B618">
+        <v>221535.921665865</v>
       </c>
     </row>
     <row r="619" spans="1:2">
-      <c r="A619" s="1" t="n">
+      <c r="A619" s="1">
         <v>617</v>
       </c>
-      <c r="B619" t="n">
-        <v>166280.7860020096</v>
+      <c r="B619">
+        <v>198011.729396912</v>
       </c>
     </row>
     <row r="620" spans="1:2">
-      <c r="A620" s="1" t="n">
+      <c r="A620" s="1">
         <v>618</v>
       </c>
-      <c r="B620" t="n">
-        <v>175474.0256611989</v>
+      <c r="B620">
+        <v>182636.5767004057</v>
       </c>
     </row>
     <row r="621" spans="1:2">
-      <c r="A621" s="1" t="n">
+      <c r="A621" s="1">
         <v>619</v>
       </c>
-      <c r="B621" t="n">
-        <v>176908.6077243825</v>
+      <c r="B621">
+        <v>188140.296644788</v>
       </c>
     </row>
     <row r="622" spans="1:2">
-      <c r="A622" s="1" t="n">
+      <c r="A622" s="1">
         <v>620</v>
       </c>
-      <c r="B622" t="n">
-        <v>174426.0132532453</v>
+      <c r="B622">
+        <v>188784.983639171</v>
       </c>
     </row>
     <row r="623" spans="1:2">
-      <c r="A623" s="1" t="n">
+      <c r="A623" s="1">
         <v>621</v>
       </c>
-      <c r="B623" t="n">
-        <v>191655.3990254133</v>
+      <c r="B623">
+        <v>197349.3082004536</v>
       </c>
     </row>
     <row r="624" spans="1:2">
-      <c r="A624" s="1" t="n">
+      <c r="A624" s="1">
         <v>622</v>
       </c>
-      <c r="B624" t="n">
-        <v>184521.9675541363</v>
+      <c r="B624">
+        <v>199127.3185890215</v>
       </c>
     </row>
     <row r="625" spans="1:2">
-      <c r="A625" s="1" t="n">
+      <c r="A625" s="1">
         <v>623</v>
       </c>
-      <c r="B625" t="n">
-        <v>178901.8028077584</v>
+      <c r="B625">
+        <v>204168.1226660558</v>
       </c>
     </row>
     <row r="626" spans="1:2">
-      <c r="A626" s="1" t="n">
+      <c r="A626" s="1">
         <v>624</v>
       </c>
-      <c r="B626" t="n">
-        <v>184101.2968866915</v>
+      <c r="B626">
+        <v>206532.8640923603</v>
       </c>
     </row>
     <row r="627" spans="1:2">
-      <c r="A627" s="1" t="n">
+      <c r="A627" s="1">
         <v>625</v>
       </c>
-      <c r="B627" t="n">
-        <v>180097.469935128</v>
+      <c r="B627">
+        <v>236423.9213939306</v>
       </c>
     </row>
     <row r="628" spans="1:2">
-      <c r="A628" s="1" t="n">
+      <c r="A628" s="1">
         <v>626</v>
       </c>
-      <c r="B628" t="n">
-        <v>173688.9387495592</v>
+      <c r="B628">
+        <v>272791.7516088213</v>
       </c>
     </row>
     <row r="629" spans="1:2">
-      <c r="A629" s="1" t="n">
+      <c r="A629" s="1">
         <v>627</v>
       </c>
-      <c r="B629" t="n">
-        <v>180290.5038353332</v>
+      <c r="B629">
+        <v>270723.7379213586</v>
       </c>
     </row>
     <row r="630" spans="1:2">
-      <c r="A630" s="1" t="n">
+      <c r="A630" s="1">
         <v>628</v>
       </c>
-      <c r="B630" t="n">
-        <v>208267.976876001</v>
+      <c r="B630">
+        <v>261351.9147230145</v>
       </c>
     </row>
     <row r="631" spans="1:2">
-      <c r="A631" s="1" t="n">
+      <c r="A631" s="1">
         <v>629</v>
       </c>
-      <c r="B631" t="n">
-        <v>206292.7563602859</v>
+      <c r="B631">
+        <v>246525.2229757817</v>
       </c>
     </row>
     <row r="632" spans="1:2">
-      <c r="A632" s="1" t="n">
+      <c r="A632" s="1">
         <v>630</v>
       </c>
-      <c r="B632" t="n">
-        <v>225203.366331804</v>
+      <c r="B632">
+        <v>253043.1392584296</v>
       </c>
     </row>
     <row r="633" spans="1:2">
-      <c r="A633" s="1" t="n">
+      <c r="A633" s="1">
         <v>631</v>
       </c>
-      <c r="B633" t="n">
-        <v>232826.9143120646</v>
+      <c r="B633">
+        <v>240480.613433581</v>
       </c>
     </row>
     <row r="634" spans="1:2">
-      <c r="A634" s="1" t="n">
+      <c r="A634" s="1">
         <v>632</v>
       </c>
-      <c r="B634" t="n">
-        <v>265698.8247428529</v>
+      <c r="B634">
+        <v>267324.1163950909</v>
       </c>
     </row>
     <row r="635" spans="1:2">
-      <c r="A635" s="1" t="n">
+      <c r="A635" s="1">
         <v>633</v>
       </c>
-      <c r="B635" t="n">
-        <v>265627.9601868194</v>
+      <c r="B635">
+        <v>272213.307077641</v>
       </c>
     </row>
     <row r="636" spans="1:2">
-      <c r="A636" s="1" t="n">
+      <c r="A636" s="1">
         <v>634</v>
       </c>
-      <c r="B636" t="n">
-        <v>234988.2660677557</v>
+      <c r="B636">
+        <v>254283.5005102748</v>
       </c>
     </row>
     <row r="637" spans="1:2">
-      <c r="A637" s="1" t="n">
+      <c r="A637" s="1">
         <v>635</v>
       </c>
-      <c r="B637" t="n">
-        <v>249312.1876903679</v>
+      <c r="B637">
+        <v>256514.5290276515</v>
       </c>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="1" t="n">
+      <c r="A638" s="1">
         <v>636</v>
       </c>
-      <c r="B638" t="n">
-        <v>240431.723347148</v>
+      <c r="B638">
+        <v>262446.0831531182</v>
       </c>
     </row>
     <row r="639" spans="1:2">
-      <c r="A639" s="1" t="n">
+      <c r="A639" s="1">
         <v>637</v>
       </c>
-      <c r="B639" t="n">
-        <v>240334.6924421426</v>
+      <c r="B639">
+        <v>251201.4367400899</v>
       </c>
     </row>
     <row r="640" spans="1:2">
-      <c r="A640" s="1" t="n">
+      <c r="A640" s="1">
         <v>638</v>
       </c>
-      <c r="B640" t="n">
-        <v>242212.3459524223</v>
+      <c r="B640">
+        <v>246577.7950748975</v>
       </c>
     </row>
     <row r="641" spans="1:2">
-      <c r="A641" s="1" t="n">
+      <c r="A641" s="1">
         <v>639</v>
       </c>
-      <c r="B641" t="n">
-        <v>271028.5798278371</v>
+      <c r="B641">
+        <v>249097.0015953465</v>
       </c>
     </row>
     <row r="642" spans="1:2">
-      <c r="A642" s="1" t="n">
+      <c r="A642" s="1">
         <v>640</v>
       </c>
-      <c r="B642" t="n">
-        <v>273433.5364090743</v>
+      <c r="B642">
+        <v>244063.3238528084</v>
       </c>
     </row>
     <row r="643" spans="1:2">
-      <c r="A643" s="1" t="n">
+      <c r="A643" s="1">
         <v>641</v>
       </c>
-      <c r="B643" t="n">
-        <v>283669.7323169581</v>
+      <c r="B643">
+        <v>242392.4531941829</v>
       </c>
     </row>
     <row r="644" spans="1:2">
-      <c r="A644" s="1" t="n">
+      <c r="A644" s="1">
         <v>642</v>
       </c>
-      <c r="B644" t="n">
-        <v>277470.0242356463</v>
+      <c r="B644">
+        <v>249914.6710397218</v>
       </c>
     </row>
     <row r="645" spans="1:2">
-      <c r="A645" s="1" t="n">
+      <c r="A645" s="1">
         <v>643</v>
       </c>
-      <c r="B645" t="n">
-        <v>264173.7849489668</v>
+      <c r="B645">
+        <v>247691.1059102279</v>
       </c>
     </row>
     <row r="646" spans="1:2">
-      <c r="A646" s="1" t="n">
+      <c r="A646" s="1">
         <v>644</v>
       </c>
-      <c r="B646" t="n">
-        <v>258847.9850944193</v>
+      <c r="B646">
+        <v>252877.584747153</v>
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="1" t="n">
+      <c r="A647" s="1">
         <v>645</v>
       </c>
-      <c r="B647" t="n">
-        <v>245664.5956265305</v>
+      <c r="B647">
+        <v>251591.1593419327</v>
       </c>
     </row>
     <row r="648" spans="1:2">
-      <c r="A648" s="1" t="n">
+      <c r="A648" s="1">
         <v>646</v>
       </c>
-      <c r="B648" t="n">
-        <v>257930.6295244915</v>
+      <c r="B648">
+        <v>240266.0437564982</v>
       </c>
     </row>
     <row r="649" spans="1:2">
-      <c r="A649" s="1" t="n">
+      <c r="A649" s="1">
         <v>647</v>
       </c>
-      <c r="B649" t="n">
-        <v>252036.3569251398</v>
+      <c r="B649">
+        <v>240517.9878879873</v>
       </c>
     </row>
     <row r="650" spans="1:2">
-      <c r="A650" s="1" t="n">
+      <c r="A650" s="1">
         <v>648</v>
       </c>
-      <c r="B650" t="n">
-        <v>252202.300473697</v>
+      <c r="B650">
+        <v>240970.6157432443</v>
       </c>
     </row>
     <row r="651" spans="1:2">
-      <c r="A651" s="1" t="n">
+      <c r="A651" s="1">
         <v>649</v>
       </c>
-      <c r="B651" t="n">
-        <v>261417.973299723</v>
+      <c r="B651">
+        <v>252377.73128542</v>
       </c>
     </row>
     <row r="652" spans="1:2">
-      <c r="A652" s="1" t="n">
+      <c r="A652" s="1">
         <v>650</v>
       </c>
-      <c r="B652" t="n">
-        <v>264456.9432394699</v>
+      <c r="B652">
+        <v>285687.4117463275</v>
       </c>
     </row>
     <row r="653" spans="1:2">
-      <c r="A653" s="1" t="n">
+      <c r="A653" s="1">
         <v>651</v>
       </c>
-      <c r="B653" t="n">
-        <v>250723.7137703784</v>
+      <c r="B653">
+        <v>283078.6109390582</v>
       </c>
     </row>
     <row r="654" spans="1:2">
-      <c r="A654" s="1" t="n">
+      <c r="A654" s="1">
         <v>652</v>
       </c>
-      <c r="B654" t="n">
-        <v>260084.8088382097</v>
+      <c r="B654">
+        <v>276243.9812111107</v>
       </c>
     </row>
     <row r="655" spans="1:2">
-      <c r="A655" s="1" t="n">
+      <c r="A655" s="1">
         <v>653</v>
       </c>
-      <c r="B655" t="n">
-        <v>254400.4712116398</v>
+      <c r="B655">
+        <v>276321.2037650265</v>
       </c>
     </row>
     <row r="656" spans="1:2">
-      <c r="A656" s="1" t="n">
+      <c r="A656" s="1">
         <v>654</v>
       </c>
-      <c r="B656" t="n">
-        <v>248988.0629096399</v>
+      <c r="B656">
+        <v>265322.5410662704</v>
       </c>
     </row>
     <row r="657" spans="1:2">
-      <c r="A657" s="1" t="n">
+      <c r="A657" s="1">
         <v>655</v>
       </c>
-      <c r="B657" t="n">
-        <v>241031.9569240689</v>
+      <c r="B657">
+        <v>263480.7442850092</v>
       </c>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="1" t="n">
+      <c r="A658" s="1">
         <v>656</v>
       </c>
-      <c r="B658" t="n">
-        <v>242065.4127739279</v>
+      <c r="B658">
+        <v>266349.0031750362</v>
       </c>
     </row>
     <row r="659" spans="1:2">
-      <c r="A659" s="1" t="n">
+      <c r="A659" s="1">
         <v>657</v>
       </c>
-      <c r="B659" t="n">
-        <v>248191.0523630374</v>
+      <c r="B659">
+        <v>263836.3639780766</v>
       </c>
     </row>
     <row r="660" spans="1:2">
-      <c r="A660" s="1" t="n">
+      <c r="A660" s="1">
         <v>658</v>
       </c>
-      <c r="B660" t="n">
-        <v>256896.5971477703</v>
+      <c r="B660">
+        <v>270584.7620940607</v>
       </c>
     </row>
     <row r="661" spans="1:2">
-      <c r="A661" s="1" t="n">
+      <c r="A661" s="1">
         <v>659</v>
       </c>
-      <c r="B661" t="n">
-        <v>283239.3224049595</v>
+      <c r="B661">
+        <v>267329.243515675</v>
       </c>
     </row>
     <row r="662" spans="1:2">
-      <c r="A662" s="1" t="n">
+      <c r="A662" s="1">
         <v>660</v>
       </c>
-      <c r="B662" t="n">
-        <v>277805.0397937794</v>
+      <c r="B662">
+        <v>264999.9354964778</v>
       </c>
     </row>
     <row r="663" spans="1:2">
-      <c r="A663" s="1" t="n">
+      <c r="A663" s="1">
         <v>661</v>
       </c>
-      <c r="B663" t="n">
-        <v>276928.9490993681</v>
+      <c r="B663">
+        <v>268124.6337449814</v>
       </c>
     </row>
     <row r="664" spans="1:2">
-      <c r="A664" s="1" t="n">
+      <c r="A664" s="1">
         <v>662</v>
       </c>
-      <c r="B664" t="n">
-        <v>288203.169742723</v>
+      <c r="B664">
+        <v>268958.5135579883</v>
       </c>
     </row>
     <row r="665" spans="1:2">
-      <c r="A665" s="1" t="n">
+      <c r="A665" s="1">
         <v>663</v>
       </c>
-      <c r="B665" t="n">
-        <v>288708.6724934798</v>
+      <c r="B665">
+        <v>268950.1988614664</v>
       </c>
     </row>
     <row r="666" spans="1:2">
-      <c r="A666" s="1" t="n">
+      <c r="A666" s="1">
         <v>664</v>
       </c>
-      <c r="B666" t="n">
-        <v>299487.6056971067</v>
+      <c r="B666">
+        <v>264764.5277677402</v>
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="1" t="n">
+      <c r="A667" s="1">
         <v>665</v>
       </c>
-      <c r="B667" t="n">
-        <v>263403.4138731365</v>
+      <c r="B667">
+        <v>268770.2609834596</v>
       </c>
     </row>
     <row r="668" spans="1:2">
-      <c r="A668" s="1" t="n">
+      <c r="A668" s="1">
         <v>666</v>
       </c>
-      <c r="B668" t="n">
-        <v>271377.1921629554</v>
+      <c r="B668">
+        <v>262615.7420339608</v>
       </c>
     </row>
     <row r="669" spans="1:2">
-      <c r="A669" s="1" t="n">
+      <c r="A669" s="1">
         <v>667</v>
       </c>
-      <c r="B669" t="n">
-        <v>275970.8450922541</v>
+      <c r="B669">
+        <v>260984.3708945716</v>
       </c>
     </row>
     <row r="670" spans="1:2">
-      <c r="A670" s="1" t="n">
+      <c r="A670" s="1">
         <v>668</v>
       </c>
-      <c r="B670" t="n">
-        <v>262962.1150161215</v>
+      <c r="B670">
+        <v>282496.3555825801</v>
       </c>
     </row>
     <row r="671" spans="1:2">
-      <c r="A671" s="1" t="n">
+      <c r="A671" s="1">
         <v>669</v>
       </c>
-      <c r="B671" t="n">
-        <v>268001.8510207877</v>
+      <c r="B671">
+        <v>273214.339590268</v>
       </c>
     </row>
     <row r="672" spans="1:2">
-      <c r="A672" s="1" t="n">
+      <c r="A672" s="1">
         <v>670</v>
       </c>
-      <c r="B672" t="n">
-        <v>266190.7820395738</v>
+      <c r="B672">
+        <v>262561.1470053065</v>
       </c>
     </row>
     <row r="673" spans="1:2">
-      <c r="A673" s="1" t="n">
+      <c r="A673" s="1">
         <v>671</v>
       </c>
-      <c r="B673" t="n">
-        <v>276098.3068703105</v>
+      <c r="B673">
+        <v>268964.4799973313</v>
       </c>
     </row>
     <row r="674" spans="1:2">
-      <c r="A674" s="1" t="n">
+      <c r="A674" s="1">
         <v>672</v>
       </c>
-      <c r="B674" t="n">
-        <v>267016.6399673329</v>
+      <c r="B674">
+        <v>267744.3722400873</v>
       </c>
     </row>
     <row r="675" spans="1:2">
-      <c r="A675" s="1" t="n">
+      <c r="A675" s="1">
         <v>673</v>
       </c>
-      <c r="B675" t="n">
-        <v>265027.361261689</v>
+      <c r="B675">
+        <v>261150.106639664</v>
       </c>
     </row>
     <row r="676" spans="1:2">
-      <c r="A676" s="1" t="n">
+      <c r="A676" s="1">
         <v>674</v>
       </c>
-      <c r="B676" t="n">
-        <v>255164.6058319389</v>
+      <c r="B676">
+        <v>251316.6382351751</v>
       </c>
     </row>
     <row r="677" spans="1:2">
-      <c r="A677" s="1" t="n">
+      <c r="A677" s="1">
         <v>675</v>
       </c>
-      <c r="B677" t="n">
-        <v>258373.6112276541</v>
+      <c r="B677">
+        <v>254014.8426822425</v>
       </c>
     </row>
     <row r="678" spans="1:2">
-      <c r="A678" s="1" t="n">
+      <c r="A678" s="1">
         <v>676</v>
       </c>
-      <c r="B678" t="n">
-        <v>294390.5021188835</v>
+      <c r="B678">
+        <v>252686.4330955502</v>
       </c>
     </row>
     <row r="679" spans="1:2">
-      <c r="A679" s="1" t="n">
+      <c r="A679" s="1">
         <v>677</v>
       </c>
-      <c r="B679" t="n">
-        <v>303425.164844992</v>
+      <c r="B679">
+        <v>269795.6566099308</v>
       </c>
     </row>
     <row r="680" spans="1:2">
-      <c r="A680" s="1" t="n">
+      <c r="A680" s="1">
         <v>678</v>
       </c>
-      <c r="B680" t="n">
-        <v>302393.068115624</v>
+      <c r="B680">
+        <v>273493.6100701166</v>
       </c>
     </row>
     <row r="681" spans="1:2">
-      <c r="A681" s="1" t="n">
+      <c r="A681" s="1">
         <v>679</v>
       </c>
-      <c r="B681" t="n">
-        <v>295492.4796434033</v>
+      <c r="B681">
+        <v>277619.3625755113</v>
       </c>
     </row>
     <row r="682" spans="1:2">
-      <c r="A682" s="1" t="n">
+      <c r="A682" s="1">
         <v>680</v>
       </c>
-      <c r="B682" t="n">
-        <v>289258.4647661254</v>
+      <c r="B682">
+        <v>283740.1985420526</v>
       </c>
     </row>
     <row r="683" spans="1:2">
-      <c r="A683" s="1" t="n">
+      <c r="A683" s="1">
         <v>681</v>
       </c>
-      <c r="B683" t="n">
-        <v>285462.002195559</v>
+      <c r="B683">
+        <v>314699.9363499636</v>
       </c>
     </row>
     <row r="684" spans="1:2">
-      <c r="A684" s="1" t="n">
+      <c r="A684" s="1">
         <v>682</v>
       </c>
-      <c r="B684" t="n">
-        <v>287002.0775057892</v>
+      <c r="B684">
+        <v>286819.8223565003</v>
       </c>
     </row>
     <row r="685" spans="1:2">
-      <c r="A685" s="1" t="n">
+      <c r="A685" s="1">
         <v>683</v>
       </c>
-      <c r="B685" t="n">
-        <v>285603.7727577256</v>
+      <c r="B685">
+        <v>291176.6427065288</v>
       </c>
     </row>
     <row r="686" spans="1:2">
-      <c r="A686" s="1" t="n">
+      <c r="A686" s="1">
         <v>684</v>
       </c>
-      <c r="B686" t="n">
-        <v>281917.4813955945</v>
+      <c r="B686">
+        <v>285754.0779929294</v>
       </c>
     </row>
     <row r="687" spans="1:2">
-      <c r="A687" s="1" t="n">
+      <c r="A687" s="1">
         <v>685</v>
       </c>
-      <c r="B687" t="n">
-        <v>277766.3133159944</v>
+      <c r="B687">
+        <v>281218.1271559026</v>
       </c>
     </row>
     <row r="688" spans="1:2">
-      <c r="A688" s="1" t="n">
+      <c r="A688" s="1">
         <v>686</v>
       </c>
-      <c r="B688" t="n">
-        <v>268486.1685262693</v>
+      <c r="B688">
+        <v>276728.8143329154</v>
       </c>
     </row>
     <row r="689" spans="1:2">
-      <c r="A689" s="1" t="n">
+      <c r="A689" s="1">
         <v>687</v>
       </c>
-      <c r="B689" t="n">
-        <v>277928.0658533538</v>
+      <c r="B689">
+        <v>269862.7924699628</v>
       </c>
     </row>
     <row r="690" spans="1:2">
-      <c r="A690" s="1" t="n">
+      <c r="A690" s="1">
         <v>688</v>
       </c>
-      <c r="B690" t="n">
-        <v>277033.32207561</v>
+      <c r="B690">
+        <v>272535.1658190885</v>
       </c>
     </row>
     <row r="691" spans="1:2">
-      <c r="A691" s="1" t="n">
+      <c r="A691" s="1">
         <v>689</v>
       </c>
-      <c r="B691" t="n">
-        <v>273370.805391419</v>
+      <c r="B691">
+        <v>258085.5362174077</v>
       </c>
     </row>
     <row r="692" spans="1:2">
-      <c r="A692" s="1" t="n">
+      <c r="A692" s="1">
         <v>690</v>
       </c>
-      <c r="B692" t="n">
-        <v>283731.0916946394</v>
+      <c r="B692">
+        <v>263539.0392828413</v>
       </c>
     </row>
     <row r="693" spans="1:2">
-      <c r="A693" s="1" t="n">
+      <c r="A693" s="1">
         <v>691</v>
       </c>
-      <c r="B693" t="n">
-        <v>279363.8985715397</v>
+      <c r="B693">
+        <v>295061.1874693288</v>
       </c>
     </row>
     <row r="694" spans="1:2">
-      <c r="A694" s="1" t="n">
+      <c r="A694" s="1">
         <v>692</v>
       </c>
-      <c r="B694" t="n">
-        <v>275986.4232815767</v>
+      <c r="B694">
+        <v>284696.0345889632</v>
       </c>
     </row>
     <row r="695" spans="1:2">
-      <c r="A695" s="1" t="n">
+      <c r="A695" s="1">
         <v>693</v>
       </c>
-      <c r="B695" t="n">
-        <v>269581.1077837543</v>
+      <c r="B695">
+        <v>287464.4477869131</v>
       </c>
     </row>
     <row r="696" spans="1:2">
-      <c r="A696" s="1" t="n">
+      <c r="A696" s="1">
         <v>694</v>
       </c>
-      <c r="B696" t="n">
-        <v>258979.4326784232</v>
+      <c r="B696">
+        <v>265422.9943098706</v>
       </c>
     </row>
     <row r="697" spans="1:2">
-      <c r="A697" s="1" t="n">
+      <c r="A697" s="1">
         <v>695</v>
       </c>
-      <c r="B697" t="n">
-        <v>249750.2034197938</v>
+      <c r="B697">
+        <v>263171.525424279</v>
       </c>
     </row>
     <row r="698" spans="1:2">
-      <c r="A698" s="1" t="n">
+      <c r="A698" s="1">
         <v>696</v>
       </c>
-      <c r="B698" t="n">
-        <v>254702.3897071797</v>
+      <c r="B698">
+        <v>266112.2899500492</v>
       </c>
     </row>
     <row r="699" spans="1:2">
-      <c r="A699" s="1" t="n">
+      <c r="A699" s="1">
         <v>697</v>
       </c>
-      <c r="B699" t="n">
-        <v>258671.4861426901</v>
+      <c r="B699">
+        <v>256593.0235069241</v>
       </c>
     </row>
     <row r="700" spans="1:2">
-      <c r="A700" s="1" t="n">
+      <c r="A700" s="1">
         <v>698</v>
       </c>
-      <c r="B700" t="n">
-        <v>263355.6024475674</v>
+      <c r="B700">
+        <v>259322.7122006517</v>
       </c>
     </row>
     <row r="701" spans="1:2">
-      <c r="A701" s="1" t="n">
+      <c r="A701" s="1">
         <v>699</v>
       </c>
-      <c r="B701" t="n">
-        <v>276687.398304538</v>
+      <c r="B701">
+        <v>262133.0576855138</v>
       </c>
     </row>
     <row r="702" spans="1:2">
-      <c r="A702" s="1" t="n">
+      <c r="A702" s="1">
         <v>700</v>
       </c>
-      <c r="B702" t="n">
-        <v>312886.1507811461</v>
+      <c r="B702">
+        <v>271548.9532746358</v>
       </c>
     </row>
     <row r="703" spans="1:2">
-      <c r="A703" s="1" t="n">
+      <c r="A703" s="1">
         <v>701</v>
       </c>
-      <c r="B703" t="n">
-        <v>322261.9714220146</v>
+      <c r="B703">
+        <v>275053.8281799379</v>
       </c>
     </row>
     <row r="704" spans="1:2">
-      <c r="A704" s="1" t="n">
+      <c r="A704" s="1">
         <v>702</v>
       </c>
-      <c r="B704" t="n">
-        <v>315397.8651591987</v>
+      <c r="B704">
+        <v>296654.1999560374</v>
       </c>
     </row>
     <row r="705" spans="1:2">
-      <c r="A705" s="1" t="n">
+      <c r="A705" s="1">
         <v>703</v>
       </c>
-      <c r="B705" t="n">
-        <v>299811.1620747654</v>
+      <c r="B705">
+        <v>288467.8011494192</v>
       </c>
     </row>
     <row r="706" spans="1:2">
-      <c r="A706" s="1" t="n">
+      <c r="A706" s="1">
         <v>704</v>
       </c>
-      <c r="B706" t="n">
-        <v>297346.8892013632</v>
+      <c r="B706">
+        <v>304079.6740162346</v>
       </c>
     </row>
     <row r="707" spans="1:2">
-      <c r="A707" s="1" t="n">
+      <c r="A707" s="1">
         <v>705</v>
       </c>
-      <c r="B707" t="n">
-        <v>301581.3572710582</v>
+      <c r="B707">
+        <v>294971.2676798232</v>
       </c>
     </row>
     <row r="708" spans="1:2">
-      <c r="A708" s="1" t="n">
+      <c r="A708" s="1">
         <v>706</v>
       </c>
-      <c r="B708" t="n">
-        <v>323785.3919461934</v>
+      <c r="B708">
+        <v>293931.337962475</v>
       </c>
     </row>
     <row r="709" spans="1:2">
-      <c r="A709" s="1" t="n">
+      <c r="A709" s="1">
         <v>707</v>
       </c>
-      <c r="B709" t="n">
-        <v>335118.7458444599</v>
+      <c r="B709">
+        <v>301794.8099317699</v>
       </c>
     </row>
     <row r="710" spans="1:2">
-      <c r="A710" s="1" t="n">
+      <c r="A710" s="1">
         <v>708</v>
       </c>
-      <c r="B710" t="n">
-        <v>337800.8029713117</v>
+      <c r="B710">
+        <v>292043.201938062</v>
       </c>
     </row>
     <row r="711" spans="1:2">
-      <c r="A711" s="1" t="n">
+      <c r="A711" s="1">
         <v>709</v>
       </c>
-      <c r="B711" t="n">
-        <v>331802.1293924917</v>
+      <c r="B711">
+        <v>373721.6882275599</v>
       </c>
     </row>
     <row r="712" spans="1:2">
-      <c r="A712" s="1" t="n">
+      <c r="A712" s="1">
         <v>710</v>
       </c>
-      <c r="B712" t="n">
-        <v>331867.8445202118</v>
+      <c r="B712">
+        <v>366164.3896717668</v>
       </c>
     </row>
     <row r="713" spans="1:2">
-      <c r="A713" s="1" t="n">
+      <c r="A713" s="1">
         <v>711</v>
       </c>
-      <c r="B713" t="n">
-        <v>324720.8704273258</v>
+      <c r="B713">
+        <v>371886.6468695984</v>
       </c>
     </row>
     <row r="714" spans="1:2">
-      <c r="A714" s="1" t="n">
+      <c r="A714" s="1">
         <v>712</v>
       </c>
-      <c r="B714" t="n">
-        <v>345753.7605226025</v>
+      <c r="B714">
+        <v>293892.6323978557</v>
       </c>
     </row>
     <row r="715" spans="1:2">
-      <c r="A715" s="1" t="n">
+      <c r="A715" s="1">
         <v>713</v>
       </c>
-      <c r="B715" t="n">
-        <v>343572.6587409085</v>
+      <c r="B715">
+        <v>289773.2075642532</v>
       </c>
     </row>
     <row r="716" spans="1:2">
-      <c r="A716" s="1" t="n">
+      <c r="A716" s="1">
         <v>714</v>
       </c>
-      <c r="B716" t="n">
-        <v>329055.175852493</v>
+      <c r="B716">
+        <v>303506.1542302088</v>
       </c>
     </row>
     <row r="717" spans="1:2">
-      <c r="A717" s="1" t="n">
+      <c r="A717" s="1">
         <v>715</v>
       </c>
-      <c r="B717" t="n">
-        <v>327452.3912101712</v>
+      <c r="B717">
+        <v>311754.9040870395</v>
       </c>
     </row>
     <row r="718" spans="1:2">
-      <c r="A718" s="1" t="n">
+      <c r="A718" s="1">
         <v>716</v>
       </c>
-      <c r="B718" t="n">
-        <v>322532.347351482</v>
+      <c r="B718">
+        <v>281474.1597176997</v>
       </c>
     </row>
     <row r="719" spans="1:2">
-      <c r="A719" s="1" t="n">
+      <c r="A719" s="1">
         <v>717</v>
       </c>
-      <c r="B719" t="n">
-        <v>318046.2165912893</v>
+      <c r="B719">
+        <v>282313.0647094924</v>
       </c>
     </row>
     <row r="720" spans="1:2">
-      <c r="A720" s="1" t="n">
+      <c r="A720" s="1">
         <v>718</v>
       </c>
-      <c r="B720" t="n">
-        <v>317603.0812038299</v>
+      <c r="B720">
+        <v>274736.8619633575</v>
       </c>
     </row>
     <row r="721" spans="1:2">
-      <c r="A721" s="1" t="n">
+      <c r="A721" s="1">
         <v>719</v>
       </c>
-      <c r="B721" t="n">
-        <v>314479.3523984429</v>
+      <c r="B721">
+        <v>271005.347616541</v>
       </c>
     </row>
     <row r="722" spans="1:2">
-      <c r="A722" s="1" t="n">
+      <c r="A722" s="1">
         <v>720</v>
       </c>
-      <c r="B722" t="n">
-        <v>331495.5048809869</v>
+      <c r="B722">
+        <v>265016.563354486</v>
       </c>
     </row>
     <row r="723" spans="1:2">
-      <c r="A723" s="1" t="n">
+      <c r="A723" s="1">
         <v>721</v>
       </c>
-      <c r="B723" t="n">
-        <v>341989.106834617</v>
+      <c r="B723">
+        <v>266977.6693756136</v>
       </c>
     </row>
     <row r="724" spans="1:2">
-      <c r="A724" s="1" t="n">
+      <c r="A724" s="1">
         <v>722</v>
       </c>
-      <c r="B724" t="n">
-        <v>316580.7649809071</v>
+      <c r="B724">
+        <v>273297.5925281178</v>
       </c>
     </row>
     <row r="725" spans="1:2">
-      <c r="A725" s="1" t="n">
+      <c r="A725" s="1">
         <v>723</v>
       </c>
-      <c r="B725" t="n">
-        <v>328572.7610220342</v>
+      <c r="B725">
+        <v>276129.9169057365</v>
       </c>
     </row>
     <row r="726" spans="1:2">
-      <c r="A726" s="1" t="n">
+      <c r="A726" s="1">
         <v>724</v>
       </c>
-      <c r="B726" t="n">
-        <v>318222.6921161807</v>
+      <c r="B726">
+        <v>279581.981760896</v>
       </c>
     </row>
     <row r="727" spans="1:2">
-      <c r="A727" s="1" t="n">
+      <c r="A727" s="1">
         <v>725</v>
       </c>
-      <c r="B727" t="n">
-        <v>324885.1765708225</v>
+      <c r="B727">
+        <v>302407.7506868154</v>
       </c>
     </row>
     <row r="728" spans="1:2">
-      <c r="A728" s="1" t="n">
+      <c r="A728" s="1">
         <v>726</v>
       </c>
-      <c r="B728" t="n">
-        <v>320976.6811261629</v>
+      <c r="B728">
+        <v>318074.4913297671</v>
       </c>
     </row>
     <row r="729" spans="1:2">
-      <c r="A729" s="1" t="n">
+      <c r="A729" s="1">
         <v>727</v>
       </c>
-      <c r="B729" t="n">
-        <v>317937.708077752</v>
+      <c r="B729">
+        <v>300618.843021447</v>
       </c>
     </row>
     <row r="730" spans="1:2">
-      <c r="A730" s="1" t="n">
+      <c r="A730" s="1">
         <v>728</v>
       </c>
-      <c r="B730" t="n">
-        <v>315939.3631804198</v>
+      <c r="B730">
+        <v>291196.1584543868</v>
       </c>
     </row>
     <row r="731" spans="1:2">
-      <c r="A731" s="1" t="n">
+      <c r="A731" s="1">
         <v>729</v>
       </c>
-      <c r="B731" t="n">
-        <v>305772.9642558567</v>
+      <c r="B731">
+        <v>293791.4986436888</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>325826.9780125857</v>
+        <v>305136.2912396732</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>337552.5927646344</v>
+        <v>347119.4248546496</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>366837.0290762206</v>
+        <v>378288.231806966</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>352332.8634683134</v>
+        <v>387072.6927578028</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>346835.6191388365</v>
+        <v>382033.7054027913</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>359750.8542128644</v>
+        <v>368086.722995365</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>361697.9965776592</v>
+        <v>357639.6806360401</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>348631.353473488</v>
+        <v>352331.6910372833</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>335248.5879381015</v>
+        <v>348006.3078964038</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>332121.1479418036</v>
+        <v>336412.6856733897</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>338126.4978228401</v>
+        <v>308058.3057774872</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>332650.6514159712</v>
+        <v>289677.2242533574</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>333603.6800147371</v>
+        <v>283012.9837416137</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>334962.6381065845</v>
+        <v>281704.9141281417</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>341118.17549745</v>
+        <v>299794.1403118006</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>336248.1248472545</v>
+        <v>300427.9776859315</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>337138.7915231698</v>
+        <v>314121.8710380454</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>337666.2925233667</v>
+        <v>311691.573177651</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>336822.8801489154</v>
+        <v>318230.7422131037</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>337690.7316782145</v>
+        <v>296131.7647632376</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>337961.2542555991</v>
+        <v>291008.659652055</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>383106.2792992926</v>
+        <v>317655.8576849092</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>387990.2246397611</v>
+        <v>338693.6677313903</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>395039.6229678169</v>
+        <v>337009.7595283488</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>393835.2689430286</v>
+        <v>336888.3077242697</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>384043.9754978235</v>
+        <v>331093.5946637323</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>389522.1498666873</v>
+        <v>336890.8642321567</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>410132.744224834</v>
+        <v>330685.6779557623</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>436374.4263701125</v>
+        <v>336494.6508493777</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>448866.0351715622</v>
+        <v>324791.6594183755</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>457547.1660114135</v>
+        <v>319178.8625481145</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>457261.1529331635</v>
+        <v>330295.433500185</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>427258.41174601</v>
+        <v>350195.3376871687</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>405098.621932123</v>
+        <v>376794.042212101</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>396663.3686595939</v>
+        <v>423850.974092131</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>392215.7910863603</v>
+        <v>469490.0571921893</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>404460.3082201393</v>
+        <v>493364.6347885227</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>409506.2027452856</v>
+        <v>506891.9497260444</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>390303.0066672585</v>
+        <v>517146.1645119064</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>388265.5298469941</v>
+        <v>515671.6294533155</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>383173.3557057565</v>
+        <v>498396.555237279</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>385493.2887653073</v>
+        <v>482128.0847117877</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>378302.2410155651</v>
+        <v>475269.3566764725</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>369185.075442318</v>
+        <v>461712.6259124685</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>378490.9026476883</v>
+        <v>466866.7434587058</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>365973.5329499938</v>
+        <v>448822.0528331944</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>364362.3445627261</v>
+        <v>440479.3732654965</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>377967.6798637962</v>
+        <v>440860.4317606002</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>382176.875165932</v>
+        <v>443728.0772951227</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>388748.9687709195</v>
+        <v>445953.6332611789</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>392396.6635523448</v>
+        <v>453792.7294066864</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>397146.3108672195</v>
+        <v>450372.1182399067</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>400737.7044467089</v>
+        <v>442857.8578106783</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>400053.3705585544</v>
+        <v>442495.2779982949</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>396753.4768681931</v>
+        <v>433267.3298600996</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>376409.3948691673</v>
+        <v>428038.4121122629</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>373007.6090426618</v>
+        <v>429578.2235880561</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>385630.9399750828</v>
+        <v>453797.7995591651</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>411457.3222853137</v>
+        <v>439921.9147098302</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>415807.8110372548</v>
+        <v>449683.4717897447</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>328844.1638410502</v>
+        <v>364077.593078612</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>318370.4922796923</v>
+        <v>369857.7038102908</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>314392.9963841162</v>
+        <v>357104.8458986047</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>305548.047482505</v>
+        <v>350469.3585996176</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>302794.2197539933</v>
+        <v>394895.9532664048</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>306643.8074112409</v>
+        <v>393640.8999677912</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>371313.9863967562</v>
+        <v>405336.0401119481</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>373714.8442512031</v>
+        <v>383276.5475633493</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>371269.5327305913</v>
+        <v>389661.8938793432</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>376637.3353245759</v>
+        <v>375503.5915801678</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>381984.0510164746</v>
+        <v>378214.0862222529</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>379140.6373936458</v>
+        <v>368649.6609600274</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>379185.4741399301</v>
+        <v>369907.9076795958</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>380179.0717910804</v>
+        <v>373753.1555967465</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>372015.8151949308</v>
+        <v>365137.8259260142</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>374210.9734380255</v>
+        <v>369795.0823560412</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>353834.053982483</v>
+        <v>368548.0975715342</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>344318.2457723403</v>
+        <v>369807.4112222686</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>338831.3889036129</v>
+        <v>364815.2356285401</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>335511.8953958963</v>
+        <v>363498.7826406067</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>345078.7223805518</v>
+        <v>361450.6908075114</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>353319.6822058735</v>
+        <v>368757.2481638932</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>333447.6723304566</v>
+        <v>378421.5463285149</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>276180.6186172337</v>
+        <v>333789.6211498893</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>285253.4323568085</v>
+        <v>341658.5788050214</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>278704.3584119469</v>
+        <v>340006.4243427687</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>287408.5638279324</v>
+        <v>366770.2952269525</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>273294.6945921815</v>
+        <v>392787.0623639479</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>283152.1878858468</v>
+        <v>425554.5806966958</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>272929.9931662568</v>
+        <v>422129.310633838</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>253057.6005951782</v>
+        <v>456356.2282390874</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>265883.7877849801</v>
+        <v>400714.972102543</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>280068.8109736089</v>
+        <v>375775.9243262623</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>280635.2153133207</v>
+        <v>351711.2289474454</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>290830.3452587416</v>
+        <v>352874.4112704046</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>306680.8348228075</v>
+        <v>368168.4676332591</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>303559.6101599049</v>
+        <v>393821.4350713988</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>300114.2022538578</v>
+        <v>415849.6602802078</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>314900.6729666699</v>
+        <v>424494.7783198393</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>329054.4592762178</v>
+        <v>424067.9349228457</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>327942.6632189315</v>
+        <v>413637.8626678088</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>335532.4016339087</v>
+        <v>390437.6302653581</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>370968.1770512533</v>
+        <v>383011.144137739</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>375245.8415928221</v>
+        <v>371618.4033257436</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>396857.3229892502</v>
+        <v>401717.5309361866</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>408703.3052929005</v>
+        <v>436907.6629804664</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>416594.7542472169</v>
+        <v>426738.7996095672</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>421466.791409086</v>
+        <v>418655.4416179539</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>422646.5694786806</v>
+        <v>413808.1307982451</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>460011.9943825881</v>
+        <v>394529.4391729895</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>466083.3250328022</v>
+        <v>388510.1611623213</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>494199.4180468526</v>
+        <v>378255.0458932459</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>521096.9546178865</v>
+        <v>375802.7509178413</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>543171.5766403467</v>
+        <v>379931.8910332994</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>535080.7058464059</v>
+        <v>372380.3802222712</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>532604.6173829199</v>
+        <v>359801.0312453195</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>531667.6271149918</v>
+        <v>361830.291619928</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>534565.794100804</v>
+        <v>383824.0521888413</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>536299.981951607</v>
+        <v>397394.5833331317</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>539889.6885058668</v>
+        <v>456315.5500792108</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>468093.5593602896</v>
+        <v>267009.2337562448</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>429911.4068750553</v>
+        <v>287569.8659184155</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>425534.9575403783</v>
+        <v>280708.9521639911</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>383242.7469065376</v>
+        <v>263735.0370467774</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>357156.0606002822</v>
+        <v>265404.6458568039</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>290641.42118275</v>
+        <v>281405.6075983439</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>265869.8962684424</v>
+        <v>323008.5203685283</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>239861.6067634382</v>
+        <v>340659.5695738987</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>233796.1872503041</v>
+        <v>343512.1687353859</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>239649.5791372125</v>
+        <v>360710.2572772378</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>244734.7758042274</v>
+        <v>351817.4692612342</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>267384.4851445251</v>
+        <v>326017.8623819245</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>282821.9745626486</v>
+        <v>316445.9463596428</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>361914.5098007174</v>
+        <v>312327.0101992548</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>433637.4243949524</v>
+        <v>307634.7687604804</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>446994.6994680488</v>
+        <v>303463.9089928493</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>469409.7281648716</v>
+        <v>330874.6672440811</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>443865.5309271551</v>
+        <v>348367.786385384</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>445508.1951703835</v>
+        <v>380520.4906978033</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>464243.0942220925</v>
+        <v>443546.2925930666</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>507771.3591936821</v>
+        <v>512535.8784694308</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>480800.0259377609</v>
+        <v>530654.7023263953</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>484316.6457338523</v>
+        <v>543344.6187590813</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>478414.9667601969</v>
+        <v>549975.1360726128</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>488415.6456400313</v>
+        <v>557579.1216324508</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>478687.5432921293</v>
+        <v>565016.6464305971</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>502993.6691005991</v>
+        <v>564007.1669637322</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>503881.0793201933</v>
+        <v>563909.0853011596</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>538192.0470107627</v>
+        <v>564523.7634476289</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>536167.3056434545</v>
+        <v>563819.5408562958</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>548518.5425979249</v>
+        <v>562470.5281415685</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>555159.6220599223</v>
+        <v>562725.0048989289</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>560112.2271282924</v>
+        <v>563902.0884431286</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>553796.1264125485</v>
+        <v>564700.2358119143</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>560334.0925983955</v>
+        <v>563518.4684921592</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>551814.9295256376</v>
+        <v>562537.5074454177</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>558261.2244407273</v>
+        <v>563878.0687805654</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>550861.6434346752</v>
+        <v>565371.6290901974</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>560283.9172123238</v>
+        <v>565461.6793162427</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>543544.0613185122</v>
+        <v>566856.670691398</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>556656.4547472353</v>
+        <v>570908.4725059214</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>551583.6230573553</v>
+        <v>564081.234210298</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>556880.3784694195</v>
+        <v>561232.3809130441</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>551816.7871852986</v>
+        <v>553607.0859332292</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>560954.6241269954</v>
+        <v>558710.347949955</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>550594.7276378665</v>
+        <v>547556.7684758683</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>559962.194968063</v>
+        <v>553027.7770153064</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>549973.6269694937</v>
+        <v>545669.282585434</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>556905.507249566</v>
+        <v>551179.6456224998</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>552551.3149066942</v>
+        <v>540757.9989376193</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>558161.3404260116</v>
+        <v>548573.0132834057</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>553736.8540299387</v>
+        <v>531041.8392287024</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>562197.9943572929</v>
+        <v>532472.6246377825</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>547691.6095378849</v>
+        <v>515741.4186027464</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>551389.1277214511</v>
+        <v>527935.2502127583</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>545833.766230182</v>
+        <v>510659.638163831</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>530872.6597721885</v>
+        <v>495143.0139991764</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>520740.3844783318</v>
+        <v>477347.1942718579</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>514782.9990606687</v>
+        <v>454502.9835510619</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>489545.2717225248</v>
+        <v>431014.2749392388</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>468677.5785702943</v>
+        <v>474413.6234112303</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>449139.9475473272</v>
+        <v>489751.5577298949</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>445040.6754429414</v>
+        <v>502454.9763026945</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>422274.909580939</v>
+        <v>474414.6455745289</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>431921.2268424624</v>
+        <v>469372.3442848122</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>406918.7059468959</v>
+        <v>460597.4068444044</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>426120.8263398378</v>
+        <v>460952.697421587</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>423294.1272724162</v>
+        <v>461852.2988846154</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>427205.5786012989</v>
+        <v>435826.2843498015</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>427486.5896240057</v>
+        <v>463121.082127359</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>403034.2640583048</v>
+        <v>443165.322159261</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>389406.2419106407</v>
+        <v>414737.7631824135</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>393836.5065488826</v>
+        <v>404719.2379267482</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>388147.3935510622</v>
+        <v>397370.7084306885</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>380425.0221069871</v>
+        <v>368393.7989500311</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>379797.5185206563</v>
+        <v>360576.6274098224</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>375978.5150485859</v>
+        <v>367950.5675615241</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>376058.8272545284</v>
+        <v>346084.9599592332</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>355810.3126790391</v>
+        <v>328288.5502884554</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>341603.9520532371</v>
+        <v>328164.347829018</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>348331.3694708062</v>
+        <v>321920.1392772258</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>332120.8250600256</v>
+        <v>327827.3855672723</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>339878.411859861</v>
+        <v>315029.3754393858</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>344959.6260620633</v>
+        <v>315763.6757834165</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>324621.6193561955</v>
+        <v>304105.5109400108</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>315091.1494388353</v>
+        <v>293730.1287061318</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>309020.2210317833</v>
+        <v>289138.7939246796</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>315374.0973226324</v>
+        <v>297624.9111868183</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>316765.7259129341</v>
+        <v>288226.7256382884</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>311607.4920571167</v>
+        <v>290103.3997266492</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>302567.6771968344</v>
+        <v>285693.0469452857</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>298868.2646414796</v>
+        <v>285985.0467767143</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>295681.660858545</v>
+        <v>266928.9568937192</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>244240.0894887586</v>
+        <v>231275.3225212003</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>234509.0580696072</v>
+        <v>232098.7028248672</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>252785.639892586</v>
+        <v>223273.1670284831</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>263811.7260875565</v>
+        <v>229242.2807714554</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>288914.0129549517</v>
+        <v>224484.460372213</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>271449.894659797</v>
+        <v>225555.7099987491</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>249496.8361866827</v>
+        <v>223129.5189149048</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>253481.4466411723</v>
+        <v>227557.1559920947</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>247506.2399344913</v>
+        <v>211869.1850139911</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>241660.3029230769</v>
+        <v>223759.161374328</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>243548.3913846333</v>
+        <v>219154.881514061</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>245367.262970591</v>
+        <v>219015.1601159338</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>245140.1766324047</v>
+        <v>232635.3403021539</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>237763.2751970868</v>
+        <v>232236.0035397837</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>250284.3989919586</v>
+        <v>234384.0325260109</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>250865.3135845908</v>
+        <v>230227.5319048301</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>234656.72600348</v>
+        <v>220075.3765320317</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>235599.4108585542</v>
+        <v>229574.4029629262</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>241332.6366570636</v>
+        <v>267444.084560213</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>256212.1047501447</v>
+        <v>264070.3701114267</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>245705.0099389302</v>
+        <v>264782.8076255141</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>253014.134732067</v>
+        <v>258720.6146378944</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>260777.7449810324</v>
+        <v>250629.9376897272</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>313639.8005214849</v>
+        <v>254010.4835863178</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>324123.5466464026</v>
+        <v>259869.6299110581</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>325075.8119944794</v>
+        <v>260419.7552046344</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>294475.2308700017</v>
+        <v>254591.1940570708</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>306531.5259326491</v>
+        <v>249651.6863987651</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>291271.5814377253</v>
+        <v>243631.6496837308</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>335117.3338603555</v>
+        <v>317709.7532029576</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>244476.3168823923</v>
+        <v>240320.8270893323</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>239836.4063207296</v>
+        <v>224876.1022309118</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>202813.4564858352</v>
+        <v>222751.5728312392</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>213449.5091781756</v>
+        <v>198897.6643718534</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>209461.7990113701</v>
+        <v>205411.5249021068</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>199281.806852907</v>
+        <v>193797.5130686498</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>187169.1422873283</v>
+        <v>187157.9328924612</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>187494.6718817805</v>
+        <v>184081.3646360357</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>184584.0499859785</v>
+        <v>196611.1315838096</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>190666.3873064356</v>
+        <v>205572.1504025884</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>183411.0340814787</v>
+        <v>210682.5756607959</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>186246.5796263547</v>
+        <v>196352.7349280269</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>190795.636935409</v>
+        <v>204173.1168256529</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>194730.9751492671</v>
+        <v>192540.3924139527</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>199610.8338624057</v>
+        <v>212630.080484236</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>220666.4432561278</v>
+        <v>209963.418525582</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>203949.9762731046</v>
+        <v>197443.1082441324</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>204079.4152677861</v>
+        <v>200392.424423176</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>210343.6693133334</v>
+        <v>190359.1706596572</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>204372.0101603244</v>
+        <v>179288.7363530407</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>221311.4274889486</v>
+        <v>192911.970885243</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>219753.2684590168</v>
+        <v>195454.5672280944</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>228866.0392023163</v>
+        <v>197105.7830519935</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>231457.5079072379</v>
+        <v>214649.8340160146</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>224188.8620504106</v>
+        <v>213632.4062949009</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>222221.8765534047</v>
+        <v>213903.6948714629</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>230321.7305672474</v>
+        <v>207178.3951339781</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>224305.3546184401</v>
+        <v>208695.8411801792</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>214546.1255442511</v>
+        <v>227095.7866175414</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>201924.6469446199</v>
+        <v>212597.7351143417</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>215428.643715682</v>
+        <v>225179.298379119</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>229737.1421316116</v>
+        <v>230094.5703835851</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>237513.9022529013</v>
+        <v>241753.1131677617</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>230660.473000333</v>
+        <v>222302.5644756698</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>231811.5763055887</v>
+        <v>230200.103449027</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>240006.5303377511</v>
+        <v>233265.8817168834</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>254756.1434501933</v>
+        <v>228239.7639062562</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>237979.0449322575</v>
+        <v>229081.1756477174</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>241451.9162489453</v>
+        <v>218706.1962502423</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>254094.7450530221</v>
+        <v>215249.6022198158</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>253410.4258980679</v>
+        <v>220551.4403617147</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>250924.3096076486</v>
+        <v>221778.519370184</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>243304.7726757586</v>
+        <v>212540.190868413</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>248364.2986700173</v>
+        <v>208080.6048516291</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>216658.9417474807</v>
+        <v>213160.4753397408</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>230445.9989130931</v>
+        <v>213100.9116208943</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>244712.1465810772</v>
+        <v>217356.9549672025</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>226283.5103765051</v>
+        <v>214411.8901596248</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>230121.4612462631</v>
+        <v>219496.691915666</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>227076.4011147206</v>
+        <v>208865.2162514121</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>226397.4733730664</v>
+        <v>219611.4709480659</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>226467.8841317921</v>
+        <v>231005.5119578588</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>225399.930148613</v>
+        <v>260672.926434402</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>221828.3648172958</v>
+        <v>270600.0975237938</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>219197.4517022208</v>
+        <v>252401.0872198275</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>224376.4227691325</v>
+        <v>237211.1733557991</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>228957.7882827469</v>
+        <v>217218.7432813939</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>232101.2225398649</v>
+        <v>223092.4441262686</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>221669.1426428218</v>
+        <v>231428.3853811128</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>230921.8330881863</v>
+        <v>228498.818076651</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>239493.5362745942</v>
+        <v>217129.3006778372</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>233281.8321546123</v>
+        <v>216625.5166420637</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>204944.6038574702</v>
+        <v>197751.8784867831</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>202631.864036059</v>
+        <v>209088.7794632819</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>213365.8314597328</v>
+        <v>204445.7821840954</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>236672.5654622372</v>
+        <v>210729.3140128562</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>232150.1574313529</v>
+        <v>215242.9285285774</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>220468.2106392651</v>
+        <v>235384.0483878491</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>205148.5958901104</v>
+        <v>240831.3068839493</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>200675.2470161327</v>
+        <v>226737.9193845887</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>205683.4111073096</v>
+        <v>225555.7234018382</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>208619.1189965417</v>
+        <v>229533.0977445351</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>215256.8302834965</v>
+        <v>220406.2116596713</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>204256.0608440521</v>
+        <v>219969.2154016785</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>211116.4476205516</v>
+        <v>223738.2578560509</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>212578.4687072064</v>
+        <v>235792.0018271994</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>212438.872263998</v>
+        <v>247011.2856838185</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>211474.0371357473</v>
+        <v>244704.2387221274</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>207483.9780569968</v>
+        <v>251755.6459169343</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>216723.5242261679</v>
+        <v>236635.6270869747</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>225638.4516280797</v>
+        <v>248993.3855076918</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>215704.5099868462</v>
+        <v>233715.8067296615</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>218765.1283873351</v>
+        <v>231757.6089995352</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>227490.9594171788</v>
+        <v>236980.000254198</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>219472.3436286602</v>
+        <v>237112.7027496093</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>218082.4775429694</v>
+        <v>234550.4750563318</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>206340.66767323</v>
+        <v>238297.1800172569</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>202433.0809354215</v>
+        <v>244989.9874697055</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>200098.0943828828</v>
+        <v>262001.8373504506</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>199238.7209819848</v>
+        <v>248542.5851116828</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>203057.4901075531</v>
+        <v>237292.4193661102</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>198452.0455764605</v>
+        <v>228893.3693263346</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>217023.6892674644</v>
+        <v>250204.3097067056</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>222584.1326281491</v>
+        <v>262841.0936068623</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>218092.9028451433</v>
+        <v>293158.8462178564</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>228989.3531044248</v>
+        <v>293172.136730418</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>217812.0299327254</v>
+        <v>303366.6460272472</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>227848.611718668</v>
+        <v>324454.4625673834</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>237247.06734994</v>
+        <v>314287.3538444379</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>238277.2931238873</v>
+        <v>318232.0773702394</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>239699.0750657646</v>
+        <v>320871.8701601172</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>234885.3575563252</v>
+        <v>304400.6309599855</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>237743.0590960589</v>
+        <v>298204.6139119027</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>220282.9876349051</v>
+        <v>294325.0274166293</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>223055.649814399</v>
+        <v>305997.1637951827</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>219420.7310216167</v>
+        <v>313061.4485756093</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>221030.007593212</v>
+        <v>316993.1304847947</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>209834.2991898211</v>
+        <v>316898.3527637409</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>212474.0546943586</v>
+        <v>321264.8171795751</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>209517.3410433994</v>
+        <v>305662.5675232343</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>215912.4600433081</v>
+        <v>303775.7858787336</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>223599.536125482</v>
+        <v>311074.7153258614</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>217941.7629693055</v>
+        <v>310105.0823125768</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>214233.4565390136</v>
+        <v>302073.2783338453</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>222716.1658639624</v>
+        <v>317918.8453268426</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>228879.6742683196</v>
+        <v>308472.2326293624</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>221461.1361249044</v>
+        <v>321791.6847706725</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>227292.9436247751</v>
+        <v>318549.1190219774</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>233806.2157606449</v>
+        <v>316700.3629000833</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>249790.9652944033</v>
+        <v>321656.5848969473</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>242209.5471928552</v>
+        <v>315467.4221755454</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>234502.8201382725</v>
+        <v>313663.2002053924</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>255599.0323175034</v>
+        <v>283880.6814278629</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>296744.6685531667</v>
+        <v>273278.8642014946</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>288355.1816642412</v>
+        <v>284496.8006523878</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>284177.1281067614</v>
+        <v>277552.0085666375</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>277011.8150167864</v>
+        <v>269423.224151559</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>271298.7322054366</v>
+        <v>265006.4369190102</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>279719.0468776007</v>
+        <v>268055.2303623336</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>287601.851523938</v>
+        <v>263570.600455404</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>292509.6460449366</v>
+        <v>265886.8607076094</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>293830.304703898</v>
+        <v>274955.2713364506</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>294251.1208017023</v>
+        <v>275537.2420375642</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>282960.6618439437</v>
+        <v>280876.466999485</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>287854.2832505243</v>
+        <v>283261.6880527254</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>280416.6714686126</v>
+        <v>319342.4052810966</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>290137.8806629573</v>
+        <v>384460.2958667059</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>307133.3767173512</v>
+        <v>454810.1526752854</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>300308.7071499162</v>
+        <v>498167.2181869891</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>322102.1022898815</v>
+        <v>556456.9300116167</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>349148.0855774242</v>
+        <v>555539.731828967</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>354066.1116532261</v>
+        <v>541683.7107032756</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>358654.4996291869</v>
+        <v>478608.1141471611</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>371762.8792688174</v>
+        <v>449637.0760245768</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>378568.9773796508</v>
+        <v>417726.0232539419</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>372323.8188820226</v>
+        <v>414416.3597608152</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>379509.8123441085</v>
+        <v>420296.2300522479</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>374826.9651630792</v>
+        <v>423031.3274488408</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>364583.861883628</v>
+        <v>456612.277400695</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>349509.4048937698</v>
+        <v>450429.5027699429</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>346908.3576975268</v>
+        <v>438784.8704045731</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>352931.2276293788</v>
+        <v>430474.1723986464</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>352890.9666778427</v>
+        <v>433508.9353650509</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>348537.6271509988</v>
+        <v>450698.4179612631</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>341766.7951856945</v>
+        <v>430631.0539786525</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>367330.6944321299</v>
+        <v>411483.7066576565</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>364792.9991071874</v>
+        <v>404668.6230346855</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>382952.5208201051</v>
+        <v>404015.4833875532</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>370972.6646519285</v>
+        <v>401772.6752730388</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>360252.727067992</v>
+        <v>393739.4848452665</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>353383.7330182957</v>
+        <v>369761.0021699372</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>340036.2724473106</v>
+        <v>338808.1507361124</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>337973.8528250392</v>
+        <v>340032.8657664336</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>343663.9947512841</v>
+        <v>352843.5675306428</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>341597.2665653636</v>
+        <v>349237.1015097156</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>337024.504696819</v>
+        <v>338636.7433456406</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>322323.2534883423</v>
+        <v>372495.5256965195</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>321485.1478284613</v>
+        <v>421992.9027545287</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>317448.2537513172</v>
+        <v>417614.393769183</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>310606.7830779997</v>
+        <v>428598.8805710999</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>316666.1297561321</v>
+        <v>430103.2034937216</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>370853.6530514213</v>
+        <v>434687.7951697823</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>415778.3105931819</v>
+        <v>445721.4511322074</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>447777.6752190727</v>
+        <v>438758.3771880488</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>487549.5737352609</v>
+        <v>431545.6313553434</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>491798.2156398548</v>
+        <v>440541.6335467439</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>486981.3444513828</v>
+        <v>423996.816715572</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>495119.3808443624</v>
+        <v>417911.763601516</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>480019.6995890986</v>
+        <v>416973.4130192359</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>470742.4294083244</v>
+        <v>419831.5610780282</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>430249.0899645021</v>
+        <v>415049.3960426621</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>433630.4013263025</v>
+        <v>395966.1674537178</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>372244.7959890516</v>
+        <v>344888.7517902802</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>370906.9017697338</v>
+        <v>355425.685371939</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>370844.4034821794</v>
+        <v>356200.2250112583</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>373323.9275479093</v>
+        <v>360099.2719858664</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>388554.8277912315</v>
+        <v>362765.6993444182</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>400737.4699685182</v>
+        <v>363292.0036610999</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>397179.5054790506</v>
+        <v>353348.7905263558</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>398666.2948256651</v>
+        <v>345498.3819078884</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>380508.1414738658</v>
+        <v>343915.2104975536</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>368054.4086703585</v>
+        <v>332464.3165839671</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>352398.4273155782</v>
+        <v>338149.5561965838</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>341657.1524052644</v>
+        <v>353285.2592844662</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>351316.5193812695</v>
+        <v>353937.8762177332</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>348224.4955603498</v>
+        <v>345265.5743610651</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>354286.2016561089</v>
+        <v>354584.85029386</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>357959.9190918025</v>
+        <v>386450.5946895871</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>349367.4151012219</v>
+        <v>389330.188189305</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>340749.5785182533</v>
+        <v>405106.6038010998</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>331501.8073363797</v>
+        <v>400287.0285547353</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>328992.8573276624</v>
+        <v>391784.2714879788</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>323101.2949158062</v>
+        <v>363699.1138541657</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>340701.724405842</v>
+        <v>356281.0447042435</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>389456.8522140136</v>
+        <v>346995.9445630572</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>336182.879130553</v>
+        <v>340357.7385990533</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>361791.5738432339</v>
+        <v>345640.2885229</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>362435.2213210692</v>
+        <v>348490.0674770495</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>367272.7964180116</v>
+        <v>375177.5493802548</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>371763.4268951338</v>
+        <v>400887.7475810666</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>375885.2005010159</v>
+        <v>423242.4579111686</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>377791.426653326</v>
+        <v>442884.2141081174</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>362643.1584973928</v>
+        <v>422674.1721669844</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>320731.1490754659</v>
+        <v>358103.7368749228</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>308198.2195364988</v>
+        <v>342120.1894266944</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>321820.6285839693</v>
+        <v>327893.7335601933</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>303476.966372418</v>
+        <v>303356.9729364471</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>320358.3886454212</v>
+        <v>312894.3811806223</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>307458.0376548522</v>
+        <v>310515.2150479366</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>296875.9463208443</v>
+        <v>310719.4612991246</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>283804.4576143681</v>
+        <v>313071.1366775951</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>282179.3575117123</v>
+        <v>307459.7696462662</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>295915.1667200202</v>
+        <v>316476.5462420221</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>290392.9596612432</v>
+        <v>334745.5334775478</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>296636.4883375002</v>
+        <v>338951.9919326495</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>304851.9000712511</v>
+        <v>339365.573611034</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>287503.1402694474</v>
+        <v>331887.5083340319</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>277005.1599776533</v>
+        <v>305703.5586039638</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>275244.0066117158</v>
+        <v>311196.6017435945</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>267324.3265777849</v>
+        <v>316525.1482556064</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>265198.5392188401</v>
+        <v>327872.9539514758</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>261901.1396857057</v>
+        <v>338343.5121545401</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>248352.2957545502</v>
+        <v>343052.8069349338</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>243947.0215534564</v>
+        <v>354866.6339092146</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>256018.3856577761</v>
+        <v>359875.8395446686</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>247264.1226832965</v>
+        <v>363805.9743468586</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>250206.4512788314</v>
+        <v>392307.0642155287</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>246380.8308421128</v>
+        <v>431358.0411273983</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>239132.1975948233</v>
+        <v>451814.8578706406</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>245829.7776898135</v>
+        <v>466731.902161972</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>255642.8775207521</v>
+        <v>500116.4562290965</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>284873.3934832665</v>
+        <v>474375.0936303816</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>187927.5078455263</v>
+        <v>328599.7451837446</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>213805.6692527145</v>
+        <v>249255.5137486906</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>228152.4373899777</v>
+        <v>283224.1689366807</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>234288.7198651015</v>
+        <v>245155.7647449556</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>246644.9083944802</v>
+        <v>267229.8584149314</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>248938.4757734616</v>
+        <v>262739.6021344077</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>239317.2771986663</v>
+        <v>292810.6010986228</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>230089.8795776555</v>
+        <v>337249.2547293759</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>228009.4234696843</v>
+        <v>405496.6122417882</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>229670.9693797204</v>
+        <v>370338.046066808</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>250541.6821314207</v>
+        <v>381274.7100783196</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>270139.3262731293</v>
+        <v>306199.1640681181</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>287860.7185725202</v>
+        <v>272027.9302314347</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>297901.464835415</v>
+        <v>240711.7461062447</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>330760.8449621305</v>
+        <v>229967.957473348</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>274876.4716928029</v>
+        <v>226564.2118690286</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>288181.3725237098</v>
+        <v>216407.587983586</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>320055.5340638223</v>
+        <v>213082.4050329878</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>430473.2124540037</v>
+        <v>207514.8113914261</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>464133.7518857539</v>
+        <v>205543.7929543566</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>491054.2806382064</v>
+        <v>205990.7641646879</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>498689.5823994403</v>
+        <v>214164.6850759892</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>520516.1400907665</v>
+        <v>218157.0421951461</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>496528.3745161495</v>
+        <v>225659.7328918038</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>514260.9925039525</v>
+        <v>237180.8449081771</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>469551.5932099699</v>
+        <v>262013.5981346362</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>521236.5115240647</v>
+        <v>356791.0865464049</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>470424.1260808316</v>
+        <v>483318.9698361824</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>514769.1524222827</v>
+        <v>514598.5977215982</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>475286.0406561476</v>
+        <v>504030.1296541141</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>518552.0785382052</v>
+        <v>508596.7360387775</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>490218.8839330646</v>
+        <v>523238.2487537643</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>536751.6296527854</v>
+        <v>524463.0590987123</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>543398.0270636564</v>
+        <v>516193.828038457</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>557886.5003123898</v>
+        <v>544711.3434506002</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>555804.7802254159</v>
+        <v>556190.2684092653</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>548424.7049076912</v>
+        <v>570457.7783828208</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>530427.413435018</v>
+        <v>559651.0994967467</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>553162.6917161116</v>
+        <v>563353.1531882436</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>530562.2087734189</v>
+        <v>544553.9740334534</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>549930.7019149326</v>
+        <v>545326.9238031148</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>519785.3995099306</v>
+        <v>528956.9519916143</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>546114.5686027054</v>
+        <v>541700.490122289</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>522827.4750390422</v>
+        <v>548113.1183371242</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>540989.4752158002</v>
+        <v>570302.8216618865</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>486367.1526906759</v>
+        <v>568424.9220961868</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>521702.680010644</v>
+        <v>567004.4803490328</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>457768.3864720478</v>
+        <v>567274.0009921395</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>515407.2672496906</v>
+        <v>568454.5100836895</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>463765.4251105828</v>
+        <v>569921.3456728962</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>519427.4573715299</v>
+        <v>546693.9836972632</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>483914.8538791811</v>
+        <v>565597.8281758573</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>500774.2938054989</v>
+        <v>553778.7829553398</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>472102.1091181925</v>
+        <v>572001.1452668088</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>522687.8631719901</v>
+        <v>562012.8309799493</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>508823.0529601206</v>
+        <v>570530.9861995791</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>504194.6425461835</v>
+        <v>567569.2098777713</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>505673.3476532298</v>
+        <v>574821.5621129277</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>494749.8105397534</v>
+        <v>576314.2858183108</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>454939.8443606587</v>
+        <v>576003.1606099785</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>420748.1060305863</v>
+        <v>575814.1297833817</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>417900.2452383456</v>
+        <v>568974.5269910231</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>442242.7313169421</v>
+        <v>549219.5735825732</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>390966.1291695798</v>
+        <v>521925.6212824535</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>392323.6302719478</v>
+        <v>465917.9489490812</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>387173.5144162895</v>
+        <v>481694.1712888957</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>393127.7942988602</v>
+        <v>476936.4572696161</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>391887.3457658048</v>
+        <v>474429.2385820828</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>381274.2231158348</v>
+        <v>444840.2979733425</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>371255.1657809175</v>
+        <v>452188.8723756341</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>355886.2281527594</v>
+        <v>458857.0616074984</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>356147.4175998389</v>
+        <v>454647.5446997547</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>336619.765594889</v>
+        <v>444324.4276016174</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>327532.6925921326</v>
+        <v>439125.634044587</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>323105.6275515768</v>
+        <v>415841.6212946899</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>302902.6399739924</v>
+        <v>408778.0631978682</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>305072.9683835098</v>
+        <v>419075.9487202254</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>317157.8383578254</v>
+        <v>421443.241513164</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>295316.7745226742</v>
+        <v>395190.4535892772</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>264230.2565466419</v>
+        <v>401890.2416416235</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>289459.7501420639</v>
+        <v>410128.3003678205</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>301994.5502957655</v>
+        <v>405219.425508226</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>303387.1302329217</v>
+        <v>388288.0387379301</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>282392.060856113</v>
+        <v>365406.6944116959</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>265547.2663460663</v>
+        <v>365109.247270839</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>282845.7578567243</v>
+        <v>365973.0670504145</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>278184.3716726924</v>
+        <v>374980.0509189272</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>271367.9282781875</v>
+        <v>344722.5395190853</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>268639.1058497405</v>
+        <v>332047.2637635585</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>283953.8216611501</v>
+        <v>347450.7071392331</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>292306.7527066902</v>
+        <v>349514.0876351264</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>275163.0059473044</v>
+        <v>349849.7446596232</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>261399.4514791212</v>
+        <v>318445.8878369547</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>220070.6809076317</v>
+        <v>289965.5769033537</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>223210.6518206566</v>
+        <v>288291.2187690837</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>220571.1279473515</v>
+        <v>290592.5242601457</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>224360.9273092073</v>
+        <v>281402.0980695066</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>217616.291930475</v>
+        <v>260136.8852467795</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>217564.2724551469</v>
+        <v>273261.6271714443</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>281661.4019397749</v>
+        <v>259409.8418160161</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>269984.3524496975</v>
+        <v>233211.1716212522</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>257785.377892905</v>
+        <v>219576.5843223682</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>250495.4081474713</v>
+        <v>253042.1025950017</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>248502.8993224154</v>
+        <v>236382.5540946854</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>249372.5060379705</v>
+        <v>252626.2957110663</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>253112.2449800926</v>
+        <v>211604.3684753407</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>258496.9198351741</v>
+        <v>215393.8626684876</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>312357.2957180986</v>
+        <v>234507.4404350097</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>306471.2826567172</v>
+        <v>231950.91688085</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>292738.7252011496</v>
+        <v>230568.2805356143</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>288781.155854906</v>
+        <v>230824.1366291714</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>292894.4281028638</v>
+        <v>231072.5727556261</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>283184.9804549892</v>
+        <v>234622.3796894304</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>283275.4064012027</v>
+        <v>235060.5837285382</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>282235.2580607429</v>
+        <v>237032.312168443</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>273940.3615892018</v>
+        <v>230076.1963527261</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>280127.8105106342</v>
+        <v>223448.9821618899</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>290886.2229789976</v>
+        <v>219784.8281385984</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>315120.4181634797</v>
+        <v>262954.5902770814</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>323819.8430304707</v>
+        <v>281033.902704922</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>317837.5026941242</v>
+        <v>273817.3942652837</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>289017.60882098</v>
+        <v>276003.8059453627</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>331927.2215634966</v>
+        <v>333610.6904297908</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>261688.1617401035</v>
+        <v>249988.7984347288</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>241659.6418918372</v>
+        <v>216131.4733881525</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>211831.4269727277</v>
+        <v>181614.0778173066</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>209573.8196371081</v>
+        <v>183058.5551244625</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>207803.6580569367</v>
+        <v>170956.0028700524</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>219140.1934422507</v>
+        <v>192212.9457197412</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>210901.0707490798</v>
+        <v>203404.9125094508</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>190707.6953317826</v>
+        <v>187613.08577311</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>221535.921665865</v>
+        <v>195850.3325296771</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>198011.729396912</v>
+        <v>200760.7085809224</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>182636.5767004057</v>
+        <v>202693.9357459345</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>188140.296644788</v>
+        <v>181254.3054957202</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>188784.983639171</v>
+        <v>177356.5900066093</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>197349.3082004536</v>
+        <v>169448.8525998117</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>199127.3185890215</v>
+        <v>163910.6300022401</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>204168.1226660558</v>
+        <v>165050.900699396</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>206532.8640923603</v>
+        <v>176525.0379983657</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>236423.9213939306</v>
+        <v>165682.5949537035</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>272791.7516088213</v>
+        <v>166943.058821551</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>270723.7379213586</v>
+        <v>167706.1615053684</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>261351.9147230145</v>
+        <v>176850.0991077225</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>246525.2229757817</v>
+        <v>174691.1228918273</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>253043.1392584296</v>
+        <v>174442.5602861157</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>240480.613433581</v>
+        <v>171259.9182579112</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>267324.1163950909</v>
+        <v>167534.2511693492</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>272213.307077641</v>
+        <v>169024.4854808832</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>254283.5005102748</v>
+        <v>181545.85680521</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>256514.5290276515</v>
+        <v>174433.2228147394</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>262446.0831531182</v>
+        <v>166849.1423869208</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>251201.4367400899</v>
+        <v>155383.4485674923</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>246577.7950748975</v>
+        <v>175391.6931501641</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>249097.0015953465</v>
+        <v>198603.1385577544</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>244063.3238528084</v>
+        <v>198604.7819831326</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>242392.4531941829</v>
+        <v>197730.6846115429</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>249914.6710397218</v>
+        <v>193097.0771088054</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>247691.1059102279</v>
+        <v>194299.5980591901</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>252877.584747153</v>
+        <v>191013.5023684611</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>251591.1593419327</v>
+        <v>196540.8950288718</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>240266.0437564982</v>
+        <v>195296.237227524</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>240517.9878879873</v>
+        <v>198169.3698767138</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>240970.6157432443</v>
+        <v>193473.5709764196</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>252377.73128542</v>
+        <v>191263.7437087397</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>285687.4117463275</v>
+        <v>184638.8357137553</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>283078.6109390582</v>
+        <v>183922.232854647</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>276243.9812111107</v>
+        <v>182719.5027597178</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>276321.2037650265</v>
+        <v>184127.5251274571</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>265322.5410662704</v>
+        <v>184918.8879878352</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>263480.7442850092</v>
+        <v>183719.0862429208</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>266349.0031750362</v>
+        <v>189270.7273442904</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>263836.3639780766</v>
+        <v>182494.6765896309</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>270584.7620940607</v>
+        <v>183132.0376300069</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>267329.243515675</v>
+        <v>184125.3054288988</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>264999.9354964778</v>
+        <v>184883.7128103993</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>268124.6337449814</v>
+        <v>186009.5411072238</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>268958.5135579883</v>
+        <v>186702.0884690435</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>268950.1988614664</v>
+        <v>183273.6639047556</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>264764.5277677402</v>
+        <v>178533.5711869662</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>268770.2609834596</v>
+        <v>178210.6981677124</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>262615.7420339608</v>
+        <v>181903.4550040582</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>260984.3708945716</v>
+        <v>187424.4385800732</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>282496.3555825801</v>
+        <v>178674.3610625402</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>273214.339590268</v>
+        <v>177516.6632516987</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>262561.1470053065</v>
+        <v>160307.3994504235</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>268964.4799973313</v>
+        <v>159316.524894677</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>267744.3722400873</v>
+        <v>154610.4140552323</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>261150.106639664</v>
+        <v>158025.5786331487</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>251316.6382351751</v>
+        <v>162164.2393718422</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>254014.8426822425</v>
+        <v>164712.844749692</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>252686.4330955502</v>
+        <v>167764.1847870937</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>269795.6566099308</v>
+        <v>161058.7822745922</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>273493.6100701166</v>
+        <v>164198.5029664398</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>277619.3625755113</v>
+        <v>164655.1545260558</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>283740.1985420526</v>
+        <v>160721.6148349888</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>314699.9363499636</v>
+        <v>157590.9705677459</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>286819.8223565003</v>
+        <v>168543.875576901</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>291176.6427065288</v>
+        <v>163352.5970343667</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>285754.0779929294</v>
+        <v>155579.9984660201</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>281218.1271559026</v>
+        <v>157072.9216015821</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>276728.8143329154</v>
+        <v>161624.2636880309</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>269862.7924699628</v>
+        <v>171042.6996049187</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>272535.1658190885</v>
+        <v>167414.1632318936</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>258085.5362174077</v>
+        <v>183142.1154474333</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>263539.0392828413</v>
+        <v>196412.0334865363</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>295061.1874693288</v>
+        <v>187955.8168460072</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>284696.0345889632</v>
+        <v>201041.5733826048</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>287464.4477869131</v>
+        <v>186382.0727698523</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>265422.9943098706</v>
+        <v>187217.1785330546</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>263171.525424279</v>
+        <v>182005.8651259158</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>266112.2899500492</v>
+        <v>175572.7944629523</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>256593.0235069241</v>
+        <v>167260.8349253615</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>259322.7122006517</v>
+        <v>163915.9315092546</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>262133.0576855138</v>
+        <v>156727.8686673667</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>271548.9532746358</v>
+        <v>177093.2712107726</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>275053.8281799379</v>
+        <v>178870.937036184</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>296654.1999560374</v>
+        <v>179698.0101930706</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>288467.8011494192</v>
+        <v>180189.3085836943</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6022,7 +6022,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>304079.6740162346</v>
+        <v>178428.2108356676</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>294971.2676798232</v>
+        <v>177711.6327749262</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>293931.337962475</v>
+        <v>184711.9668291301</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>301794.8099317699</v>
+        <v>191145.0487942258</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>292043.201938062</v>
+        <v>198594.9344177606</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>373721.6882275599</v>
+        <v>200698.6790997132</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6070,7 +6070,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>366164.3896717668</v>
+        <v>211404.6210891794</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6078,7 +6078,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>371886.6468695984</v>
+        <v>204817.5733657789</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6086,7 +6086,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>293892.6323978557</v>
+        <v>204714.0239076845</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>289773.2075642532</v>
+        <v>204601.2332266356</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>303506.1542302088</v>
+        <v>209242.9981826867</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6110,7 +6110,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>311754.9040870395</v>
+        <v>219696.9383087535</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6118,7 +6118,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>281474.1597176997</v>
+        <v>211377.9645779586</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>282313.0647094924</v>
+        <v>208018.0241484713</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>274736.8619633575</v>
+        <v>212074.9319652992</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>271005.347616541</v>
+        <v>224868.1492778967</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>265016.563354486</v>
+        <v>217966.5862317167</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>266977.6693756136</v>
+        <v>218732.0088922018</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>273297.5925281178</v>
+        <v>210088.1491477442</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6174,7 +6174,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>276129.9169057365</v>
+        <v>210212.1182913965</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6182,7 +6182,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>279581.981760896</v>
+        <v>212370.3530689724</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>302407.7506868154</v>
+        <v>217816.9201114069</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>318074.4913297671</v>
+        <v>219282.6492622027</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>300618.843021447</v>
+        <v>209771.4599344145</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6214,7 +6214,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>291196.1584543868</v>
+        <v>206462.6776264815</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>293791.4986436888</v>
+        <v>210211.6837075325</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>305136.2912396732</v>
+        <v>308478.3778670019</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>347119.4248546496</v>
+        <v>311488.1103831285</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>378288.231806966</v>
+        <v>328997.5944191452</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>387072.6927578028</v>
+        <v>321536.0490727485</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>382033.7054027913</v>
+        <v>333219.4995926081</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>368086.722995365</v>
+        <v>339769.8863359025</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>357639.6806360401</v>
+        <v>342965.8708956087</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>352331.6910372833</v>
+        <v>372412.3145314255</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>348006.3078964038</v>
+        <v>395766.1899529505</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>336412.6856733897</v>
+        <v>416095.6530327302</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>308058.3057774872</v>
+        <v>433865.3315765555</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>289677.2242533574</v>
+        <v>437977.5442108926</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>283012.9837416137</v>
+        <v>426966.4782023445</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>281704.9141281417</v>
+        <v>416556.5359688628</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>299794.1403118006</v>
+        <v>397045.1536117551</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>300427.9776859315</v>
+        <v>375828.7377928024</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>314121.8710380454</v>
+        <v>362685.3081706617</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>311691.573177651</v>
+        <v>350680.7593361323</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>318230.7422131037</v>
+        <v>342832.1207302995</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>296131.7647632376</v>
+        <v>337141.1280066067</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>291008.659652055</v>
+        <v>326843.5827076221</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>317655.8576849092</v>
+        <v>339861.3475506242</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>338693.6677313903</v>
+        <v>349124.7711710703</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>337009.7595283488</v>
+        <v>334647.7944991342</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>336888.3077242697</v>
+        <v>339901.9812588858</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>331093.5946637323</v>
+        <v>342339.953284901</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>336890.8642321567</v>
+        <v>351724.9920786658</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>330685.6779557623</v>
+        <v>373618.8975372721</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>336494.6508493777</v>
+        <v>376817.1245354372</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>324791.6594183755</v>
+        <v>383982.2734535964</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>319178.8625481145</v>
+        <v>371789.1091424979</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>330295.433500185</v>
+        <v>375009.1900589796</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>350195.3376871687</v>
+        <v>344865.2099720308</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>376794.042212101</v>
+        <v>344137.5773527344</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>423850.974092131</v>
+        <v>338378.9329948247</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>469490.0571921893</v>
+        <v>343137.0378625058</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>493364.6347885227</v>
+        <v>330627.2971597981</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>506891.9497260444</v>
+        <v>331432.5080673701</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>517146.1645119064</v>
+        <v>330091.0147671837</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>515671.6294533155</v>
+        <v>316926.2372528749</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>498396.555237279</v>
+        <v>334399.4686707777</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>482128.0847117877</v>
+        <v>370615.7317042284</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>475269.3566764725</v>
+        <v>396131.7009851857</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>461712.6259124685</v>
+        <v>386908.950784829</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>466866.7434587058</v>
+        <v>390735.3028864556</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>448822.0528331944</v>
+        <v>432439.7553701781</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>440479.3732654965</v>
+        <v>424290.5842407258</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>440860.4317606002</v>
+        <v>413724.1809175072</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>443728.0772951227</v>
+        <v>412502.3907902697</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>445953.6332611789</v>
+        <v>403222.9063161567</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>453792.7294066864</v>
+        <v>408810.5969060538</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>450372.1182399067</v>
+        <v>409624.6152178993</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>442857.8578106783</v>
+        <v>408121.8689789092</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>442495.2779982949</v>
+        <v>419908.8120038734</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>433267.3298600996</v>
+        <v>425154.064457467</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>428038.4121122629</v>
+        <v>422107.1293397368</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>429578.2235880561</v>
+        <v>423808.9889010472</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>453797.7995591651</v>
+        <v>432896.5217827489</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>439921.9147098302</v>
+        <v>427099.524669711</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>449683.4717897447</v>
+        <v>411265.3460778813</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>364077.593078612</v>
+        <v>361569.5490929517</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>369857.7038102908</v>
+        <v>354748.431035582</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>357104.8458986047</v>
+        <v>352436.1437521543</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>350469.3585996176</v>
+        <v>354761.8441358497</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>394895.9532664048</v>
+        <v>357126.6231129432</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>393640.8999677912</v>
+        <v>358599.4623049856</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>405336.0401119481</v>
+        <v>369081.8984435974</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>383276.5475633493</v>
+        <v>374921.9750049678</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>389661.8938793432</v>
+        <v>386858.5321505422</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>375503.5915801678</v>
+        <v>386401.0796109136</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>378214.0862222529</v>
+        <v>371614.4542649893</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>368649.6609600274</v>
+        <v>367836.9823270486</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>369907.9076795958</v>
+        <v>353879.1094759518</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>373753.1555967465</v>
+        <v>356448.3886657605</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>365137.8259260142</v>
+        <v>359859.6450253236</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>369795.0823560412</v>
+        <v>357710.3807554127</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>368548.0975715342</v>
+        <v>354031.0962852595</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>369807.4112222686</v>
+        <v>354173.7188519653</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>364815.2356285401</v>
+        <v>380605.2070486305</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>363498.7826406067</v>
+        <v>386522.5575835048</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>361450.6908075114</v>
+        <v>396078.6942064181</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>368757.2481638932</v>
+        <v>405106.5115801831</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>378421.5463285149</v>
+        <v>402020.3061135138</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>333789.6211498893</v>
+        <v>388277.5321157218</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>341658.5788050214</v>
+        <v>384324.4613832179</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>340006.4243427687</v>
+        <v>369945.3663906014</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>366770.2952269525</v>
+        <v>375011.8275885344</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>392787.0623639479</v>
+        <v>375226.8312522161</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>425554.5806966958</v>
+        <v>384675.8938723293</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>422129.310633838</v>
+        <v>401261.5927694249</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>456356.2282390874</v>
+        <v>375855.1295113444</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>400714.972102543</v>
+        <v>333159.3131267407</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>375775.9243262623</v>
+        <v>386365.7170263962</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>351711.2289474454</v>
+        <v>408470.7125973243</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>352874.4112704046</v>
+        <v>439646.3432216581</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>368168.4676332591</v>
+        <v>456148.8530234812</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>393821.4350713988</v>
+        <v>455041.7804341672</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>415849.6602802078</v>
+        <v>447380.0161869326</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>424494.7783198393</v>
+        <v>457914.7231873018</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>424067.9349228457</v>
+        <v>445878.8802136389</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>413637.8626678088</v>
+        <v>441018.076369426</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>390437.6302653581</v>
+        <v>435566.2719495242</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>383011.144137739</v>
+        <v>448146.0806783155</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>371618.4033257436</v>
+        <v>435264.6560571782</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>401717.5309361866</v>
+        <v>454751.0759180287</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>436907.6629804664</v>
+        <v>454164.0355748875</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>426738.7996095672</v>
+        <v>477479.3731829741</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>418655.4416179539</v>
+        <v>494583.7335338916</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>413808.1307982451</v>
+        <v>508090.9602190218</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>394529.4391729895</v>
+        <v>509993.745886386</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>388510.1611623213</v>
+        <v>522707.331819142</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>378255.0458932459</v>
+        <v>525030.7802851303</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>375802.7509178413</v>
+        <v>536242.3500801831</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>379931.8910332994</v>
+        <v>534018.5062750027</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>372380.3802222712</v>
+        <v>541571.5936389712</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>359801.0312453195</v>
+        <v>544503.6402932445</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>361830.291619928</v>
+        <v>540109.7497997304</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>383824.0521888413</v>
+        <v>536805.9525856298</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>397394.5833331317</v>
+        <v>532293.7103220206</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>456315.5500792108</v>
+        <v>506990.5869705256</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>267009.2337562448</v>
+        <v>349802.4784214796</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>287569.8659184155</v>
+        <v>293082.13335853</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>280708.9521639911</v>
+        <v>310810.4329038341</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>263735.0370467774</v>
+        <v>284782.1882816807</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>265404.6458568039</v>
+        <v>286198.8599230382</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>281405.6075983439</v>
+        <v>301667.7836770024</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>323008.5203685283</v>
+        <v>380541.2485797546</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>340659.5695738987</v>
+        <v>377108.9958290401</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>343512.1687353859</v>
+        <v>381250.3094245045</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>360710.2572772378</v>
+        <v>328583.9617994563</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>351817.4692612342</v>
+        <v>316770.3692231438</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>326017.8623819245</v>
+        <v>283315.1986115913</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>316445.9463596428</v>
+        <v>299463.3696566224</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>312327.0101992548</v>
+        <v>277550.3158135662</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>307634.7687604804</v>
+        <v>301467.5579745064</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>303463.9089928493</v>
+        <v>269160.632478477</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>330874.6672440811</v>
+        <v>270086.1460569294</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>348367.786385384</v>
+        <v>256690.3340874185</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>380520.4906978033</v>
+        <v>280060.6241411774</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>443546.2925930666</v>
+        <v>259139.6992403048</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>512535.8784694308</v>
+        <v>323465.4689092768</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>530654.7023263953</v>
+        <v>388264.2070521347</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>543344.6187590813</v>
+        <v>427129.9928745646</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>549975.1360726128</v>
+        <v>436404.3727191995</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>557579.1216324508</v>
+        <v>497747.9956337124</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>565016.6464305971</v>
+        <v>506311.2618549994</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>564007.1669637322</v>
+        <v>522339.8747010279</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>563909.0853011596</v>
+        <v>514658.5805932613</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>564523.7634476289</v>
+        <v>527532.545434513</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>563819.5408562958</v>
+        <v>536198.6137640097</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>562470.5281415685</v>
+        <v>556358.0761151429</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>562725.0048989289</v>
+        <v>563921.1891196008</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>563902.0884431286</v>
+        <v>565132.4535154068</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>564700.2358119143</v>
+        <v>566144.3766703599</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>563518.4684921592</v>
+        <v>567463.2587410301</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>562537.5074454177</v>
+        <v>569486.3950888466</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>563878.0687805654</v>
+        <v>574592.4506592554</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>565371.6290901974</v>
+        <v>575497.0383451101</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>565461.6793162427</v>
+        <v>578542.0894077908</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>566856.670691398</v>
+        <v>577015.5863258392</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>570908.4725059214</v>
+        <v>575676.0157787608</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>564081.234210298</v>
+        <v>574085.7936138738</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>561232.3809130441</v>
+        <v>574211.9594796548</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>553607.0859332292</v>
+        <v>574647.7571577795</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>558710.347949955</v>
+        <v>575645.5335487184</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>547556.7684758683</v>
+        <v>573695.9530855945</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>553027.7770153064</v>
+        <v>570572.1252951109</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>545669.282585434</v>
+        <v>537364.9249787743</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>551179.6456224998</v>
+        <v>553056.8958754147</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>540757.9989376193</v>
+        <v>537879.6716207047</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>548573.0132834057</v>
+        <v>550147.6061445853</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>531041.8392287024</v>
+        <v>547020.344493634</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>532472.6246377825</v>
+        <v>562732.153320738</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>515741.4186027464</v>
+        <v>553662.0897897152</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>527935.2502127583</v>
+        <v>568359.8840695609</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>510659.638163831</v>
+        <v>567099.7401230447</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>495143.0139991764</v>
+        <v>567985.3554054588</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>477347.1942718579</v>
+        <v>564625.5042306945</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>454502.9835510619</v>
+        <v>558405.721952111</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>431014.2749392388</v>
+        <v>545924.6899281177</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>474413.6234112303</v>
+        <v>546138.4082955242</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>489751.5577298949</v>
+        <v>531989.2604050711</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>502454.9763026945</v>
+        <v>512885.019755825</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>474414.6455745289</v>
+        <v>513428.479537568</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>469372.3442848122</v>
+        <v>504954.7692888298</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>460597.4068444044</v>
+        <v>497468.4649173321</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>460952.697421587</v>
+        <v>448178.3725972835</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>461852.2988846154</v>
+        <v>455688.8715691853</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>435826.2843498015</v>
+        <v>469913.3468681119</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>463121.082127359</v>
+        <v>428729.1097820995</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>443165.322159261</v>
+        <v>410889.548181865</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>414737.7631824135</v>
+        <v>412631.9147828093</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>404719.2379267482</v>
+        <v>406916.7313524903</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>397370.7084306885</v>
+        <v>414616.3179034481</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>368393.7989500311</v>
+        <v>416106.4261854312</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>360576.6274098224</v>
+        <v>404126.4046183018</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>367950.5675615241</v>
+        <v>384545.0054855943</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>346084.9599592332</v>
+        <v>374068.6342264572</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>328288.5502884554</v>
+        <v>343638.0293351486</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>328164.347829018</v>
+        <v>347896.2219873858</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>321920.1392772258</v>
+        <v>326364.9394591275</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>327827.3855672723</v>
+        <v>337193.9170871133</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>315029.3754393858</v>
+        <v>333558.8959514352</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>315763.6757834165</v>
+        <v>332754.1265177302</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>304105.5109400108</v>
+        <v>305426.5578538936</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>293730.1287061318</v>
+        <v>317907.9437626325</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>289138.7939246796</v>
+        <v>350338.4835602439</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>297624.9111868183</v>
+        <v>339976.8236720085</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>288226.7256382884</v>
+        <v>328135.8346141893</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>290103.3997266492</v>
+        <v>312471.658085111</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>285693.0469452857</v>
+        <v>323441.9226075073</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>285985.0467767143</v>
+        <v>321620.8549982776</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>266928.9568937192</v>
+        <v>309951.6279762762</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>231275.3225212003</v>
+        <v>272567.8034997962</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>232098.7028248672</v>
+        <v>269288.5702454795</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>223273.1670284831</v>
+        <v>250139.7855174582</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>229242.2807714554</v>
+        <v>259503.0829096537</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>224484.460372213</v>
+        <v>254168.3893647449</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>225555.7099987491</v>
+        <v>239573.970352409</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>223129.5189149048</v>
+        <v>227017.6180578058</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>227557.1559920947</v>
+        <v>236729.6835262907</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>211869.1850139911</v>
+        <v>231077.3756480351</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>223759.161374328</v>
+        <v>231553.010925889</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>219154.881514061</v>
+        <v>235913.9740682573</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>219015.1601159338</v>
+        <v>237382.0895646967</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>232635.3403021539</v>
+        <v>228251.9263497112</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>232236.0035397837</v>
+        <v>228555.3288939997</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>234384.0325260109</v>
+        <v>243265.1643302829</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>230227.5319048301</v>
+        <v>234937.5978670856</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>220075.3765320317</v>
+        <v>233795.9690156539</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>229574.4029629262</v>
+        <v>242363.6870848239</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>267444.084560213</v>
+        <v>236768.7639689577</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>264070.3701114267</v>
+        <v>217060.2993629836</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>264782.8076255141</v>
+        <v>242916.7475712399</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>258720.6146378944</v>
+        <v>296026.796402163</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>250629.9376897272</v>
+        <v>319432.5681757503</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>254010.4835863178</v>
+        <v>288539.7685974771</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>259869.6299110581</v>
+        <v>285198.4258290687</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>260419.7552046344</v>
+        <v>290130.0670941854</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>254591.1940570708</v>
+        <v>277849.7138675197</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>249651.6863987651</v>
+        <v>250885.5422865055</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>243631.6496837308</v>
+        <v>267344.9198665282</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>317709.7532029576</v>
+        <v>341043.9648737435</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>240320.8270893323</v>
+        <v>278036.7761141232</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>224876.1022309118</v>
+        <v>229648.911874925</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>222751.5728312392</v>
+        <v>210689.9447070507</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>198897.6643718534</v>
+        <v>199532.6318559518</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>205411.5249021068</v>
+        <v>188175.1572960878</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>193797.5130686498</v>
+        <v>180018.1181287883</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>187157.9328924612</v>
+        <v>181088.0931722163</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>184081.3646360357</v>
+        <v>174766.2571417263</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>196611.1315838096</v>
+        <v>187129.6628706108</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>205572.1504025884</v>
+        <v>185596.3229586965</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>210682.5756607959</v>
+        <v>179777.4106075756</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>196352.7349280269</v>
+        <v>171095.3248154593</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>204173.1168256529</v>
+        <v>177676.0357385381</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>192540.3924139527</v>
+        <v>169901.4973806264</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>212630.080484236</v>
+        <v>168454.0690310239</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>209963.418525582</v>
+        <v>174064.1087056568</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>197443.1082441324</v>
+        <v>166520.9281233814</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>200392.424423176</v>
+        <v>192563.4825422147</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>190359.1706596572</v>
+        <v>177385.0543650833</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>179288.7363530407</v>
+        <v>181682.9219003389</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>192911.970885243</v>
+        <v>187453.1666164686</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>195454.5672280944</v>
+        <v>203278.4776677501</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>197105.7830519935</v>
+        <v>203680.1847615037</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>214649.8340160146</v>
+        <v>208783.1206801778</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>213632.4062949009</v>
+        <v>209380.7332345523</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>213903.6948714629</v>
+        <v>203784.1108567677</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>207178.3951339781</v>
+        <v>201904.0803957053</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>208695.8411801792</v>
+        <v>186155.9870262984</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>227095.7866175414</v>
+        <v>191973.1848409975</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>212597.7351143417</v>
+        <v>192665.5151415933</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>225179.298379119</v>
+        <v>202014.8036471387</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>230094.5703835851</v>
+        <v>217620.1465468736</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>241753.1131677617</v>
+        <v>213256.4052618177</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>222302.5644756698</v>
+        <v>224507.3849360074</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>230200.103449027</v>
+        <v>255378.142191127</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>233265.8817168834</v>
+        <v>245154.802822555</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>228239.7639062562</v>
+        <v>251792.3472698136</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>229081.1756477174</v>
+        <v>244209.5523026711</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>218706.1962502423</v>
+        <v>238604.4075284443</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>215249.6022198158</v>
+        <v>236043.1146658761</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>220551.4403617147</v>
+        <v>237255.6127674936</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>221778.519370184</v>
+        <v>224302.516959649</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>212540.190868413</v>
+        <v>228915.8248992933</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>208080.6048516291</v>
+        <v>222955.8112700938</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>213160.4753397408</v>
+        <v>221395.5500137087</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>213100.9116208943</v>
+        <v>216747.4359971527</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>217356.9549672025</v>
+        <v>225560.9018954136</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>214411.8901596248</v>
+        <v>219263.0347069734</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>219496.691915666</v>
+        <v>223307.639550792</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>208865.2162514121</v>
+        <v>222767.4615335236</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>219611.4709480659</v>
+        <v>228576.4974116276</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>231005.5119578588</v>
+        <v>231853.9069693868</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>260672.926434402</v>
+        <v>236729.0802517643</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>270600.0975237938</v>
+        <v>226943.8405797399</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>252401.0872198275</v>
+        <v>217646.3291351653</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>237211.1733557991</v>
+        <v>226157.4635248054</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>217218.7432813939</v>
+        <v>229103.8964780241</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>223092.4441262686</v>
+        <v>234445.5474486336</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>231428.3853811128</v>
+        <v>228143.1831435536</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>228498.818076651</v>
+        <v>235137.1386625979</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>217129.3006778372</v>
+        <v>243469.7683670497</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>216625.5166420637</v>
+        <v>250818.6925969039</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>197751.8784867831</v>
+        <v>236393.2633443025</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>209088.7794632819</v>
+        <v>239049.1194849167</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>204445.7821840954</v>
+        <v>236582.0720199627</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>210729.3140128562</v>
+        <v>238939.7404399732</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>215242.9285285774</v>
+        <v>236504.967512392</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>235384.0483878491</v>
+        <v>227688.7878834293</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>240831.3068839493</v>
+        <v>237678.6181504916</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>226737.9193845887</v>
+        <v>241919.0959507787</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>225555.7234018382</v>
+        <v>312932.8883729521</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>229533.0977445351</v>
+        <v>329266.0286627766</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>220406.2116596713</v>
+        <v>373755.6907283521</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>219969.2154016785</v>
+        <v>385728.2370968941</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>223738.2578560509</v>
+        <v>362364.9786317425</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>235792.0018271994</v>
+        <v>354387.5751367054</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>247011.2856838185</v>
+        <v>300421.4163962031</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>244704.2387221274</v>
+        <v>293357.2640710559</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>251755.6459169343</v>
+        <v>285387.7505975171</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>236635.6270869747</v>
+        <v>272519.9775497236</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>248993.3855076918</v>
+        <v>262813.4302057936</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>233715.8067296615</v>
+        <v>277477.3916713339</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>231757.6089995352</v>
+        <v>275821.9224046771</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>236980.000254198</v>
+        <v>289010.4978995317</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>237112.7027496093</v>
+        <v>367550.3729851362</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>234550.4750563318</v>
+        <v>389397.8240729899</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>238297.1800172569</v>
+        <v>448656.450730704</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>244989.9874697055</v>
+        <v>464497.7952323846</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>262001.8373504506</v>
+        <v>427103.0559003851</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>248542.5851116828</v>
+        <v>347538.8650850628</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>237292.4193661102</v>
+        <v>340968.7089642106</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>228893.3693263346</v>
+        <v>306264.2021552799</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>250204.3097067056</v>
+        <v>326996.1668778521</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>262841.0936068623</v>
+        <v>320104.8454338243</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>293158.8462178564</v>
+        <v>314244.3921123506</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>293172.136730418</v>
+        <v>313382.3084843021</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>303366.6460272472</v>
+        <v>316354.2299533904</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>324454.4625673834</v>
+        <v>319754.5848620518</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>314287.3538444379</v>
+        <v>325207.8954775528</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>318232.0773702394</v>
+        <v>306040.1139509134</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>320871.8701601172</v>
+        <v>303354.1406165763</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>304400.6309599855</v>
+        <v>314415.2987262326</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>298204.6139119027</v>
+        <v>326104.3751472721</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>294325.0274166293</v>
+        <v>357980.6528298566</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>305997.1637951827</v>
+        <v>338534.9798071629</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>313061.4485756093</v>
+        <v>341943.7058164274</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>316993.1304847947</v>
+        <v>353610.5546649377</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>316898.3527637409</v>
+        <v>344789.449818965</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>321264.8171795751</v>
+        <v>347137.6393114743</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>305662.5675232343</v>
+        <v>342651.7216995279</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>303775.7858787336</v>
+        <v>329535.9963265233</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>311074.7153258614</v>
+        <v>306023.2343421212</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>310105.0823125768</v>
+        <v>304868.0079708373</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>302073.2783338453</v>
+        <v>297659.4949381844</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>317918.8453268426</v>
+        <v>300173.085005451</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>308472.2326293624</v>
+        <v>298622.2497908353</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>321791.6847706725</v>
+        <v>308936.1766126531</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>318549.1190219774</v>
+        <v>318715.9751509632</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>316700.3629000833</v>
+        <v>319362.0415818296</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>321656.5848969473</v>
+        <v>311402.8957468513</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>315467.4221755454</v>
+        <v>313322.3465757505</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>313663.2002053924</v>
+        <v>310347.4486162997</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>283880.6814278629</v>
+        <v>295222.3920979889</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>273278.8642014946</v>
+        <v>276180.4295942273</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>284496.8006523878</v>
+        <v>276993.0754611124</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>277552.0085666375</v>
+        <v>276683.799223644</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>269423.224151559</v>
+        <v>275773.7541683621</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>265006.4369190102</v>
+        <v>265786.4524727286</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>268055.2303623336</v>
+        <v>275913.7347182033</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>263570.600455404</v>
+        <v>277906.8258923801</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>265886.8607076094</v>
+        <v>277776.3424064541</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>274955.2713364506</v>
+        <v>290100.4827516634</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>275537.2420375642</v>
+        <v>301792.352527939</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>280876.466999485</v>
+        <v>304523.6474154643</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>283261.6880527254</v>
+        <v>302638.2475940681</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>319342.4052810966</v>
+        <v>308625.6877999741</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>384460.2958667059</v>
+        <v>316560.435729287</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>454810.1526752854</v>
+        <v>312379.7263259453</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>498167.2181869891</v>
+        <v>310651.5790290553</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>556456.9300116167</v>
+        <v>313666.3793224069</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>555539.731828967</v>
+        <v>315000.8830923832</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>541683.7107032756</v>
+        <v>318899.0284485642</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>478608.1141471611</v>
+        <v>306982.9959267089</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>449637.0760245768</v>
+        <v>307423.1363387845</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>417726.0232539419</v>
+        <v>308404.5439571241</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>414416.3597608152</v>
+        <v>313918.5774961434</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>420296.2300522479</v>
+        <v>310819.8717876106</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>423031.3274488408</v>
+        <v>306892.1273401902</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>456612.277400695</v>
+        <v>313461.6879937382</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>450429.5027699429</v>
+        <v>343429.0851544557</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>438784.8704045731</v>
+        <v>335363.2892636205</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>430474.1723986464</v>
+        <v>338502.9299536957</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>433508.9353650509</v>
+        <v>346712.7174210604</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>450698.4179612631</v>
+        <v>350347.4529660033</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>430631.0539786525</v>
+        <v>344753.4223287035</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>411483.7066576565</v>
+        <v>337661.3660036256</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>404668.6230346855</v>
+        <v>334912.6601411354</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>404015.4833875532</v>
+        <v>322824.27475589</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>401772.6752730388</v>
+        <v>347982.5678812182</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>393739.4848452665</v>
+        <v>353167.5476469647</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>369761.0021699372</v>
+        <v>352127.3520589282</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>338808.1507361124</v>
+        <v>353736.0218045292</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>340032.8657664336</v>
+        <v>351168.1400592697</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>352843.5675306428</v>
+        <v>367898.1505363409</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>349237.1015097156</v>
+        <v>375754.8587122224</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>338636.7433456406</v>
+        <v>399522.6593547625</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>372495.5256965195</v>
+        <v>458015.9018864798</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>421992.9027545287</v>
+        <v>500633.42236172</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>417614.393769183</v>
+        <v>492225.8136075169</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>428598.8805710999</v>
+        <v>491560.041611224</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>430103.2034937216</v>
+        <v>481483.7572136253</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>434687.7951697823</v>
+        <v>478240.2798504732</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>445721.4511322074</v>
+        <v>471562.4664047443</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>438758.3771880488</v>
+        <v>470203.865921471</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>431545.6313553434</v>
+        <v>465233.7081493805</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>440541.6335467439</v>
+        <v>458969.9949891811</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>423996.816715572</v>
+        <v>448516.1773260249</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>417911.763601516</v>
+        <v>449916.925643843</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>416973.4130192359</v>
+        <v>459707.661896953</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>419831.5610780282</v>
+        <v>475967.3192517866</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>415049.3960426621</v>
+        <v>466886.1380046617</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>395966.1674537178</v>
+        <v>444371.8085720094</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>344888.7517902802</v>
+        <v>390662.8833788796</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>355425.685371939</v>
+        <v>367645.3273223308</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>356200.2250112583</v>
+        <v>362088.5846339627</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>360099.2719858664</v>
+        <v>371187.0910731266</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>362765.6993444182</v>
+        <v>421992.0566046637</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>363292.0036610999</v>
+        <v>452438.4724656196</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>353348.7905263558</v>
+        <v>463192.5174742697</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>345498.3819078884</v>
+        <v>486417.1560444022</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>343915.2104975536</v>
+        <v>465844.8772432322</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>332464.3165839671</v>
+        <v>450430.4502682376</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>338149.5561965838</v>
+        <v>438279.3836734111</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>353285.2592844662</v>
+        <v>433574.8714615798</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>353937.8762177332</v>
+        <v>447337.3620092879</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>345265.5743610651</v>
+        <v>433725.88806829</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>354584.85029386</v>
+        <v>448998.8706984089</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>386450.5946895871</v>
+        <v>454607.4323969624</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>389330.188189305</v>
+        <v>449443.6176577533</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>405106.6038010998</v>
+        <v>428273.7608354999</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>400287.0285547353</v>
+        <v>430237.8672498743</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>391784.2714879788</v>
+        <v>426333.9885026496</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>363699.1138541657</v>
+        <v>436735.3319094268</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>356281.0447042435</v>
+        <v>414468.8955597053</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>346995.9445630572</v>
+        <v>434131.0149428275</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>340357.7385990533</v>
+        <v>458412.7940591167</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>345640.2885229</v>
+        <v>437155.3766147479</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>348490.0674770495</v>
+        <v>429974.4099510826</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>375177.5493802548</v>
+        <v>436329.769566228</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>400887.7475810666</v>
+        <v>441867.7025377061</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>423242.4579111686</v>
+        <v>448648.4408617445</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>442884.2141081174</v>
+        <v>438237.5482870584</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>422674.1721669844</v>
+        <v>383738.6624436796</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>358103.7368749228</v>
+        <v>278875.3604771396</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>342120.1894266944</v>
+        <v>296162.3049184998</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>327893.7335601933</v>
+        <v>281432.8675556607</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>303356.9729364471</v>
+        <v>287994.365942961</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>312894.3811806223</v>
+        <v>273902.9620054933</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>310515.2150479366</v>
+        <v>289684.1221167321</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>310719.4612991246</v>
+        <v>324191.5672332858</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>313071.1366775951</v>
+        <v>323544.6155365361</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>307459.7696462662</v>
+        <v>354448.984593271</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>316476.5462420221</v>
+        <v>361888.7712703152</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>334745.5334775478</v>
+        <v>365902.9098579882</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>338951.9919326495</v>
+        <v>361815.9568955257</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>339365.573611034</v>
+        <v>349250.1173383717</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>331887.5083340319</v>
+        <v>367431.9813253121</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>305703.5586039638</v>
+        <v>360722.2751935698</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>311196.6017435945</v>
+        <v>374667.4689395122</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>316525.1482556064</v>
+        <v>411429.2210898421</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>327872.9539514758</v>
+        <v>413451.4921199546</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>338343.5121545401</v>
+        <v>403962.9269820352</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>343052.8069349338</v>
+        <v>404995.7358610373</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>354866.6339092146</v>
+        <v>370908.8533813118</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>359875.8395446686</v>
+        <v>400852.6873329731</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>363805.9743468586</v>
+        <v>404303.6779744463</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>392307.0642155287</v>
+        <v>407980.5294383673</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>431358.0411273983</v>
+        <v>411087.8383703585</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>451814.8578706406</v>
+        <v>434702.5506303093</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>466731.902161972</v>
+        <v>473953.0031282314</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>500116.4562290965</v>
+        <v>485862.6832775213</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>474375.0936303816</v>
+        <v>518853.7909522975</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>328599.7451837446</v>
+        <v>440050.7033312169</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>249255.5137486906</v>
+        <v>487419.4305394979</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>283224.1689366807</v>
+        <v>515740.6733166742</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>245155.7647449556</v>
+        <v>494982.4842721535</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>267229.8584149314</v>
+        <v>497597.2720899076</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>262739.6021344077</v>
+        <v>528930.0805171656</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>292810.6010986228</v>
+        <v>548209.8923998146</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>337249.2547293759</v>
+        <v>552334.3429631244</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>405496.6122417882</v>
+        <v>551789.0767420757</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>370338.046066808</v>
+        <v>521242.98894207</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>381274.7100783196</v>
+        <v>477841.2618440954</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>306199.1640681181</v>
+        <v>428098.2105033729</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>272027.9302314347</v>
+        <v>438678.2985031212</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>240711.7461062447</v>
+        <v>435176.8670338983</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>229967.957473348</v>
+        <v>441831.4176585287</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>226564.2118690286</v>
+        <v>477180.6800578135</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>216407.587983586</v>
+        <v>516723.2766296083</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>213082.4050329878</v>
+        <v>536931.3078527219</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>207514.8113914261</v>
+        <v>543778.6458453399</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>205543.7929543566</v>
+        <v>534571.6525296839</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>205990.7641646879</v>
+        <v>550805.7083148634</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>214164.6850759892</v>
+        <v>562288.9956163714</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>218157.0421951461</v>
+        <v>564519.7986159977</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>225659.7328918038</v>
+        <v>562403.5769688182</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>237180.8449081771</v>
+        <v>561740.743066548</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>262013.5981346362</v>
+        <v>561556.0201572193</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>356791.0865464049</v>
+        <v>561800.1263703514</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>483318.9698361824</v>
+        <v>551271.4966379917</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>514598.5977215982</v>
+        <v>549789.7658066391</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>504030.1296541141</v>
+        <v>563594.699283932</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>508596.7360387775</v>
+        <v>564455.2923313206</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>523238.2487537643</v>
+        <v>570956.8980315141</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>524463.0590987123</v>
+        <v>573060.5847447398</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>516193.828038457</v>
+        <v>571283.3627160343</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>544711.3434506002</v>
+        <v>571340.5044792645</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>556190.2684092653</v>
+        <v>569251.2120456164</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>570457.7783828208</v>
+        <v>564826.8577024608</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>559651.0994967467</v>
+        <v>567556.7695370967</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>563353.1531882436</v>
+        <v>567561.6307431762</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>544553.9740334534</v>
+        <v>573613.4548552911</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>545326.9238031148</v>
+        <v>568891.8843478173</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>528956.9519916143</v>
+        <v>572249.3237260871</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>541700.490122289</v>
+        <v>571831.7650781748</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>548113.1183371242</v>
+        <v>570644.6977352165</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>570302.8216618865</v>
+        <v>571498.4315010709</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>568424.9220961868</v>
+        <v>571839.1235165341</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>567004.4803490328</v>
+        <v>567335.1005941082</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>567274.0009921395</v>
+        <v>565913.3556925099</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>568454.5100836895</v>
+        <v>555921.4516518346</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>569921.3456728962</v>
+        <v>524620.0840908471</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>546693.9836972632</v>
+        <v>547494.5389318566</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>565597.8281758573</v>
+        <v>523116.359854756</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>553778.7829553398</v>
+        <v>531442.4009819059</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>572001.1452668088</v>
+        <v>492411.5485410335</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>562012.8309799493</v>
+        <v>514946.8692901332</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>570530.9861995791</v>
+        <v>502451.1906912192</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>567569.2098777713</v>
+        <v>486124.0200394344</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>574821.5621129277</v>
+        <v>484948.3092587449</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>576314.2858183108</v>
+        <v>466848.2264171814</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>576003.1606099785</v>
+        <v>487685.0206997488</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>575814.1297833817</v>
+        <v>467842.6692704962</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>568974.5269910231</v>
+        <v>463968.5151781486</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>549219.5735825732</v>
+        <v>470755.2966858373</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>521925.6212824535</v>
+        <v>451182.4061833317</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>465917.9489490812</v>
+        <v>441395.6588969846</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>481694.1712888957</v>
+        <v>423942.2462521123</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>476936.4572696161</v>
+        <v>395844.1504651896</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>474429.2385820828</v>
+        <v>395354.2567157986</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>444840.2979733425</v>
+        <v>405358.296592108</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>452188.8723756341</v>
+        <v>391672.7044739099</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>458857.0616074984</v>
+        <v>386783.5946756091</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>454647.5446997547</v>
+        <v>378356.9814473588</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>444324.4276016174</v>
+        <v>367088.8770087399</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>439125.634044587</v>
+        <v>388403.8583365236</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>415841.6212946899</v>
+        <v>348102.7073082445</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>408778.0631978682</v>
+        <v>337109.0715423076</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>419075.9487202254</v>
+        <v>331435.3471521313</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>421443.241513164</v>
+        <v>332286.0671394516</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>395190.4535892772</v>
+        <v>339513.4516598519</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>401890.2416416235</v>
+        <v>320080.3695408623</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>410128.3003678205</v>
+        <v>339047.5480356964</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>405219.425508226</v>
+        <v>323472.5093555779</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>388288.0387379301</v>
+        <v>310003.7727769638</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>365406.6944116959</v>
+        <v>327606.9296525029</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>365109.247270839</v>
+        <v>307733.4347427142</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>365973.0670504145</v>
+        <v>326115.4066780418</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>374980.0509189272</v>
+        <v>343875.9760000354</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>344722.5395190853</v>
+        <v>325328.676276935</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>332047.2637635585</v>
+        <v>292597.2925360393</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>347450.7071392331</v>
+        <v>289020.8415357219</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>349514.0876351264</v>
+        <v>259763.2933064965</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>349849.7446596232</v>
+        <v>280274.6876158564</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>318445.8878369547</v>
+        <v>276045.5178427678</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>289965.5769033537</v>
+        <v>227617.967027176</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>288291.2187690837</v>
+        <v>238441.6249822857</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>290592.5242601457</v>
+        <v>237249.5222929551</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>281402.0980695066</v>
+        <v>221071.7558279622</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>260136.8852467795</v>
+        <v>216686.1821061054</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>273261.6271714443</v>
+        <v>216514.2596623188</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>259409.8418160161</v>
+        <v>204784.4745570862</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>233211.1716212522</v>
+        <v>208743.0786207202</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>219576.5843223682</v>
+        <v>224176.3273736433</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>253042.1025950017</v>
+        <v>202540.2758857185</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>236382.5540946854</v>
+        <v>200210.3146362495</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>252626.2957110663</v>
+        <v>212837.2869169565</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>211604.3684753407</v>
+        <v>207431.4961347902</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>215393.8626684876</v>
+        <v>215144.808351205</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>234507.4404350097</v>
+        <v>225347.8154098894</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>231950.91688085</v>
+        <v>228489.8216779881</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>230568.2805356143</v>
+        <v>232243.4519457498</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>230824.1366291714</v>
+        <v>222015.306103327</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>231072.5727556261</v>
+        <v>235436.7127017326</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>234622.3796894304</v>
+        <v>218912.6779828218</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>235060.5837285382</v>
+        <v>243488.2658547591</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>237032.312168443</v>
+        <v>238388.3397019376</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>230076.1963527261</v>
+        <v>240543.4549000998</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>223448.9821618899</v>
+        <v>239390.7694639019</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>219784.8281385984</v>
+        <v>235448.7581130057</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>262954.5902770814</v>
+        <v>309649.5520739863</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>281033.902704922</v>
+        <v>269155.3024258513</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>273817.3942652837</v>
+        <v>278973.7048657445</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>276003.8059453627</v>
+        <v>287326.1231852554</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>333610.6904297908</v>
+        <v>332371.0197875044</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>249988.7984347288</v>
+        <v>295076.099166413</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>216131.4733881525</v>
+        <v>246434.1307242052</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>181614.0778173066</v>
+        <v>230408.2168883428</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>183058.5551244625</v>
+        <v>244856.1451400196</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>170956.0028700524</v>
+        <v>223623.8105393149</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>192212.9457197412</v>
+        <v>206993.3961322054</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>203404.9125094508</v>
+        <v>217781.5195693928</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>187613.08577311</v>
+        <v>199470.5600172616</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>195850.3325296771</v>
+        <v>219591.7800964476</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>200760.7085809224</v>
+        <v>208015.6481458357</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>202693.9357459345</v>
+        <v>198767.2053715643</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>181254.3054957202</v>
+        <v>189120.9730524747</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>177356.5900066093</v>
+        <v>187855.9928760766</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>169448.8525998117</v>
+        <v>184134.6110675779</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>163910.6300022401</v>
+        <v>185467.4287167792</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>165050.900699396</v>
+        <v>196979.8699638223</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>176525.0379983657</v>
+        <v>194940.304932346</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>165682.5949537035</v>
+        <v>188790.2123632736</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>166943.058821551</v>
+        <v>181590.186200915</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>167706.1615053684</v>
+        <v>192261.6888644637</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>176850.0991077225</v>
+        <v>205510.2893397808</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>174691.1228918273</v>
+        <v>211267.593729135</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>174442.5602861157</v>
+        <v>206700.4914805216</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>171259.9182579112</v>
+        <v>197896.2972662549</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>167534.2511693492</v>
+        <v>214672.0507952631</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>169024.4854808832</v>
+        <v>203400.9687529572</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>181545.85680521</v>
+        <v>203281.3488461829</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>174433.2228147394</v>
+        <v>206219.953697185</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>166849.1423869208</v>
+        <v>209689.8318099787</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>155383.4485674923</v>
+        <v>196867.2762337893</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>175391.6931501641</v>
+        <v>210123.6588645724</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>198603.1385577544</v>
+        <v>214229.6491370789</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>198604.7819831326</v>
+        <v>222322.0222159674</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>197730.6846115429</v>
+        <v>222711.2379061659</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>193097.0771088054</v>
+        <v>217603.8399666065</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>194299.5980591901</v>
+        <v>218231.5528974234</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>191013.5023684611</v>
+        <v>222149.3522463203</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>196540.8950288718</v>
+        <v>227952.3230511771</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>195296.237227524</v>
+        <v>224105.8621249288</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>198169.3698767138</v>
+        <v>226869.4513280552</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>193473.5709764196</v>
+        <v>229757.1942176005</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>191263.7437087397</v>
+        <v>215128.5615132451</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>184638.8357137553</v>
+        <v>213049.481168877</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>183922.232854647</v>
+        <v>213877.0436500566</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>182719.5027597178</v>
+        <v>226385.6872223466</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>184127.5251274571</v>
+        <v>234879.3373989763</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>184918.8879878352</v>
+        <v>225255.2589053868</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>183719.0862429208</v>
+        <v>226787.0954462297</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>189270.7273442904</v>
+        <v>244562.5999737625</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>182494.6765896309</v>
+        <v>249355.6756433709</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>183132.0376300069</v>
+        <v>240174.9582825626</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>184125.3054288988</v>
+        <v>252700.4189594309</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>184883.7128103993</v>
+        <v>247004.1728589584</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>186009.5411072238</v>
+        <v>246649.8929012001</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>186702.0884690435</v>
+        <v>249472.1043516359</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>183273.6639047556</v>
+        <v>253605.3905963149</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>178533.5711869662</v>
+        <v>263887.5905668312</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>178210.6981677124</v>
+        <v>257638.8728133102</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>181903.4550040582</v>
+        <v>250678.8943552913</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>187424.4385800732</v>
+        <v>248274.481010674</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>178674.3610625402</v>
+        <v>267769.7006430316</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>177516.6632516987</v>
+        <v>243370.1666503127</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>160307.3994504235</v>
+        <v>207744.109963777</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>159316.524894677</v>
+        <v>207626.3407307385</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>154610.4140552323</v>
+        <v>211044.9502677887</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>158025.5786331487</v>
+        <v>205663.9090434417</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>162164.2393718422</v>
+        <v>214038.4379970893</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>164712.844749692</v>
+        <v>206487.6243680576</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>167764.1847870937</v>
+        <v>205994.6678756241</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>161058.7822745922</v>
+        <v>202134.6375874178</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>164198.5029664398</v>
+        <v>199513.2071117384</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>164655.1545260558</v>
+        <v>196419.570124092</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>160721.6148349888</v>
+        <v>194055.8181083447</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>157590.9705677459</v>
+        <v>190166.2897994227</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>168543.875576901</v>
+        <v>193338.8498410269</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>163352.5970343667</v>
+        <v>190702.2202202292</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>155579.9984660201</v>
+        <v>189450.3630415231</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>157072.9216015821</v>
+        <v>192592.4634099847</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>161624.2636880309</v>
+        <v>197013.4064759404</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>171042.6996049187</v>
+        <v>197915.9553504107</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>167414.1632318936</v>
+        <v>193904.3093749197</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>183142.1154474333</v>
+        <v>193977.5657697072</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>196412.0334865363</v>
+        <v>195860.668841755</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>187955.8168460072</v>
+        <v>195554.703705579</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>201041.5733826048</v>
+        <v>199206.2087015918</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>186382.0727698523</v>
+        <v>206523.7542942851</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>187217.1785330546</v>
+        <v>205758.4538340099</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>182005.8651259158</v>
+        <v>197708.3649655086</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>175572.7944629523</v>
+        <v>193219.5213783856</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>167260.8349253615</v>
+        <v>189557.2207573672</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>163915.9315092546</v>
+        <v>188810.7922328714</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>156727.8686673667</v>
+        <v>187312.8317185912</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>177093.2712107726</v>
+        <v>230776.0462543218</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>178870.937036184</v>
+        <v>253503.4003102183</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>179698.0101930706</v>
+        <v>262354.906285681</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>180189.3085836943</v>
+        <v>258192.2804219041</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6022,7 +6022,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>178428.2108356676</v>
+        <v>261017.2925258486</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>177711.6327749262</v>
+        <v>267249.2318769775</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>184711.9668291301</v>
+        <v>269177.7753643244</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>191145.0487942258</v>
+        <v>265332.7156799787</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>198594.9344177606</v>
+        <v>278487.601497363</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>200698.6790997132</v>
+        <v>306939.0848059957</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6070,7 +6070,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>211404.6210891794</v>
+        <v>327537.7489907737</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6078,7 +6078,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>204817.5733657789</v>
+        <v>356393.7899684511</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6086,7 +6086,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>204714.0239076845</v>
+        <v>331679.0434055304</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>204601.2332266356</v>
+        <v>346305.8127922744</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>209242.9981826867</v>
+        <v>349129.6778915986</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6110,7 +6110,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>219696.9383087535</v>
+        <v>341453.7458252358</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6118,7 +6118,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>211377.9645779586</v>
+        <v>386806.0305303192</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>208018.0241484713</v>
+        <v>398944.0180799484</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>212074.9319652992</v>
+        <v>404199.6490009478</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>224868.1492778967</v>
+        <v>385461.6275462075</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>217966.5862317167</v>
+        <v>394207.3893012743</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>218732.0088922018</v>
+        <v>370433.5263715707</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>210088.1491477442</v>
+        <v>370639.8267952798</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6174,7 +6174,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>210212.1182913965</v>
+        <v>361752.5561336676</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6182,7 +6182,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>212370.3530689724</v>
+        <v>351441.3703141151</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>217816.9201114069</v>
+        <v>340338.9512445478</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>219282.6492622027</v>
+        <v>333217.0678610468</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>209771.4599344145</v>
+        <v>329508.3001657002</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6214,7 +6214,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>206462.6776264815</v>
+        <v>322181.5721295681</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>210211.6837075325</v>
+        <v>323726.1800632908</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>308478.3778670019</v>
+        <v>379429.7410511028</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>311488.1103831285</v>
+        <v>437393.4591080056</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>328997.5944191452</v>
+        <v>481343.6128575114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>321536.0490727485</v>
+        <v>447962.2980486075</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>333219.4995926081</v>
+        <v>421460.3246938771</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>339769.8863359025</v>
+        <v>402940.7718860918</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>342965.8708956087</v>
+        <v>398191.3181204428</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>372412.3145314255</v>
+        <v>425589.0026807918</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>395766.1899529505</v>
+        <v>414777.598181461</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>416095.6530327302</v>
+        <v>409788.5962354498</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>433865.3315765555</v>
+        <v>431118.156380938</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>437977.5442108926</v>
+        <v>418704.679026772</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>426966.4782023445</v>
+        <v>420281.6358202705</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>416556.5359688628</v>
+        <v>435063.61244494</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>397045.1536117551</v>
+        <v>433729.1328085376</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>375828.7377928024</v>
+        <v>406746.925709049</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>362685.3081706617</v>
+        <v>416378.4160380793</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>350680.7593361323</v>
+        <v>481468.3435185841</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>342832.1207302995</v>
+        <v>524373.7796546767</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>337141.1280066067</v>
+        <v>541159.3097968926</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>326843.5827076221</v>
+        <v>545464.3797113702</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>339861.3475506242</v>
+        <v>557447.9375792661</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>349124.7711710703</v>
+        <v>549742.8066130911</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>334647.7944991342</v>
+        <v>565216.5797632636</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>339901.9812588858</v>
+        <v>552973.9431210209</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>342339.953284901</v>
+        <v>560499.4260898157</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>351724.9920786658</v>
+        <v>551929.7948857102</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>373618.8975372721</v>
+        <v>559827.4407192095</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>376817.1245354372</v>
+        <v>541481.1139268628</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>383982.2734535964</v>
+        <v>559244.4366055576</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>371789.1091424979</v>
+        <v>550911.586910454</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>375009.1900589796</v>
+        <v>550820.1615683853</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>344865.2099720308</v>
+        <v>548678.1765045706</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>344137.5773527344</v>
+        <v>547125.1106964574</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>338378.9329948247</v>
+        <v>539917.6542245711</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>343137.0378625058</v>
+        <v>549083.9122062969</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>330627.2971597981</v>
+        <v>539846.9800983215</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>331432.5080673701</v>
+        <v>548486.7066165935</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>330091.0147671837</v>
+        <v>537039.5252398484</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>316926.2372528749</v>
+        <v>546790.2136072225</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>334399.4686707777</v>
+        <v>536924.9258743707</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>370615.7317042284</v>
+        <v>541967.7692351005</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>396131.7009851857</v>
+        <v>536800.1237917565</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>386908.950784829</v>
+        <v>542713.442065726</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>390735.3028864556</v>
+        <v>533139.6071065126</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>432439.7553701781</v>
+        <v>535203.3705126344</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>424290.5842407258</v>
+        <v>530692.0886075668</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>413724.1809175072</v>
+        <v>530999.5113742227</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>412502.3907902697</v>
+        <v>523372.671249031</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>403222.9063161567</v>
+        <v>531428.2749035856</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>408810.5969060538</v>
+        <v>527906.89716009</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>409624.6152178993</v>
+        <v>535338.3912872195</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>408121.8689789092</v>
+        <v>527291.0637456524</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>419908.8120038734</v>
+        <v>531452.3235907026</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>425154.064457467</v>
+        <v>523891.2850158517</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>422107.1293397368</v>
+        <v>527592.4350718474</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>423808.9889010472</v>
+        <v>523658.721183155</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>432896.5217827489</v>
+        <v>526152.3399871606</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>427099.524669711</v>
+        <v>519796.3584913759</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>411265.3460778813</v>
+        <v>527427.4909955005</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>361569.5490929517</v>
+        <v>488785.5724029637</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>354748.431035582</v>
+        <v>506008.7460404004</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>352436.1437521543</v>
+        <v>454697.6093222153</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>354761.8441358497</v>
+        <v>471279.7677924195</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>357126.6231129432</v>
+        <v>462411.732052449</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>358599.4623049856</v>
+        <v>463104.0449066642</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>369081.8984435974</v>
+        <v>458163.3856860423</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>374921.9750049678</v>
+        <v>481506.2271396374</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>386858.5321505422</v>
+        <v>482920.6207488973</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>386401.0796109136</v>
+        <v>502431.271550896</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>371614.4542649893</v>
+        <v>499744.0380907424</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>367836.9823270486</v>
+        <v>505067.6253152783</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>353879.1094759518</v>
+        <v>501515.6851807325</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>356448.3886657605</v>
+        <v>496215.2001310779</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>359859.6450253236</v>
+        <v>500415.154827407</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>357710.3807554127</v>
+        <v>505564.8811803585</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>354031.0962852595</v>
+        <v>513825.2882388034</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>354173.7188519653</v>
+        <v>498059.3462276092</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>380605.2070486305</v>
+        <v>492962.0008574438</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>386522.5575835048</v>
+        <v>504720.0313377355</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>396078.6942064181</v>
+        <v>503735.1041227545</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>405106.5115801831</v>
+        <v>500814.823812436</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>402020.3061135138</v>
+        <v>493391.6007921577</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>388277.5321157218</v>
+        <v>487850.4876334115</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>384324.4613832179</v>
+        <v>489094.5889511629</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>369945.3663906014</v>
+        <v>509257.4289905893</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>375011.8275885344</v>
+        <v>538186.3858965336</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>375226.8312522161</v>
+        <v>540893.6789486459</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>384675.8938723293</v>
+        <v>540156.9603615629</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>401261.5927694249</v>
+        <v>543706.5214073573</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>375855.1295113444</v>
+        <v>536836.8355931126</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>333159.3131267407</v>
+        <v>488711.9755167003</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>386365.7170263962</v>
+        <v>509299.7072424272</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>408470.7125973243</v>
+        <v>457939.7177837734</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>439646.3432216581</v>
+        <v>491613.901080593</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>456148.8530234812</v>
+        <v>454391.48321083</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>455041.7804341672</v>
+        <v>471462.3049639667</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>447380.0161869326</v>
+        <v>474013.8874646822</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>457914.7231873018</v>
+        <v>496215.1868968948</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>445878.8802136389</v>
+        <v>493366.4297829501</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>441018.076369426</v>
+        <v>519943.2004516385</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>435566.2719495242</v>
+        <v>499176.0223778655</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>448146.0806783155</v>
+        <v>514315.3680129696</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>435264.6560571782</v>
+        <v>488642.1350413086</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>454751.0759180287</v>
+        <v>503587.6233601215</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>454164.0355748875</v>
+        <v>458756.1998331654</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>477479.3731829741</v>
+        <v>497092.2393738485</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>494583.7335338916</v>
+        <v>482254.0767964275</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>508090.9602190218</v>
+        <v>499769.4417299379</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>509993.745886386</v>
+        <v>485535.6525538852</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>522707.331819142</v>
+        <v>505304.2403787895</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>525030.7802851303</v>
+        <v>496127.9332550167</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>536242.3500801831</v>
+        <v>525012.0188148009</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>534018.5062750027</v>
+        <v>524715.2529766472</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>541571.5936389712</v>
+        <v>539112.1876031517</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>544503.6402932445</v>
+        <v>536154.6665336778</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>540109.7497997304</v>
+        <v>527055.6951867918</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>536805.9525856298</v>
+        <v>533654.3040320022</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>532293.7103220206</v>
+        <v>538327.3639083904</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>506990.5869705256</v>
+        <v>539617.9703305686</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>349802.4784214796</v>
+        <v>532308.5245552933</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>293082.13335853</v>
+        <v>525136.6571999176</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>310810.4329038341</v>
+        <v>441676.6680950598</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>284782.1882816807</v>
+        <v>370989.2223384564</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>286198.8599230382</v>
+        <v>409342.3484881353</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>301667.7836770024</v>
+        <v>390153.005228217</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>380541.2485797546</v>
+        <v>445558.844774035</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>377108.9958290401</v>
+        <v>449600.205260751</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>381250.3094245045</v>
+        <v>505870.2081439254</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>328583.9617994563</v>
+        <v>502427.1347402313</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>316770.3692231438</v>
+        <v>529575.6273269624</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>283315.1986115913</v>
+        <v>517889.0634111442</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>299463.3696566224</v>
+        <v>531021.7222967487</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>277550.3158135662</v>
+        <v>516874.2057878781</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>301467.5579745064</v>
+        <v>539542.741063254</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>269160.632478477</v>
+        <v>529093.0069599613</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>270086.1460569294</v>
+        <v>545601.3550946958</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>256690.3340874185</v>
+        <v>548708.4622470844</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>280060.6241411774</v>
+        <v>553074.6698282056</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>259139.6992403048</v>
+        <v>552012.3448858756</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>323465.4689092768</v>
+        <v>554490.3574225345</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>388264.2070521347</v>
+        <v>552904.9272983001</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>427129.9928745646</v>
+        <v>554764.7953720214</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>436404.3727191995</v>
+        <v>554936.6449699048</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>497747.9956337124</v>
+        <v>559214.6126103693</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>506311.2618549994</v>
+        <v>557323.274033475</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>522339.8747010279</v>
+        <v>558450.947147325</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>514658.5805932613</v>
+        <v>554465.573971057</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>527532.545434513</v>
+        <v>554151.7075167594</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>536198.6137640097</v>
+        <v>552558.5628530444</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>556358.0761151429</v>
+        <v>553240.9912347376</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>563921.1891196008</v>
+        <v>554695.4001466362</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>565132.4535154068</v>
+        <v>560495.2098508104</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>566144.3766703599</v>
+        <v>560565.9342755572</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>567463.2587410301</v>
+        <v>563053.4830684144</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>569486.3950888466</v>
+        <v>561449.3177759954</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>574592.4506592554</v>
+        <v>563617.4184826259</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>575497.0383451101</v>
+        <v>566160.1847481765</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>578542.0894077908</v>
+        <v>570807.5108297003</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>577015.5863258392</v>
+        <v>569025.0957682328</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>575676.0157787608</v>
+        <v>570183.6278276917</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>574085.7936138738</v>
+        <v>568917.4736992837</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>574211.9594796548</v>
+        <v>570369.2283386285</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>574647.7571577795</v>
+        <v>569196.232096688</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>575645.5335487184</v>
+        <v>570477.3246907034</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>573695.9530855945</v>
+        <v>568999.5614962825</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>570572.1252951109</v>
+        <v>569601.0522588379</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>537364.9249787743</v>
+        <v>568478.1837481513</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>553056.8958754147</v>
+        <v>569942.7519901473</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>537879.6716207047</v>
+        <v>569386.1474696274</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>550147.6061445853</v>
+        <v>571285.0784627054</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>547020.344493634</v>
+        <v>569825.6016956795</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>562732.153320738</v>
+        <v>570108.5704193115</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>553662.0897897152</v>
+        <v>569822.2675281727</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>568359.8840695609</v>
+        <v>569981.1609048226</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>567099.7401230447</v>
+        <v>567585.0342499142</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>567985.3554054588</v>
+        <v>565716.3816153865</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>564625.5042306945</v>
+        <v>563713.273280716</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>558405.721952111</v>
+        <v>567262.7912589997</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>545924.6899281177</v>
+        <v>573382.326367082</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>546138.4082955242</v>
+        <v>570550.0433058889</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>531989.2604050711</v>
+        <v>547610.4938002799</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>512885.019755825</v>
+        <v>521304.9057970057</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>513428.479537568</v>
+        <v>512751.6368654018</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>504954.7692888298</v>
+        <v>491663.5515279688</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>497468.4649173321</v>
+        <v>475394.9781485563</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>448178.3725972835</v>
+        <v>473452.1991864191</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>455688.8715691853</v>
+        <v>476587.2936149574</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>469913.3468681119</v>
+        <v>460578.110513092</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>428729.1097820995</v>
+        <v>418350.2338803224</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>410889.548181865</v>
+        <v>434356.7325119317</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>412631.9147828093</v>
+        <v>420705.382096676</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>406916.7313524903</v>
+        <v>401691.5899313744</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>414616.3179034481</v>
+        <v>403847.3809215526</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>416106.4261854312</v>
+        <v>401792.1071584038</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>404126.4046183018</v>
+        <v>394444.1111629656</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>384545.0054855943</v>
+        <v>393272.662103242</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>374068.6342264572</v>
+        <v>410187.8561674831</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>343638.0293351486</v>
+        <v>385237.2786630843</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>347896.2219873858</v>
+        <v>382107.2500948886</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>326364.9394591275</v>
+        <v>369742.0252504905</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>337193.9170871133</v>
+        <v>343448.2528519381</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>333558.8959514352</v>
+        <v>343972.0683708905</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>332754.1265177302</v>
+        <v>364425.314576669</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>305426.5578538936</v>
+        <v>379806.2261401324</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>317907.9437626325</v>
+        <v>333474.6088821695</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>350338.4835602439</v>
+        <v>328137.1373152676</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>339976.8236720085</v>
+        <v>308365.4432229882</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>328135.8346141893</v>
+        <v>304613.8180483955</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>312471.658085111</v>
+        <v>307851.0319848858</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>323441.9226075073</v>
+        <v>295353.7876965012</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>321620.8549982776</v>
+        <v>283044.4169422766</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>309951.6279762762</v>
+        <v>277893.7636221136</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>272567.8034997962</v>
+        <v>244475.0371297603</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>269288.5702454795</v>
+        <v>238222.6059955863</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>250139.7855174582</v>
+        <v>239993.9215102509</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>259503.0829096537</v>
+        <v>241962.8932661669</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>254168.3893647449</v>
+        <v>233825.8726613234</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>239573.970352409</v>
+        <v>221772.7160803608</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>227017.6180578058</v>
+        <v>201436.7949815328</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>236729.6835262907</v>
+        <v>216498.8273672208</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>231077.3756480351</v>
+        <v>213303.5115287899</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>231553.010925889</v>
+        <v>216696.5810581567</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>235913.9740682573</v>
+        <v>223807.9181748315</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>237382.0895646967</v>
+        <v>204115.4447934496</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>228251.9263497112</v>
+        <v>211031.0713853422</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>228555.3288939997</v>
+        <v>214646.5745259777</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>243265.1643302829</v>
+        <v>228039.7813845362</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>234937.5978670856</v>
+        <v>228209.1818224542</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>233795.9690156539</v>
+        <v>231216.6456643209</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>242363.6870848239</v>
+        <v>247321.6923313601</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>236768.7639689577</v>
+        <v>242786.989106162</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>217060.2993629836</v>
+        <v>232728.6710638871</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>242916.7475712399</v>
+        <v>235073.4739534952</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>296026.796402163</v>
+        <v>230834.0149104525</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>319432.5681757503</v>
+        <v>228753.5284940207</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>288539.7685974771</v>
+        <v>218260.4284446011</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>285198.4258290687</v>
+        <v>219237.3238961523</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>290130.0670941854</v>
+        <v>232828.497661998</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>277849.7138675197</v>
+        <v>229110.7854921952</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>250885.5422865055</v>
+        <v>228088.5439023581</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>267344.9198665282</v>
+        <v>240238.2831580588</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>341043.9648737435</v>
+        <v>286024.4966653432</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>278036.7761141232</v>
+        <v>203699.185135242</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>229648.911874925</v>
+        <v>178015.8372286593</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>210689.9447070507</v>
+        <v>174437.9667966853</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>199532.6318559518</v>
+        <v>190934.4922286651</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>188175.1572960878</v>
+        <v>212870.9960123233</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>180018.1181287883</v>
+        <v>193741.7819300476</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>181088.0931722163</v>
+        <v>212399.1843220548</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>174766.2571417263</v>
+        <v>182633.8613946356</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>187129.6628706108</v>
+        <v>191981.7586950886</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>185596.3229586965</v>
+        <v>193413.5127840559</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>179777.4106075756</v>
+        <v>207961.0163754426</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>171095.3248154593</v>
+        <v>219974.171681273</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>177676.0357385381</v>
+        <v>218154.9493564682</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>169901.4973806264</v>
+        <v>209879.7394335046</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>168454.0690310239</v>
+        <v>218734.949471417</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>174064.1087056568</v>
+        <v>225210.499533941</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>166520.9281233814</v>
+        <v>212660.3290680727</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>192563.4825422147</v>
+        <v>212498.484780281</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>177385.0543650833</v>
+        <v>201064.3572145104</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>181682.9219003389</v>
+        <v>216411.1448148091</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>187453.1666164686</v>
+        <v>220024.0661892467</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>203278.4776677501</v>
+        <v>223571.8332474513</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>203680.1847615037</v>
+        <v>268691.4776258332</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>208783.1206801778</v>
+        <v>246586.5064791343</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>209380.7332345523</v>
+        <v>246564.2754595834</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>203784.1108567677</v>
+        <v>248046.2313192569</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>201904.0803957053</v>
+        <v>268380.9546005523</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>186155.9870262984</v>
+        <v>248457.1460076923</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>191973.1848409975</v>
+        <v>247536.9073888329</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>192665.5151415933</v>
+        <v>309352.1686500475</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>202014.8036471387</v>
+        <v>399605.5081010906</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>217620.1465468736</v>
+        <v>406762.568915426</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>213256.4052618177</v>
+        <v>375377.2346463891</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>224507.3849360074</v>
+        <v>370251.668302816</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>255378.142191127</v>
+        <v>396651.3755103864</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>245154.802822555</v>
+        <v>327573.6596810279</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>251792.3472698136</v>
+        <v>362170.6467132061</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>244209.5523026711</v>
+        <v>350277.2263796464</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>238604.4075284443</v>
+        <v>362361.9284289509</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>236043.1146658761</v>
+        <v>345036.5658098892</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>237255.6127674936</v>
+        <v>356132.5780531053</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>224302.516959649</v>
+        <v>332571.9099798333</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>228915.8248992933</v>
+        <v>357763.0072106344</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>222955.8112700938</v>
+        <v>328657.2662339116</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>221395.5500137087</v>
+        <v>364379.5026127962</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>216747.4359971527</v>
+        <v>319519.2478874139</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>225560.9018954136</v>
+        <v>346444.1957590292</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>219263.0347069734</v>
+        <v>391817.5452447669</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>223307.639550792</v>
+        <v>483197.8705216996</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>222767.4615335236</v>
+        <v>445901.3987613087</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>228576.4974116276</v>
+        <v>460826.1522546926</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>231853.9069693868</v>
+        <v>436833.6383485988</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>236729.0802517643</v>
+        <v>418701.7228714111</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>226943.8405797399</v>
+        <v>414823.4145070512</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>217646.3291351653</v>
+        <v>403820.5142704402</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>226157.4635248054</v>
+        <v>387567.0910236627</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>229103.8964780241</v>
+        <v>403385.4474502825</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>234445.5474486336</v>
+        <v>365599.2225229185</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>228143.1831435536</v>
+        <v>374728.0965546538</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>235137.1386625979</v>
+        <v>364061.520848075</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>243469.7683670497</v>
+        <v>364602.9343993583</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>250818.6925969039</v>
+        <v>368481.5039290905</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>236393.2633443025</v>
+        <v>407744.1160766671</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>239049.1194849167</v>
+        <v>416736.5923262311</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>236582.0720199627</v>
+        <v>432719.9065794336</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>238939.7404399732</v>
+        <v>412880.5758760049</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>236504.967512392</v>
+        <v>425817.6608318719</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>227688.7878834293</v>
+        <v>409109.6940812408</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>237678.6181504916</v>
+        <v>421499.8601486078</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>241919.0959507787</v>
+        <v>391828.1102142922</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>312932.8883729521</v>
+        <v>393520.9186082042</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>329266.0286627766</v>
+        <v>356777.2212741473</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>373755.6907283521</v>
+        <v>393919.1381027029</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>385728.2370968941</v>
+        <v>378913.6471495366</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>362364.9786317425</v>
+        <v>382903.3085933718</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>354387.5751367054</v>
+        <v>386058.53505032</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>300421.4163962031</v>
+        <v>365714.3507220345</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>293357.2640710559</v>
+        <v>375084.971333501</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>285387.7505975171</v>
+        <v>365445.7815919284</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>272519.9775497236</v>
+        <v>341155.3462799808</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>262813.4302057936</v>
+        <v>345050.1011963003</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>277477.3916713339</v>
+        <v>339704.4050322861</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>275821.9224046771</v>
+        <v>367850.860990843</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>289010.4978995317</v>
+        <v>345012.8626076345</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>367550.3729851362</v>
+        <v>349004.7360795123</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>389397.8240729899</v>
+        <v>316397.7818834033</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>448656.450730704</v>
+        <v>338988.3378146986</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>464497.7952323846</v>
+        <v>345444.281128942</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>427103.0559003851</v>
+        <v>349816.9200377533</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>347538.8650850628</v>
+        <v>333556.6745669848</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>340968.7089642106</v>
+        <v>335958.563480318</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>306264.2021552799</v>
+        <v>337566.4550462897</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>326996.1668778521</v>
+        <v>412846.6203189401</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>320104.8454338243</v>
+        <v>403913.4049632683</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>314244.3921123506</v>
+        <v>400413.8645442692</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>313382.3084843021</v>
+        <v>393041.7356382041</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>316354.2299533904</v>
+        <v>394336.1549649311</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>319754.5848620518</v>
+        <v>383253.5381560944</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>325207.8954775528</v>
+        <v>377058.9786785903</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>306040.1139509134</v>
+        <v>371096.3749748053</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>303354.1406165763</v>
+        <v>434317.13635063</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>314415.2987262326</v>
+        <v>413386.8987583128</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>326104.3751472721</v>
+        <v>438094.9993293114</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>357980.6528298566</v>
+        <v>394972.1896183204</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>338534.9798071629</v>
+        <v>403644.3201008802</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>341943.7058164274</v>
+        <v>391602.7169915084</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>353610.5546649377</v>
+        <v>361577.3302335578</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>344789.449818965</v>
+        <v>360884.9408692377</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>347137.6393114743</v>
+        <v>345771.3193582988</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>342651.7216995279</v>
+        <v>357324.4578321779</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>329535.9963265233</v>
+        <v>345671.2358888531</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>306023.2343421212</v>
+        <v>360651.1253808246</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>304868.0079708373</v>
+        <v>390383.5098382069</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>297659.4949381844</v>
+        <v>427533.7172627523</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>300173.085005451</v>
+        <v>466942.8374068906</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>298622.2497908353</v>
+        <v>475166.6126688608</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>308936.1766126531</v>
+        <v>498418.414752127</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>318715.9751509632</v>
+        <v>505480.5168675037</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>319362.0415818296</v>
+        <v>525639.6386440066</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>311402.8957468513</v>
+        <v>543783.1934922616</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>313322.3465757505</v>
+        <v>535708.373626982</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>310347.4486162997</v>
+        <v>523205.7025068883</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>295222.3920979889</v>
+        <v>493862.4036427383</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>276180.4295942273</v>
+        <v>427261.7316194437</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>276993.0754611124</v>
+        <v>432731.9791673542</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>276683.799223644</v>
+        <v>442811.7072883749</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>275773.7541683621</v>
+        <v>431148.7997816323</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>265786.4524727286</v>
+        <v>433648.502605408</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>275913.7347182033</v>
+        <v>428928.622478564</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>277906.8258923801</v>
+        <v>423251.2160593836</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>277776.3424064541</v>
+        <v>432628.6176267635</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>290100.4827516634</v>
+        <v>445928.9028838237</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>301792.352527939</v>
+        <v>434014.7298985616</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>304523.6474154643</v>
+        <v>427035.2033449973</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>302638.2475940681</v>
+        <v>415905.6566630803</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>308625.6877999741</v>
+        <v>420672.4645755067</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>316560.435729287</v>
+        <v>417269.440717448</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>312379.7263259453</v>
+        <v>436538.6143207308</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>310651.5790290553</v>
+        <v>446431.7419686946</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>313666.3793224069</v>
+        <v>443033.3060824878</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>315000.8830923832</v>
+        <v>435416.4524162597</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>318899.0284485642</v>
+        <v>435040.0324731602</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>306982.9959267089</v>
+        <v>463392.9980972406</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>307423.1363387845</v>
+        <v>479134.6009059164</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>308404.5439571241</v>
+        <v>460023.5943489787</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>313918.5774961434</v>
+        <v>470046.2247944337</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>310819.8717876106</v>
+        <v>452187.3542549313</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>306892.1273401902</v>
+        <v>446617.7556671857</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>313461.6879937382</v>
+        <v>453806.0992287746</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>343429.0851544557</v>
+        <v>452387.7604790393</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>335363.2892636205</v>
+        <v>439783.5085584107</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>338502.9299536957</v>
+        <v>441796.5423555072</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>346712.7174210604</v>
+        <v>441529.7030956551</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>350347.4529660033</v>
+        <v>434580.0126367361</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>344753.4223287035</v>
+        <v>405563.4324206499</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>337661.3660036256</v>
+        <v>396225.5409520625</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>334912.6601411354</v>
+        <v>401913.8592926967</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>322824.27475589</v>
+        <v>397684.5411563585</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>347982.5678812182</v>
+        <v>417602.163963241</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>353167.5476469647</v>
+        <v>467474.5899111058</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>352127.3520589282</v>
+        <v>514108.4735692825</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>353736.0218045292</v>
+        <v>550549.7274701732</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>351168.1400592697</v>
+        <v>560235.9521119738</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>367898.1505363409</v>
+        <v>562981.9736525862</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>375754.8587122224</v>
+        <v>567858.9585150739</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>399522.6593547625</v>
+        <v>554906.0680345518</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>458015.9018864798</v>
+        <v>555488.4044412581</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>500633.42236172</v>
+        <v>554399.4503478358</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>492225.8136075169</v>
+        <v>555429.5523610162</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>491560.041611224</v>
+        <v>546075.5499678175</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>481483.7572136253</v>
+        <v>529164.3160957708</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>478240.2798504732</v>
+        <v>547138.2347157889</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>471562.4664047443</v>
+        <v>554620.2476262668</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>470203.865921471</v>
+        <v>555196.2215237941</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>465233.7081493805</v>
+        <v>547902.6689604322</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>458969.9949891811</v>
+        <v>536977.5664177274</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>448516.1773260249</v>
+        <v>531067.0792472902</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>449916.925643843</v>
+        <v>517988.3376376152</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>459707.661896953</v>
+        <v>499092.3084646437</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>475967.3192517866</v>
+        <v>487400.6506301414</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>466886.1380046617</v>
+        <v>461094.0600751151</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>444371.8085720094</v>
+        <v>478903.2004208323</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>390662.8833788796</v>
+        <v>406613.2013048547</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>367645.3273223308</v>
+        <v>376327.5528764245</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>362088.5846339627</v>
+        <v>362999.0840495646</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>371187.0910731266</v>
+        <v>370088.2047530807</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>421992.0566046637</v>
+        <v>365633.1418924759</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>452438.4724656196</v>
+        <v>349380.0393391909</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>463192.5174742697</v>
+        <v>348786.719095042</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>486417.1560444022</v>
+        <v>364029.3939246444</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>465844.8772432322</v>
+        <v>362132.4883983755</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>450430.4502682376</v>
+        <v>373942.1091335865</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>438279.3836734111</v>
+        <v>374338.4879650536</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>433574.8714615798</v>
+        <v>388223.2503887335</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>447337.3620092879</v>
+        <v>403761.4415236979</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>433725.88806829</v>
+        <v>454036.6760036304</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>448998.8706984089</v>
+        <v>467646.1231088435</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>454607.4323969624</v>
+        <v>452977.2032678118</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>449443.6176577533</v>
+        <v>454575.743050464</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>428273.7608354999</v>
+        <v>449549.7860629353</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>430237.8672498743</v>
+        <v>441679.1347163932</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>426333.9885026496</v>
+        <v>440344.61203763</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>436735.3319094268</v>
+        <v>445346.3758626003</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>414468.8955597053</v>
+        <v>439830.5202771066</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>434131.0149428275</v>
+        <v>437531.4635976872</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>458412.7940591167</v>
+        <v>378036.2658006932</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>437155.3766147479</v>
+        <v>378701.6547120289</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>429974.4099510826</v>
+        <v>388777.463795725</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>436329.769566228</v>
+        <v>379552.9142895902</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>441867.7025377061</v>
+        <v>371037.0958471958</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>448648.4408617445</v>
+        <v>381478.0913879038</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>438237.5482870584</v>
+        <v>381766.8477052975</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>383738.6624436796</v>
+        <v>342907.0551321899</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>278875.3604771396</v>
+        <v>335774.0373858731</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>296162.3049184998</v>
+        <v>339982.6295741096</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>281432.8675556607</v>
+        <v>338845.7986441085</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>287994.365942961</v>
+        <v>342188.4678191179</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>273902.9620054933</v>
+        <v>328469.6100892503</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>289684.1221167321</v>
+        <v>346712.7480559998</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>324191.5672332858</v>
+        <v>362523.7005094187</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>323544.6155365361</v>
+        <v>404486.6895590962</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>354448.984593271</v>
+        <v>461627.4914293457</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>361888.7712703152</v>
+        <v>501870.0558060927</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>365902.9098579882</v>
+        <v>503096.8200052623</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>361815.9568955257</v>
+        <v>504476.8647070403</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>349250.1173383717</v>
+        <v>500775.3610027484</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>367431.9813253121</v>
+        <v>515272.3352504969</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>360722.2751935698</v>
+        <v>443649.7350477527</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>374667.4689395122</v>
+        <v>509745.7838173544</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>411429.2210898421</v>
+        <v>455856.1177430674</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>413451.4921199546</v>
+        <v>497648.5172507627</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>403962.9269820352</v>
+        <v>444871.78113608</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>404995.7358610373</v>
+        <v>484524.0038380075</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>370908.8533813118</v>
+        <v>416883.8644501281</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>400852.6873329731</v>
+        <v>462283.5988025242</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>404303.6779744463</v>
+        <v>499465.3388010485</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>407980.5294383673</v>
+        <v>537613.6597827781</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>411087.8383703585</v>
+        <v>532674.7954056717</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>434702.5506303093</v>
+        <v>532040.3209581889</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>473953.0031282314</v>
+        <v>518464.6414645846</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>485862.6832775213</v>
+        <v>506958.6825173746</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>518853.7909522975</v>
+        <v>464504.3494107614</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>440050.7033312169</v>
+        <v>292159.080800837</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>487419.4305394979</v>
+        <v>233021.2636694982</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>515740.6733166742</v>
+        <v>242947.9735283928</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>494982.4842721535</v>
+        <v>219583.097018335</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>497597.2720899076</v>
+        <v>211912.6995868447</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>528930.0805171656</v>
+        <v>211357.7869591243</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>548209.8923998146</v>
+        <v>209587.3979018499</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>552334.3429631244</v>
+        <v>207905.7288746173</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>551789.0767420757</v>
+        <v>200272.0809340404</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>521242.98894207</v>
+        <v>191248.0877957746</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>477841.2618440954</v>
+        <v>192382.3070591162</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>428098.2105033729</v>
+        <v>194075.8724612892</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>438678.2985031212</v>
+        <v>210066.0715563639</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>435176.8670338983</v>
+        <v>241066.0240051369</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>441831.4176585287</v>
+        <v>270681.8465529302</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>477180.6800578135</v>
+        <v>291184.386681828</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>516723.2766296083</v>
+        <v>297462.4950702023</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>536931.3078527219</v>
+        <v>308638.3525146492</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>543778.6458453399</v>
+        <v>497817.2794584415</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>534571.6525296839</v>
+        <v>526911.0140049509</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>550805.7083148634</v>
+        <v>542213.9927192952</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>562288.9956163714</v>
+        <v>495665.4780880816</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>564519.7986159977</v>
+        <v>529157.2498077077</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>562403.5769688182</v>
+        <v>466001.0674047782</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>561740.743066548</v>
+        <v>515510.8271510162</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>561556.0201572193</v>
+        <v>466537.4445933916</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>561800.1263703514</v>
+        <v>523980.4689270253</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>551271.4966379917</v>
+        <v>498338.8802784149</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>549789.7658066391</v>
+        <v>526520.5447454404</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>563594.699283932</v>
+        <v>494847.2959434</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>564455.2923313206</v>
+        <v>522243.8146846639</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>570956.8980315141</v>
+        <v>493258.0336819592</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>573060.5847447398</v>
+        <v>527102.4089566687</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>571283.3627160343</v>
+        <v>493385.5511612832</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>571340.5044792645</v>
+        <v>544916.4487851775</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>569251.2120456164</v>
+        <v>534856.5037717399</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>564826.8577024608</v>
+        <v>555101.6229846382</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>567556.7695370967</v>
+        <v>545184.6812354149</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>567561.6307431762</v>
+        <v>558383.2033813717</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>573613.4548552911</v>
+        <v>556876.0211660117</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>568891.8843478173</v>
+        <v>557996.0843489338</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>572249.3237260871</v>
+        <v>558626.1648114489</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>571831.7650781748</v>
+        <v>559682.3136387166</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>570644.6977352165</v>
+        <v>535218.5740631424</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>571498.4315010709</v>
+        <v>550888.8649162337</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>571839.1235165341</v>
+        <v>506219.8066695884</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>567335.1005941082</v>
+        <v>543399.1937964339</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>565913.3556925099</v>
+        <v>504078.3937345626</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>555921.4516518346</v>
+        <v>544288.0690649652</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>524620.0840908471</v>
+        <v>486576.9951033789</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>547494.5389318566</v>
+        <v>512879.8565548115</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>523116.359854756</v>
+        <v>411212.3905247864</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>531442.4009819059</v>
+        <v>470877.8610496906</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>492411.5485410335</v>
+        <v>414101.6165986737</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>514946.8692901332</v>
+        <v>463477.2315362729</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>502451.1906912192</v>
+        <v>472083.7031501204</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>486124.0200394344</v>
+        <v>457187.9777511442</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>484948.3092587449</v>
+        <v>463273.3622920968</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>466848.2264171814</v>
+        <v>470265.1149962585</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>487685.0206997488</v>
+        <v>482352.4771500064</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>467842.6692704962</v>
+        <v>488272.7339995861</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>463968.5151781486</v>
+        <v>463529.5459057071</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>470755.2966858373</v>
+        <v>459003.7055167638</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>451182.4061833317</v>
+        <v>491904.8634922449</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>441395.6588969846</v>
+        <v>496276.8254842613</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>423942.2462521123</v>
+        <v>507977.6424840561</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>395844.1504651896</v>
+        <v>480070.4343044437</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>395354.2567157986</v>
+        <v>424702.9467958235</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>405358.296592108</v>
+        <v>409719.4719721187</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>391672.7044739099</v>
+        <v>395175.0941051945</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>386783.5946756091</v>
+        <v>419331.5126202857</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>378356.9814473588</v>
+        <v>392223.4847073975</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>367088.8770087399</v>
+        <v>374595.2045593874</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>388403.8583365236</v>
+        <v>375227.7239218401</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>348102.7073082445</v>
+        <v>390399.4421607846</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>337109.0715423076</v>
+        <v>394575.9554453741</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>331435.3471521313</v>
+        <v>376756.1614213839</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>332286.0671394516</v>
+        <v>377134.5250457101</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>339513.4516598519</v>
+        <v>350893.9258229567</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>320080.3695408623</v>
+        <v>381723.0401641364</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>339047.5480356964</v>
+        <v>341805.1074636601</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>323472.5093555779</v>
+        <v>327000.5859789144</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>310003.7727769638</v>
+        <v>292695.0032995281</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>327606.9296525029</v>
+        <v>305567.4281495106</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>307733.4347427142</v>
+        <v>321969.7510841172</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>326115.4066780418</v>
+        <v>311664.533295975</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>343875.9760000354</v>
+        <v>305797.4866362353</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>325328.676276935</v>
+        <v>305590.2229521809</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>292597.2925360393</v>
+        <v>310262.9283212662</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>289020.8415357219</v>
+        <v>302694.6570938659</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>259763.2933064965</v>
+        <v>372601.7481584666</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>280274.6876158564</v>
+        <v>387458.1624158751</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>276045.5178427678</v>
+        <v>384473.5252504259</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>227617.967027176</v>
+        <v>342919.259240457</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>238441.6249822857</v>
+        <v>341864.164163797</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>237249.5222929551</v>
+        <v>285652.4978093605</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>221071.7558279622</v>
+        <v>312293.4860988733</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>216686.1821061054</v>
+        <v>313961.853622305</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>216514.2596623188</v>
+        <v>282883.3432336844</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>204784.4745570862</v>
+        <v>290939.6752154416</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>208743.0786207202</v>
+        <v>296682.2902355127</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>224176.3273736433</v>
+        <v>296116.7845216074</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>202540.2758857185</v>
+        <v>291078.8655097426</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>200210.3146362495</v>
+        <v>298453.1263153229</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>212837.2869169565</v>
+        <v>278250.3119423087</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>207431.4961347902</v>
+        <v>286407.817380222</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>215144.808351205</v>
+        <v>252838.467669912</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>225347.8154098894</v>
+        <v>289422.3906624819</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>228489.8216779881</v>
+        <v>278301.44756731</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>232243.4519457498</v>
+        <v>259885.0780726642</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>222015.306103327</v>
+        <v>257555.2032007272</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>235436.7127017326</v>
+        <v>262045.0429841992</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>218912.6779828218</v>
+        <v>256406.2503579814</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>243488.2658547591</v>
+        <v>256101.9643988615</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>238388.3397019376</v>
+        <v>261018.0087475074</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>240543.4549000998</v>
+        <v>251491.024753413</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>239390.7694639019</v>
+        <v>252730.2068106717</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>235448.7581130057</v>
+        <v>243090.8212117148</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>309649.5520739863</v>
+        <v>260697.3897694347</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>269155.3024258513</v>
+        <v>254591.2495920209</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>278973.7048657445</v>
+        <v>246086.9966707653</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>287326.1231852554</v>
+        <v>252850.5293837917</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>332371.0197875044</v>
+        <v>323553.0937444898</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>295076.099166413</v>
+        <v>239592.705817314</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>246434.1307242052</v>
+        <v>202164.0903524847</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>230408.2168883428</v>
+        <v>177152.3080469456</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>244856.1451400196</v>
+        <v>171954.0939865319</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>223623.8105393149</v>
+        <v>177287.7322835405</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>206993.3961322054</v>
+        <v>160104.2978873716</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>217781.5195693928</v>
+        <v>173312.4185426481</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>199470.5600172616</v>
+        <v>178380.8694904405</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>219591.7800964476</v>
+        <v>172028.6003632637</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>208015.6481458357</v>
+        <v>185840.9421944035</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>198767.2053715643</v>
+        <v>171478.6374815622</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>189120.9730524747</v>
+        <v>161202.6437315185</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>187855.9928760766</v>
+        <v>172470.1292889298</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>184134.6110675779</v>
+        <v>180799.1353838068</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>185467.4287167792</v>
+        <v>186734.9722262328</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>196979.8699638223</v>
+        <v>193773.2266693389</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>194940.304932346</v>
+        <v>171923.2463046971</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>188790.2123632736</v>
+        <v>177579.91559743</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>181590.186200915</v>
+        <v>163455.7354087627</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>192261.6888644637</v>
+        <v>168855.7940654183</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>205510.2893397808</v>
+        <v>185180.7992620169</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>211267.593729135</v>
+        <v>179684.5665747558</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>206700.4914805216</v>
+        <v>179431.134751842</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>197896.2972662549</v>
+        <v>176404.4425452772</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>214672.0507952631</v>
+        <v>179892.9308607113</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>203400.9687529572</v>
+        <v>174136.8550127148</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>203281.3488461829</v>
+        <v>174041.9247221617</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>206219.953697185</v>
+        <v>173730.6284795988</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>209689.8318099787</v>
+        <v>167925.5928691659</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>196867.2762337893</v>
+        <v>170585.8001059523</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>210123.6588645724</v>
+        <v>193941.0531827948</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>214229.6491370789</v>
+        <v>201212.4529526433</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>222322.0222159674</v>
+        <v>199831.4840949036</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>222711.2379061659</v>
+        <v>204934.3659314212</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>217603.8399666065</v>
+        <v>217660.2412226656</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>218231.5528974234</v>
+        <v>219192.3926939841</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>222149.3522463203</v>
+        <v>205441.0143985873</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>227952.3230511771</v>
+        <v>211485.0089604635</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>224105.8621249288</v>
+        <v>204659.6843236336</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>226869.4513280552</v>
+        <v>213341.8904738971</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>229757.1942176005</v>
+        <v>211117.1356717736</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>215128.5615132451</v>
+        <v>199644.9221334157</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>213049.481168877</v>
+        <v>212150.395293445</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>213877.0436500566</v>
+        <v>198883.1926419375</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>226385.6872223466</v>
+        <v>209443.3814748807</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>234879.3373989763</v>
+        <v>210943.1528699292</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>225255.2589053868</v>
+        <v>205539.2441711409</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>226787.0954462297</v>
+        <v>205932.8946316979</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>244562.5999737625</v>
+        <v>216940.3079346253</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>249355.6756433709</v>
+        <v>215505.194386411</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>240174.9582825626</v>
+        <v>197486.3986924766</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>252700.4189594309</v>
+        <v>198609.7395152458</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>247004.1728589584</v>
+        <v>199590.7512360251</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>246649.8929012001</v>
+        <v>202080.3867477831</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>249472.1043516359</v>
+        <v>220361.5481993197</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>253605.3905963149</v>
+        <v>198810.2011420926</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>263887.5905668312</v>
+        <v>200516.0876956332</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>257638.8728133102</v>
+        <v>206034.508007012</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>250678.8943552913</v>
+        <v>204252.3803105524</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>248274.481010674</v>
+        <v>209855.7200126123</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>267769.7006430316</v>
+        <v>216338.0755267879</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>243370.1666503127</v>
+        <v>189495.4103718662</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>207744.109963777</v>
+        <v>172351.3889628529</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>207626.3407307385</v>
+        <v>181176.0636255898</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>211044.9502677887</v>
+        <v>182072.838114717</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>205663.9090434417</v>
+        <v>175201.7865052395</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>214038.4379970893</v>
+        <v>178256.2003267347</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>206487.6243680576</v>
+        <v>187141.3090337049</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>205994.6678756241</v>
+        <v>173829.0634000231</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>202134.6375874178</v>
+        <v>180679.8815301583</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>199513.2071117384</v>
+        <v>179722.6659106825</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>196419.570124092</v>
+        <v>179201.5161090087</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>194055.8181083447</v>
+        <v>184048.7811340723</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>190166.2897994227</v>
+        <v>187486.5921342104</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>193338.8498410269</v>
+        <v>193840.7877490044</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>190702.2202202292</v>
+        <v>191305.8434771855</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>189450.3630415231</v>
+        <v>195693.5493918156</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>192592.4634099847</v>
+        <v>194031.2138772556</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>197013.4064759404</v>
+        <v>200960.9574930446</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>197915.9553504107</v>
+        <v>210601.6208473702</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>193904.3093749197</v>
+        <v>224186.2701414849</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>193977.5657697072</v>
+        <v>202618.0372845536</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>195860.668841755</v>
+        <v>201354.9514050709</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>195554.703705579</v>
+        <v>199962.2335699032</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>199206.2087015918</v>
+        <v>199083.6778270474</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>206523.7542942851</v>
+        <v>194937.3147173992</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>205758.4538340099</v>
+        <v>198697.3487010711</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>197708.3649655086</v>
+        <v>200566.9486592207</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>193219.5213783856</v>
+        <v>204944.5329475548</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>189557.2207573672</v>
+        <v>215484.1348150366</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>188810.7922328714</v>
+        <v>217546.8043077002</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>187312.8317185912</v>
+        <v>221730.3765515696</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>230776.0462543218</v>
+        <v>259262.0636559546</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>253503.4003102183</v>
+        <v>256216.8005519342</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>262354.906285681</v>
+        <v>243844.9078303014</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>258192.2804219041</v>
+        <v>255160.9967313301</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6022,7 +6022,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>261017.2925258486</v>
+        <v>252328.9253991717</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>267249.2318769775</v>
+        <v>258139.4822574593</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>269177.7753643244</v>
+        <v>249383.49107347</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>265332.7156799787</v>
+        <v>251402.2185706821</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>278487.601497363</v>
+        <v>251042.8682846238</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>306939.0848059957</v>
+        <v>291172.0793562013</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6070,7 +6070,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>327537.7489907737</v>
+        <v>285895.5894012249</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6078,7 +6078,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>356393.7899684511</v>
+        <v>280718.6564873823</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6086,7 +6086,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>331679.0434055304</v>
+        <v>284894.2790653988</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>346305.8127922744</v>
+        <v>269015.593356311</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>349129.6778915986</v>
+        <v>269669.6797107518</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6110,7 +6110,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>341453.7458252358</v>
+        <v>250669.3585105325</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6118,7 +6118,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>386806.0305303192</v>
+        <v>253883.1403915003</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>398944.0180799484</v>
+        <v>249772.4368840513</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>404199.6490009478</v>
+        <v>248075.5939379685</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>385461.6275462075</v>
+        <v>238807.4434536463</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>394207.3893012743</v>
+        <v>242851.1349341442</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>370433.5263715707</v>
+        <v>243742.8781267692</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>370639.8267952798</v>
+        <v>237016.4441122989</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6174,7 +6174,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>361752.5561336676</v>
+        <v>246438.309973728</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6182,7 +6182,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>351441.3703141151</v>
+        <v>294006.4127696007</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>340338.9512445478</v>
+        <v>288979.0284221781</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>333217.0678610468</v>
+        <v>291120.4183552817</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>329508.3001657002</v>
+        <v>305170.5375075572</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6214,7 +6214,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>322181.5721295681</v>
+        <v>335234.5644212977</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>323726.1800632908</v>
+        <v>344291.7078112109</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>379429.7410511028</v>
+        <v>317376.1240858157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>437393.4591080056</v>
+        <v>388069.8083762719</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>481343.6128575114</v>
+        <v>421158.3187477927</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>447962.2980486075</v>
+        <v>429307.195928144</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>421460.3246938771</v>
+        <v>414163.1024015407</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>402940.7718860918</v>
+        <v>412126.8100347903</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>398191.3181204428</v>
+        <v>408917.1844410275</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>425589.0026807918</v>
+        <v>402977.6465167333</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>414777.598181461</v>
+        <v>412013.2614300439</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>409788.5962354498</v>
+        <v>428165.6596455385</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>431118.156380938</v>
+        <v>419183.6699958062</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>418704.679026772</v>
+        <v>424711.7811996698</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>420281.6358202705</v>
+        <v>424121.8606484061</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>435063.61244494</v>
+        <v>424773.0571208787</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>433729.1328085376</v>
+        <v>423436.466436067</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>406746.925709049</v>
+        <v>446913.6447850937</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>416378.4160380793</v>
+        <v>439978.9942193619</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>481468.3435185841</v>
+        <v>442613.110742747</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>524373.7796546767</v>
+        <v>424087.3827307255</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>541159.3097968926</v>
+        <v>404395.99110748</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>545464.3797113702</v>
+        <v>397747.9272311017</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>557447.9375792661</v>
+        <v>404637.3632206161</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>549742.8066130911</v>
+        <v>383436.9060561953</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>565216.5797632636</v>
+        <v>398768.4977980327</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>552973.9431210209</v>
+        <v>403187.6881473116</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>560499.4260898157</v>
+        <v>411066.5197333936</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>551929.7948857102</v>
+        <v>414592.6565708874</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>559827.4407192095</v>
+        <v>412333.8441938024</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>541481.1139268628</v>
+        <v>399193.1283526365</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>559244.4366055576</v>
+        <v>402327.8287073482</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>550911.586910454</v>
+        <v>398147.327910392</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>550820.1615683853</v>
+        <v>383229.8708852762</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>548678.1765045706</v>
+        <v>377625.9771519715</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>547125.1106964574</v>
+        <v>371074.9103468856</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>539917.6542245711</v>
+        <v>372721.7771695522</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>549083.9122062969</v>
+        <v>366074.2216675631</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>539846.9800983215</v>
+        <v>391565.8779971186</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>548486.7066165935</v>
+        <v>457975.1298555001</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>537039.5252398484</v>
+        <v>478285.7692762541</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>546790.2136072225</v>
+        <v>527784.8716891541</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>536924.9258743707</v>
+        <v>541957.3815445412</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>541967.7692351005</v>
+        <v>561997.3882552802</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>536800.1237917565</v>
+        <v>569656.0658588826</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>542713.442065726</v>
+        <v>539491.2765121411</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>533139.6071065126</v>
+        <v>528392.0908272348</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>535203.3705126344</v>
+        <v>499732.5386335998</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>530692.0886075668</v>
+        <v>539207.0151156294</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>530999.5113742227</v>
+        <v>538059.9655272997</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>523372.671249031</v>
+        <v>565243.5373293908</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>531428.2749035856</v>
+        <v>561158.6201846373</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>527906.89716009</v>
+        <v>575986.1046787323</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>535338.3912872195</v>
+        <v>573625.2609250683</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>527291.0637456524</v>
+        <v>573700.3888948787</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>531452.3235907026</v>
+        <v>556370.9060728519</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>523891.2850158517</v>
+        <v>559427.0337617953</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>527592.4350718474</v>
+        <v>540071.7415426391</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>523658.721183155</v>
+        <v>539004.7474705873</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>526152.3399871606</v>
+        <v>518804.2376657979</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>519796.3584913759</v>
+        <v>517289.1308161312</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>527427.4909955005</v>
+        <v>491035.6604926925</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>488785.5724029637</v>
+        <v>455056.8552748541</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>506008.7460404004</v>
+        <v>425246.9034903581</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>454697.6093222153</v>
+        <v>437423.3187073544</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>471279.7677924195</v>
+        <v>437055.3615132864</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>462411.732052449</v>
+        <v>430651.3164458352</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>463104.0449066642</v>
+        <v>415236.85055587</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>458163.3856860423</v>
+        <v>414193.7314323576</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>481506.2271396374</v>
+        <v>428021.5214217586</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>482920.6207488973</v>
+        <v>427401.9342325458</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>502431.271550896</v>
+        <v>438147.9238418586</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>499744.0380907424</v>
+        <v>439757.0383078624</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>505067.6253152783</v>
+        <v>452343.3373543025</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>501515.6851807325</v>
+        <v>457981.4946359179</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>496215.2001310779</v>
+        <v>456690.7000972839</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>500415.154827407</v>
+        <v>472638.9542260736</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>505564.8811803585</v>
+        <v>476656.4979495525</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>513825.2882388034</v>
+        <v>478733.9053335568</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>498059.3462276092</v>
+        <v>475701.4959420426</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>492962.0008574438</v>
+        <v>470837.3279664897</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>504720.0313377355</v>
+        <v>462333.1491517148</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>503735.1041227545</v>
+        <v>467516.072300382</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>500814.823812436</v>
+        <v>458595.987196509</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>493391.6007921577</v>
+        <v>465878.7715877507</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>487850.4876334115</v>
+        <v>454018.8904805331</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>489094.5889511629</v>
+        <v>444020.7611341992</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>509257.4289905893</v>
+        <v>450077.0200381705</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>538186.3858965336</v>
+        <v>438914.4283472257</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>540893.6789486459</v>
+        <v>417843.6488988642</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>540156.9603615629</v>
+        <v>426862.4139196945</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>543706.5214073573</v>
+        <v>428308.9566830699</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>536836.8355931126</v>
+        <v>390841.3613599562</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>488711.9755167003</v>
+        <v>350827.8724833929</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>509299.7072424272</v>
+        <v>356666.0021409977</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>457939.7177837734</v>
+        <v>355465.8580551415</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>491613.901080593</v>
+        <v>358445.5622154234</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>454391.48321083</v>
+        <v>345231.511514528</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>471462.3049639667</v>
+        <v>366152.5031136547</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>474013.8874646822</v>
+        <v>385609.173952284</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>496215.1868968948</v>
+        <v>432417.0738328649</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>493366.4297829501</v>
+        <v>493427.9866653623</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>519943.2004516385</v>
+        <v>518484.6124458177</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>499176.0223778655</v>
+        <v>525057.02936413</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>514315.3680129696</v>
+        <v>526534.7056858003</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>488642.1350413086</v>
+        <v>533621.5067862469</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>503587.6233601215</v>
+        <v>508946.7596180137</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>458756.1998331654</v>
+        <v>530127.0289349759</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>497092.2393738485</v>
+        <v>496683.1035916102</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>482254.0767964275</v>
+        <v>530968.4297574398</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>499769.4417299379</v>
+        <v>488516.4267730572</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>485535.6525538852</v>
+        <v>523676.1150542682</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>505304.2403787895</v>
+        <v>468600.2528292433</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>496127.9332550167</v>
+        <v>509445.4823105402</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>525012.0188148009</v>
+        <v>459196.3736444307</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>524715.2529766472</v>
+        <v>536478.877194146</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>539112.1876031517</v>
+        <v>541055.9708409955</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>536154.6665336778</v>
+        <v>550863.8490968763</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>527055.6951867918</v>
+        <v>544175.5921232265</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>533654.3040320022</v>
+        <v>544334.5201647126</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>538327.3639083904</v>
+        <v>520935.3477464077</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>539617.9703305686</v>
+        <v>524143.6337589634</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>532308.5245552933</v>
+        <v>281470.9896756068</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>525136.6571999176</v>
+        <v>312773.4078533578</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>441676.6680950598</v>
+        <v>267667.1605072762</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>370989.2223384564</v>
+        <v>282798.4383790973</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>409342.3484881353</v>
+        <v>257469.8937388281</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>390153.005228217</v>
+        <v>251419.971996415</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>445558.844774035</v>
+        <v>251360.505364887</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>449600.205260751</v>
+        <v>246548.9424608738</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>505870.2081439254</v>
+        <v>243872.7481030856</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>502427.1347402313</v>
+        <v>244929.4645392601</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>529575.6273269624</v>
+        <v>246416.2440024927</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>517889.0634111442</v>
+        <v>247570.5328123957</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>531021.7222967487</v>
+        <v>261081.298388931</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>516874.2057878781</v>
+        <v>290505.7017764682</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>539542.741063254</v>
+        <v>309376.6863037234</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>529093.0069599613</v>
+        <v>321791.7550125642</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>545601.3550946958</v>
+        <v>438741.1223452291</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>548708.4622470844</v>
+        <v>528356.5640003199</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>553074.6698282056</v>
+        <v>530682.8610083546</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>552012.3448858756</v>
+        <v>540774.7964759618</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>554490.3574225345</v>
+        <v>547330.8083475751</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>552904.9272983001</v>
+        <v>560034.1218647193</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>554764.7953720214</v>
+        <v>550396.9151137992</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>554936.6449699048</v>
+        <v>553489.539722305</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>559214.6126103693</v>
+        <v>546400.3088606807</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>557323.274033475</v>
+        <v>553356.7884466888</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>558450.947147325</v>
+        <v>551029.7050269016</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>554465.573971057</v>
+        <v>556413.6263898396</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>554151.7075167594</v>
+        <v>547176.8535193878</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>552558.5628530444</v>
+        <v>558804.7777752867</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>553240.9912347376</v>
+        <v>552168.5102004621</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>554695.4001466362</v>
+        <v>561611.438246395</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>560495.2098508104</v>
+        <v>555610.3481520894</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>560565.9342755572</v>
+        <v>551474.7997761874</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>563053.4830684144</v>
+        <v>557092.3485938117</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>561449.3177759954</v>
+        <v>558890.8997955578</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>563617.4184826259</v>
+        <v>558321.3979633402</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>566160.1847481765</v>
+        <v>565087.1689060632</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>570807.5108297003</v>
+        <v>564290.4771367765</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>569025.0957682328</v>
+        <v>564086.8463371873</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>570183.6278276917</v>
+        <v>565740.9577141814</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>568917.4736992837</v>
+        <v>566485.5266325007</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>570369.2283386285</v>
+        <v>568114.348266611</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>569196.232096688</v>
+        <v>569118.529093512</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>570477.3246907034</v>
+        <v>569613.4998062003</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>568999.5614962825</v>
+        <v>569539.4926997981</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>569601.0522588379</v>
+        <v>569024.4768324727</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>568478.1837481513</v>
+        <v>569348.7827329469</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>569942.7519901473</v>
+        <v>570117.1138689456</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>569386.1474696274</v>
+        <v>571964.0723750092</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>571285.0784627054</v>
+        <v>570263.113589173</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>569825.6016956795</v>
+        <v>565004.9227712946</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>570108.5704193115</v>
+        <v>563380.4656207958</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>569822.2675281727</v>
+        <v>506835.1584671636</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>569981.1609048226</v>
+        <v>523511.6340420489</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>567585.0342499142</v>
+        <v>532457.7897836887</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>565716.3816153865</v>
+        <v>525971.5963431831</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>563713.273280716</v>
+        <v>528710.5197909289</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>567262.7912589997</v>
+        <v>530014.0692642053</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>573382.326367082</v>
+        <v>538559.8198373715</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>570550.0433058889</v>
+        <v>540924.9494458436</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>547610.4938002799</v>
+        <v>523079.9602817002</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>521304.9057970057</v>
+        <v>524815.4048198463</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>512751.6368654018</v>
+        <v>530702.2409639739</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>491663.5515279688</v>
+        <v>533656.0571892394</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>475394.9781485563</v>
+        <v>539215.5385405498</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>473452.1991864191</v>
+        <v>531280.4082370372</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>476587.2936149574</v>
+        <v>484622.1197639863</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>460578.110513092</v>
+        <v>456471.4998447348</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>418350.2338803224</v>
+        <v>446987.9234873481</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>434356.7325119317</v>
+        <v>464521.4397032833</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>420705.382096676</v>
+        <v>439929.0985898247</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>401691.5899313744</v>
+        <v>417821.2351983289</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>403847.3809215526</v>
+        <v>416443.3954040312</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>401792.1071584038</v>
+        <v>415540.164329205</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>394444.1111629656</v>
+        <v>418012.2153075872</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>393272.662103242</v>
+        <v>406362.6058796444</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>410187.8561674831</v>
+        <v>428995.4835035477</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>385237.2786630843</v>
+        <v>399002.8859496656</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>382107.2500948886</v>
+        <v>429459.8796287024</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>369742.0252504905</v>
+        <v>388119.0494981566</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>343448.2528519381</v>
+        <v>374370.9036274839</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>343972.0683708905</v>
+        <v>336212.1366145836</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>364425.314576669</v>
+        <v>346305.3270620058</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>379806.2261401324</v>
+        <v>361367.6807425502</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>333474.6088821695</v>
+        <v>352640.9725752217</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>328137.1373152676</v>
+        <v>345771.4200953799</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>308365.4432229882</v>
+        <v>346400.5157525591</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>304613.8180483955</v>
+        <v>346185.6195613769</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>307851.0319848858</v>
+        <v>335623.848475065</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>295353.7876965012</v>
+        <v>339148.2153093897</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>283044.4169422766</v>
+        <v>394853.2627801198</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>277893.7636221136</v>
+        <v>454096.6995705378</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>244475.0371297603</v>
+        <v>376480.5056165605</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>238222.6059955863</v>
+        <v>375777.1517697027</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>239993.9215102509</v>
+        <v>314776.2094766456</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>241962.8932661669</v>
+        <v>347525.2666434674</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>233825.8726613234</v>
+        <v>343534.4431616213</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>221772.7160803608</v>
+        <v>307922.9307116836</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>201436.7949815328</v>
+        <v>319475.5045003944</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>216498.8273672208</v>
+        <v>325727.2993018109</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>213303.5115287899</v>
+        <v>325535.4410072978</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>216696.5810581567</v>
+        <v>317742.725911891</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>223807.9181748315</v>
+        <v>328003.4423721139</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>204115.4447934496</v>
+        <v>303071.2878849043</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>211031.0713853422</v>
+        <v>313070.2393799479</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>214646.5745259777</v>
+        <v>275058.7518257183</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>228039.7813845362</v>
+        <v>313962.1987478781</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>228209.1818224542</v>
+        <v>304459.6227981956</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>231216.6456643209</v>
+        <v>282938.3289953553</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>247321.6923313601</v>
+        <v>280488.3747817774</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>242786.989106162</v>
+        <v>283707.1879513668</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>232728.6710638871</v>
+        <v>278942.8504086419</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>235073.4739534952</v>
+        <v>282213.814142268</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>230834.0149104525</v>
+        <v>283254.2341462381</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>228753.5284940207</v>
+        <v>276064.1905765334</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>218260.4284446011</v>
+        <v>273111.0767191228</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>219237.3238961523</v>
+        <v>263663.528075605</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>232828.497661998</v>
+        <v>285098.8745085156</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>229110.7854921952</v>
+        <v>283828.1277648714</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>228088.5439023581</v>
+        <v>281189.0533573671</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>240238.2831580588</v>
+        <v>289424.906914968</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>286024.4966653432</v>
+        <v>358515.6126716122</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>203699.185135242</v>
+        <v>281502.8999523582</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>178015.8372286593</v>
+        <v>237254.9284066064</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>174437.9667966853</v>
+        <v>204927.1221137252</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>190934.4922286651</v>
+        <v>199731.5994792787</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>212870.9960123233</v>
+        <v>201552.7519410673</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>193741.7819300476</v>
+        <v>173230.6378662427</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>212399.1843220548</v>
+        <v>186152.663140262</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>182633.8613946356</v>
+        <v>193014.7733325127</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>191981.7586950886</v>
+        <v>184263.0212592637</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>193413.5127840559</v>
+        <v>198027.5108456549</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>207961.0163754426</v>
+        <v>182909.1062781595</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>219974.171681273</v>
+        <v>170805.2015172232</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>218154.9493564682</v>
+        <v>184838.1806956956</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>209879.7394335046</v>
+        <v>194007.8450888282</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>218734.949471417</v>
+        <v>202285.845488701</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>225210.499533941</v>
+        <v>210866.9626517731</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>212660.3290680727</v>
+        <v>185510.6175701147</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>212498.484780281</v>
+        <v>192385.1418351147</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>201064.3572145104</v>
+        <v>174947.0181076851</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>216411.1448148091</v>
+        <v>179701.2249292978</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>220024.0661892467</v>
+        <v>196177.0730694996</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>223571.8332474513</v>
+        <v>190426.6378574178</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>268691.4776258332</v>
+        <v>193799.6904604635</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>246586.5064791343</v>
+        <v>188450.8545001529</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>246564.2754595834</v>
+        <v>190042.5253889064</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>248046.2313192569</v>
+        <v>185679.1701302393</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>268380.9546005523</v>
+        <v>185863.2627424865</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>248457.1460076923</v>
+        <v>181954.7868655031</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>247536.9073888329</v>
+        <v>178811.3856614451</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>309352.1686500475</v>
+        <v>185872.2528541118</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>399605.5081010906</v>
+        <v>208966.079039532</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>406762.568915426</v>
+        <v>212559.5550326948</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>375377.2346463891</v>
+        <v>211629.4933357479</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>370251.668302816</v>
+        <v>219435.1499395862</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>396651.3755103864</v>
+        <v>237317.5098718596</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>327573.6596810279</v>
+        <v>243135.1816791425</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>362170.6467132061</v>
+        <v>227940.7837841615</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>350277.2263796464</v>
+        <v>230467.5169491883</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>362361.9284289509</v>
+        <v>223331.0101917736</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>345036.5658098892</v>
+        <v>231871.1952632533</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>356132.5780531053</v>
+        <v>226044.3772382719</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>332571.9099798333</v>
+        <v>219695.1200557087</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>357763.0072106344</v>
+        <v>235781.2919638176</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>328657.2662339116</v>
+        <v>218998.3159805185</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>364379.5026127962</v>
+        <v>229575.5045557535</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>319519.2478874139</v>
+        <v>229196.6899161585</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>346444.1957590292</v>
+        <v>224313.8972959272</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>391817.5452447669</v>
+        <v>223485.1353932916</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>483197.8705216996</v>
+        <v>243144.4716959209</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>445901.3987613087</v>
+        <v>239668.4880261911</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>460826.1522546926</v>
+        <v>222059.1690546892</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>436833.6383485988</v>
+        <v>218048.0158432768</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>418701.7228714111</v>
+        <v>222494.0290730869</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>414823.4145070512</v>
+        <v>229512.8950808534</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>403820.5142704402</v>
+        <v>246344.7951114938</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>387567.0910236627</v>
+        <v>222153.2124393969</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>403385.4474502825</v>
+        <v>228485.1582596049</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>365599.2225229185</v>
+        <v>235239.639273013</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>374728.0965546538</v>
+        <v>230631.9706369752</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>364061.520848075</v>
+        <v>236215.9051971356</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>364602.9343993583</v>
+        <v>239603.7693706876</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>368481.5039290905</v>
+        <v>209157.256919671</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>407744.1160766671</v>
+        <v>193922.8752027239</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>416736.5923262311</v>
+        <v>211937.9389915433</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>432719.9065794336</v>
+        <v>209209.9814100954</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>412880.5758760049</v>
+        <v>199904.039089203</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>425817.6608318719</v>
+        <v>205246.7774556405</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>409109.6940812408</v>
+        <v>212020.6890599796</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>421499.8601486078</v>
+        <v>197322.9802489221</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>391828.1102142922</v>
+        <v>207316.938310992</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>393520.9186082042</v>
+        <v>207088.4606254082</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>356777.2212741473</v>
+        <v>202220.2753042487</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>393919.1381027029</v>
+        <v>207144.3245704343</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>378913.6471495366</v>
+        <v>206370.5017931712</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>382903.3085933718</v>
+        <v>217729.46386538</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>386058.53505032</v>
+        <v>216994.9633244375</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>365714.3507220345</v>
+        <v>223130.358966956</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>375084.971333501</v>
+        <v>223492.8580238924</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>365445.7815919284</v>
+        <v>231574.2521419055</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>341155.3462799808</v>
+        <v>232420.761395191</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>345050.1011963003</v>
+        <v>245908.8043495766</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>339704.4050322861</v>
+        <v>232493.1233711347</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>367850.860990843</v>
+        <v>223581.3147293831</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>345012.8626076345</v>
+        <v>214100.8630396174</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>349004.7360795123</v>
+        <v>213695.2455531794</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>316397.7818834033</v>
+        <v>210776.9478789108</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>338988.3378146986</v>
+        <v>225123.9806862877</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>345444.281128942</v>
+        <v>220465.3732606038</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>349816.9200377533</v>
+        <v>228442.2388178553</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>333556.6745669848</v>
+        <v>235940.6350063913</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>335958.563480318</v>
+        <v>237689.7204393058</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>337566.4550462897</v>
+        <v>239929.8355827702</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>412846.6203189401</v>
+        <v>278370.4420214106</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>403913.4049632683</v>
+        <v>270944.2648560303</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>400413.8645442692</v>
+        <v>259061.8148198617</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>393041.7356382041</v>
+        <v>267712.6891466659</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>394336.1549649311</v>
+        <v>262353.9836534652</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>383253.5381560944</v>
+        <v>267125.1260042152</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>377058.9786785903</v>
+        <v>266066.6854858295</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>371096.3749748053</v>
+        <v>283579.2463986768</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>434317.13635063</v>
+        <v>279739.8788036615</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>413386.8987583128</v>
+        <v>320527.1135995554</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>438094.9993293114</v>
+        <v>305323.3127310022</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>394972.1896183204</v>
+        <v>290561.2756118697</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>403644.3201008802</v>
+        <v>296805.776978471</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>391602.7169915084</v>
+        <v>281677.7461955789</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>361577.3302335578</v>
+        <v>293798.6282858586</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>360884.9408692377</v>
+        <v>267680.3700096645</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>345771.3193582988</v>
+        <v>270761.3511531539</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>357324.4578321779</v>
+        <v>256846.4635758391</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>345671.2358888531</v>
+        <v>253198.5904181469</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>360651.1253808246</v>
+        <v>244762.8188378976</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>390383.5098382069</v>
+        <v>253093.2274285886</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>427533.7172627523</v>
+        <v>254873.254924527</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>466942.8374068906</v>
+        <v>244364.8447671933</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>475166.6126688608</v>
+        <v>240010.5059727492</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>498418.414752127</v>
+        <v>248416.9888375148</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>505480.5168675037</v>
+        <v>250398.3339180844</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>525639.6386440066</v>
+        <v>252368.7259285797</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>543783.1934922616</v>
+        <v>278071.7062884948</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>535708.373626982</v>
+        <v>312930.5442578844</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>523205.7025068883</v>
+        <v>327857.7511431017</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>493862.4036427383</v>
+        <v>306767.0902737053</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>427261.7316194437</v>
+        <v>304083.5429937998</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>432731.9791673542</v>
+        <v>312980.8421969137</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>442811.7072883749</v>
+        <v>312151.1519475045</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>431148.7997816323</v>
+        <v>316242.6341292187</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>433648.502605408</v>
+        <v>316032.4096324123</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>428928.622478564</v>
+        <v>321594.0525768233</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>423251.2160593836</v>
+        <v>327983.4938315594</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>432628.6176267635</v>
+        <v>316980.8713707204</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>445928.9028838237</v>
+        <v>309702.9816277768</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>434014.7298985616</v>
+        <v>302284.649885287</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>427035.2033449973</v>
+        <v>299771.6311472491</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>415905.6566630803</v>
+        <v>297691.0231117763</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>420672.4645755067</v>
+        <v>295218.2223046893</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>417269.440717448</v>
+        <v>303193.3537165901</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>436538.6143207308</v>
+        <v>311290.1935160308</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>446431.7419686946</v>
+        <v>300811.08338472</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>443033.3060824878</v>
+        <v>300309.0976796765</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>435416.4524162597</v>
+        <v>284947.120795069</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>435040.0324731602</v>
+        <v>284201.687376472</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>463392.9980972406</v>
+        <v>289425.5583290294</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>479134.6009059164</v>
+        <v>295492.9632767658</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>460023.5943489787</v>
+        <v>305568.0860732046</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>470046.2247944337</v>
+        <v>311459.6923766745</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>452187.3542549313</v>
+        <v>355310.1120697459</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>446617.7556671857</v>
+        <v>348016.0434230525</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>453806.0992287746</v>
+        <v>344349.2853438639</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>452387.7604790393</v>
+        <v>345575.1706886233</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>439783.5085584107</v>
+        <v>353884.7896525079</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>441796.5423555072</v>
+        <v>358095.9669906835</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>441529.7030956551</v>
+        <v>352195.7302281965</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>434580.0126367361</v>
+        <v>363112.7033731331</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>405563.4324206499</v>
+        <v>357504.0199967718</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>396225.5409520625</v>
+        <v>356236.5361274306</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>401913.8592926967</v>
+        <v>334777.9503295691</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>397684.5411563585</v>
+        <v>342677.4807870738</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>417602.163963241</v>
+        <v>341313.3000262181</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>467474.5899111058</v>
+        <v>337724.4897293363</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>514108.4735692825</v>
+        <v>337742.772796794</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>550549.7274701732</v>
+        <v>341084.5077159221</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>560235.9521119738</v>
+        <v>338775.8677418219</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>562981.9736525862</v>
+        <v>345366.8939371705</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>567858.9585150739</v>
+        <v>341736.5766349736</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>554906.0680345518</v>
+        <v>370383.5314636159</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>555488.4044412581</v>
+        <v>376602.3969250373</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>554399.4503478358</v>
+        <v>374325.4082559081</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>555429.5523610162</v>
+        <v>375373.7762444246</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>546075.5499678175</v>
+        <v>364321.534382261</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>529164.3160957708</v>
+        <v>362098.6803975445</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>547138.2347157889</v>
+        <v>424304.2761000739</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>554620.2476262668</v>
+        <v>434175.4432596323</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>555196.2215237941</v>
+        <v>430332.7643459413</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>547902.6689604322</v>
+        <v>450027.4660132044</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>536977.5664177274</v>
+        <v>455524.6271581199</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>531067.0792472902</v>
+        <v>450039.7773017462</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>517988.3376376152</v>
+        <v>446932.9817638177</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>499092.3084646437</v>
+        <v>443459.9962271086</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>487400.6506301414</v>
+        <v>439877.9633291257</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>461094.0600751151</v>
+        <v>425776.0601438577</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>478903.2004208323</v>
+        <v>410547.5871223249</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>406613.2013048547</v>
+        <v>347347.8305656064</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>376327.5528764245</v>
+        <v>346701.3745393445</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>362999.0840495646</v>
+        <v>328256.6756906324</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>370088.2047530807</v>
+        <v>319732.6632512279</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>365633.1418924759</v>
+        <v>323561.0474850673</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>349380.0393391909</v>
+        <v>330893.8788052565</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>348786.719095042</v>
+        <v>335234.0438330159</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>364029.3939246444</v>
+        <v>354569.7077752689</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>362132.4883983755</v>
+        <v>385779.4083229436</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>373942.1091335865</v>
+        <v>408345.4148846002</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>374338.4879650536</v>
+        <v>405514.2731354055</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>388223.2503887335</v>
+        <v>398316.5132267313</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>403761.4415236979</v>
+        <v>377280.3014562708</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>454036.6760036304</v>
+        <v>371592.5990692821</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>467646.1231088435</v>
+        <v>367677.4170205455</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>452977.2032678118</v>
+        <v>354067.533444152</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>454575.743050464</v>
+        <v>350271.2290391732</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>449549.7860629353</v>
+        <v>348212.6447356726</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>441679.1347163932</v>
+        <v>342572.4928359656</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>440344.61203763</v>
+        <v>350910.1961643349</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>445346.3758626003</v>
+        <v>365144.4049795686</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>439830.5202771066</v>
+        <v>367724.2726959904</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>437531.4635976872</v>
+        <v>357608.0106041284</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>378036.2658006932</v>
+        <v>351195.2585755715</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>378701.6547120289</v>
+        <v>356500.0761652493</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>388777.463795725</v>
+        <v>359420.751084817</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>379552.9142895902</v>
+        <v>351551.1832983282</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>371037.0958471958</v>
+        <v>349006.8905705267</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>381478.0913879038</v>
+        <v>347914.7734807589</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>381766.8477052975</v>
+        <v>339336.8143110215</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>342907.0551321899</v>
+        <v>286573.3773299228</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>335774.0373858731</v>
+        <v>239637.1167107919</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>339982.6295741096</v>
+        <v>233818.6006165456</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>338845.7986441085</v>
+        <v>250433.1908045383</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>342188.4678191179</v>
+        <v>272436.0918499722</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>328469.6100892503</v>
+        <v>314854.8460259372</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>346712.7480559998</v>
+        <v>342409.434219085</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>362523.7005094187</v>
+        <v>326242.2925294838</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>404486.6895590962</v>
+        <v>337362.7374261108</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>461627.4914293457</v>
+        <v>332633.166972001</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>501870.0558060927</v>
+        <v>311087.0676034931</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>503096.8200052623</v>
+        <v>309997.8128025592</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>504476.8647070403</v>
+        <v>320441.516739619</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>500775.3610027484</v>
+        <v>363083.4661440782</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>515272.3352504969</v>
+        <v>378527.4721179985</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>443649.7350477527</v>
+        <v>375365.3557970155</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>509745.7838173544</v>
+        <v>380930.8784973046</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>455856.1177430674</v>
+        <v>397368.1495610639</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>497648.5172507627</v>
+        <v>403607.9440158329</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>444871.78113608</v>
+        <v>407716.7964230236</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>484524.0038380075</v>
+        <v>403757.1637068123</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>416883.8644501281</v>
+        <v>391077.1505156485</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>462283.5988025242</v>
+        <v>384701.1453897629</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>499465.3388010485</v>
+        <v>368267.6685206502</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>537613.6597827781</v>
+        <v>372830.6512481972</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>532674.7954056717</v>
+        <v>378628.9728146406</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>532040.3209581889</v>
+        <v>381220.4044832061</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>518464.6414645846</v>
+        <v>370483.4031002165</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>506958.6825173746</v>
+        <v>367535.3124645473</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>464504.3494107614</v>
+        <v>350792.9870421228</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>292159.080800837</v>
+        <v>237790.7856489196</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>233021.2636694982</v>
+        <v>227601.2739111622</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>242947.9735283928</v>
+        <v>220966.8704317644</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>219583.097018335</v>
+        <v>218168.4671317767</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>211912.6995868447</v>
+        <v>224618.292014355</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>211357.7869591243</v>
+        <v>245545.4329399201</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>209587.3979018499</v>
+        <v>267442.3058816184</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>207905.7288746173</v>
+        <v>284221.6021732067</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>200272.0809340404</v>
+        <v>298742.27062493</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>191248.0877957746</v>
+        <v>314896.0445574952</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>192382.3070591162</v>
+        <v>319663.5462714617</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>194075.8724612892</v>
+        <v>321945.1197387685</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>210066.0715563639</v>
+        <v>317629.9738552803</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>241066.0240051369</v>
+        <v>314898.6752569225</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>270681.8465529302</v>
+        <v>373551.8775255678</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>291184.386681828</v>
+        <v>442745.2372931958</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>297462.4950702023</v>
+        <v>424906.8330834466</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>308638.3525146492</v>
+        <v>455975.9526866863</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>497817.2794584415</v>
+        <v>484010.8891354668</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>526911.0140049509</v>
+        <v>530348.0957496007</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>542213.9927192952</v>
+        <v>550005.5617714529</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>495665.4780880816</v>
+        <v>553364.6299094476</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>529157.2498077077</v>
+        <v>554260.3169853988</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>466001.0674047782</v>
+        <v>557549.7009571409</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>515510.8271510162</v>
+        <v>556874.5544035648</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>466537.4445933916</v>
+        <v>559357.9738863725</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>523980.4689270253</v>
+        <v>560778.9041345982</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>498338.8802784149</v>
+        <v>555354.9627289815</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>526520.5447454404</v>
+        <v>526675.6881707758</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>494847.2959434</v>
+        <v>531724.9834268359</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>522243.8146846639</v>
+        <v>499851.9458269664</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>493258.0336819592</v>
+        <v>547817.376970748</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>527102.4089566687</v>
+        <v>538178.5956310061</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>493385.5511612832</v>
+        <v>527442.145078713</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>544916.4487851775</v>
+        <v>522600.2222442425</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>534856.5037717399</v>
+        <v>547487.2049376324</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>555101.6229846382</v>
+        <v>540689.7834309352</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>545184.6812354149</v>
+        <v>543306.4005544536</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>558383.2033813717</v>
+        <v>535983.3793977135</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>556876.0211660117</v>
+        <v>536355.6575157566</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>557996.0843489338</v>
+        <v>530074.1751706597</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>558626.1648114489</v>
+        <v>539595.7143678663</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>559682.3136387166</v>
+        <v>539745.3084340804</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>535218.5740631424</v>
+        <v>538375.2243410553</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>550888.8649162337</v>
+        <v>547744.0953640054</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>506219.8066695884</v>
+        <v>550247.3167744685</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>543399.1937964339</v>
+        <v>556240.3297750045</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>504078.3937345626</v>
+        <v>556353.1241245852</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>544288.0690649652</v>
+        <v>552832.942519371</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>486576.9951033789</v>
+        <v>547785.3398249799</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>512879.8565548115</v>
+        <v>538732.0264898551</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>411212.3905247864</v>
+        <v>538651.8779305634</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>470877.8610496906</v>
+        <v>531559.0574710708</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>414101.6165986737</v>
+        <v>529809.7348289564</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>463477.2315362729</v>
+        <v>530943.6951727688</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>472083.7031501204</v>
+        <v>552252.5366752018</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>457187.9777511442</v>
+        <v>546599.1131193726</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>463273.3622920968</v>
+        <v>545832.8574304123</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>470265.1149962585</v>
+        <v>553616.7951859427</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>482352.4771500064</v>
+        <v>554655.821157912</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>488272.7339995861</v>
+        <v>550580.2395186544</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>463529.5459057071</v>
+        <v>540852.7253620477</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>459003.7055167638</v>
+        <v>547754.0537043274</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>491904.8634922449</v>
+        <v>549552.8297967099</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>496276.8254842613</v>
+        <v>539812.3355235514</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>507977.6424840561</v>
+        <v>536520.1369335219</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>480070.4343044437</v>
+        <v>544029.3099350726</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>424702.9467958235</v>
+        <v>541561.4285725615</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>409719.4719721187</v>
+        <v>534857.5738071111</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>395175.0941051945</v>
+        <v>532762.5409476138</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>419331.5126202857</v>
+        <v>519019.057636416</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>392223.4847073975</v>
+        <v>509864.2112931967</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>374595.2045593874</v>
+        <v>513996.9962412018</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>375227.7239218401</v>
+        <v>498541.8085533786</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>390399.4421607846</v>
+        <v>471383.2126783975</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>394575.9554453741</v>
+        <v>467312.8904644279</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>376756.1614213839</v>
+        <v>456971.0020061392</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>377134.5250457101</v>
+        <v>446764.7617949155</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>350893.9258229567</v>
+        <v>401860.931199471</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>381723.0401641364</v>
+        <v>396267.4507380257</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>341805.1074636601</v>
+        <v>420848.0511966889</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>327000.5859789144</v>
+        <v>396197.5105385806</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>292695.0032995281</v>
+        <v>366015.8976684774</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>305567.4281495106</v>
+        <v>344724.6518972642</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>321969.7510841172</v>
+        <v>351956.9745907554</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>311664.533295975</v>
+        <v>340972.4336500443</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>305797.4866362353</v>
+        <v>322439.1661040278</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>305590.2229521809</v>
+        <v>308479.8132914254</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>310262.9283212662</v>
+        <v>302690.6396529038</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>302694.6570938659</v>
+        <v>295549.2766884182</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>372601.7481584666</v>
+        <v>286102.9664526826</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>387458.1624158751</v>
+        <v>285853.6695629735</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>384473.5252504259</v>
+        <v>299710.9460747549</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>342919.259240457</v>
+        <v>254511.532657491</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>341864.164163797</v>
+        <v>243054.192025195</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>285652.4978093605</v>
+        <v>250607.1160096106</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>312293.4860988733</v>
+        <v>241978.7151082172</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>313961.853622305</v>
+        <v>237756.4708578475</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>282883.3432336844</v>
+        <v>237673.6834021868</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>290939.6752154416</v>
+        <v>228446.4494080135</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>296682.2902355127</v>
+        <v>232390.4280903182</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>296116.7845216074</v>
+        <v>248857.4554381269</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>291078.8655097426</v>
+        <v>245213.6013488247</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>298453.1263153229</v>
+        <v>231895.4763201423</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>278250.3119423087</v>
+        <v>238308.672152806</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>286407.817380222</v>
+        <v>217593.4781174944</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>252838.467669912</v>
+        <v>214057.7883462147</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>289422.3906624819</v>
+        <v>236471.2727573402</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>278301.44756731</v>
+        <v>238773.1519485778</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>259885.0780726642</v>
+        <v>242735.7744842263</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>257555.2032007272</v>
+        <v>238308.0768418002</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>262045.0429841992</v>
+        <v>238653.0011162539</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>256406.2503579814</v>
+        <v>235708.6676246944</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>256101.9643988615</v>
+        <v>239866.3690601416</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>261018.0087475074</v>
+        <v>239559.69271872</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>251491.024753413</v>
+        <v>257546.3717377716</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>252730.2068106717</v>
+        <v>258198.5245924106</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>243090.8212117148</v>
+        <v>256478.3436950154</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>260697.3897694347</v>
+        <v>248847.9191528536</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>254591.2495920209</v>
+        <v>258345.4065801632</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>246086.9966707653</v>
+        <v>255229.1641913889</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>252850.5293837917</v>
+        <v>293046.5723333061</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>323553.0937444898</v>
+        <v>350460.6563382914</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>239592.705817314</v>
+        <v>275807.0501255396</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>202164.0903524847</v>
+        <v>266100.0509868981</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>177152.3080469456</v>
+        <v>246295.2972973205</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>171954.0939865319</v>
+        <v>234200.3529504727</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>177287.7322835405</v>
+        <v>242885.5990194564</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>160104.2978873716</v>
+        <v>236172.8709498021</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>173312.4185426481</v>
+        <v>232968.1750709907</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>178380.8694904405</v>
+        <v>223992.2406872165</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>172028.6003632637</v>
+        <v>205263.9943317784</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>185840.9421944035</v>
+        <v>189418.4678948462</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>171478.6374815622</v>
+        <v>197454.8650488126</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>161202.6437315185</v>
+        <v>186888.4643500786</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>172470.1292889298</v>
+        <v>184930.486309157</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>180799.1353838068</v>
+        <v>208696.6194005459</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>186734.9722262328</v>
+        <v>204053.2348230951</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>193773.2266693389</v>
+        <v>217844.241873898</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>171923.2463046971</v>
+        <v>211726.4976433937</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>177579.91559743</v>
+        <v>216705.3473330674</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>163455.7354087627</v>
+        <v>220692.104567819</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>168855.7940654183</v>
+        <v>220129.4869134965</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>185180.7992620169</v>
+        <v>234915.1695275217</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>179684.5665747558</v>
+        <v>239307.1174581471</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>179431.134751842</v>
+        <v>218559.8603783628</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>176404.4425452772</v>
+        <v>213544.7684746124</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>179892.9308607113</v>
+        <v>222915.8319210556</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>174136.8550127148</v>
+        <v>214069.980646151</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>174041.9247221617</v>
+        <v>207283.5539441289</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>173730.6284795988</v>
+        <v>214038.5516377941</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>167925.5928691659</v>
+        <v>216444.6355365569</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>170585.8001059523</v>
+        <v>201977.0713220746</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>193941.0531827948</v>
+        <v>210966.965362779</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>201212.4529526433</v>
+        <v>236960.4851010089</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>199831.4840949036</v>
+        <v>235365.8942286447</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>204934.3659314212</v>
+        <v>231092.0849149403</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>217660.2412226656</v>
+        <v>238389.2737036291</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>219192.3926939841</v>
+        <v>233433.2670864637</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>205441.0143985873</v>
+        <v>224951.3275022666</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>211485.0089604635</v>
+        <v>221981.1232540768</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>204659.6843236336</v>
+        <v>227729.6840433796</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>213341.8904738971</v>
+        <v>239936.8210063477</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>211117.1356717736</v>
+        <v>237528.7643537474</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>199644.9221334157</v>
+        <v>246067.84413439</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>212150.395293445</v>
+        <v>233136.2508871258</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>198883.1926419375</v>
+        <v>228648.4436744888</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>209443.3814748807</v>
+        <v>225922.3799624946</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>210943.1528699292</v>
+        <v>225187.7363133957</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>205539.2441711409</v>
+        <v>226477.9690534589</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>205932.8946316979</v>
+        <v>230643.9786793477</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>216940.3079346253</v>
+        <v>235022.0808652621</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>215505.194386411</v>
+        <v>233217.3949205239</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>197486.3986924766</v>
+        <v>240574.7803702056</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>198609.7395152458</v>
+        <v>235944.4331314306</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>199590.7512360251</v>
+        <v>234919.5073731701</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>202080.3867477831</v>
+        <v>244723.4601025935</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>220361.5481993197</v>
+        <v>253838.3697264132</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>198810.2011420926</v>
+        <v>247743.9985362479</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>200516.0876956332</v>
+        <v>239387.5440315827</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>206034.508007012</v>
+        <v>230784.6955531503</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>204252.3803105524</v>
+        <v>230331.9815027991</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>209855.7200126123</v>
+        <v>230153.3479331115</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>216338.0755267879</v>
+        <v>228706.7758518388</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>189495.4103718662</v>
+        <v>222427.301362931</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>172351.3889628529</v>
+        <v>204953.3224810246</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>181176.0636255898</v>
+        <v>209258.4643924528</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>182072.838114717</v>
+        <v>206419.9166423925</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>175201.7865052395</v>
+        <v>205469.8411346232</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>178256.2003267347</v>
+        <v>214027.8056841922</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>187141.3090337049</v>
+        <v>222006.0630335404</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>173829.0634000231</v>
+        <v>220103.5551841215</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>180679.8815301583</v>
+        <v>210242.0208744348</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>179722.6659106825</v>
+        <v>210746.32055395</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>179201.5161090087</v>
+        <v>214055.0053398276</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>184048.7811340723</v>
+        <v>214952.322310831</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>187486.5921342104</v>
+        <v>216321.3623527036</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>193840.7877490044</v>
+        <v>218601.4113398468</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>191305.8434771855</v>
+        <v>221973.9665922428</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>195693.5493918156</v>
+        <v>228375.0221963487</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>194031.2138772556</v>
+        <v>239443.0881845306</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>200960.9574930446</v>
+        <v>254236.8393894923</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>210601.6208473702</v>
+        <v>251530.8014820994</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>224186.2701414849</v>
+        <v>253241.0814757914</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>202618.0372845536</v>
+        <v>258296.6933366917</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>201354.9514050709</v>
+        <v>246432.5434142594</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>199962.2335699032</v>
+        <v>254251.8758997395</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>199083.6778270474</v>
+        <v>253371.3603010104</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>194937.3147173992</v>
+        <v>246858.4231725003</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>198697.3487010711</v>
+        <v>254787.8405326369</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>200566.9486592207</v>
+        <v>255001.1966094177</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>204944.5329475548</v>
+        <v>247846.0588186971</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>215484.1348150366</v>
+        <v>243324.4280469117</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>217546.8043077002</v>
+        <v>232483.0091824876</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>221730.3765515696</v>
+        <v>236886.4166382855</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>259262.0636559546</v>
+        <v>248919.5861712405</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>256216.8005519342</v>
+        <v>241587.0957315656</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>243844.9078303014</v>
+        <v>261579.8822082943</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>255160.9967313301</v>
+        <v>302544.7644773674</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6022,7 +6022,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>252328.9253991717</v>
+        <v>305523.0376253101</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>258139.4822574593</v>
+        <v>322483.1539594296</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>249383.49107347</v>
+        <v>319668.645745629</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>251402.2185706821</v>
+        <v>312770.5023903328</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>251042.8682846238</v>
+        <v>308786.1292383295</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>291172.0793562013</v>
+        <v>309795.3153369096</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6070,7 +6070,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>285895.5894012249</v>
+        <v>310741.6111644933</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6078,7 +6078,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>280718.6564873823</v>
+        <v>308090.324847001</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6086,7 +6086,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>284894.2790653988</v>
+        <v>313230.8813022031</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>269015.593356311</v>
+        <v>310305.6489247834</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>269669.6797107518</v>
+        <v>314136.0059899344</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6110,7 +6110,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>250669.3585105325</v>
+        <v>304400.5358451926</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6118,7 +6118,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>253883.1403915003</v>
+        <v>298946.7887339589</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>249772.4368840513</v>
+        <v>294468.0653464912</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>248075.5939379685</v>
+        <v>292468.5306077687</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>238807.4434536463</v>
+        <v>291631.2109540098</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>242851.1349341442</v>
+        <v>290070.082639503</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>243742.8781267692</v>
+        <v>294253.369374257</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>237016.4441122989</v>
+        <v>294471.3001101856</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6174,7 +6174,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>246438.309973728</v>
+        <v>298754.7730953875</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6182,7 +6182,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>294006.4127696007</v>
+        <v>296262.9660905776</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>288979.0284221781</v>
+        <v>291961.3243562285</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>291120.4183552817</v>
+        <v>296241.9117169812</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>305170.5375075572</v>
+        <v>295804.6898984126</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6214,7 +6214,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>335234.5644212977</v>
+        <v>300807.3492676307</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>344291.7078112109</v>
+        <v>317680.5722315432</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>317376.1240858157</v>
+        <v>341427.694247885</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>388069.8083762719</v>
+        <v>305215.9682265718</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>421158.3187477927</v>
+        <v>290106.9462009405</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -414,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>429307.195928144</v>
+        <v>300569.5935764126</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>414163.1024015407</v>
+        <v>309110.1691869982</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>412126.8100347903</v>
+        <v>302701.7187826172</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>408917.1844410275</v>
+        <v>313192.4562952756</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>402977.6465167333</v>
+        <v>372440.6125810689</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>412013.2614300439</v>
+        <v>401859.8723376876</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>428165.6596455385</v>
+        <v>433065.2056865827</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>419183.6699958062</v>
+        <v>423065.1711779934</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>424711.7811996698</v>
+        <v>393197.9875365968</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>424121.8606484061</v>
+        <v>380032.4909730091</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>424773.0571208787</v>
+        <v>382828.1795207378</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>423436.466436067</v>
+        <v>358090.4514765171</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>446913.6447850937</v>
+        <v>349097.6230543905</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -518,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>439978.9942193619</v>
+        <v>345364.3883326935</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -526,7 +526,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>442613.110742747</v>
+        <v>335803.5749825164</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -534,7 +534,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>424087.3827307255</v>
+        <v>331983.8314041495</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>404395.99110748</v>
+        <v>325957.3435241188</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>397747.9272311017</v>
+        <v>320311.6256383837</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -558,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>404637.3632206161</v>
+        <v>343543.435762093</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -566,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>383436.9060561953</v>
+        <v>324609.8371614497</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -574,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>398768.4977980327</v>
+        <v>321595.6744769466</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>403187.6881473116</v>
+        <v>329400.2329414228</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>411066.5197333936</v>
+        <v>342581.6974179877</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -598,7 +598,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>414592.6565708874</v>
+        <v>350613.6875125609</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>412333.8441938024</v>
+        <v>377552.8696668701</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>399193.1283526365</v>
+        <v>389806.0231206456</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>402327.8287073482</v>
+        <v>360010.7198493811</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>398147.327910392</v>
+        <v>371838.9787374319</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -638,7 +638,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>383229.8708852762</v>
+        <v>353081.6114151471</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -646,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>377625.9771519715</v>
+        <v>341154.5317364852</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>371074.9103468856</v>
+        <v>339667.7610298274</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -662,7 +662,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>372721.7771695522</v>
+        <v>317387.7208050635</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>366074.2216675631</v>
+        <v>332516.6684227228</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -678,7 +678,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>391565.8779971186</v>
+        <v>318306.3080858567</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>457975.1298555001</v>
+        <v>318040.1731925482</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -694,7 +694,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>478285.7692762541</v>
+        <v>332708.782926914</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -702,7 +702,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>527784.8716891541</v>
+        <v>335889.6197688337</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -710,7 +710,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>541957.3815445412</v>
+        <v>325360.4739815969</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -718,7 +718,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>561997.3882552802</v>
+        <v>347318.2685503595</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -726,7 +726,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>569656.0658588826</v>
+        <v>342180.6600084688</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -734,7 +734,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>539491.2765121411</v>
+        <v>333297.5286335611</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -742,7 +742,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>528392.0908272348</v>
+        <v>370070.0355755272</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -750,7 +750,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>499732.5386335998</v>
+        <v>402645.1430230764</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>539207.0151156294</v>
+        <v>405240.8699261618</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -766,7 +766,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>538059.9655272997</v>
+        <v>402685.6289679763</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -774,7 +774,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>565243.5373293908</v>
+        <v>413996.8431368556</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -782,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>561158.6201846373</v>
+        <v>416240.9125346926</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>575986.1046787323</v>
+        <v>428084.274530459</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>573625.2609250683</v>
+        <v>432851.9415099574</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>573700.3888948787</v>
+        <v>443467.9681907747</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -814,7 +814,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>556370.9060728519</v>
+        <v>479985.17420907</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -822,7 +822,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>559427.0337617953</v>
+        <v>497672.7187142284</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -830,7 +830,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>540071.7415426391</v>
+        <v>491389.281188749</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -838,7 +838,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>539004.7474705873</v>
+        <v>489918.3585058483</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -846,7 +846,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>518804.2376657979</v>
+        <v>469194.5901531472</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -854,7 +854,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>517289.1308161312</v>
+        <v>459185.0803961796</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -862,7 +862,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>491035.6604926925</v>
+        <v>426607.0945981011</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -870,7 +870,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>455056.8552748541</v>
+        <v>379982.3746939739</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -878,7 +878,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>425246.9034903581</v>
+        <v>364512.2008440215</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>437423.3187073544</v>
+        <v>362475.802736826</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -894,7 +894,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>437055.3615132864</v>
+        <v>356711.4177617684</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -902,7 +902,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>430651.3164458352</v>
+        <v>350018.902310806</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -910,7 +910,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>415236.85055587</v>
+        <v>355653.0583973555</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -918,7 +918,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>414193.7314323576</v>
+        <v>358708.9987936998</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -926,7 +926,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>428021.5214217586</v>
+        <v>357504.884613887</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -934,7 +934,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>427401.9342325458</v>
+        <v>346703.4484261714</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>438147.9238418586</v>
+        <v>350462.1112487075</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -950,7 +950,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>439757.0383078624</v>
+        <v>385608.8156959505</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -958,7 +958,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>452343.3373543025</v>
+        <v>395252.3631078961</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -966,7 +966,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>457981.4946359179</v>
+        <v>402338.1829396135</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -974,7 +974,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>456690.7000972839</v>
+        <v>384036.6008519916</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -982,7 +982,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>472638.9542260736</v>
+        <v>384994.8489526418</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -990,7 +990,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>476656.4979495525</v>
+        <v>369650.2188475134</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -998,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>478733.9053335568</v>
+        <v>342218.1157703717</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>475701.4959420426</v>
+        <v>342344.3272743339</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>470837.3279664897</v>
+        <v>338531.4140740741</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>462333.1491517148</v>
+        <v>342372.0832678993</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>467516.072300382</v>
+        <v>338966.8360982305</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>458595.987196509</v>
+        <v>341100.2682587946</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>465878.7715877507</v>
+        <v>343310.1775378606</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>454018.8904805331</v>
+        <v>362075.5078602976</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>444020.7611341992</v>
+        <v>376129.2690591585</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>450077.0200381705</v>
+        <v>383236.5167401839</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>438914.4283472257</v>
+        <v>391457.2871104091</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>417843.6488988642</v>
+        <v>390815.7017125367</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>426862.4139196945</v>
+        <v>376565.5381123036</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>428308.9566830699</v>
+        <v>382003.50684178</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>390841.3613599562</v>
+        <v>355487.7021227642</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>350827.8724833929</v>
+        <v>268566.8772306936</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>356666.0021409977</v>
+        <v>297151.7400000736</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>355465.8580551415</v>
+        <v>286464.0433062919</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>358445.5622154234</v>
+        <v>294162.0854994615</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>345231.511514528</v>
+        <v>307904.159526341</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>366152.5031136547</v>
+        <v>337918.9557078464</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>385609.173952284</v>
+        <v>340544.7326291974</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>432417.0738328649</v>
+        <v>356219.4780783898</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>493427.9866653623</v>
+        <v>372124.5773366543</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>518484.6124458177</v>
+        <v>385638.6547591251</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>525057.02936413</v>
+        <v>390350.5249341329</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>526534.7056858003</v>
+        <v>427313.7099328356</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>533621.5067862469</v>
+        <v>464807.8804601291</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>508946.7596180137</v>
+        <v>495191.3470960285</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>530127.0289349759</v>
+        <v>515759.260906664</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>496683.1035916102</v>
+        <v>521644.6623441469</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>530968.4297574398</v>
+        <v>499555.1777229618</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>488516.4267730572</v>
+        <v>516551.8601109554</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>523676.1150542682</v>
+        <v>413705.0273744853</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>468600.2528292433</v>
+        <v>446919.7167693822</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>509445.4823105402</v>
+        <v>420677.7430160778</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>459196.3736444307</v>
+        <v>441687.3808979662</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>536478.877194146</v>
+        <v>415465.3044449138</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>541055.9708409955</v>
+        <v>412701.6252801672</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>550863.8490968763</v>
+        <v>397070.7005098513</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>544175.5921232265</v>
+        <v>401823.2726324833</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>544334.5201647126</v>
+        <v>389467.3604134741</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>520935.3477464077</v>
+        <v>387352.0698788895</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>524143.6337589634</v>
+        <v>391362.7670474183</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>281470.9896756068</v>
+        <v>259901.3601813795</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>312773.4078533578</v>
+        <v>257139.8676036077</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>267667.1605072762</v>
+        <v>269666.627848109</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>282798.4383790973</v>
+        <v>272594.1002079175</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>257469.8937388281</v>
+        <v>266280.021775254</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>251419.971996415</v>
+        <v>263036.1590554515</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>251360.505364887</v>
+        <v>255157.965880188</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>246548.9424608738</v>
+        <v>245439.2087428508</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>243872.7481030856</v>
+        <v>237163.139396577</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>244929.4645392601</v>
+        <v>230482.4473448892</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>246416.2440024927</v>
+        <v>227669.8605802071</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>247570.5328123957</v>
+        <v>226553.2089947611</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>261081.298388931</v>
+        <v>226423.3282340301</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>290505.7017764682</v>
+        <v>242828.396979736</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>309376.6863037234</v>
+        <v>256258.2858448753</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>321791.7550125642</v>
+        <v>261124.060791242</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>438741.1223452291</v>
+        <v>263862.0912949989</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>528356.5640003199</v>
+        <v>270695.8912538417</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>530682.8610083546</v>
+        <v>285987.7978543715</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>540774.7964759618</v>
+        <v>307871.3292615236</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>547330.8083475751</v>
+        <v>316919.8719330531</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>560034.1218647193</v>
+        <v>325535.2158129525</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>550396.9151137992</v>
+        <v>322803.9905295013</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>553489.539722305</v>
+        <v>555884.0237189099</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>546400.3088606807</v>
+        <v>548419.5604215725</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>553356.7884466888</v>
+        <v>542936.7105880354</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>551029.7050269016</v>
+        <v>533039.93316038</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>556413.6263898396</v>
+        <v>528891.1186006664</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>547176.8535193878</v>
+        <v>541836.7998354952</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>558804.7777752867</v>
+        <v>557393.2521411446</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>552168.5102004621</v>
+        <v>564088.2425034018</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>561611.438246395</v>
+        <v>574622.017453826</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>555610.3481520894</v>
+        <v>575479.9723366462</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>551474.7997761874</v>
+        <v>576019.159648892</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>557092.3485938117</v>
+        <v>577332.5239603465</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>558890.8997955578</v>
+        <v>576699.5509966597</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>558321.3979633402</v>
+        <v>576853.4736583764</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>565087.1689060632</v>
+        <v>575457.5263836629</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>564290.4771367765</v>
+        <v>575442.050270855</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>564086.8463371873</v>
+        <v>576296.9156733369</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>565740.9577141814</v>
+        <v>577171.426443434</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>566485.5266325007</v>
+        <v>577253.3059486521</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>568114.348266611</v>
+        <v>574780.5226365855</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>569118.529093512</v>
+        <v>573114.0268696274</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>569613.4998062003</v>
+        <v>551153.8766573645</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>569539.4926997981</v>
+        <v>545842.4363889584</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>569024.4768324727</v>
+        <v>560835.3396485313</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>569348.7827329469</v>
+        <v>560588.9694529879</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>570117.1138689456</v>
+        <v>573348.5487633698</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>571964.0723750092</v>
+        <v>569741.9597441521</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>570263.113589173</v>
+        <v>574712.6560066387</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>565004.9227712946</v>
+        <v>561305.9866644527</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>563380.4656207958</v>
+        <v>559679.4546236761</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>506835.1584671636</v>
+        <v>547387.9577037949</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>523511.6340420489</v>
+        <v>558502.8558126412</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>532457.7897836887</v>
+        <v>565599.7618725068</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>525971.5963431831</v>
+        <v>563574.0597877575</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>528710.5197909289</v>
+        <v>559939.7152780566</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>530014.0692642053</v>
+        <v>561603.9656298215</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>538559.8198373715</v>
+        <v>558146.1374797769</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>540924.9494458436</v>
+        <v>573223.8390563866</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>523079.9602817002</v>
+        <v>568369.1969272804</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>524815.4048198463</v>
+        <v>542794.9172721135</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>530702.2409639739</v>
+        <v>514690.3281478819</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>533656.0571892394</v>
+        <v>471054.83900589</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>539215.5385405498</v>
+        <v>443617.0085494974</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>531280.4082370372</v>
+        <v>419809.7707338639</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>484622.1197639863</v>
+        <v>399198.8911583603</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>456471.4998447348</v>
+        <v>398873.1424819781</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>446987.9234873481</v>
+        <v>439544.5723782444</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>464521.4397032833</v>
+        <v>473815.2053248255</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>439929.0985898247</v>
+        <v>476347.5614909697</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>417821.2351983289</v>
+        <v>465572.5612720414</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>416443.3954040312</v>
+        <v>428388.8705405512</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>415540.164329205</v>
+        <v>421655.3047773794</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>418012.2153075872</v>
+        <v>415618.6788962964</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>406362.6058796444</v>
+        <v>399508.0172664669</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>428995.4835035477</v>
+        <v>359325.4114364263</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>399002.8859496656</v>
+        <v>353612.415563622</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>429459.8796287024</v>
+        <v>347267.1661901042</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>388119.0494981566</v>
+        <v>328116.6076098197</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>374370.9036274839</v>
+        <v>308599.9883971903</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>336212.1366145836</v>
+        <v>300417.573118593</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>346305.3270620058</v>
+        <v>289878.9954807195</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>361367.6807425502</v>
+        <v>274311.8195431886</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>352640.9725752217</v>
+        <v>287684.4951808067</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>345771.4200953799</v>
+        <v>274170.3870549346</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>346400.5157525591</v>
+        <v>268223.0062413234</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>346185.6195613769</v>
+        <v>263059.5340468744</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>335623.848475065</v>
+        <v>250912.7709070872</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>339148.2153093897</v>
+        <v>241589.7310809107</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>394853.2627801198</v>
+        <v>248113.5416815391</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>454096.6995705378</v>
+        <v>236638.4494902712</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>376480.5056165605</v>
+        <v>227738.6508090613</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>375777.1517697027</v>
+        <v>207376.0173216905</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>314776.2094766456</v>
+        <v>214214.2825931714</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>347525.2666434674</v>
+        <v>210037.9415955488</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>343534.4431616213</v>
+        <v>222505.9179826084</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>307922.9307116836</v>
+        <v>205937.86523599</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>319475.5045003944</v>
+        <v>200289.0000324706</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>325727.2993018109</v>
+        <v>194798.0714197334</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>325535.4410072978</v>
+        <v>195633.783515434</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>317742.725911891</v>
+        <v>204561.0346063711</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>328003.4423721139</v>
+        <v>201590.9609508878</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>303071.2878849043</v>
+        <v>187597.077372097</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>313070.2393799479</v>
+        <v>194902.8601755252</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>275058.7518257183</v>
+        <v>201938.7108054539</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>313962.1987478781</v>
+        <v>209777.9682443713</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>304459.6227981956</v>
+        <v>191666.0872793222</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>282938.3289953553</v>
+        <v>206391.4814590901</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>280488.3747817774</v>
+        <v>200153.9880754149</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>283707.1879513668</v>
+        <v>194093.1327012908</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>278942.8504086419</v>
+        <v>188386.6936847196</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>282213.814142268</v>
+        <v>195362.0846643861</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>283254.2341462381</v>
+        <v>202152.5324081233</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>276064.1905765334</v>
+        <v>203008.6567777653</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>273111.0767191228</v>
+        <v>202757.2285873636</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>263663.528075605</v>
+        <v>201300.6054542349</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>285098.8745085156</v>
+        <v>210045.0565301352</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>283828.1277648714</v>
+        <v>209217.0034036265</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>281189.0533573671</v>
+        <v>202430.4105737523</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>289424.906914968</v>
+        <v>201324.2288321603</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>358515.6126716122</v>
+        <v>263756.3760955357</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>281502.8999523582</v>
+        <v>190897.2608338735</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>237254.9284066064</v>
+        <v>161899.018923574</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>204927.1221137252</v>
+        <v>157725.8278233815</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>199731.5994792787</v>
+        <v>155862.9410456641</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>201552.7519410673</v>
+        <v>148262.2438042686</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>173230.6378662427</v>
+        <v>144685.9721570949</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>186152.663140262</v>
+        <v>131217.6017597329</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>193014.7733325127</v>
+        <v>183007.9875141727</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>184263.0212592637</v>
+        <v>167194.4549349361</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>198027.5108456549</v>
+        <v>176953.0481848686</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>182909.1062781595</v>
+        <v>168122.4638054698</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>170805.2015172232</v>
+        <v>176071.9514227619</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>184838.1806956956</v>
+        <v>194577.1645162457</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>194007.8450888282</v>
+        <v>206404.394726731</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>202285.845488701</v>
+        <v>196553.9486871708</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>210866.9626517731</v>
+        <v>180215.5532180993</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>185510.6175701147</v>
+        <v>198986.6143447151</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>192385.1418351147</v>
+        <v>191832.5052361412</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>174947.0181076851</v>
+        <v>191408.1655252146</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>179701.2249292978</v>
+        <v>193780.6130619509</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>196177.0730694996</v>
+        <v>201063.6116873661</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>190426.6378574178</v>
+        <v>206438.5506302405</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>193799.6904604635</v>
+        <v>192399.9203236213</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>188450.8545001529</v>
+        <v>207119.9311753927</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>190042.5253889064</v>
+        <v>195114.1918005871</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>185679.1701302393</v>
+        <v>200542.8373938215</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>185863.2627424865</v>
+        <v>200019.0030653336</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>181954.7868655031</v>
+        <v>204517.4781458392</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>178811.3856614451</v>
+        <v>196846.2274354264</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>185872.2528541118</v>
+        <v>199316.5351031626</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>208966.079039532</v>
+        <v>215584.6011516436</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>212559.5550326948</v>
+        <v>229144.4597332458</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>211629.4933357479</v>
+        <v>220564.506817114</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>219435.1499395862</v>
+        <v>220169.6791351978</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>237317.5098718596</v>
+        <v>218321.7523455006</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>243135.1816791425</v>
+        <v>226445.4356371173</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>227940.7837841615</v>
+        <v>219606.2693739897</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>230467.5169491883</v>
+        <v>233908.1938025338</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>223331.0101917736</v>
+        <v>219232.6183816967</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>231871.1952632533</v>
+        <v>228045.0820789678</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>226044.3772382719</v>
+        <v>225429.8108058594</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>219695.1200557087</v>
+        <v>211909.3048788606</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>235781.2919638176</v>
+        <v>206127.7420300407</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>218998.3159805185</v>
+        <v>207661.3581845671</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>229575.5045557535</v>
+        <v>211763.5556855079</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>229196.6899161585</v>
+        <v>204500.9902021723</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>224313.8972959272</v>
+        <v>212774.2828970198</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>223485.1353932916</v>
+        <v>205908.0471276848</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>243144.4716959209</v>
+        <v>212451.7664147638</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>239668.4880261911</v>
+        <v>215237.2275969267</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>222059.1690546892</v>
+        <v>205170.5287089606</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>218048.0158432768</v>
+        <v>214640.6149954895</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>222494.0290730869</v>
+        <v>211026.6627299715</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>229512.8950808534</v>
+        <v>207887.4033437936</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>246344.7951114938</v>
+        <v>208397.9197245837</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>222153.2124393969</v>
+        <v>209470.3300996227</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>228485.1582596049</v>
+        <v>204751.9331376232</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>235239.639273013</v>
+        <v>205203.483899193</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>230631.9706369752</v>
+        <v>213703.595019099</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>236215.9051971356</v>
+        <v>216048.78404102</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>239603.7693706876</v>
+        <v>208629.492117476</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>209157.256919671</v>
+        <v>202370.894335364</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>193922.8752027239</v>
+        <v>188299.931497313</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>211937.9389915433</v>
+        <v>193306.0788259203</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>209209.9814100954</v>
+        <v>199329.3614167045</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>199904.039089203</v>
+        <v>208606.2544579021</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>205246.7774556405</v>
+        <v>211815.9087356513</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>212020.6890599796</v>
+        <v>210579.6168430203</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>197322.9802489221</v>
+        <v>209640.1734921138</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>207316.938310992</v>
+        <v>216256.4919821069</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>207088.4606254082</v>
+        <v>224660.2311728795</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>202220.2753042487</v>
+        <v>224515.9419571988</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>207144.3245704343</v>
+        <v>220180.0760150865</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>206370.5017931712</v>
+        <v>229025.7700421007</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>217729.46386538</v>
+        <v>215719.1699372149</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>216994.9633244375</v>
+        <v>220394.3070079115</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>223130.358966956</v>
+        <v>219500.5692009945</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>223492.8580238924</v>
+        <v>211784.0661432395</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>231574.2521419055</v>
+        <v>217413.1442888083</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>232420.761395191</v>
+        <v>232651.9767194873</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>245908.8043495766</v>
+        <v>223964.5768791407</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>232493.1233711347</v>
+        <v>221017.7533514827</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>223581.3147293831</v>
+        <v>228575.3755630733</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>214100.8630396174</v>
+        <v>218880.9883097313</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>213695.2455531794</v>
+        <v>233598.0711226025</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>210776.9478789108</v>
+        <v>230929.1810574607</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>225123.9806862877</v>
+        <v>223137.4923139845</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>220465.3732606038</v>
+        <v>209991.4713357493</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>228442.2388178553</v>
+        <v>208241.0086611223</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>235940.6350063913</v>
+        <v>216446.8542992043</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>237689.7204393058</v>
+        <v>210935.4902399175</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>239929.8355827702</v>
+        <v>220643.699705879</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>278370.4420214106</v>
+        <v>249011.6279604577</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>270944.2648560303</v>
+        <v>249695.3258069157</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>259061.8148198617</v>
+        <v>242274.6945820999</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>267712.6891466659</v>
+        <v>244667.4181984183</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>262353.9836534652</v>
+        <v>247964.9786689281</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>267125.1260042152</v>
+        <v>253353.1191177966</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>266066.6854858295</v>
+        <v>251383.7583314705</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>283579.2463986768</v>
+        <v>254629.1438294402</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>279739.8788036615</v>
+        <v>258009.6240923729</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>320527.1135995554</v>
+        <v>258852.5852025078</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>305323.3127310022</v>
+        <v>259054.6226699871</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>290561.2756118697</v>
+        <v>265851.3554940376</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>296805.776978471</v>
+        <v>290057.6556332007</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>281677.7461955789</v>
+        <v>286655.5849352276</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>293798.6282858586</v>
+        <v>304513.6145004738</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>267680.3700096645</v>
+        <v>319579.6240151001</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>270761.3511531539</v>
+        <v>301909.3293727516</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>256846.4635758391</v>
+        <v>295852.7130871611</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>253198.5904181469</v>
+        <v>293680.4702105652</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>244762.8188378976</v>
+        <v>278297.3881804652</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>253093.2274285886</v>
+        <v>281319.3045325461</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>254873.254924527</v>
+        <v>271646.0321381873</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>244364.8447671933</v>
+        <v>280233.229074847</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>240010.5059727492</v>
+        <v>276461.0765812047</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>248416.9888375148</v>
+        <v>271959.4930547708</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>250398.3339180844</v>
+        <v>275590.1010440065</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>252368.7259285797</v>
+        <v>281598.7159188552</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>278071.7062884948</v>
+        <v>285859.8063637356</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>312930.5442578844</v>
+        <v>284026.4894034544</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>327857.7511431017</v>
+        <v>294613.0303222461</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>306767.0902737053</v>
+        <v>302357.9602139227</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>304083.5429937998</v>
+        <v>304120.4752064185</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>312980.8421969137</v>
+        <v>297582.863328668</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>312151.1519475045</v>
+        <v>290598.2363355677</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>316242.6341292187</v>
+        <v>274234.4708097885</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>316032.4096324123</v>
+        <v>275756.5444153026</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>321594.0525768233</v>
+        <v>282358.3058532029</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>327983.4938315594</v>
+        <v>295629.2745098607</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>316980.8713707204</v>
+        <v>305000.9743860607</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>309702.9816277768</v>
+        <v>316621.8994366836</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>302284.649885287</v>
+        <v>324092.3683516126</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>299771.6311472491</v>
+        <v>338061.1303928953</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>297691.0231117763</v>
+        <v>370979.8862414923</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>295218.2223046893</v>
+        <v>371663.0575076166</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>303193.3537165901</v>
+        <v>351194.3297118054</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>311290.1935160308</v>
+        <v>349590.5274461998</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>300811.08338472</v>
+        <v>345574.1426765009</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>300309.0976796765</v>
+        <v>367521.5728100654</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>284947.120795069</v>
+        <v>373063.6166338494</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>284201.687376472</v>
+        <v>365703.1487545961</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>289425.5583290294</v>
+        <v>354793.4381926358</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>295492.9632767658</v>
+        <v>351866.8460646088</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>305568.0860732046</v>
+        <v>353409.0671979694</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>311459.6923766745</v>
+        <v>387594.1456821028</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>355310.1120697459</v>
+        <v>420434.3701370964</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>348016.0434230525</v>
+        <v>438504.6615768752</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>344349.2853438639</v>
+        <v>424241.7557868288</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>345575.1706886233</v>
+        <v>428307.4955841696</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>353884.7896525079</v>
+        <v>413023.9754892504</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>358095.9669906835</v>
+        <v>399649.9123778403</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>352195.7302281965</v>
+        <v>383185.3548534806</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>363112.7033731331</v>
+        <v>371284.7552789886</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>357504.0199967718</v>
+        <v>340064.9865573571</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>356236.5361274306</v>
+        <v>329913.7129861778</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>334777.9503295691</v>
+        <v>321688.3280601727</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>342677.4807870738</v>
+        <v>316289.0578590205</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>341313.3000262181</v>
+        <v>318411.5727996867</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>337724.4897293363</v>
+        <v>318577.2491310421</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>337742.772796794</v>
+        <v>312643.6300654559</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>341084.5077159221</v>
+        <v>310580.5706532612</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>338775.8677418219</v>
+        <v>307818.502648183</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>345366.8939371705</v>
+        <v>317642.8818114288</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>341736.5766349736</v>
+        <v>314056.1366782849</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>370383.5314636159</v>
+        <v>315701.3025405116</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>376602.3969250373</v>
+        <v>313018.1078123841</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>374325.4082559081</v>
+        <v>320268.0440928587</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>375373.7762444246</v>
+        <v>318301.1741210429</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>364321.534382261</v>
+        <v>323575.3602918761</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>362098.6803975445</v>
+        <v>323036.2177705633</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>424304.2761000739</v>
+        <v>321052.3267538493</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>434175.4432596323</v>
+        <v>319689.4865962081</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>430332.7643459413</v>
+        <v>323257.7069945985</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>450027.4660132044</v>
+        <v>319953.9759865591</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>455524.6271581199</v>
+        <v>319059.4218362333</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3742,7 +3742,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>450039.7773017462</v>
+        <v>318724.958454761</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3750,7 +3750,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>446932.9817638177</v>
+        <v>318032.8016744935</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>443459.9962271086</v>
+        <v>321728.6381874089</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>439877.9633291257</v>
+        <v>323001.8494526255</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>425776.0601438577</v>
+        <v>308349.1073067219</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>410547.5871223249</v>
+        <v>341073.6519286798</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>347347.8305656064</v>
+        <v>300665.4601661806</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>346701.3745393445</v>
+        <v>305111.5070203344</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>328256.6756906324</v>
+        <v>290408.7808849899</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>319732.6632512279</v>
+        <v>280145.2094995815</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>323561.0474850673</v>
+        <v>270833.6312116841</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>330893.8788052565</v>
+        <v>269120.9770007875</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>335234.0438330159</v>
+        <v>267222.4389264024</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>354569.7077752689</v>
+        <v>270427.5947805027</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>385779.4083229436</v>
+        <v>270609.0320502548</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>408345.4148846002</v>
+        <v>269486.323617572</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>405514.2731354055</v>
+        <v>264900.8604158691</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>398316.5132267313</v>
+        <v>264895.2098453712</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>377280.3014562708</v>
+        <v>265931.4832640747</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>371592.5990692821</v>
+        <v>262132.0815899924</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>367677.4170205455</v>
+        <v>260127.2191867667</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>354067.533444152</v>
+        <v>259627.3507049097</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>350271.2290391732</v>
+        <v>264085.5786083281</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3926,7 +3926,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>348212.6447356726</v>
+        <v>270039.6930617393</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>342572.4928359656</v>
+        <v>271325.4092069636</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>350910.1961643349</v>
+        <v>272235.9552335637</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>365144.4049795686</v>
+        <v>277007.2972377238</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>367724.2726959904</v>
+        <v>276345.1333576952</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>357608.0106041284</v>
+        <v>270048.7595702389</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>351195.2585755715</v>
+        <v>281920.634008332</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>356500.0761652493</v>
+        <v>298069.7749466766</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>359420.751084817</v>
+        <v>310311.990235804</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>351551.1832983282</v>
+        <v>316293.5081150295</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>349006.8905705267</v>
+        <v>323910.1479485608</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>347914.7734807589</v>
+        <v>325879.3523041859</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>339336.8143110215</v>
+        <v>325484.9635929608</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>286573.3773299228</v>
+        <v>318206.4543571745</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>239637.1167107919</v>
+        <v>325937.1146612943</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>233818.6006165456</v>
+        <v>357779.9432873816</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>250433.1908045383</v>
+        <v>385488.3272731394</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>272436.0918499722</v>
+        <v>379013.9626915168</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>314854.8460259372</v>
+        <v>396014.2655158669</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>342409.434219085</v>
+        <v>397285.8347781203</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>326242.2925294838</v>
+        <v>389558.0934007686</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>337362.7374261108</v>
+        <v>385815.1397310587</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>332633.166972001</v>
+        <v>371927.9469142287</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>311087.0676034931</v>
+        <v>361858.2748030557</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>309997.8128025592</v>
+        <v>358788.1516412582</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>320441.516739619</v>
+        <v>366151.8827946361</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>363083.4661440782</v>
+        <v>382614.7053066556</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>378527.4721179985</v>
+        <v>378585.4741145294</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>375365.3557970155</v>
+        <v>350632.7646804124</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>380930.8784973046</v>
+        <v>351757.7133609914</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4166,7 +4166,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>397368.1495610639</v>
+        <v>335776.3662434025</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>403607.9440158329</v>
+        <v>334971.0222215327</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>407716.7964230236</v>
+        <v>332120.9026171335</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4190,7 +4190,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>403757.1637068123</v>
+        <v>335561.4235880635</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>391077.1505156485</v>
+        <v>344300.8046348045</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>384701.1453897629</v>
+        <v>360083.3878056285</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>368267.6685206502</v>
+        <v>369513.6739207443</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>372830.6512481972</v>
+        <v>374014.6069689249</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>378628.9728146406</v>
+        <v>378386.0850258822</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>381220.4044832061</v>
+        <v>386347.5358249004</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4246,7 +4246,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>370483.4031002165</v>
+        <v>385299.0740236713</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>367535.3124645473</v>
+        <v>387945.948937984</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4262,7 +4262,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>350792.9870421228</v>
+        <v>400797.2523386228</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4270,7 +4270,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>237790.7856489196</v>
+        <v>254261.5559706486</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>227601.2739111622</v>
+        <v>290736.9159776476</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>220966.8704317644</v>
+        <v>327178.103279651</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>218168.4671317767</v>
+        <v>296380.0972330046</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>224618.292014355</v>
+        <v>303916.2684129833</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>245545.4329399201</v>
+        <v>250379.569704015</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>267442.3058816184</v>
+        <v>244508.9410356617</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>284221.6021732067</v>
+        <v>227303.936349432</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>298742.27062493</v>
+        <v>228082.7448718828</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>314896.0445574952</v>
+        <v>235378.2803168017</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>319663.5462714617</v>
+        <v>231300.5202143478</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>321945.1197387685</v>
+        <v>228131.2942630612</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>317629.9738552803</v>
+        <v>228829.2792099202</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>314898.6752569225</v>
+        <v>252506.1371223338</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>373551.8775255678</v>
+        <v>283556.8833807537</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>442745.2372931958</v>
+        <v>292843.9871590452</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>424906.8330834466</v>
+        <v>287573.4926983975</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>455975.9526866863</v>
+        <v>380706.921516516</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>484010.8891354668</v>
+        <v>465666.2781999952</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>530348.0957496007</v>
+        <v>431259.9489746766</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>550005.5617714529</v>
+        <v>432254.379187566</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>553364.6299094476</v>
+        <v>420557.8708708371</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>554260.3169853988</v>
+        <v>429168.4201557997</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>557549.7009571409</v>
+        <v>423717.4125194689</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>556874.5544035648</v>
+        <v>442230.6397210649</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>559357.9738863725</v>
+        <v>443372.6361909364</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>560778.9041345982</v>
+        <v>447742.6386429149</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>555354.9627289815</v>
+        <v>435300.8601533973</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>526675.6881707758</v>
+        <v>436249.3843066254</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>531724.9834268359</v>
+        <v>412463.9236335181</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>499851.9458269664</v>
+        <v>403916.4445378786</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>547817.376970748</v>
+        <v>431766.0772195223</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>538178.5956310061</v>
+        <v>467824.5973414519</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>527442.145078713</v>
+        <v>476467.7361424936</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>522600.2222442425</v>
+        <v>517867.6947931916</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>547487.2049376324</v>
+        <v>515486.8773598268</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>540689.7834309352</v>
+        <v>529852.5545229663</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>543306.4005544536</v>
+        <v>531294.23903048</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>535983.3793977135</v>
+        <v>540340.0450165165</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>536355.6575157566</v>
+        <v>530001.6505145289</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>530074.1751706597</v>
+        <v>538798.1870894239</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>539595.7143678663</v>
+        <v>521202.88269863</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>539745.3084340804</v>
+        <v>521286.2389416242</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>538375.2243410553</v>
+        <v>490757.5093241183</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>547744.0953640054</v>
+        <v>527090.087029511</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>550247.3167744685</v>
+        <v>532878.2236655609</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>556240.3297750045</v>
+        <v>540205.9100593703</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>556353.1241245852</v>
+        <v>537302.2187118276</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>552832.942519371</v>
+        <v>547566.2541729059</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>547785.3398249799</v>
+        <v>538154.2572451232</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>538732.0264898551</v>
+        <v>544673.6915418329</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>538651.8779305634</v>
+        <v>544488.9974237417</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>531559.0574710708</v>
+        <v>557033.0414742648</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>529809.7348289564</v>
+        <v>547658.8850221912</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>530943.6951727688</v>
+        <v>556646.516298971</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>552252.5366752018</v>
+        <v>549621.3737012058</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>546599.1131193726</v>
+        <v>550403.8701860085</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>545832.8574304123</v>
+        <v>545919.7421928981</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>553616.7951859427</v>
+        <v>532470.7574650208</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>554655.821157912</v>
+        <v>521719.6395580748</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>550580.2395186544</v>
+        <v>507744.0611433974</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>540852.7253620477</v>
+        <v>482381.2835925589</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>547754.0537043274</v>
+        <v>476219.8145685886</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>549552.8297967099</v>
+        <v>462223.0606978561</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>539812.3355235514</v>
+        <v>450661.661751018</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>536520.1369335219</v>
+        <v>446505.6227842449</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>544029.3099350726</v>
+        <v>428930.8563066801</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>541561.4285725615</v>
+        <v>413068.8372520159</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>534857.5738071111</v>
+        <v>403072.2433630328</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>532762.5409476138</v>
+        <v>403865.7173622767</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>519019.057636416</v>
+        <v>362394.2474096536</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>509864.2112931967</v>
+        <v>317932.1406012322</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>513996.9962412018</v>
+        <v>326418.720500582</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>498541.8085533786</v>
+        <v>349417.7245975289</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>471383.2126783975</v>
+        <v>345216.7788230652</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>467312.8904644279</v>
+        <v>331624.4113305</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>456971.0020061392</v>
+        <v>327384.6666571049</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>446764.7617949155</v>
+        <v>328463.9217919139</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>401860.931199471</v>
+        <v>324905.7869275986</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>396267.4507380257</v>
+        <v>309527.0454360798</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>420848.0511966889</v>
+        <v>292581.8014925098</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>396197.5105385806</v>
+        <v>279751.0246759977</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>366015.8976684774</v>
+        <v>258513.349689498</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>344724.6518972642</v>
+        <v>274099.6090721125</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>351956.9745907554</v>
+        <v>282339.8655798039</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>340972.4336500443</v>
+        <v>266649.8702433864</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>322439.1661040278</v>
+        <v>254094.6051967386</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>308479.8132914254</v>
+        <v>242935.5091820323</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4974,7 +4974,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>302690.6396529038</v>
+        <v>230037.0271841368</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4982,7 +4982,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>295549.2766884182</v>
+        <v>213555.1785672692</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4990,7 +4990,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>286102.9664526826</v>
+        <v>221569.4247844552</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4998,7 +4998,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>285853.6695629735</v>
+        <v>215004.7404345371</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5006,7 +5006,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>299710.9460747549</v>
+        <v>208815.1948193458</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>254511.532657491</v>
+        <v>206033.7345727515</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>243054.192025195</v>
+        <v>196876.1892908793</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>250607.1160096106</v>
+        <v>182175.3412782697</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>241978.7151082172</v>
+        <v>194175.7428575327</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>237756.4708578475</v>
+        <v>196050.4892668253</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>237673.6834021868</v>
+        <v>192291.9216388983</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>228446.4494080135</v>
+        <v>186392.6386676011</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>232390.4280903182</v>
+        <v>183095.9316001539</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5078,7 +5078,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>248857.4554381269</v>
+        <v>201819.5977825501</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5086,7 +5086,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>245213.6013488247</v>
+        <v>257656.2259610762</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5094,7 +5094,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>231895.4763201423</v>
+        <v>232582.3290172823</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5102,7 +5102,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>238308.672152806</v>
+        <v>226877.2982482378</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5110,7 +5110,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>217593.4781174944</v>
+        <v>225468.6616664353</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>214057.7883462147</v>
+        <v>214225.0207101982</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>236471.2727573402</v>
+        <v>232642.4276094853</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>238773.1519485778</v>
+        <v>242899.9514529789</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>242735.7744842263</v>
+        <v>242247.1888244706</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5150,7 +5150,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>238308.0768418002</v>
+        <v>228012.6160265598</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5158,7 +5158,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>238653.0011162539</v>
+        <v>230133.6252123168</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5166,7 +5166,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>235708.6676246944</v>
+        <v>239605.8037308002</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5174,7 +5174,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>239866.3690601416</v>
+        <v>243431.1233454898</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5182,7 +5182,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>239559.69271872</v>
+        <v>249901.4629749717</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5190,7 +5190,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>257546.3717377716</v>
+        <v>251090.5483443307</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5198,7 +5198,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>258198.5245924106</v>
+        <v>251229.0806830608</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5206,7 +5206,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>256478.3436950154</v>
+        <v>236092.1933023135</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5214,7 +5214,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>248847.9191528536</v>
+        <v>230552.136411554</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5222,7 +5222,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>258345.4065801632</v>
+        <v>260515.7510484243</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5230,7 +5230,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>255229.1641913889</v>
+        <v>274948.3286946994</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5238,7 +5238,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>293046.5723333061</v>
+        <v>256397.1537871737</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5246,7 +5246,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>350460.6563382914</v>
+        <v>308963.3796061848</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5254,7 +5254,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>275807.0501255396</v>
+        <v>226739.1918944395</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5262,7 +5262,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>266100.0509868981</v>
+        <v>187094.4895066048</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5270,7 +5270,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>246295.2972973205</v>
+        <v>192364.3220732365</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>234200.3529504727</v>
+        <v>192740.9132882268</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5286,7 +5286,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>242885.5990194564</v>
+        <v>194849.6620208563</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>236172.8709498021</v>
+        <v>212558.12656458</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5302,7 +5302,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>232968.1750709907</v>
+        <v>228213.5945735601</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5310,7 +5310,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>223992.2406872165</v>
+        <v>228573.6151060396</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5318,7 +5318,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>205263.9943317784</v>
+        <v>244413.1098418663</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>189418.4678948462</v>
+        <v>234933.2254659003</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>197454.8650488126</v>
+        <v>217542.8875215164</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5342,7 +5342,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>186888.4643500786</v>
+        <v>209948.4674641683</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5350,7 +5350,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>184930.486309157</v>
+        <v>217575.9500867888</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5358,7 +5358,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>208696.6194005459</v>
+        <v>254769.2862879582</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5366,7 +5366,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>204053.2348230951</v>
+        <v>267545.9028639938</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5374,7 +5374,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>217844.241873898</v>
+        <v>295479.7067413914</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5382,7 +5382,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>211726.4976433937</v>
+        <v>303485.2335046259</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5390,7 +5390,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>216705.3473330674</v>
+        <v>272631.8716626544</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5398,7 +5398,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>220692.104567819</v>
+        <v>264913.5731804294</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5406,7 +5406,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>220129.4869134965</v>
+        <v>268717.7030380952</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5414,7 +5414,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>234915.1695275217</v>
+        <v>288906.4674867842</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5422,7 +5422,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>239307.1174581471</v>
+        <v>275804.5979864303</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5430,7 +5430,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>218559.8603783628</v>
+        <v>265053.5928826343</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5438,7 +5438,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>213544.7684746124</v>
+        <v>261981.5924683142</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5446,7 +5446,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>222915.8319210556</v>
+        <v>269110.2929122695</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5454,7 +5454,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>214069.980646151</v>
+        <v>275538.6184345923</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5462,7 +5462,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>207283.5539441289</v>
+        <v>293886.0815315264</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5470,7 +5470,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>214038.5516377941</v>
+        <v>289592.325276944</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5478,7 +5478,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>216444.6355365569</v>
+        <v>277338.924914537</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5486,7 +5486,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>201977.0713220746</v>
+        <v>265790.3393774269</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5494,7 +5494,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>210966.965362779</v>
+        <v>268835.0226502048</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5502,7 +5502,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>236960.4851010089</v>
+        <v>281314.7182940684</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5510,7 +5510,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>235365.8942286447</v>
+        <v>278244.7142749389</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5518,7 +5518,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>231092.0849149403</v>
+        <v>276540.8222823804</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5526,7 +5526,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>238389.2737036291</v>
+        <v>275308.4472127066</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5534,7 +5534,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>233433.2670864637</v>
+        <v>266238.1229983349</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5542,7 +5542,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>224951.3275022666</v>
+        <v>266785.8326250446</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5550,7 +5550,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>221981.1232540768</v>
+        <v>273363.4313500331</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>227729.6840433796</v>
+        <v>281756.0684073069</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>239936.8210063477</v>
+        <v>290211.8683862536</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>237528.7643537474</v>
+        <v>286944.8654412475</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>246067.84413439</v>
+        <v>310391.5013373531</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>233136.2508871258</v>
+        <v>309667.9706869131</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>228648.4436744888</v>
+        <v>300464.6489118872</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>225922.3799624946</v>
+        <v>308329.1671837829</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>225187.7363133957</v>
+        <v>323139.2444165046</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>226477.9690534589</v>
+        <v>312459.132224496</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>230643.9786793477</v>
+        <v>307782.0492811936</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>235022.0808652621</v>
+        <v>299065.1481488858</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5646,7 +5646,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>233217.3949205239</v>
+        <v>297387.2007169906</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5654,7 +5654,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>240574.7803702056</v>
+        <v>302479.6298259027</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5662,7 +5662,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>235944.4331314306</v>
+        <v>303226.3158816019</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>234919.5073731701</v>
+        <v>323844.5405135119</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>244723.4601025935</v>
+        <v>338263.311945166</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>253838.3697264132</v>
+        <v>340697.0056174464</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>247743.9985362479</v>
+        <v>353480.5149723401</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5702,7 +5702,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>239387.5440315827</v>
+        <v>343092.0560395495</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5710,7 +5710,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>230784.6955531503</v>
+        <v>327542.7276141211</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5718,7 +5718,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>230331.9815027991</v>
+        <v>323256.7432092681</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5726,7 +5726,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>230153.3479331115</v>
+        <v>306478.0829769227</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5734,7 +5734,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>228706.7758518388</v>
+        <v>301378.0314495252</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5742,7 +5742,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>222427.301362931</v>
+        <v>295673.3263587537</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5750,7 +5750,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>204953.3224810246</v>
+        <v>290675.3433244029</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5758,7 +5758,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>209258.4643924528</v>
+        <v>307703.648389495</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5766,7 +5766,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>206419.9166423925</v>
+        <v>311641.674553757</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5774,7 +5774,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>205469.8411346232</v>
+        <v>317398.5504309352</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>214027.8056841922</v>
+        <v>315998.8138523761</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>222006.0630335404</v>
+        <v>313192.2225617878</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>220103.5551841215</v>
+        <v>297926.5757856907</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>210242.0208744348</v>
+        <v>294940.2124842057</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>210746.32055395</v>
+        <v>287168.7503570885</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>214055.0053398276</v>
+        <v>286096.888573551</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>214952.322310831</v>
+        <v>281518.9115924649</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>216321.3623527036</v>
+        <v>286543.0102173458</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>218601.4113398468</v>
+        <v>269854.6203126849</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>221973.9665922428</v>
+        <v>263742.5997851022</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>228375.0221963487</v>
+        <v>257107.3264281487</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>239443.0881845306</v>
+        <v>250743.0401230373</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>254236.8393894923</v>
+        <v>258635.4049476177</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>251530.8014820994</v>
+        <v>270706.731625007</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>253241.0814757914</v>
+        <v>271005.1806046556</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>258296.6933366917</v>
+        <v>282928.2812725816</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>246432.5434142594</v>
+        <v>310623.5845808733</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>254251.8758997395</v>
+        <v>330004.1000230446</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>253371.3603010104</v>
+        <v>347422.4901370385</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>246858.4231725003</v>
+        <v>358874.8646659609</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>254787.8405326369</v>
+        <v>349055.0026337078</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>255001.1966094177</v>
+        <v>334090.8003757638</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>247846.0588186971</v>
+        <v>330322.2601030492</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>243324.4280469117</v>
+        <v>302986.54263732</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>232483.0091824876</v>
+        <v>283032.5369217701</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>236886.4166382855</v>
+        <v>267336.4395551751</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5990,7 +5990,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>248919.5861712405</v>
+        <v>307714.319971242</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5998,7 +5998,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>241587.0957315656</v>
+        <v>300538.0500559128</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6006,7 +6006,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>261579.8822082943</v>
+        <v>296113.9573034436</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6014,7 +6014,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>302544.7644773674</v>
+        <v>301811.0237383368</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6022,7 +6022,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>305523.0376253101</v>
+        <v>306785.536642857</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6030,7 +6030,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>322483.1539594296</v>
+        <v>312920.2045937933</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6038,7 +6038,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>319668.645745629</v>
+        <v>295161.1310268312</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6046,7 +6046,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>312770.5023903328</v>
+        <v>294016.5592542473</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6054,7 +6054,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>308786.1292383295</v>
+        <v>298176.6728475047</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6062,7 +6062,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>309795.3153369096</v>
+        <v>366825.4876697165</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6070,7 +6070,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>310741.6111644933</v>
+        <v>322467.0369814126</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6078,7 +6078,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>308090.324847001</v>
+        <v>373229.4501718833</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6086,7 +6086,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>313230.8813022031</v>
+        <v>301096.1817706249</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6094,7 +6094,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>310305.6489247834</v>
+        <v>309385.1655803198</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6102,7 +6102,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>314136.0059899344</v>
+        <v>314235.3197598881</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6110,7 +6110,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>304400.5358451926</v>
+        <v>330497.5923649153</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6118,7 +6118,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>298946.7887339589</v>
+        <v>316367.8245893674</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6126,7 +6126,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>294468.0653464912</v>
+        <v>317446.6660881494</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6134,7 +6134,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>292468.5306077687</v>
+        <v>312491.5538350776</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6142,7 +6142,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>291631.2109540098</v>
+        <v>308609.5517941018</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6150,7 +6150,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>290070.082639503</v>
+        <v>293132.1073419424</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6158,7 +6158,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>294253.369374257</v>
+        <v>289735.0980673715</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6166,7 +6166,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>294471.3001101856</v>
+        <v>298872.9084506287</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6174,7 +6174,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>298754.7730953875</v>
+        <v>298261.8536232095</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6182,7 +6182,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>296262.9660905776</v>
+        <v>305006.2558210164</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6190,7 +6190,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>291961.3243562285</v>
+        <v>290845.5485036964</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6198,7 +6198,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>296241.9117169812</v>
+        <v>286059.1904735655</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6206,7 +6206,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>295804.6898984126</v>
+        <v>277713.6553607153</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6214,7 +6214,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>300807.3492676307</v>
+        <v>279979.2172612647</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6222,7 +6222,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>317680.5722315432</v>
+        <v>277127.4856542054</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>PNW</t>
   </si>
@@ -24,22 +23,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,26 +57,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -361,18 +373,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
@@ -380,2926 +386,2926 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>286958.3826888078</v>
+      <c r="B2">
+        <v>360845.5911344764</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>313162.9500301483</v>
+      <c r="B3">
+        <v>304736.0418538008</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>307383.8672302283</v>
+      <c r="B4">
+        <v>312402.5744275864</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>302832.5819380729</v>
+      <c r="B5">
+        <v>316638.1469426657</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>303055.0421082866</v>
+      <c r="B6">
+        <v>348272.4215004222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>297771.9957271108</v>
+      <c r="B7">
+        <v>382637.1940829552</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>304751.5574888405</v>
+      <c r="B8">
+        <v>388058.4061800578</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>306156.6031854475</v>
+      <c r="B9">
+        <v>411165.2970455751</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>312444.3486298018</v>
+      <c r="B10">
+        <v>421164.7516623765</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>311588.801171537</v>
+      <c r="B11">
+        <v>411223.8495270232</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>307287.6804918933</v>
+      <c r="B12">
+        <v>434892.3663751524</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>298718.0075837805</v>
+      <c r="B13">
+        <v>436102.8057459489</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>301689.8466543751</v>
+      <c r="B14">
+        <v>413475.8969846909</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>292501.111110451</v>
+      <c r="B15">
+        <v>415951.0035452747</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>301521.0533524943</v>
+      <c r="B16">
+        <v>390345.6782119777</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>325058.2756290578</v>
+      <c r="B17">
+        <v>365321.4357459462</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>318424.7294607092</v>
+      <c r="B18">
+        <v>346594.8136706604</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>321798.9066456861</v>
+      <c r="B19">
+        <v>343853.2842360042</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>310240.5755740961</v>
+      <c r="B20">
+        <v>339697.5875914758</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>321393.3094344226</v>
+      <c r="B21">
+        <v>339355.9039934391</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>367987.8814759384</v>
+      <c r="B22">
+        <v>336876.8014487805</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>387321.5703117486</v>
+      <c r="B23">
+        <v>376999.0024865718</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>393416.8258958092</v>
+      <c r="B24">
+        <v>377731.3631791678</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>388750.9867265229</v>
+      <c r="B25">
+        <v>389915.8336736226</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>399057.7369751186</v>
+      <c r="B26">
+        <v>398781.9343538179</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>394044.9589499517</v>
+      <c r="B27">
+        <v>394410.644660852</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>382238.2431904819</v>
+      <c r="B28">
+        <v>388056.7035419751</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>363889.1785648675</v>
+      <c r="B29">
+        <v>414179.5080753333</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>356445.0767414129</v>
+      <c r="B30">
+        <v>412174.8507482873</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>362680.7927580342</v>
+      <c r="B31">
+        <v>400783.3184595602</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>367503.1966037708</v>
+      <c r="B32">
+        <v>394377.5591078613</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>365020.2260485952</v>
+      <c r="B33">
+        <v>389984.4111965815</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>355377.9556077471</v>
+      <c r="B34">
+        <v>375901.4828404218</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>384077.3121247956</v>
+      <c r="B35">
+        <v>362615.5380639629</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>383097.4812049224</v>
+      <c r="B36">
+        <v>341104.4335497106</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>405683.3791368561</v>
+      <c r="B37">
+        <v>331897.1179534797</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>396957.8431902783</v>
+      <c r="B38">
+        <v>342934.4654320527</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>386548.1300842958</v>
+      <c r="B39">
+        <v>350910.5670495433</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>372361.7109940399</v>
+      <c r="B40">
+        <v>351244.3900936371</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>358012.4186610748</v>
+      <c r="B41">
+        <v>346223.0726807831</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>354231.1951476912</v>
+      <c r="B42">
+        <v>344439.3982836059</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>355007.2118891011</v>
+      <c r="B43">
+        <v>360443.0947901381</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>356050.8570536628</v>
+      <c r="B44">
+        <v>369559.4284324406</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>351197.826119862</v>
+      <c r="B45">
+        <v>392332.0751643137</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>343862.2319649634</v>
+      <c r="B46">
+        <v>388725.703853919</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>344137.7805636049</v>
+      <c r="B47">
+        <v>387934.5418842331</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>335763.9285645216</v>
+      <c r="B48">
+        <v>389632.0288099989</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>328708.4943932634</v>
+      <c r="B49">
+        <v>401112.0296778122</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>339619.3094314117</v>
+      <c r="B50">
+        <v>440262.4747788454</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>401125.9526819309</v>
+      <c r="B51">
+        <v>445671.9849667194</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>441078.4985093106</v>
+      <c r="B52">
+        <v>458710.2856627915</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>476130.6579241037</v>
+      <c r="B53">
+        <v>457184.7571209607</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>517977.9382656785</v>
+      <c r="B54">
+        <v>451332.1807247838</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>525479.939950446</v>
+      <c r="B55">
+        <v>447510.1762081419</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>517509.4657025951</v>
+      <c r="B56">
+        <v>439977.5726060454</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>527578.893752892</v>
+      <c r="B57">
+        <v>435615.4943052612</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>519983.9712532851</v>
+      <c r="B58">
+        <v>446904.450958693</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>509024.7066782232</v>
+      <c r="B59">
+        <v>453688.1440202061</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>465328.3557151774</v>
+      <c r="B60">
+        <v>443761.4999506631</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>469209.2521240507</v>
+      <c r="B61">
+        <v>460866.550550758</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>417897.6581391308</v>
+      <c r="B62">
+        <v>420021.2665875116</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>418139.3756927071</v>
+      <c r="B63">
+        <v>402926.2209942079</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>415993.9437067595</v>
+      <c r="B64">
+        <v>411088.8328121532</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>412200.6299606238</v>
+      <c r="B65">
+        <v>415647.4641786826</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>425800.4879515762</v>
+      <c r="B66">
+        <v>427121.0639531151</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>439306.5286962829</v>
+      <c r="B67">
+        <v>438261.4622757004</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>436118.9677297577</v>
+      <c r="B68">
+        <v>446641.4577628482</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>436742.7189058148</v>
+      <c r="B69">
+        <v>455069.5054200666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>417999.1016123589</v>
+      <c r="B70">
+        <v>509165.5759632299</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>402896.0653776719</v>
+      <c r="B71">
+        <v>525974.6750356668</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>385740.6698555979</v>
+      <c r="B72">
+        <v>527499.7849147834</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>370512.0715783811</v>
+      <c r="B73">
+        <v>529227.6423369047</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>378465.2616763684</v>
+      <c r="B74">
+        <v>531908.1740864638</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>373960.6218523822</v>
+      <c r="B75">
+        <v>527500.0590212874</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>405177.4628102286</v>
+      <c r="B76">
+        <v>519259.8712450856</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>453878.0843759428</v>
+      <c r="B77">
+        <v>511455.323905853</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>445554.9251303387</v>
+      <c r="B78">
+        <v>499592.3189076044</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>434367.9416735333</v>
+      <c r="B79">
+        <v>485965.4472500755</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>420077.1833479523</v>
+      <c r="B80">
+        <v>472579.1889543937</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>414236.8641746935</v>
+      <c r="B81">
+        <v>458724.5712750112</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>414818.5225024776</v>
+      <c r="B82">
+        <v>458308.0174193699</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>421925.5833834488</v>
+      <c r="B83">
+        <v>451528.7971527735</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>421900.0179421975</v>
+      <c r="B84">
+        <v>438168.5857217099</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>373700.525774257</v>
+      <c r="B85">
+        <v>393811.1254755015</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>396492.9104083541</v>
+      <c r="B86">
+        <v>403811.4784827326</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>399061.5278638517</v>
+      <c r="B87">
+        <v>387910.8837785505</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>403103.3245555679</v>
+      <c r="B88">
+        <v>384390.6318572317</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>407449.6928243196</v>
+      <c r="B89">
+        <v>376179.9500824576</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>409329.7135207698</v>
+      <c r="B90">
+        <v>417947.6939742673</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>416048.9035805674</v>
+      <c r="B91">
+        <v>419657.6935557085</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>381521.6413976901</v>
+      <c r="B92">
+        <v>405262.7224076128</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>331050.6393488969</v>
+      <c r="B93">
+        <v>358838.6647078344</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>324801.1339430276</v>
+      <c r="B94">
+        <v>359122.0661331314</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>344554.1720834773</v>
+      <c r="B95">
+        <v>351407.0296532008</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>330623.013894601</v>
+      <c r="B96">
+        <v>336842.0764526594</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>354723.0276003429</v>
+      <c r="B97">
+        <v>334769.9355369408</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>353907.7494003526</v>
+      <c r="B98">
+        <v>337137.2249865353</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>341430.8893728139</v>
+      <c r="B99">
+        <v>337807.3205431438</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>319771.3288275141</v>
+      <c r="B100">
+        <v>334579.7580159211</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>309625.5702406288</v>
+      <c r="B101">
+        <v>342243.2032180532</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>318335.5621934464</v>
+      <c r="B102">
+        <v>341287.4682218048</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>309700.5656655258</v>
+      <c r="B103">
+        <v>329898.8484220401</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>317802.5693932562</v>
+      <c r="B104">
+        <v>310644.7941841654</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>331361.2401719908</v>
+      <c r="B105">
+        <v>302977.4093872103</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>319829.7069840727</v>
+      <c r="B106">
+        <v>303161.7968238351</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>319017.0876113623</v>
+      <c r="B107">
+        <v>292728.4040123668</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
-        <v>315198.1716823228</v>
+      <c r="B108">
+        <v>284970.3633092481</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
-        <v>306205.8798630918</v>
+      <c r="B109">
+        <v>290663.8310994279</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
-        <v>303521.213343805</v>
+      <c r="B110">
+        <v>313170.9376983867</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
-        <v>303450.940084226</v>
+      <c r="B111">
+        <v>333666.1403418515</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
-        <v>287726.398824239</v>
+      <c r="B112">
+        <v>361280.9167311262</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
-        <v>276390.2233660801</v>
+      <c r="B113">
+        <v>390289.0841787281</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
-        <v>282418.5584028049</v>
+      <c r="B114">
+        <v>420463.1644419847</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
-        <v>271833.5830253747</v>
+      <c r="B115">
+        <v>457673.5889056582</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
-        <v>271327.9155510381</v>
+      <c r="B116">
+        <v>493977.7473274866</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
-        <v>267883.0969159569</v>
+      <c r="B117">
+        <v>507005.6545082584</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
-        <v>260833.0107182817</v>
+      <c r="B118">
+        <v>506439.2243213222</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
-        <v>268497.4309600291</v>
+      <c r="B119">
+        <v>506050.2327974146</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
-        <v>278291.3497549043</v>
+      <c r="B120">
+        <v>489286.1776722127</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
-        <v>298458.5388052508</v>
+      <c r="B121">
+        <v>480526.2603488206</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
-        <v>201659.603575348</v>
+      <c r="B122">
+        <v>277214.5673398314</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
-        <v>211574.9890761334</v>
+      <c r="B123">
+        <v>262367.7562298108</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
-        <v>216096.6874762063</v>
+      <c r="B124">
+        <v>260699.1202023877</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
-        <v>232060.3819440021</v>
+      <c r="B125">
+        <v>258457.9491218527</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
-        <v>239984.1637731457</v>
+      <c r="B126">
+        <v>266273.5389532291</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
-        <v>238739.4574795795</v>
+      <c r="B127">
+        <v>285171.1573002017</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
-        <v>231721.8846084866</v>
+      <c r="B128">
+        <v>301854.6321716918</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
-        <v>226117.3699568681</v>
+      <c r="B129">
+        <v>320572.4351833767</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
-        <v>222440.7453787772</v>
+      <c r="B130">
+        <v>322094.1737089807</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
-        <v>227474.0009756871</v>
+      <c r="B131">
+        <v>299487.1171811062</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
-        <v>235565.7024938978</v>
+      <c r="B132">
+        <v>279502.7384469077</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
-        <v>247195.2816526776</v>
+      <c r="B133">
+        <v>250567.7392301491</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
-        <v>255825.7691863721</v>
+      <c r="B134">
+        <v>239736.8023129301</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
-        <v>265987.1085490803</v>
+      <c r="B135">
+        <v>243384.1982305916</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
-        <v>268290.1743288806</v>
+      <c r="B136">
+        <v>239581.3759433459</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
-        <v>331585.3279776216</v>
+      <c r="B137">
+        <v>246726.7511912522</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
-        <v>309548.929211035</v>
+      <c r="B138">
+        <v>244705.5309080131</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
-        <v>384628.1708094378</v>
+      <c r="B139">
+        <v>246653.1233075094</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
-        <v>362795.128617359</v>
+      <c r="B140">
+        <v>250604.6064423972</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
-        <v>513155.3887403218</v>
+      <c r="B141">
+        <v>341987.6275851741</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
-        <v>507977.3771936537</v>
+      <c r="B142">
+        <v>443525.0816959462</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
-        <v>533793.8757067025</v>
+      <c r="B143">
+        <v>446649.4340953064</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
-        <v>513168.7048670122</v>
+      <c r="B144">
+        <v>502952.2761463284</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
-        <v>540390.7944019332</v>
+      <c r="B145">
+        <v>537197.6043692972</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
-        <v>518964.5262213209</v>
+      <c r="B146">
+        <v>539277.2786868642</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
-        <v>535419.2973185468</v>
+      <c r="B147">
+        <v>556125.4018061969</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
-        <v>523083.091376166</v>
+      <c r="B148">
+        <v>559281.1345053421</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
-        <v>537859.6375476375</v>
+      <c r="B149">
+        <v>558260.3341907357</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
-        <v>509513.9017184209</v>
+      <c r="B150">
+        <v>557733.5818746992</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
-        <v>533976.463453939</v>
+      <c r="B151">
+        <v>557748.0879054922</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
-        <v>509798.3683698811</v>
+      <c r="B152">
+        <v>559693.5755611372</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
-        <v>539325.6566207178</v>
+      <c r="B153">
+        <v>561175.8214472065</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
-        <v>523478.5968257517</v>
+      <c r="B154">
+        <v>543581.0288724895</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
-        <v>555877.6164886003</v>
+      <c r="B155">
+        <v>564533.1433583163</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
-        <v>555499.9890019033</v>
+      <c r="B156">
+        <v>557491.7522613913</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
-        <v>557114.7314511912</v>
+      <c r="B157">
+        <v>567535.7823872259</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
-        <v>561690.4747962769</v>
+      <c r="B158">
+        <v>567190.5847945481</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
-        <v>557798.9073321095</v>
+      <c r="B159">
+        <v>565351.6462590805</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
-        <v>552167.3486493045</v>
+      <c r="B160">
+        <v>564296.6229315159</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
-        <v>563784.2710982064</v>
+      <c r="B161">
+        <v>564556.0457094974</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
-        <v>554613.5217702652</v>
+      <c r="B162">
+        <v>564798.6337784164</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
-        <v>556340.9348887394</v>
+      <c r="B163">
+        <v>566204.1850756126</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
-        <v>547607.5846589867</v>
+      <c r="B164">
+        <v>566311.5902544189</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
-        <v>555490.6619454718</v>
+      <c r="B165">
+        <v>566146.0203034368</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
-        <v>546252.8261489148</v>
+      <c r="B166">
+        <v>561501.4952587812</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
-        <v>549457.4016722048</v>
+      <c r="B167">
+        <v>505158.0076420846</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
-        <v>537879.6915351172</v>
+      <c r="B168">
+        <v>523736.1384722714</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
-        <v>533751.6930879911</v>
+      <c r="B169">
+        <v>507426.4280543338</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
-        <v>509281.0401356531</v>
+      <c r="B170">
+        <v>528744.7546682103</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
-        <v>520721.8932652927</v>
+      <c r="B171">
+        <v>506742.6865969916</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
-        <v>514723.8525076683</v>
+      <c r="B172">
+        <v>513725.6645913102</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
-        <v>534290.7453425037</v>
+      <c r="B173">
+        <v>478696.1304638209</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
-        <v>509330.7947150621</v>
+      <c r="B174">
+        <v>482307.8604795506</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
-        <v>528037.8814360176</v>
+      <c r="B175">
+        <v>440129.5858659811</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
-        <v>530297.0192449127</v>
+      <c r="B176">
+        <v>473867.1452371317</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
-        <v>533606.634620299</v>
+      <c r="B177">
+        <v>476695.0915960427</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
-        <v>521312.4427389559</v>
+      <c r="B178">
+        <v>474780.1382125577</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
-        <v>528539.997235416</v>
+      <c r="B179">
+        <v>455651.4852364403</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
-        <v>518431.2221676114</v>
+      <c r="B180">
+        <v>459455.8358489608</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
-        <v>500493.6200017561</v>
+      <c r="B181">
+        <v>468991.9190822123</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
-        <v>451967.631254437</v>
+      <c r="B182">
+        <v>478137.622301045</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
-        <v>455614.4619767266</v>
+      <c r="B183">
+        <v>480567.4226336239</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
-        <v>379873.2132058894</v>
+      <c r="B184">
+        <v>495090.3663235181</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
-        <v>374180.766138844</v>
+      <c r="B185">
+        <v>517747.6766125533</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
-        <v>373000.5504918233</v>
+      <c r="B186">
+        <v>515629.0649422863</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
-        <v>370618.0010875</v>
+      <c r="B187">
+        <v>475194.801718686</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
-        <v>380415.6506699705</v>
+      <c r="B188">
+        <v>470403.3519037805</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
-        <v>388637.0249272548</v>
+      <c r="B189">
+        <v>465652.2632015444</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
-        <v>392838.1792196389</v>
+      <c r="B190">
+        <v>472509.1196060488</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
-        <v>373425.9698806929</v>
+      <c r="B191">
+        <v>444456.902887917</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
-        <v>355241.2455126468</v>
+      <c r="B192">
+        <v>444438.5199532512</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
-        <v>361006.4418018361</v>
+      <c r="B193">
+        <v>425795.0545150103</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
-        <v>364528.2993089429</v>
+      <c r="B194">
+        <v>429149.1172137957</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
-        <v>373273.9954254043</v>
+      <c r="B195">
+        <v>481735.070228666</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
-        <v>367045.059992591</v>
+      <c r="B196">
+        <v>511955.368199366</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
-        <v>357661.9741187847</v>
+      <c r="B197">
+        <v>500454.5247337151</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
-        <v>329328.4555707897</v>
+      <c r="B198">
+        <v>477121.0394866091</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
-        <v>316674.4794706317</v>
+      <c r="B199">
+        <v>469281.2957524483</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
-        <v>293035.6178640242</v>
+      <c r="B200">
+        <v>444712.4955223093</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
-        <v>261289.6289702056</v>
+      <c r="B201">
+        <v>441677.7161233965</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
-        <v>277647.7231629873</v>
+      <c r="B202">
+        <v>421557.4822015171</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
-        <v>291237.8760379928</v>
+      <c r="B203">
+        <v>420462.0618795322</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
-        <v>297426.5051648295</v>
+      <c r="B204">
+        <v>412278.272226038</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
-        <v>269971.3183564785</v>
+      <c r="B205">
+        <v>405740.5173984842</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
-        <v>251643.2131670181</v>
+      <c r="B206">
+        <v>402150.8415346429</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
-        <v>268465.8038998595</v>
+      <c r="B207">
+        <v>395737.017743455</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
-        <v>256839.7103444016</v>
+      <c r="B208">
+        <v>392531.3984622968</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
-        <v>251573.7634480014</v>
+      <c r="B209">
+        <v>407763.0151746356</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
-        <v>250759.0532966536</v>
+      <c r="B210">
+        <v>403277.3269452521</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
-        <v>265188.6565350045</v>
+      <c r="B211">
+        <v>395358.0425841144</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
-        <v>266795.3582717639</v>
+      <c r="B212">
+        <v>370729.591633044</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
-        <v>245538.0324621675</v>
+      <c r="B213">
+        <v>366919.1819848929</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
-        <v>230526.6771046789</v>
+      <c r="B214">
+        <v>350632.2275197252</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
-        <v>246742.0101199752</v>
+      <c r="B215">
+        <v>300538.8859283043</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
-        <v>258396.0941619172</v>
+      <c r="B216">
+        <v>295463.6230979101</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
-        <v>228877.9731721168</v>
+      <c r="B217">
+        <v>286308.5879821563</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
-        <v>235318.6282944455</v>
+      <c r="B218">
+        <v>278993.6692907497</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
-        <v>228587.3978004697</v>
+      <c r="B219">
+        <v>280814.3456314473</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
-        <v>219015.2684409558</v>
+      <c r="B220">
+        <v>278859.4214288148</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
-        <v>198157.3432569983</v>
+      <c r="B221">
+        <v>269668.9038932275</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
-        <v>197560.0011899701</v>
+      <c r="B222">
+        <v>266445.486302954</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
-        <v>188748.3825104404</v>
+      <c r="B223">
+        <v>268924.1318956148</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
-        <v>179117.759212128</v>
+      <c r="B224">
+        <v>278930.0918279239</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
-        <v>188881.1333239427</v>
+      <c r="B225">
+        <v>289856.7134180432</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
-        <v>204079.4357366434</v>
+      <c r="B226">
+        <v>301605.6203513335</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
-        <v>258915.0119033571</v>
+      <c r="B227">
+        <v>304398.1915821711</v>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
-        <v>247268.4176602963</v>
+      <c r="B228">
+        <v>265758.6947629285</v>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
-        <v>301412.0055257032</v>
+      <c r="B229">
+        <v>264938.3814163383</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
-        <v>297862.6704159107</v>
+      <c r="B230">
+        <v>261955.4344577711</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
-        <v>288690.1241529262</v>
+      <c r="B231">
+        <v>264276.7685163571</v>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
-        <v>280434.6658798804</v>
+      <c r="B232">
+        <v>312578.7820170429</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
-        <v>283156.9568598267</v>
+      <c r="B233">
+        <v>290978.1030483287</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
-        <v>268714.7001354136</v>
+      <c r="B234">
+        <v>296101.9326909706</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
-        <v>269249.9907135956</v>
+      <c r="B235">
+        <v>289911.8229413797</v>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
-        <v>271928.8193838806</v>
+      <c r="B236">
+        <v>293501.2829717943</v>
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
-        <v>263372.4628508802</v>
+      <c r="B237">
+        <v>298568.9503645692</v>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
-        <v>266650.8876648851</v>
+      <c r="B238">
+        <v>300921.0268675716</v>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
-        <v>278054.4761351036</v>
+      <c r="B239">
+        <v>309582.3699901745</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
-        <v>300643.3370002452</v>
+      <c r="B240">
+        <v>312965.3462176333</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
-        <v>307455.3752980439</v>
+      <c r="B241">
+        <v>307748.8745801271</v>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1" t="n">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
-        <v>299462.252467285</v>
+      <c r="B242">
+        <v>298764.8028803919</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="1" t="n">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
-        <v>272876.2241624391</v>
+      <c r="B243">
+        <v>296569.5609463981</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="1" t="n">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
-        <v>318733.098602566</v>
+      <c r="B244">
+        <v>347754.4340018969</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="1" t="n">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
-        <v>247861.7519773121</v>
+      <c r="B245">
+        <v>273668.0839782676</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="1" t="n">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
-        <v>252597.1818475446</v>
+      <c r="B246">
+        <v>271709.2385409841</v>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="1" t="n">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
-        <v>248906.665073445</v>
+      <c r="B247">
+        <v>239160.0467949053</v>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="1" t="n">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
-        <v>246005.1513794877</v>
+      <c r="B248">
+        <v>243111.6017963083</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="1" t="n">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
-        <v>242403.0067445032</v>
+      <c r="B249">
+        <v>243576.744400431</v>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="1" t="n">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
-        <v>253165.6266935841</v>
+      <c r="B250">
+        <v>236281.2336227557</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="1" t="n">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
-        <v>250806.031410518</v>
+      <c r="B251">
+        <v>223686.8167526035</v>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="1" t="n">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
-        <v>231931.176511858</v>
+      <c r="B252">
+        <v>211633.0337334838</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="1" t="n">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
-        <v>256127.3312189652</v>
+      <c r="B253">
+        <v>202684.0494694508</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="1" t="n">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
-        <v>234000.4873575443</v>
+      <c r="B254">
+        <v>212111.4645950212</v>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="1" t="n">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
-        <v>219596.3821052063</v>
+      <c r="B255">
+        <v>197811.1609098373</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1" t="n">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
-        <v>221883.485915507</v>
+      <c r="B256">
+        <v>212068.4375772933</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="1" t="n">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
-        <v>223364.5626772861</v>
+      <c r="B257">
+        <v>211782.675747424</v>
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="1" t="n">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
-        <v>230792.3025010777</v>
+      <c r="B258">
+        <v>198609.9725227244</v>
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="1" t="n">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
-        <v>230919.6802802178</v>
+      <c r="B259">
+        <v>214623.4365562866</v>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="1" t="n">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
-        <v>236428.2781523348</v>
+      <c r="B260">
+        <v>210155.6351940506</v>
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="1" t="n">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
-        <v>244482.0763187392</v>
+      <c r="B261">
+        <v>206695.3894430898</v>
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="1" t="n">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
-        <v>278118.8233614686</v>
+      <c r="B262">
+        <v>197684.4850873</v>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="1" t="n">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
-        <v>315290.3590219494</v>
+      <c r="B263">
+        <v>190628.9394990033</v>
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="1" t="n">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
-        <v>320717.8429365511</v>
+      <c r="B264">
+        <v>188109.1174281992</v>
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="1" t="n">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
-        <v>316003.4311584396</v>
+      <c r="B265">
+        <v>210078.0918835588</v>
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="1" t="n">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
-        <v>292151.1620693259</v>
+      <c r="B266">
+        <v>209608.0106234914</v>
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="1" t="n">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
-        <v>301274.5574435088</v>
+      <c r="B267">
+        <v>216329.6342574974</v>
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="1" t="n">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
-        <v>281672.0498180473</v>
+      <c r="B268">
+        <v>213283.0894570964</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="1" t="n">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
-        <v>293100.164413297</v>
+      <c r="B269">
+        <v>212749.3166545677</v>
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="1" t="n">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
-        <v>296201.8968468255</v>
+      <c r="B270">
+        <v>222409.1910845977</v>
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="1" t="n">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
-        <v>282681.5522148052</v>
+      <c r="B271">
+        <v>217830.8011558902</v>
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="1" t="n">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
-        <v>283098.5764479331</v>
+      <c r="B272">
+        <v>216767.3384239442</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="1" t="n">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
-        <v>292722.8681722545</v>
+      <c r="B273">
+        <v>203693.1368671907</v>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="1" t="n">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
-        <v>286939.506715568</v>
+      <c r="B274">
+        <v>210388.3002732337</v>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="1" t="n">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
-        <v>281063.8238236287</v>
+      <c r="B275">
+        <v>210775.90533652</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="1" t="n">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
-        <v>285450.8936223842</v>
+      <c r="B276">
+        <v>233273.4684058546</v>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="1" t="n">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
-        <v>271362.663090398</v>
+      <c r="B277">
+        <v>230301.322787267</v>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="1" t="n">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
-        <v>265274.2381514023</v>
+      <c r="B278">
+        <v>238217.4542927718</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="1" t="n">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
-        <v>279064.8120894546</v>
+      <c r="B279">
+        <v>239033.6851447316</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="1" t="n">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
-        <v>279866.3697742951</v>
+      <c r="B280">
+        <v>238685.2196023907</v>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="1" t="n">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
-        <v>283757.751999416</v>
+      <c r="B281">
+        <v>237925.9099433523</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1" t="n">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
-        <v>268164.9772533056</v>
+      <c r="B282">
+        <v>237619.0828421348</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="1" t="n">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
-        <v>258214.7121787136</v>
+      <c r="B283">
+        <v>233058.2056785347</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="1" t="n">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
-        <v>266785.4426622574</v>
+      <c r="B284">
+        <v>232087.7013686394</v>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="1" t="n">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
-        <v>272489.0021342832</v>
+      <c r="B285">
+        <v>241379.5928926225</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="1" t="n">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
-        <v>280500.5352537589</v>
+      <c r="B286">
+        <v>234517.2747726373</v>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="1" t="n">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
-        <v>317597.2525342869</v>
+      <c r="B287">
+        <v>230242.256731449</v>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="1" t="n">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
-        <v>314615.3808643527</v>
+      <c r="B288">
+        <v>223495.1272607772</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="1" t="n">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
-        <v>310916.3413266849</v>
+      <c r="B289">
+        <v>234029.7653012383</v>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="1" t="n">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
-        <v>315143.453156497</v>
+      <c r="B290">
+        <v>223671.50209362</v>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="1" t="n">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
-        <v>292981.7312148895</v>
+      <c r="B291">
+        <v>220888.6057243255</v>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="1" t="n">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
-        <v>286798.3700541275</v>
+      <c r="B292">
+        <v>229133.3595800287</v>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="1" t="n">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
-        <v>298375.5770529342</v>
+      <c r="B293">
+        <v>230701.2530220088</v>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="1" t="n">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
-        <v>286556.9493170758</v>
+      <c r="B294">
+        <v>228887.042561033</v>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="1" t="n">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
-        <v>307520.9108448675</v>
+      <c r="B295">
+        <v>227895.7771673168</v>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="1" t="n">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
-        <v>294483.0350500659</v>
+      <c r="B296">
+        <v>233969.9525359409</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="1" t="n">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
-        <v>291103.3461735006</v>
+      <c r="B297">
+        <v>254014.712725957</v>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="1" t="n">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
-        <v>293141.2307016165</v>
+      <c r="B298">
+        <v>248015.9853713684</v>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="1" t="n">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
-        <v>287823.6909608018</v>
+      <c r="B299">
+        <v>238165.9661927305</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="1" t="n">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
-        <v>289832.4640420972</v>
+      <c r="B300">
+        <v>232042.5263743989</v>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="1" t="n">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
-        <v>283442.8265706992</v>
+      <c r="B301">
+        <v>240977.5563114067</v>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="1" t="n">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
-        <v>288967.9662909484</v>
+      <c r="B302">
+        <v>243701.8059527543</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="1" t="n">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
-        <v>290077.6437085447</v>
+      <c r="B303">
+        <v>238126.6947051177</v>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="1" t="n">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
-        <v>290124.2364964561</v>
+      <c r="B304">
+        <v>233108.3284587735</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="1" t="n">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="n">
-        <v>314094.6536851682</v>
+      <c r="B305">
+        <v>241950.097853935</v>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="1" t="n">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="n">
-        <v>299446.9291469132</v>
+      <c r="B306">
+        <v>271000.533373181</v>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="1" t="n">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="n">
-        <v>297311.9295321113</v>
+      <c r="B307">
+        <v>235857.3118849632</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="1" t="n">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="n">
-        <v>314288.3418478033</v>
+      <c r="B308">
+        <v>248014.5680109795</v>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="1" t="n">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="n">
-        <v>307313.3121204323</v>
+      <c r="B309">
+        <v>285616.1634070312</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="1" t="n">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="n">
-        <v>300828.3248296617</v>
+      <c r="B310">
+        <v>327472.49649106</v>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="1" t="n">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="n">
-        <v>294030.4866007433</v>
+      <c r="B311">
+        <v>315161.1745550619</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="1" t="n">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="n">
-        <v>293680.2148064134</v>
+      <c r="B312">
+        <v>301229.2769840794</v>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="1" t="n">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="n">
-        <v>284929.3805572417</v>
+      <c r="B313">
+        <v>302027.9610906667</v>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="1" t="n">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="n">
-        <v>306933.8114120438</v>
+      <c r="B314">
+        <v>281185.2711296779</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="1" t="n">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="n">
-        <v>318626.7445297957</v>
+      <c r="B315">
+        <v>274545.5214897158</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="1" t="n">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="n">
-        <v>319252.1052995613</v>
+      <c r="B316">
+        <v>273932.2646460043</v>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="1" t="n">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="n">
-        <v>330353.275596905</v>
+      <c r="B317">
+        <v>292118.0969829845</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="1" t="n">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="n">
-        <v>361196.9438611378</v>
+      <c r="B318">
+        <v>292245.5011767291</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="1" t="n">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="n">
-        <v>331642.5312369833</v>
+      <c r="B319">
+        <v>290499.3907432615</v>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="1" t="n">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="n">
-        <v>336390.9804738107</v>
+      <c r="B320">
+        <v>276456.7704624347</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="1" t="n">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="n">
-        <v>328016.6961702953</v>
+      <c r="B321">
+        <v>298141.8017021908</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="1" t="n">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="n">
-        <v>322900.9609450141</v>
+      <c r="B322">
+        <v>304402.1475052395</v>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="1" t="n">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="n">
-        <v>317638.993975089</v>
+      <c r="B323">
+        <v>318971.7696105171</v>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="1" t="n">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="n">
-        <v>308937.5335527988</v>
+      <c r="B324">
+        <v>307958.3325917181</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="1" t="n">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="n">
-        <v>311714.5027858175</v>
+      <c r="B325">
+        <v>305952.8588923187</v>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="1" t="n">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="n">
-        <v>300392.5012620004</v>
+      <c r="B326">
+        <v>294216.3727224536</v>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="1" t="n">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="n">
-        <v>314132.6920019288</v>
+      <c r="B327">
+        <v>271534.4000616836</v>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="1" t="n">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="n">
-        <v>340968.5520041193</v>
+      <c r="B328">
+        <v>271352.2436043367</v>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="1" t="n">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="n">
-        <v>338565.0369419826</v>
+      <c r="B329">
+        <v>267561.4090701919</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="1" t="n">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="n">
-        <v>344122.4439538243</v>
+      <c r="B330">
+        <v>279967.4461739713</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="1" t="n">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="n">
-        <v>323144.1644988405</v>
+      <c r="B331">
+        <v>291112.0749987223</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="1" t="n">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="n">
-        <v>318826.6679006178</v>
+      <c r="B332">
+        <v>262629.6421642564</v>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="1" t="n">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="n">
-        <v>315166.2458607176</v>
+      <c r="B333">
+        <v>257567.9283682534</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="1" t="n">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="n">
-        <v>306683.6884125606</v>
+      <c r="B334">
+        <v>253625.9768703801</v>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="1" t="n">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="n">
-        <v>309582.3410811476</v>
+      <c r="B335">
+        <v>252247.9498350709</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="1" t="n">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="n">
-        <v>325168.7935727648</v>
+      <c r="B336">
+        <v>244632.8719225523</v>
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="1" t="n">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="n">
-        <v>348396.328393293</v>
+      <c r="B337">
+        <v>259641.0527051871</v>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="1" t="n">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="n">
-        <v>347627.7824816482</v>
+      <c r="B338">
+        <v>251360.5796639551</v>
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="1" t="n">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="n">
-        <v>365558.2122274079</v>
+      <c r="B339">
+        <v>247615.7392053487</v>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="1" t="n">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="n">
-        <v>373852.5255182137</v>
+      <c r="B340">
+        <v>243975.3328910198</v>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="1" t="n">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="n">
-        <v>381787.734677677</v>
+      <c r="B341">
+        <v>260829.3019584118</v>
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="1" t="n">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="n">
-        <v>375730.5477892361</v>
+      <c r="B342">
+        <v>270768.282772221</v>
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="1" t="n">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="n">
-        <v>370258.4704633839</v>
+      <c r="B343">
+        <v>278838.247431425</v>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="1" t="n">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="n">
-        <v>419493.2247389095</v>
+      <c r="B344">
+        <v>284514.4864368422</v>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="1" t="n">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="n">
-        <v>409926.9142061204</v>
+      <c r="B345">
+        <v>286315.6087407102</v>
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="1" t="n">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="n">
-        <v>423976.5655967939</v>
+      <c r="B346">
+        <v>299124.625146682</v>
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="1" t="n">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="n">
-        <v>450605.0266595364</v>
+      <c r="B347">
+        <v>303864.063068946</v>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="1" t="n">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="n">
-        <v>432770.4520034528</v>
+      <c r="B348">
+        <v>330456.9072552212</v>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="1" t="n">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="n">
-        <v>373223.0745880462</v>
+      <c r="B349">
+        <v>323824.7226278465</v>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="1" t="n">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="n">
-        <v>371559.7212019249</v>
+      <c r="B350">
+        <v>307636.3771826634</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="1" t="n">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="n">
-        <v>380585.1970968475</v>
+      <c r="B351">
+        <v>295849.4479567274</v>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="1" t="n">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="n">
-        <v>380489.777819815</v>
+      <c r="B352">
+        <v>282792.4485403859</v>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="1" t="n">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="n">
-        <v>347245.6704719832</v>
+      <c r="B353">
+        <v>275131.6962555808</v>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="1" t="n">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="n">
-        <v>348825.6171748685</v>
+      <c r="B354">
+        <v>271420.3933764365</v>
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="1" t="n">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="n">
-        <v>339866.4964613447</v>
+      <c r="B355">
+        <v>275633.0983169181</v>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="1" t="n">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="n">
-        <v>321333.9796318659</v>
+      <c r="B356">
+        <v>304755.5540764763</v>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="1" t="n">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="n">
-        <v>316192.0975060489</v>
+      <c r="B357">
+        <v>285409.2311498214</v>
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="1" t="n">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="n">
-        <v>319207.4050782385</v>
+      <c r="B358">
+        <v>256976.9579759516</v>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="1" t="n">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="n">
-        <v>326634.994286005</v>
+      <c r="B359">
+        <v>264660.779838454</v>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="1" t="n">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="n">
-        <v>333817.276955273</v>
+      <c r="B360">
+        <v>254881.8874890123</v>
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="1" t="n">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="n">
-        <v>334558.152594528</v>
+      <c r="B361">
+        <v>271387.1453883781</v>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="1" t="n">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="n">
-        <v>332311.6656626535</v>
+      <c r="B362">
+        <v>284402.7078929927</v>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="1" t="n">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="n">
-        <v>318049.7053997361</v>
+      <c r="B363">
+        <v>303254.6860858632</v>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="1" t="n">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="n">
-        <v>299930.5004972719</v>
+      <c r="B364">
+        <v>300305.3086566066</v>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="1" t="n">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="n">
-        <v>287680.4110551605</v>
+      <c r="B365">
+        <v>314218.1660410424</v>
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="1" t="n">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="n">
-        <v>292788.6926980247</v>
+      <c r="B366">
+        <v>334159.6184309074</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>286958.3826888078</v>
+        <v>360845.5911344764</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>313162.9500301483</v>
+        <v>304736.0418538008</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>307383.8672302283</v>
+        <v>312402.5744275864</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>302832.5819380729</v>
+        <v>316638.1469426657</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>303055.0421082866</v>
+        <v>348272.4215004222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>297771.9957271108</v>
+        <v>382637.1940829552</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>304751.5574888405</v>
+        <v>388058.4061800578</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>306156.6031854475</v>
+        <v>411165.2970455751</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>312444.3486298018</v>
+        <v>421164.7516623765</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>311588.801171537</v>
+        <v>411223.8495270232</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>307287.6804918933</v>
+        <v>434892.3663751524</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>298718.0075837805</v>
+        <v>436102.8057459489</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>301689.8466543751</v>
+        <v>413475.8969846909</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -488,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>292501.111110451</v>
+        <v>415951.0035452747</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>301521.0533524943</v>
+        <v>390345.6782119777</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -504,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>325058.2756290578</v>
+        <v>365321.4357459462</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>318424.7294607092</v>
+        <v>346594.8136706604</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -520,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>321798.9066456861</v>
+        <v>343853.2842360042</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -528,7 +528,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>310240.5755740961</v>
+        <v>339697.5875914758</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>321393.3094344226</v>
+        <v>339355.9039934391</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>367987.8814759384</v>
+        <v>336876.8014487805</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -552,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>387321.5703117486</v>
+        <v>376999.0024865718</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>393416.8258958092</v>
+        <v>377731.3631791678</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>388750.9867265229</v>
+        <v>389915.8336736226</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -576,7 +576,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>399057.7369751186</v>
+        <v>398781.9343538179</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>394044.9589499517</v>
+        <v>394410.644660852</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -592,7 +592,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>382238.2431904819</v>
+        <v>388056.7035419751</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -600,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>363889.1785648675</v>
+        <v>414179.5080753333</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -608,7 +608,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>356445.0767414129</v>
+        <v>412174.8507482873</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>362680.7927580342</v>
+        <v>400783.3184595602</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>367503.1966037708</v>
+        <v>394377.5591078613</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -632,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>365020.2260485952</v>
+        <v>389984.4111965815</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -640,7 +640,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>355377.9556077471</v>
+        <v>375901.4828404218</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -648,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>384077.3121247956</v>
+        <v>362615.5380639629</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -656,7 +656,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>383097.4812049224</v>
+        <v>341104.4335497106</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -664,7 +664,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>405683.3791368561</v>
+        <v>331897.1179534797</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -672,7 +672,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>396957.8431902783</v>
+        <v>342934.4654320527</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -680,7 +680,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>386548.1300842958</v>
+        <v>350910.5670495433</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -688,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>372361.7109940399</v>
+        <v>351244.3900936371</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -696,7 +696,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>358012.4186610748</v>
+        <v>346223.0726807831</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>354231.1951476912</v>
+        <v>344439.3982836059</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -712,7 +712,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>355007.2118891011</v>
+        <v>360443.0947901381</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>356050.8570536628</v>
+        <v>369559.4284324406</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -728,7 +728,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>351197.826119862</v>
+        <v>392332.0751643137</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>343862.2319649634</v>
+        <v>388725.703853919</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -744,7 +744,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>344137.7805636049</v>
+        <v>387934.5418842331</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -752,7 +752,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>335763.9285645216</v>
+        <v>389632.0288099989</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -760,7 +760,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>328708.4943932634</v>
+        <v>401112.0296778122</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -768,7 +768,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>339619.3094314117</v>
+        <v>440262.4747788454</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -776,7 +776,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>401125.9526819309</v>
+        <v>445671.9849667194</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -784,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>441078.4985093106</v>
+        <v>458710.2856627915</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -792,7 +792,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>476130.6579241037</v>
+        <v>457184.7571209607</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -800,7 +800,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>517977.9382656785</v>
+        <v>451332.1807247838</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -808,7 +808,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>525479.939950446</v>
+        <v>447510.1762081419</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -816,7 +816,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>517509.4657025951</v>
+        <v>439977.5726060454</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -824,7 +824,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>527578.893752892</v>
+        <v>435615.4943052612</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -832,7 +832,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>519983.9712532851</v>
+        <v>446904.450958693</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -840,7 +840,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>509024.7066782232</v>
+        <v>453688.1440202061</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -848,7 +848,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>465328.3557151774</v>
+        <v>443761.4999506631</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -856,7 +856,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>469209.2521240507</v>
+        <v>460866.550550758</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>417897.6581391308</v>
+        <v>420021.2665875116</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -872,7 +872,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>418139.3756927071</v>
+        <v>402926.2209942079</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -880,7 +880,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>415993.9437067595</v>
+        <v>411088.8328121532</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -888,7 +888,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>412200.6299606238</v>
+        <v>415647.4641786826</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -896,7 +896,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>425800.4879515762</v>
+        <v>427121.0639531151</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>439306.5286962829</v>
+        <v>438261.4622757004</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -912,7 +912,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>436118.9677297577</v>
+        <v>446641.4577628482</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -920,7 +920,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>436742.7189058148</v>
+        <v>455069.5054200666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -928,7 +928,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>417999.1016123589</v>
+        <v>509165.5759632299</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -936,7 +936,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>402896.0653776719</v>
+        <v>525974.6750356668</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -944,7 +944,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>385740.6698555979</v>
+        <v>527499.7849147834</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -952,7 +952,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>370512.0715783811</v>
+        <v>529227.6423369047</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -960,7 +960,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>378465.2616763684</v>
+        <v>531908.1740864638</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -968,7 +968,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>373960.6218523822</v>
+        <v>527500.0590212874</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -976,7 +976,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>405177.4628102286</v>
+        <v>519259.8712450856</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -984,7 +984,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>453878.0843759428</v>
+        <v>511455.323905853</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -992,7 +992,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>445554.9251303387</v>
+        <v>499592.3189076044</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>434367.9416735333</v>
+        <v>485965.4472500755</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1008,7 +1008,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>420077.1833479523</v>
+        <v>472579.1889543937</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>414236.8641746935</v>
+        <v>458724.5712750112</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>414818.5225024776</v>
+        <v>458308.0174193699</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>421925.5833834488</v>
+        <v>451528.7971527735</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>421900.0179421975</v>
+        <v>438168.5857217099</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>373700.525774257</v>
+        <v>393811.1254755015</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>396492.9104083541</v>
+        <v>403811.4784827326</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>399061.5278638517</v>
+        <v>387910.8837785505</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>403103.3245555679</v>
+        <v>384390.6318572317</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>407449.6928243196</v>
+        <v>376179.9500824576</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>409329.7135207698</v>
+        <v>417947.6939742673</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>416048.9035805674</v>
+        <v>419657.6935557085</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>381521.6413976901</v>
+        <v>405262.7224076128</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>331050.6393488969</v>
+        <v>358838.6647078344</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>324801.1339430276</v>
+        <v>359122.0661331314</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>344554.1720834773</v>
+        <v>351407.0296532008</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>330623.013894601</v>
+        <v>336842.0764526594</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>354723.0276003429</v>
+        <v>334769.9355369408</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>353907.7494003526</v>
+        <v>337137.2249865353</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>341430.8893728139</v>
+        <v>337807.3205431438</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>319771.3288275141</v>
+        <v>334579.7580159211</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>309625.5702406288</v>
+        <v>342243.2032180532</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>318335.5621934464</v>
+        <v>341287.4682218048</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>309700.5656655258</v>
+        <v>329898.8484220401</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>317802.5693932562</v>
+        <v>310644.7941841654</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>331361.2401719908</v>
+        <v>302977.4093872103</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>319829.7069840727</v>
+        <v>303161.7968238351</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>319017.0876113623</v>
+        <v>292728.4040123668</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>315198.1716823228</v>
+        <v>284970.3633092481</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>306205.8798630918</v>
+        <v>290663.8310994279</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>303521.213343805</v>
+        <v>313170.9376983867</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>303450.940084226</v>
+        <v>333666.1403418515</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>287726.398824239</v>
+        <v>361280.9167311262</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>276390.2233660801</v>
+        <v>390289.0841787281</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>282418.5584028049</v>
+        <v>420463.1644419847</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>271833.5830253747</v>
+        <v>457673.5889056582</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>271327.9155510381</v>
+        <v>493977.7473274866</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>267883.0969159569</v>
+        <v>507005.6545082584</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>260833.0107182817</v>
+        <v>506439.2243213222</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>268497.4309600291</v>
+        <v>506050.2327974146</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>278291.3497549043</v>
+        <v>489286.1776722127</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>298458.5388052508</v>
+        <v>480526.2603488206</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>201659.603575348</v>
+        <v>277214.5673398314</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>211574.9890761334</v>
+        <v>262367.7562298108</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>216096.6874762063</v>
+        <v>260699.1202023877</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>232060.3819440021</v>
+        <v>258457.9491218527</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>239984.1637731457</v>
+        <v>266273.5389532291</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>238739.4574795795</v>
+        <v>285171.1573002017</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>231721.8846084866</v>
+        <v>301854.6321716918</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>226117.3699568681</v>
+        <v>320572.4351833767</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>222440.7453787772</v>
+        <v>322094.1737089807</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>227474.0009756871</v>
+        <v>299487.1171811062</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>235565.7024938978</v>
+        <v>279502.7384469077</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>247195.2816526776</v>
+        <v>250567.7392301491</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>255825.7691863721</v>
+        <v>239736.8023129301</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>265987.1085490803</v>
+        <v>243384.1982305916</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>268290.1743288806</v>
+        <v>239581.3759433459</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>331585.3279776216</v>
+        <v>246726.7511912522</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>309548.929211035</v>
+        <v>244705.5309080131</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>384628.1708094378</v>
+        <v>246653.1233075094</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>362795.128617359</v>
+        <v>250604.6064423972</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>513155.3887403218</v>
+        <v>341987.6275851741</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>507977.3771936537</v>
+        <v>443525.0816959462</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>533793.8757067025</v>
+        <v>446649.4340953064</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>513168.7048670122</v>
+        <v>502952.2761463284</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>540390.7944019332</v>
+        <v>537197.6043692972</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>518964.5262213209</v>
+        <v>539277.2786868642</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>535419.2973185468</v>
+        <v>556125.4018061969</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>523083.091376166</v>
+        <v>559281.1345053421</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>537859.6375476375</v>
+        <v>558260.3341907357</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>509513.9017184209</v>
+        <v>557733.5818746992</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>533976.463453939</v>
+        <v>557748.0879054922</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>509798.3683698811</v>
+        <v>559693.5755611372</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>539325.6566207178</v>
+        <v>561175.8214472065</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>523478.5968257517</v>
+        <v>543581.0288724895</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>555877.6164886003</v>
+        <v>564533.1433583163</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1616,7 +1616,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>555499.9890019033</v>
+        <v>557491.7522613913</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1624,7 +1624,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>557114.7314511912</v>
+        <v>567535.7823872259</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>561690.4747962769</v>
+        <v>567190.5847945481</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1640,7 +1640,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>557798.9073321095</v>
+        <v>565351.6462590805</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1648,7 +1648,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>552167.3486493045</v>
+        <v>564296.6229315159</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>563784.2710982064</v>
+        <v>564556.0457094974</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1664,7 +1664,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>554613.5217702652</v>
+        <v>564798.6337784164</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>556340.9348887394</v>
+        <v>566204.1850756126</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>547607.5846589867</v>
+        <v>566311.5902544189</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1688,7 +1688,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>555490.6619454718</v>
+        <v>566146.0203034368</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>546252.8261489148</v>
+        <v>561501.4952587812</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>549457.4016722048</v>
+        <v>505158.0076420846</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>537879.6915351172</v>
+        <v>523736.1384722714</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>533751.6930879911</v>
+        <v>507426.4280543338</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>509281.0401356531</v>
+        <v>528744.7546682103</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>520721.8932652927</v>
+        <v>506742.6865969916</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1744,7 +1744,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>514723.8525076683</v>
+        <v>513725.6645913102</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>534290.7453425037</v>
+        <v>478696.1304638209</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>509330.7947150621</v>
+        <v>482307.8604795506</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>528037.8814360176</v>
+        <v>440129.5858659811</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>530297.0192449127</v>
+        <v>473867.1452371317</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1784,7 +1784,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>533606.634620299</v>
+        <v>476695.0915960427</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1792,7 +1792,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>521312.4427389559</v>
+        <v>474780.1382125577</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1800,7 +1800,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>528539.997235416</v>
+        <v>455651.4852364403</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1808,7 +1808,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>518431.2221676114</v>
+        <v>459455.8358489608</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1816,7 +1816,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>500493.6200017561</v>
+        <v>468991.9190822123</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1824,7 +1824,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>451967.631254437</v>
+        <v>478137.622301045</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>455614.4619767266</v>
+        <v>480567.4226336239</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>379873.2132058894</v>
+        <v>495090.3663235181</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>374180.766138844</v>
+        <v>517747.6766125533</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1856,7 +1856,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>373000.5504918233</v>
+        <v>515629.0649422863</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>370618.0010875</v>
+        <v>475194.801718686</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1872,7 +1872,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>380415.6506699705</v>
+        <v>470403.3519037805</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>388637.0249272548</v>
+        <v>465652.2632015444</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1888,7 +1888,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>392838.1792196389</v>
+        <v>472509.1196060488</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1896,7 +1896,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>373425.9698806929</v>
+        <v>444456.902887917</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>355241.2455126468</v>
+        <v>444438.5199532512</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>361006.4418018361</v>
+        <v>425795.0545150103</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>364528.2993089429</v>
+        <v>429149.1172137957</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>373273.9954254043</v>
+        <v>481735.070228666</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>367045.059992591</v>
+        <v>511955.368199366</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1944,7 +1944,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>357661.9741187847</v>
+        <v>500454.5247337151</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>329328.4555707897</v>
+        <v>477121.0394866091</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>316674.4794706317</v>
+        <v>469281.2957524483</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>293035.6178640242</v>
+        <v>444712.4955223093</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1976,7 +1976,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>261289.6289702056</v>
+        <v>441677.7161233965</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>277647.7231629873</v>
+        <v>421557.4822015171</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>291237.8760379928</v>
+        <v>420462.0618795322</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>297426.5051648295</v>
+        <v>412278.272226038</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>269971.3183564785</v>
+        <v>405740.5173984842</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>251643.2131670181</v>
+        <v>402150.8415346429</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>268465.8038998595</v>
+        <v>395737.017743455</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>256839.7103444016</v>
+        <v>392531.3984622968</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>251573.7634480014</v>
+        <v>407763.0151746356</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>250759.0532966536</v>
+        <v>403277.3269452521</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>265188.6565350045</v>
+        <v>395358.0425841144</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>266795.3582717639</v>
+        <v>370729.591633044</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>245538.0324621675</v>
+        <v>366919.1819848929</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>230526.6771046789</v>
+        <v>350632.2275197252</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>246742.0101199752</v>
+        <v>300538.8859283043</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>258396.0941619172</v>
+        <v>295463.6230979101</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>228877.9731721168</v>
+        <v>286308.5879821563</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>235318.6282944455</v>
+        <v>278993.6692907497</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>228587.3978004697</v>
+        <v>280814.3456314473</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>219015.2684409558</v>
+        <v>278859.4214288148</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>198157.3432569983</v>
+        <v>269668.9038932275</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>197560.0011899701</v>
+        <v>266445.486302954</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>188748.3825104404</v>
+        <v>268924.1318956148</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>179117.759212128</v>
+        <v>278930.0918279239</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>188881.1333239427</v>
+        <v>289856.7134180432</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>204079.4357366434</v>
+        <v>301605.6203513335</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>258915.0119033571</v>
+        <v>304398.1915821711</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>247268.4176602963</v>
+        <v>265758.6947629285</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>301412.0055257032</v>
+        <v>264938.3814163383</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2208,7 +2208,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>297862.6704159107</v>
+        <v>261955.4344577711</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2216,7 +2216,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>288690.1241529262</v>
+        <v>264276.7685163571</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>280434.6658798804</v>
+        <v>312578.7820170429</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>283156.9568598267</v>
+        <v>290978.1030483287</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>268714.7001354136</v>
+        <v>296101.9326909706</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2248,7 +2248,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>269249.9907135956</v>
+        <v>289911.8229413797</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>271928.8193838806</v>
+        <v>293501.2829717943</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>263372.4628508802</v>
+        <v>298568.9503645692</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>266650.8876648851</v>
+        <v>300921.0268675716</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>278054.4761351036</v>
+        <v>309582.3699901745</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>300643.3370002452</v>
+        <v>312965.3462176333</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2296,7 +2296,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>307455.3752980439</v>
+        <v>307748.8745801271</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2304,7 +2304,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>299462.252467285</v>
+        <v>298764.8028803919</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>272876.2241624391</v>
+        <v>296569.5609463981</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2320,7 +2320,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>318733.098602566</v>
+        <v>347754.4340018969</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>247861.7519773121</v>
+        <v>273668.0839782676</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2336,7 +2336,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>252597.1818475446</v>
+        <v>271709.2385409841</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>248906.665073445</v>
+        <v>239160.0467949053</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>246005.1513794877</v>
+        <v>243111.6017963083</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>242403.0067445032</v>
+        <v>243576.744400431</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>253165.6266935841</v>
+        <v>236281.2336227557</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>250806.031410518</v>
+        <v>223686.8167526035</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>231931.176511858</v>
+        <v>211633.0337334838</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>256127.3312189652</v>
+        <v>202684.0494694508</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>234000.4873575443</v>
+        <v>212111.4645950212</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2408,7 +2408,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>219596.3821052063</v>
+        <v>197811.1609098373</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2416,7 +2416,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>221883.485915507</v>
+        <v>212068.4375772933</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>223364.5626772861</v>
+        <v>211782.675747424</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>230792.3025010777</v>
+        <v>198609.9725227244</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>230919.6802802178</v>
+        <v>214623.4365562866</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>236428.2781523348</v>
+        <v>210155.6351940506</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>244482.0763187392</v>
+        <v>206695.3894430898</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>278118.8233614686</v>
+        <v>197684.4850873</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>315290.3590219494</v>
+        <v>190628.9394990033</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>320717.8429365511</v>
+        <v>188109.1174281992</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>316003.4311584396</v>
+        <v>210078.0918835588</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>292151.1620693259</v>
+        <v>209608.0106234914</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>301274.5574435088</v>
+        <v>216329.6342574974</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>281672.0498180473</v>
+        <v>213283.0894570964</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>293100.164413297</v>
+        <v>212749.3166545677</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>296201.8968468255</v>
+        <v>222409.1910845977</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2536,7 +2536,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>282681.5522148052</v>
+        <v>217830.8011558902</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2544,7 +2544,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>283098.5764479331</v>
+        <v>216767.3384239442</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2552,7 +2552,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>292722.8681722545</v>
+        <v>203693.1368671907</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2560,7 +2560,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>286939.506715568</v>
+        <v>210388.3002732337</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2568,7 +2568,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>281063.8238236287</v>
+        <v>210775.90533652</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2576,7 +2576,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>285450.8936223842</v>
+        <v>233273.4684058546</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2584,7 +2584,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>271362.663090398</v>
+        <v>230301.322787267</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2592,7 +2592,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>265274.2381514023</v>
+        <v>238217.4542927718</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2600,7 +2600,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>279064.8120894546</v>
+        <v>239033.6851447316</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>279866.3697742951</v>
+        <v>238685.2196023907</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2616,7 +2616,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>283757.751999416</v>
+        <v>237925.9099433523</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2624,7 +2624,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>268164.9772533056</v>
+        <v>237619.0828421348</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2632,7 +2632,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>258214.7121787136</v>
+        <v>233058.2056785347</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2640,7 +2640,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>266785.4426622574</v>
+        <v>232087.7013686394</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2648,7 +2648,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>272489.0021342832</v>
+        <v>241379.5928926225</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2656,7 +2656,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>280500.5352537589</v>
+        <v>234517.2747726373</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2664,7 +2664,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>317597.2525342869</v>
+        <v>230242.256731449</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2672,7 +2672,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>314615.3808643527</v>
+        <v>223495.1272607772</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2680,7 +2680,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>310916.3413266849</v>
+        <v>234029.7653012383</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2688,7 +2688,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>315143.453156497</v>
+        <v>223671.50209362</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2696,7 +2696,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>292981.7312148895</v>
+        <v>220888.6057243255</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2704,7 +2704,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>286798.3700541275</v>
+        <v>229133.3595800287</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2712,7 +2712,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>298375.5770529342</v>
+        <v>230701.2530220088</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2720,7 +2720,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>286556.9493170758</v>
+        <v>228887.042561033</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2728,7 +2728,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>307520.9108448675</v>
+        <v>227895.7771673168</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2736,7 +2736,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>294483.0350500659</v>
+        <v>233969.9525359409</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2744,7 +2744,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>291103.3461735006</v>
+        <v>254014.712725957</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2752,7 +2752,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>293141.2307016165</v>
+        <v>248015.9853713684</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2760,7 +2760,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>287823.6909608018</v>
+        <v>238165.9661927305</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2768,7 +2768,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>289832.4640420972</v>
+        <v>232042.5263743989</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2776,7 +2776,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>283442.8265706992</v>
+        <v>240977.5563114067</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2784,7 +2784,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>288967.9662909484</v>
+        <v>243701.8059527543</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2792,7 +2792,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>290077.6437085447</v>
+        <v>238126.6947051177</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2800,7 +2800,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>290124.2364964561</v>
+        <v>233108.3284587735</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2808,7 +2808,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>314094.6536851682</v>
+        <v>241950.097853935</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2816,7 +2816,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>299446.9291469132</v>
+        <v>271000.533373181</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2824,7 +2824,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>297311.9295321113</v>
+        <v>235857.3118849632</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2832,7 +2832,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>314288.3418478033</v>
+        <v>248014.5680109795</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2840,7 +2840,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>307313.3121204323</v>
+        <v>285616.1634070312</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2848,7 +2848,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>300828.3248296617</v>
+        <v>327472.49649106</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2856,7 +2856,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>294030.4866007433</v>
+        <v>315161.1745550619</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2864,7 +2864,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>293680.2148064134</v>
+        <v>301229.2769840794</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>284929.3805572417</v>
+        <v>302027.9610906667</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2880,7 +2880,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>306933.8114120438</v>
+        <v>281185.2711296779</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2888,7 +2888,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>318626.7445297957</v>
+        <v>274545.5214897158</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>319252.1052995613</v>
+        <v>273932.2646460043</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>330353.275596905</v>
+        <v>292118.0969829845</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2912,7 +2912,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>361196.9438611378</v>
+        <v>292245.5011767291</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2920,7 +2920,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>331642.5312369833</v>
+        <v>290499.3907432615</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>336390.9804738107</v>
+        <v>276456.7704624347</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>328016.6961702953</v>
+        <v>298141.8017021908</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>322900.9609450141</v>
+        <v>304402.1475052395</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>317638.993975089</v>
+        <v>318971.7696105171</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>308937.5335527988</v>
+        <v>307958.3325917181</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2968,7 +2968,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>311714.5027858175</v>
+        <v>305952.8588923187</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>300392.5012620004</v>
+        <v>294216.3727224536</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2984,7 +2984,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>314132.6920019288</v>
+        <v>271534.4000616836</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2992,7 +2992,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>340968.5520041193</v>
+        <v>271352.2436043367</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3000,7 +3000,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>338565.0369419826</v>
+        <v>267561.4090701919</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>344122.4439538243</v>
+        <v>279967.4461739713</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>323144.1644988405</v>
+        <v>291112.0749987223</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>318826.6679006178</v>
+        <v>262629.6421642564</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>315166.2458607176</v>
+        <v>257567.9283682534</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>306683.6884125606</v>
+        <v>253625.9768703801</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>309582.3410811476</v>
+        <v>252247.9498350709</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>325168.7935727648</v>
+        <v>244632.8719225523</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>348396.328393293</v>
+        <v>259641.0527051871</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>347627.7824816482</v>
+        <v>251360.5796639551</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>365558.2122274079</v>
+        <v>247615.7392053487</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>373852.5255182137</v>
+        <v>243975.3328910198</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>381787.734677677</v>
+        <v>260829.3019584118</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>375730.5477892361</v>
+        <v>270768.282772221</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>370258.4704633839</v>
+        <v>278838.247431425</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>419493.2247389095</v>
+        <v>284514.4864368422</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>409926.9142061204</v>
+        <v>286315.6087407102</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>423976.5655967939</v>
+        <v>299124.625146682</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>450605.0266595364</v>
+        <v>303864.063068946</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>432770.4520034528</v>
+        <v>330456.9072552212</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>373223.0745880462</v>
+        <v>323824.7226278465</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>371559.7212019249</v>
+        <v>307636.3771826634</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>380585.1970968475</v>
+        <v>295849.4479567274</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>380489.777819815</v>
+        <v>282792.4485403859</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>347245.6704719832</v>
+        <v>275131.6962555808</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>348825.6171748685</v>
+        <v>271420.3933764365</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>339866.4964613447</v>
+        <v>275633.0983169181</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>321333.9796318659</v>
+        <v>304755.5540764763</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>316192.0975060489</v>
+        <v>285409.2311498214</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>319207.4050782385</v>
+        <v>256976.9579759516</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>326634.994286005</v>
+        <v>264660.779838454</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>333817.276955273</v>
+        <v>254881.8874890123</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>334558.152594528</v>
+        <v>271387.1453883781</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>332311.6656626535</v>
+        <v>284402.7078929927</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>318049.7053997361</v>
+        <v>303254.6860858632</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>299930.5004972719</v>
+        <v>300305.3086566066</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>287680.4110551605</v>
+        <v>314218.1660410424</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>292788.6926980247</v>
+        <v>334159.6184309074</v>
       </c>
     </row>
   </sheetData>

--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>PNW</t>
   </si>
@@ -24,22 +23,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,26 +57,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -361,18 +373,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
@@ -380,2926 +386,2926 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>360845.5911344764</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>304736.0418538008</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>312402.5744275864</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>316638.1469426657</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>348272.4215004222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>382637.1940829552</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>388058.4061800578</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>411165.2970455751</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>421164.7516623765</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>411223.8495270232</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>434892.3663751524</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>436102.8057459489</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>413475.8969846909</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>415951.0035452747</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>390345.6782119777</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>365321.4357459462</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>346594.8136706604</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>343853.2842360042</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>339697.5875914758</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>339355.9039934391</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>336876.8014487805</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>376999.0024865718</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>377731.3631791678</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>389915.8336736226</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>398781.9343538179</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>394410.644660852</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>388056.7035419751</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>414179.5080753333</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>412174.8507482873</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>400783.3184595602</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>394377.5591078613</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>389984.4111965815</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>375901.4828404218</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>362615.5380639629</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>341104.4335497106</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>331897.1179534797</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>342934.4654320527</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>350910.5670495433</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>351244.3900936371</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>346223.0726807831</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>344439.3982836059</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>360443.0947901381</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>369559.4284324406</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>392332.0751643137</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>388725.703853919</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>387934.5418842331</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>389632.0288099989</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>401112.0296778122</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>440262.4747788454</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>445671.9849667194</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>458710.2856627915</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>457184.7571209607</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>451332.1807247838</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>447510.1762081419</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>439977.5726060454</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>435615.4943052612</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>446904.450958693</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>453688.1440202061</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>443761.4999506631</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>460866.550550758</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>420021.2665875116</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>402926.2209942079</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>411088.8328121532</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>415647.4641786826</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>427121.0639531151</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>438261.4622757004</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>446641.4577628482</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>455069.5054200666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>509165.5759632299</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>525974.6750356668</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>527499.7849147834</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>529227.6423369047</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>531908.1740864638</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>527500.0590212874</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>519259.8712450856</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>511455.323905853</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>499592.3189076044</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>485965.4472500755</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>472579.1889543937</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>458724.5712750112</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>458308.0174193699</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>451528.7971527735</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>438168.5857217099</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>393811.1254755015</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>403811.4784827326</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>387910.8837785505</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>384390.6318572317</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>376179.9500824576</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>417947.6939742673</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>419657.6935557085</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>405262.7224076128</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>358838.6647078344</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>359122.0661331314</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>351407.0296532008</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>336842.0764526594</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>334769.9355369408</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>337137.2249865353</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>337807.3205431438</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>334579.7580159211</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>342243.2032180532</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>341287.4682218048</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>329898.8484220401</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>310644.7941841654</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>302977.4093872103</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>303161.7968238351</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>292728.4040123668</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>284970.3633092481</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>290663.8310994279</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>313170.9376983867</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>333666.1403418515</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>361280.9167311262</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>390289.0841787281</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>420463.1644419847</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>457673.5889056582</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>493977.7473274866</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>507005.6545082584</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>506439.2243213222</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>506050.2327974146</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>489286.1776722127</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>480526.2603488206</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>277214.5673398314</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>262367.7562298108</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>260699.1202023877</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>258457.9491218527</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>266273.5389532291</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>285171.1573002017</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>301854.6321716918</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>320572.4351833767</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>322094.1737089807</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>299487.1171811062</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>279502.7384469077</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>250567.7392301491</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>239736.8023129301</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>243384.1982305916</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>239581.3759433459</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>246726.7511912522</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>244705.5309080131</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>246653.1233075094</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>250604.6064423972</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>341987.6275851741</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>443525.0816959462</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>446649.4340953064</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>502952.2761463284</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>537197.6043692972</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>539277.2786868642</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>556125.4018061969</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>559281.1345053421</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>558260.3341907357</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>557733.5818746992</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>557748.0879054922</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>559693.5755611372</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>561175.8214472065</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>543581.0288724895</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>564533.1433583163</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>557491.7522613913</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>567535.7823872259</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>567190.5847945481</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>565351.6462590805</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>564296.6229315159</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>564556.0457094974</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>564798.6337784164</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>566204.1850756126</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>566311.5902544189</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>566146.0203034368</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>561501.4952587812</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>505158.0076420846</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>523736.1384722714</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>507426.4280543338</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>528744.7546682103</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>506742.6865969916</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>513725.6645913102</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>478696.1304638209</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>482307.8604795506</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>440129.5858659811</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>473867.1452371317</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>476695.0915960427</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>474780.1382125577</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>455651.4852364403</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>459455.8358489608</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>468991.9190822123</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>478137.622301045</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>480567.4226336239</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>495090.3663235181</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>517747.6766125533</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>515629.0649422863</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>475194.801718686</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>470403.3519037805</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>465652.2632015444</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>472509.1196060488</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>444456.902887917</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>444438.5199532512</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>425795.0545150103</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>429149.1172137957</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>481735.070228666</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>511955.368199366</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>500454.5247337151</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>477121.0394866091</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>469281.2957524483</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>444712.4955223093</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>441677.7161233965</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>421557.4822015171</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>420462.0618795322</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>412278.272226038</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>405740.5173984842</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>402150.8415346429</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>395737.017743455</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>392531.3984622968</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>407763.0151746356</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>403277.3269452521</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>395358.0425841144</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>370729.591633044</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>366919.1819848929</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>350632.2275197252</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>300538.8859283043</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>295463.6230979101</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>286308.5879821563</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>278993.6692907497</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>280814.3456314473</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>278859.4214288148</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>269668.9038932275</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>266445.486302954</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>268924.1318956148</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>278930.0918279239</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>289856.7134180432</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>301605.6203513335</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>304398.1915821711</v>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>265758.6947629285</v>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>264938.3814163383</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>261955.4344577711</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>264276.7685163571</v>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>312578.7820170429</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>290978.1030483287</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>296101.9326909706</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>289911.8229413797</v>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>293501.2829717943</v>
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>298568.9503645692</v>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>300921.0268675716</v>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>309582.3699901745</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>312965.3462176333</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>307748.8745801271</v>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1" t="n">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>298764.8028803919</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="1" t="n">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>296569.5609463981</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="1" t="n">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>347754.4340018969</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="1" t="n">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>273668.0839782676</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="1" t="n">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>271709.2385409841</v>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="1" t="n">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>239160.0467949053</v>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="1" t="n">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>243111.6017963083</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="1" t="n">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>243576.744400431</v>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="1" t="n">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>236281.2336227557</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="1" t="n">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>223686.8167526035</v>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="1" t="n">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>211633.0337334838</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="1" t="n">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>202684.0494694508</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="1" t="n">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>212111.4645950212</v>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="1" t="n">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>197811.1609098373</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1" t="n">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>212068.4375772933</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="1" t="n">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>211782.675747424</v>
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="1" t="n">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>198609.9725227244</v>
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="1" t="n">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>214623.4365562866</v>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="1" t="n">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>210155.6351940506</v>
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="1" t="n">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>206695.3894430898</v>
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="1" t="n">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>197684.4850873</v>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="1" t="n">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>190628.9394990033</v>
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="1" t="n">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>188109.1174281992</v>
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="1" t="n">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>210078.0918835588</v>
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="1" t="n">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>209608.0106234914</v>
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="1" t="n">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>216329.6342574974</v>
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="1" t="n">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>213283.0894570964</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="1" t="n">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>212749.3166545677</v>
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="1" t="n">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>222409.1910845977</v>
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="1" t="n">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>217830.8011558902</v>
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="1" t="n">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>216767.3384239442</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="1" t="n">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>203693.1368671907</v>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="1" t="n">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>210388.3002732337</v>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="1" t="n">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>210775.90533652</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="1" t="n">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>233273.4684058546</v>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="1" t="n">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>230301.322787267</v>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="1" t="n">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>238217.4542927718</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="1" t="n">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>239033.6851447316</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="1" t="n">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>238685.2196023907</v>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="1" t="n">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>237925.9099433523</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1" t="n">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>237619.0828421348</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="1" t="n">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>233058.2056785347</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="1" t="n">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>232087.7013686394</v>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="1" t="n">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>241379.5928926225</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="1" t="n">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>234517.2747726373</v>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="1" t="n">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>230242.256731449</v>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="1" t="n">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>223495.1272607772</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="1" t="n">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>234029.7653012383</v>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="1" t="n">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>223671.50209362</v>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="1" t="n">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>220888.6057243255</v>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="1" t="n">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>229133.3595800287</v>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="1" t="n">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>230701.2530220088</v>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="1" t="n">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>228887.042561033</v>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="1" t="n">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>227895.7771673168</v>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="1" t="n">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>233969.9525359409</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="1" t="n">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>254014.712725957</v>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="1" t="n">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>248015.9853713684</v>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="1" t="n">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>238165.9661927305</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="1" t="n">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>232042.5263743989</v>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="1" t="n">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>240977.5563114067</v>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="1" t="n">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>243701.8059527543</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="1" t="n">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>238126.6947051177</v>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="1" t="n">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>233108.3284587735</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="1" t="n">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>241950.097853935</v>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="1" t="n">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>271000.533373181</v>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="1" t="n">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>235857.3118849632</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="1" t="n">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>248014.5680109795</v>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="1" t="n">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>285616.1634070312</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="1" t="n">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>327472.49649106</v>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="1" t="n">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>315161.1745550619</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="1" t="n">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>301229.2769840794</v>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="1" t="n">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>302027.9610906667</v>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="1" t="n">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>281185.2711296779</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="1" t="n">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>274545.5214897158</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="1" t="n">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>273932.2646460043</v>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="1" t="n">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>292118.0969829845</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="1" t="n">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>292245.5011767291</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="1" t="n">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>290499.3907432615</v>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="1" t="n">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>276456.7704624347</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="1" t="n">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>298141.8017021908</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="1" t="n">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>304402.1475052395</v>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="1" t="n">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>318971.7696105171</v>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="1" t="n">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>307958.3325917181</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="1" t="n">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>305952.8588923187</v>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="1" t="n">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>294216.3727224536</v>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="1" t="n">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>271534.4000616836</v>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="1" t="n">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>271352.2436043367</v>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="1" t="n">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>267561.4090701919</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="1" t="n">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>279967.4461739713</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="1" t="n">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>291112.0749987223</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="1" t="n">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>262629.6421642564</v>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="1" t="n">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>257567.9283682534</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="1" t="n">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>253625.9768703801</v>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="1" t="n">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>252247.9498350709</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="1" t="n">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>244632.8719225523</v>
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="1" t="n">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>259641.0527051871</v>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="1" t="n">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>251360.5796639551</v>
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="1" t="n">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>247615.7392053487</v>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="1" t="n">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>243975.3328910198</v>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="1" t="n">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>260829.3019584118</v>
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="1" t="n">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>270768.282772221</v>
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="1" t="n">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>278838.247431425</v>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="1" t="n">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>284514.4864368422</v>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="1" t="n">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>286315.6087407102</v>
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="1" t="n">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>299124.625146682</v>
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="1" t="n">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>303864.063068946</v>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="1" t="n">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>330456.9072552212</v>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="1" t="n">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>323824.7226278465</v>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="1" t="n">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>307636.3771826634</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="1" t="n">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>295849.4479567274</v>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="1" t="n">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>282792.4485403859</v>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="1" t="n">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>275131.6962555808</v>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="1" t="n">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>271420.3933764365</v>
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="1" t="n">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>275633.0983169181</v>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="1" t="n">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>304755.5540764763</v>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="1" t="n">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>285409.2311498214</v>
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="1" t="n">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>256976.9579759516</v>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="1" t="n">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>264660.779838454</v>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="1" t="n">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>254881.8874890123</v>
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="1" t="n">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>271387.1453883781</v>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="1" t="n">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>284402.7078929927</v>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="1" t="n">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>303254.6860858632</v>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="1" t="n">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>300305.3086566066</v>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="1" t="n">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>314218.1660410424</v>
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="1" t="n">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>334159.6184309074</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
     <t>PNW</t>
   </si>
@@ -23,26 +24,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,35 +54,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -373,12 +361,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
@@ -386,2926 +380,2926 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>360845.5911344764</v>
+      <c r="B2" t="n">
+        <v>304126.5748877892</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>304736.0418538008</v>
+      <c r="B3" t="n">
+        <v>313765.5882063406</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>312402.5744275864</v>
+      <c r="B4" t="n">
+        <v>349334.1645164972</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>316638.1469426657</v>
+      <c r="B5" t="n">
+        <v>317569.1279095726</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>348272.4215004222</v>
+      <c r="B6" t="n">
+        <v>297452.7236169889</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>382637.1940829552</v>
+      <c r="B7" t="n">
+        <v>285226.0492611245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>388058.4061800578</v>
+      <c r="B8" t="n">
+        <v>280287.2946881825</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>411165.2970455751</v>
+      <c r="B9" t="n">
+        <v>303676.4263149374</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>421164.7516623765</v>
+      <c r="B10" t="n">
+        <v>293235.5962529621</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>411223.8495270232</v>
+      <c r="B11" t="n">
+        <v>290407.3391163252</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>434892.3663751524</v>
+      <c r="B12" t="n">
+        <v>307793.9683861078</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>436102.8057459489</v>
+      <c r="B13" t="n">
+        <v>296297.802196213</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>413475.8969846909</v>
+      <c r="B14" t="n">
+        <v>299427.386794424</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>415951.0035452747</v>
+      <c r="B15" t="n">
+        <v>308859.7671024217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>390345.6782119777</v>
+      <c r="B16" t="n">
+        <v>303460.0767542874</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>365321.4357459462</v>
+      <c r="B17" t="n">
+        <v>283002.2553640901</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>346594.8136706604</v>
+      <c r="B18" t="n">
+        <v>282320.3597054243</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>343853.2842360042</v>
+      <c r="B19" t="n">
+        <v>323255.4905116767</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>339697.5875914758</v>
+      <c r="B20" t="n">
+        <v>399812.4828676779</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>339355.9039934391</v>
+      <c r="B21" t="n">
+        <v>457502.3790298359</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>336876.8014487805</v>
+      <c r="B22" t="n">
+        <v>501331.8070246292</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>376999.0024865718</v>
+      <c r="B23" t="n">
+        <v>504160.6554801058</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>377731.3631791678</v>
+      <c r="B24" t="n">
+        <v>509194.5032194709</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>389915.8336736226</v>
+      <c r="B25" t="n">
+        <v>506622.0991694832</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>398781.9343538179</v>
+      <c r="B26" t="n">
+        <v>506482.9307675409</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>394410.644660852</v>
+      <c r="B27" t="n">
+        <v>498580.0520515225</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>388056.7035419751</v>
+      <c r="B28" t="n">
+        <v>493834.264171888</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>414179.5080753333</v>
+      <c r="B29" t="n">
+        <v>497030.9549833122</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>412174.8507482873</v>
+      <c r="B30" t="n">
+        <v>485638.7567110526</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>400783.3184595602</v>
+      <c r="B31" t="n">
+        <v>465800.9452378568</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>394377.5591078613</v>
+      <c r="B32" t="n">
+        <v>474635.8590511894</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>389984.4111965815</v>
+      <c r="B33" t="n">
+        <v>473199.4342383595</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>375901.4828404218</v>
+      <c r="B34" t="n">
+        <v>437812.8273128436</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>362615.5380639629</v>
+      <c r="B35" t="n">
+        <v>439042.8156945741</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>341104.4335497106</v>
+      <c r="B36" t="n">
+        <v>420281.1564776672</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>331897.1179534797</v>
+      <c r="B37" t="n">
+        <v>410728.3748423549</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>342934.4654320527</v>
+      <c r="B38" t="n">
+        <v>428523.4823861613</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>350910.5670495433</v>
+      <c r="B39" t="n">
+        <v>415671.2314512111</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>351244.3900936371</v>
+      <c r="B40" t="n">
+        <v>420907.6342189785</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>346223.0726807831</v>
+      <c r="B41" t="n">
+        <v>383335.1817014942</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>344439.3982836059</v>
+      <c r="B42" t="n">
+        <v>415262.3786678416</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>360443.0947901381</v>
+      <c r="B43" t="n">
+        <v>407016.3464959812</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>369559.4284324406</v>
+      <c r="B44" t="n">
+        <v>402379.9308941724</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>392332.0751643137</v>
+      <c r="B45" t="n">
+        <v>402231.0292017806</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>388725.703853919</v>
+      <c r="B46" t="n">
+        <v>402521.4520841378</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>387934.5418842331</v>
+      <c r="B47" t="n">
+        <v>405316.3447915499</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>389632.0288099989</v>
+      <c r="B48" t="n">
+        <v>384216.5667750243</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>401112.0296778122</v>
+      <c r="B49" t="n">
+        <v>364255.137774744</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>440262.4747788454</v>
+      <c r="B50" t="n">
+        <v>349892.6862468065</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>445671.9849667194</v>
+      <c r="B51" t="n">
+        <v>357221.0749421235</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>458710.2856627915</v>
+      <c r="B52" t="n">
+        <v>349738.1026524586</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>457184.7571209607</v>
+      <c r="B53" t="n">
+        <v>348591.6450271262</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>451332.1807247838</v>
+      <c r="B54" t="n">
+        <v>357253.3507527713</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>447510.1762081419</v>
+      <c r="B55" t="n">
+        <v>356182.9988245602</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>439977.5726060454</v>
+      <c r="B56" t="n">
+        <v>348811.9338362953</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>435615.4943052612</v>
+      <c r="B57" t="n">
+        <v>363101.2257113654</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>446904.450958693</v>
+      <c r="B58" t="n">
+        <v>355471.6024194647</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>453688.1440202061</v>
+      <c r="B59" t="n">
+        <v>350427.9410034431</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>443761.4999506631</v>
+      <c r="B60" t="n">
+        <v>341141.6092698702</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>460866.550550758</v>
+      <c r="B61" t="n">
+        <v>356455.2300316368</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>420021.2665875116</v>
+      <c r="B62" t="n">
+        <v>306921.3290264286</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>402926.2209942079</v>
+      <c r="B63" t="n">
+        <v>308350.4474682534</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>411088.8328121532</v>
+      <c r="B64" t="n">
+        <v>300462.2712298353</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>415647.4641786826</v>
+      <c r="B65" t="n">
+        <v>307009.5933165855</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>427121.0639531151</v>
+      <c r="B66" t="n">
+        <v>298319.891752999</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>438261.4622757004</v>
+      <c r="B67" t="n">
+        <v>296988.0764843727</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>446641.4577628482</v>
+      <c r="B68" t="n">
+        <v>298193.1728001835</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>455069.5054200666</v>
+      <c r="B69" t="n">
+        <v>311465.4872110775</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>509165.5759632299</v>
+      <c r="B70" t="n">
+        <v>314499.6241532741</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>525974.6750356668</v>
+      <c r="B71" t="n">
+        <v>341863.0922487922</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>527499.7849147834</v>
+      <c r="B72" t="n">
+        <v>332076.1236319486</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>529227.6423369047</v>
+      <c r="B73" t="n">
+        <v>339512.8669428971</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>531908.1740864638</v>
+      <c r="B74" t="n">
+        <v>335645.4230769233</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>527500.0590212874</v>
+      <c r="B75" t="n">
+        <v>322650.5512248417</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>519259.8712450856</v>
+      <c r="B76" t="n">
+        <v>324967.7672675037</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>511455.323905853</v>
+      <c r="B77" t="n">
+        <v>392784.3565498939</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>499592.3189076044</v>
+      <c r="B78" t="n">
+        <v>424721.0865044618</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>485965.4472500755</v>
+      <c r="B79" t="n">
+        <v>388098.8247608315</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>472579.1889543937</v>
+      <c r="B80" t="n">
+        <v>382812.3365599316</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81">
-        <v>458724.5712750112</v>
+      <c r="B81" t="n">
+        <v>397116.3554667574</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>458308.0174193699</v>
+      <c r="B82" t="n">
+        <v>398199.0801821543</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>451528.7971527735</v>
+      <c r="B83" t="n">
+        <v>390259.7416980027</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84">
-        <v>438168.5857217099</v>
+      <c r="B84" t="n">
+        <v>372403.3549483129</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>393811.1254755015</v>
+      <c r="B85" t="n">
+        <v>318534.6786608521</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>403811.4784827326</v>
+      <c r="B86" t="n">
+        <v>341951.7998571387</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87">
-        <v>387910.8837785505</v>
+      <c r="B87" t="n">
+        <v>350130.7136952791</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>384390.6318572317</v>
+      <c r="B88" t="n">
+        <v>412504.9795141469</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>376179.9500824576</v>
+      <c r="B89" t="n">
+        <v>444685.203282947</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>417947.6939742673</v>
+      <c r="B90" t="n">
+        <v>457551.1315516904</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>419657.6935557085</v>
+      <c r="B91" t="n">
+        <v>444567.7054851404</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>405262.7224076128</v>
+      <c r="B92" t="n">
+        <v>386141.3940391935</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>358838.6647078344</v>
+      <c r="B93" t="n">
+        <v>389670.4357766702</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>359122.0661331314</v>
+      <c r="B94" t="n">
+        <v>379109.4287444934</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>351407.0296532008</v>
+      <c r="B95" t="n">
+        <v>357382.6346930437</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96">
-        <v>336842.0764526594</v>
+      <c r="B96" t="n">
+        <v>371150.1989173952</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97">
-        <v>334769.9355369408</v>
+      <c r="B97" t="n">
+        <v>367547.8402559367</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>337137.2249865353</v>
+      <c r="B98" t="n">
+        <v>415450.2874041447</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>337807.3205431438</v>
+      <c r="B99" t="n">
+        <v>437453.2907967702</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100">
-        <v>334579.7580159211</v>
+      <c r="B100" t="n">
+        <v>440106.0463282881</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101">
-        <v>342243.2032180532</v>
+      <c r="B101" t="n">
+        <v>445492.7694728711</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102">
-        <v>341287.4682218048</v>
+      <c r="B102" t="n">
+        <v>448684.4374544179</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>329898.8484220401</v>
+      <c r="B103" t="n">
+        <v>446426.7963236763</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104">
-        <v>310644.7941841654</v>
+      <c r="B104" t="n">
+        <v>436551.9512592819</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105">
-        <v>302977.4093872103</v>
+      <c r="B105" t="n">
+        <v>439250.5156510411</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106">
-        <v>303161.7968238351</v>
+      <c r="B106" t="n">
+        <v>434808.8952299449</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107">
-        <v>292728.4040123668</v>
+      <c r="B107" t="n">
+        <v>399011.8046492181</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108">
-        <v>284970.3633092481</v>
+      <c r="B108" t="n">
+        <v>424499.0847596087</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109">
-        <v>290663.8310994279</v>
+      <c r="B109" t="n">
+        <v>433144.1672558864</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110">
-        <v>313170.9376983867</v>
+      <c r="B110" t="n">
+        <v>425615.3506729687</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111">
-        <v>333666.1403418515</v>
+      <c r="B111" t="n">
+        <v>422165.5020953</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112">
-        <v>361280.9167311262</v>
+      <c r="B112" t="n">
+        <v>415432.678963647</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113">
-        <v>390289.0841787281</v>
+      <c r="B113" t="n">
+        <v>422654.1966048245</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114">
-        <v>420463.1644419847</v>
+      <c r="B114" t="n">
+        <v>435481.1197806</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115">
-        <v>457673.5889056582</v>
+      <c r="B115" t="n">
+        <v>454601.4511306309</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116">
-        <v>493977.7473274866</v>
+      <c r="B116" t="n">
+        <v>481049.7207678961</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117">
-        <v>507005.6545082584</v>
+      <c r="B117" t="n">
+        <v>494744.24708515</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118">
-        <v>506439.2243213222</v>
+      <c r="B118" t="n">
+        <v>502104.8838834091</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119">
-        <v>506050.2327974146</v>
+      <c r="B119" t="n">
+        <v>511794.1518494042</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120">
-        <v>489286.1776722127</v>
+      <c r="B120" t="n">
+        <v>506451.9417271709</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121">
-        <v>480526.2603488206</v>
+      <c r="B121" t="n">
+        <v>508615.5971367923</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122">
-        <v>277214.5673398314</v>
+      <c r="B122" t="n">
+        <v>334029.8169528782</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123">
-        <v>262367.7562298108</v>
+      <c r="B123" t="n">
+        <v>343679.3598401705</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124">
-        <v>260699.1202023877</v>
+      <c r="B124" t="n">
+        <v>305556.8167373516</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125">
-        <v>258457.9491218527</v>
+      <c r="B125" t="n">
+        <v>331539.0107784483</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126">
-        <v>266273.5389532291</v>
+      <c r="B126" t="n">
+        <v>312406.6614974729</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127">
-        <v>285171.1573002017</v>
+      <c r="B127" t="n">
+        <v>351995.4878409841</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128">
-        <v>301854.6321716918</v>
+      <c r="B128" t="n">
+        <v>373542.1507451843</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129">
-        <v>320572.4351833767</v>
+      <c r="B129" t="n">
+        <v>407106.428106216</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130">
-        <v>322094.1737089807</v>
+      <c r="B130" t="n">
+        <v>423574.5241633186</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131">
-        <v>299487.1171811062</v>
+      <c r="B131" t="n">
+        <v>465740.3799827539</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1">
+      <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132">
-        <v>279502.7384469077</v>
+      <c r="B132" t="n">
+        <v>470330.1317191238</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="1">
+      <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133">
-        <v>250567.7392301491</v>
+      <c r="B133" t="n">
+        <v>479150.8784449897</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="1">
+      <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134">
-        <v>239736.8023129301</v>
+      <c r="B134" t="n">
+        <v>468013.9193607519</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="1">
+      <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135">
-        <v>243384.1982305916</v>
+      <c r="B135" t="n">
+        <v>476481.9680099059</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="1">
+      <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136">
-        <v>239581.3759433459</v>
+      <c r="B136" t="n">
+        <v>502443.9906816493</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="1">
+      <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137">
-        <v>246726.7511912522</v>
+      <c r="B137" t="n">
+        <v>513775.6615275636</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="1">
+      <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138">
-        <v>244705.5309080131</v>
+      <c r="B138" t="n">
+        <v>533280.6308679008</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="1">
+      <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139">
-        <v>246653.1233075094</v>
+      <c r="B139" t="n">
+        <v>541097.2968439896</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="1">
+      <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140">
-        <v>250604.6064423972</v>
+      <c r="B140" t="n">
+        <v>532765.8965707263</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="1">
+      <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141">
-        <v>341987.6275851741</v>
+      <c r="B141" t="n">
+        <v>557971.4658721338</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="1">
+      <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142">
-        <v>443525.0816959462</v>
+      <c r="B142" t="n">
+        <v>550491.1044006947</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="1">
+      <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143">
-        <v>446649.4340953064</v>
+      <c r="B143" t="n">
+        <v>547848.6068954006</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1">
+      <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144">
-        <v>502952.2761463284</v>
+      <c r="B144" t="n">
+        <v>540333.8273932426</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="1">
+      <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145">
-        <v>537197.6043692972</v>
+      <c r="B145" t="n">
+        <v>537814.5618677306</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="1">
+      <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146">
-        <v>539277.2786868642</v>
+      <c r="B146" t="n">
+        <v>526223.5264637109</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1">
+      <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147">
-        <v>556125.4018061969</v>
+      <c r="B147" t="n">
+        <v>532907.7870085028</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1">
+      <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148">
-        <v>559281.1345053421</v>
+      <c r="B148" t="n">
+        <v>507029.7904685689</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1">
+      <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149">
-        <v>558260.3341907357</v>
+      <c r="B149" t="n">
+        <v>503989.4302335192</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1">
+      <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150">
-        <v>557733.5818746992</v>
+      <c r="B150" t="n">
+        <v>517671.3618078033</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="1">
+      <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151">
-        <v>557748.0879054922</v>
+      <c r="B151" t="n">
+        <v>525879.9731155308</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1">
+      <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152">
-        <v>559693.5755611372</v>
+      <c r="B152" t="n">
+        <v>522307.3340258801</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="1">
+      <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153">
-        <v>561175.8214472065</v>
+      <c r="B153" t="n">
+        <v>546434.374326429</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="1">
+      <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154">
-        <v>543581.0288724895</v>
+      <c r="B154" t="n">
+        <v>550748.8199288521</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="1">
+      <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155">
-        <v>564533.1433583163</v>
+      <c r="B155" t="n">
+        <v>547110.4203919751</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="1">
+      <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156">
-        <v>557491.7522613913</v>
+      <c r="B156" t="n">
+        <v>540758.3904115316</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="1">
+      <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157">
-        <v>567535.7823872259</v>
+      <c r="B157" t="n">
+        <v>537239.0970516556</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="1">
+      <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158">
-        <v>567190.5847945481</v>
+      <c r="B158" t="n">
+        <v>541742.0379415207</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="1">
+      <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159">
-        <v>565351.6462590805</v>
+      <c r="B159" t="n">
+        <v>541438.5963051084</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="1">
+      <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160">
-        <v>564296.6229315159</v>
+      <c r="B160" t="n">
+        <v>542363.8801008635</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="1">
+      <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161">
-        <v>564556.0457094974</v>
+      <c r="B161" t="n">
+        <v>530038.412886626</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="1">
+      <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162">
-        <v>564798.6337784164</v>
+      <c r="B162" t="n">
+        <v>528295.1172415247</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="1">
+      <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163">
-        <v>566204.1850756126</v>
+      <c r="B163" t="n">
+        <v>518684.3100057188</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="1">
+      <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164">
-        <v>566311.5902544189</v>
+      <c r="B164" t="n">
+        <v>515684.3899614022</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="1">
+      <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165">
-        <v>566146.0203034368</v>
+      <c r="B165" t="n">
+        <v>490184.8036583589</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="1">
+      <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166">
-        <v>561501.4952587812</v>
+      <c r="B166" t="n">
+        <v>497215.6834220516</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="1">
+      <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167">
-        <v>505158.0076420846</v>
+      <c r="B167" t="n">
+        <v>482396.073332331</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="1">
+      <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168">
-        <v>523736.1384722714</v>
+      <c r="B168" t="n">
+        <v>469098.8962744192</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="1">
+      <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169">
-        <v>507426.4280543338</v>
+      <c r="B169" t="n">
+        <v>459591.4937279215</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="1">
+      <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170">
-        <v>528744.7546682103</v>
+      <c r="B170" t="n">
+        <v>518051.5072587125</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="1">
+      <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171">
-        <v>506742.6865969916</v>
+      <c r="B171" t="n">
+        <v>539559.7687920255</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="1">
+      <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172">
-        <v>513725.6645913102</v>
+      <c r="B172" t="n">
+        <v>533749.4687421719</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="1">
+      <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173">
-        <v>478696.1304638209</v>
+      <c r="B173" t="n">
+        <v>514915.5042984886</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="1">
+      <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174">
-        <v>482307.8604795506</v>
+      <c r="B174" t="n">
+        <v>513460.6973179246</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="1">
+      <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175">
-        <v>440129.5858659811</v>
+      <c r="B175" t="n">
+        <v>491881.5097053346</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="1">
+      <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176">
-        <v>473867.1452371317</v>
+      <c r="B176" t="n">
+        <v>514013.3339546221</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="1">
+      <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177">
-        <v>476695.0915960427</v>
+      <c r="B177" t="n">
+        <v>479519.7913349677</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="1">
+      <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178">
-        <v>474780.1382125577</v>
+      <c r="B178" t="n">
+        <v>473910.7192535962</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="1">
+      <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179">
-        <v>455651.4852364403</v>
+      <c r="B179" t="n">
+        <v>454878.9924835594</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="1">
+      <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180">
-        <v>459455.8358489608</v>
+      <c r="B180" t="n">
+        <v>460467.6407083967</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="1">
+      <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181">
-        <v>468991.9190822123</v>
+      <c r="B181" t="n">
+        <v>470956.2124514097</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="1">
+      <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182">
-        <v>478137.622301045</v>
+      <c r="B182" t="n">
+        <v>448643.3854162394</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="1">
+      <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183">
-        <v>480567.4226336239</v>
+      <c r="B183" t="n">
+        <v>453667.6125982353</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="1">
+      <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184">
-        <v>495090.3663235181</v>
+      <c r="B184" t="n">
+        <v>489360.3582115357</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="1">
+      <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185">
-        <v>517747.6766125533</v>
+      <c r="B185" t="n">
+        <v>455571.2814752143</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="1">
+      <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186">
-        <v>515629.0649422863</v>
+      <c r="B186" t="n">
+        <v>432478.240702868</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1">
+      <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187">
-        <v>475194.801718686</v>
+      <c r="B187" t="n">
+        <v>413919.4934122292</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="1">
+      <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188">
-        <v>470403.3519037805</v>
+      <c r="B188" t="n">
+        <v>412834.2562730719</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="1">
+      <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189">
-        <v>465652.2632015444</v>
+      <c r="B189" t="n">
+        <v>417467.5913592149</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="1">
+      <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190">
-        <v>472509.1196060488</v>
+      <c r="B190" t="n">
+        <v>424445.6163732052</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="1">
+      <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191">
-        <v>444456.902887917</v>
+      <c r="B191" t="n">
+        <v>393743.8513097261</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="1">
+      <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192">
-        <v>444438.5199532512</v>
+      <c r="B192" t="n">
+        <v>411744.8336466171</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="1">
+      <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193">
-        <v>425795.0545150103</v>
+      <c r="B193" t="n">
+        <v>397364.4197744608</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="1">
+      <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194">
-        <v>429149.1172137957</v>
+      <c r="B194" t="n">
+        <v>376084.33778326</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="1">
+      <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195">
-        <v>481735.070228666</v>
+      <c r="B195" t="n">
+        <v>351162.2446018351</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="1">
+      <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196">
-        <v>511955.368199366</v>
+      <c r="B196" t="n">
+        <v>343286.4806503851</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="1">
+      <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197">
-        <v>500454.5247337151</v>
+      <c r="B197" t="n">
+        <v>326580.6673395906</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="1">
+      <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198">
-        <v>477121.0394866091</v>
+      <c r="B198" t="n">
+        <v>324948.2270163058</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="1">
+      <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199">
-        <v>469281.2957524483</v>
+      <c r="B199" t="n">
+        <v>377526.5343914774</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="1">
+      <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200">
-        <v>444712.4955223093</v>
+      <c r="B200" t="n">
+        <v>428768.3648879245</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="1">
+      <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201">
-        <v>441677.7161233965</v>
+      <c r="B201" t="n">
+        <v>384497.6018551094</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="1">
+      <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202">
-        <v>421557.4822015171</v>
+      <c r="B202" t="n">
+        <v>382887.8289134694</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="1">
+      <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203">
-        <v>420462.0618795322</v>
+      <c r="B203" t="n">
+        <v>348773.6243355047</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="1">
+      <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204">
-        <v>412278.272226038</v>
+      <c r="B204" t="n">
+        <v>357906.7520831931</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="1">
+      <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205">
-        <v>405740.5173984842</v>
+      <c r="B205" t="n">
+        <v>361694.5516873202</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="1">
+      <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206">
-        <v>402150.8415346429</v>
+      <c r="B206" t="n">
+        <v>386489.4107578699</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="1">
+      <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207">
-        <v>395737.017743455</v>
+      <c r="B207" t="n">
+        <v>348233.0504961264</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="1">
+      <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208">
-        <v>392531.3984622968</v>
+      <c r="B208" t="n">
+        <v>333323.5041290224</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="1">
+      <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209">
-        <v>407763.0151746356</v>
+      <c r="B209" t="n">
+        <v>315003.7348150626</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="1">
+      <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210">
-        <v>403277.3269452521</v>
+      <c r="B210" t="n">
+        <v>307395.1901845852</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="1">
+      <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211">
-        <v>395358.0425841144</v>
+      <c r="B211" t="n">
+        <v>312650.808103694</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="1">
+      <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212">
-        <v>370729.591633044</v>
+      <c r="B212" t="n">
+        <v>312786.569182309</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="1">
+      <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213">
-        <v>366919.1819848929</v>
+      <c r="B213" t="n">
+        <v>302660.4643814824</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="1">
+      <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214">
-        <v>350632.2275197252</v>
+      <c r="B214" t="n">
+        <v>297920.807074948</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="1">
+      <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215">
-        <v>300538.8859283043</v>
+      <c r="B215" t="n">
+        <v>267690.0566884166</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="1">
+      <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216">
-        <v>295463.6230979101</v>
+      <c r="B216" t="n">
+        <v>261258.928773562</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="1">
+      <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217">
-        <v>286308.5879821563</v>
+      <c r="B217" t="n">
+        <v>254363.560692215</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="1">
+      <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218">
-        <v>278993.6692907497</v>
+      <c r="B218" t="n">
+        <v>254990.0847878351</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="1">
+      <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219">
-        <v>280814.3456314473</v>
+      <c r="B219" t="n">
+        <v>247276.9286326189</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1">
+      <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220">
-        <v>278859.4214288148</v>
+      <c r="B220" t="n">
+        <v>248422.8003392634</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="1">
+      <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221">
-        <v>269668.9038932275</v>
+      <c r="B221" t="n">
+        <v>235250.1371093076</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="1">
+      <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222">
-        <v>266445.486302954</v>
+      <c r="B222" t="n">
+        <v>247528.6157083414</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="1">
+      <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223">
-        <v>268924.1318956148</v>
+      <c r="B223" t="n">
+        <v>242160.4401089572</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="1">
+      <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224">
-        <v>278930.0918279239</v>
+      <c r="B224" t="n">
+        <v>241282.8142974083</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="1">
+      <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225">
-        <v>289856.7134180432</v>
+      <c r="B225" t="n">
+        <v>248022.8747257538</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="1">
+      <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226">
-        <v>301605.6203513335</v>
+      <c r="B226" t="n">
+        <v>228420.3656479127</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="1">
+      <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227">
-        <v>304398.1915821711</v>
+      <c r="B227" t="n">
+        <v>236453.607569069</v>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="1">
+      <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228">
-        <v>265758.6947629285</v>
+      <c r="B228" t="n">
+        <v>240412.3116244958</v>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="1">
+      <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229">
-        <v>264938.3814163383</v>
+      <c r="B229" t="n">
+        <v>251142.1781016646</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="1">
+      <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230">
-        <v>261955.4344577711</v>
+      <c r="B230" t="n">
+        <v>252567.3052254376</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="1">
+      <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231">
-        <v>264276.7685163571</v>
+      <c r="B231" t="n">
+        <v>269238.4324266711</v>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="1">
+      <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232">
-        <v>312578.7820170429</v>
+      <c r="B232" t="n">
+        <v>271213.8535304568</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="1">
+      <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233">
-        <v>290978.1030483287</v>
+      <c r="B233" t="n">
+        <v>263846.944480239</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="1">
+      <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234">
-        <v>296101.9326909706</v>
+      <c r="B234" t="n">
+        <v>255112.555342501</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1">
+      <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235">
-        <v>289911.8229413797</v>
+      <c r="B235" t="n">
+        <v>258732.7112982816</v>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="1">
+      <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236">
-        <v>293501.2829717943</v>
+      <c r="B236" t="n">
+        <v>260274.1956937276</v>
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="1">
+      <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237">
-        <v>298568.9503645692</v>
+      <c r="B237" t="n">
+        <v>250106.0331206119</v>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="1">
+      <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238">
-        <v>300921.0268675716</v>
+      <c r="B238" t="n">
+        <v>238525.9273605927</v>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="1">
+      <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239">
-        <v>309582.3699901745</v>
+      <c r="B239" t="n">
+        <v>237822.9070755102</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1">
+      <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240">
-        <v>312965.3462176333</v>
+      <c r="B240" t="n">
+        <v>242195.5106124322</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="1">
+      <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241">
-        <v>307748.8745801271</v>
+      <c r="B241" t="n">
+        <v>229473.0132437693</v>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1">
+      <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242">
-        <v>298764.8028803919</v>
+      <c r="B242" t="n">
+        <v>229525.2118296836</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="1">
+      <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243">
-        <v>296569.5609463981</v>
+      <c r="B243" t="n">
+        <v>249897.3369915156</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="1">
+      <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244">
-        <v>347754.4340018969</v>
+      <c r="B244" t="n">
+        <v>299246.6913786291</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="1">
+      <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245">
-        <v>273668.0839782676</v>
+      <c r="B245" t="n">
+        <v>207997.0617135983</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="1">
+      <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246">
-        <v>271709.2385409841</v>
+      <c r="B246" t="n">
+        <v>193216.5174040669</v>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="1">
+      <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247">
-        <v>239160.0467949053</v>
+      <c r="B247" t="n">
+        <v>198556.8327868797</v>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="1">
+      <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248">
-        <v>243111.6017963083</v>
+      <c r="B248" t="n">
+        <v>180797.0037987478</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="1">
+      <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249">
-        <v>243576.744400431</v>
+      <c r="B249" t="n">
+        <v>176912.0407378164</v>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="1">
+      <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250">
-        <v>236281.2336227557</v>
+      <c r="B250" t="n">
+        <v>164246.3270405226</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="1">
+      <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251">
-        <v>223686.8167526035</v>
+      <c r="B251" t="n">
+        <v>174511.1116555841</v>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="1">
+      <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252">
-        <v>211633.0337334838</v>
+      <c r="B252" t="n">
+        <v>154486.2223729274</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="1">
+      <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253">
-        <v>202684.0494694508</v>
+      <c r="B253" t="n">
+        <v>175593.3555147444</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="1">
+      <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254">
-        <v>212111.4645950212</v>
+      <c r="B254" t="n">
+        <v>183800.6186540504</v>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="1">
+      <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255">
-        <v>197811.1609098373</v>
+      <c r="B255" t="n">
+        <v>178851.2291227218</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1">
+      <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256">
-        <v>212068.4375772933</v>
+      <c r="B256" t="n">
+        <v>191395.5931564237</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="1">
+      <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257">
-        <v>211782.675747424</v>
+      <c r="B257" t="n">
+        <v>180952.6135162956</v>
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="1">
+      <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258">
-        <v>198609.9725227244</v>
+      <c r="B258" t="n">
+        <v>182811.6788248937</v>
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="1">
+      <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259">
-        <v>214623.4365562866</v>
+      <c r="B259" t="n">
+        <v>188798.3584672322</v>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="1">
+      <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260">
-        <v>210155.6351940506</v>
+      <c r="B260" t="n">
+        <v>192627.0624798968</v>
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="1">
+      <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261">
-        <v>206695.3894430898</v>
+      <c r="B261" t="n">
+        <v>183009.7616143336</v>
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="1">
+      <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262">
-        <v>197684.4850873</v>
+      <c r="B262" t="n">
+        <v>175257.0598891108</v>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="1">
+      <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263">
-        <v>190628.9394990033</v>
+      <c r="B263" t="n">
+        <v>166893.4441936639</v>
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="1">
+      <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264">
-        <v>188109.1174281992</v>
+      <c r="B264" t="n">
+        <v>183537.7810673092</v>
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="1">
+      <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265">
-        <v>210078.0918835588</v>
+      <c r="B265" t="n">
+        <v>186367.120546342</v>
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="1">
+      <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266">
-        <v>209608.0106234914</v>
+      <c r="B266" t="n">
+        <v>188771.5498221488</v>
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="1">
+      <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267">
-        <v>216329.6342574974</v>
+      <c r="B267" t="n">
+        <v>188323.1296740824</v>
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="1">
+      <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268">
-        <v>213283.0894570964</v>
+      <c r="B268" t="n">
+        <v>176905.5515511441</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="1">
+      <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269">
-        <v>212749.3166545677</v>
+      <c r="B269" t="n">
+        <v>175626.5046670562</v>
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="1">
+      <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270">
-        <v>222409.1910845977</v>
+      <c r="B270" t="n">
+        <v>180620.8135683137</v>
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="1">
+      <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271">
-        <v>217830.8011558902</v>
+      <c r="B271" t="n">
+        <v>192598.0771056746</v>
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="1">
+      <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272">
-        <v>216767.3384239442</v>
+      <c r="B272" t="n">
+        <v>174032.3097602302</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="1">
+      <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273">
-        <v>203693.1368671907</v>
+      <c r="B273" t="n">
+        <v>188171.5037406262</v>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="1">
+      <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274">
-        <v>210388.3002732337</v>
+      <c r="B274" t="n">
+        <v>237277.887555245</v>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="1">
+      <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275">
-        <v>210775.90533652</v>
+      <c r="B275" t="n">
+        <v>304292.0062301319</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="1">
+      <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276">
-        <v>233273.4684058546</v>
+      <c r="B276" t="n">
+        <v>305669.641744455</v>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="1">
+      <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277">
-        <v>230301.322787267</v>
+      <c r="B277" t="n">
+        <v>277955.2331262611</v>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="1">
+      <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278">
-        <v>238217.4542927718</v>
+      <c r="B278" t="n">
+        <v>270035.7912513737</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="1">
+      <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279">
-        <v>239033.6851447316</v>
+      <c r="B279" t="n">
+        <v>261543.4996920214</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="1">
+      <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280">
-        <v>238685.2196023907</v>
+      <c r="B280" t="n">
+        <v>244496.0012381381</v>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="1">
+      <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281">
-        <v>237925.9099433523</v>
+      <c r="B281" t="n">
+        <v>240896.0323353049</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1">
+      <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282">
-        <v>237619.0828421348</v>
+      <c r="B282" t="n">
+        <v>257883.5649114688</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="1">
+      <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283">
-        <v>233058.2056785347</v>
+      <c r="B283" t="n">
+        <v>239579.8082032953</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="1">
+      <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284">
-        <v>232087.7013686394</v>
+      <c r="B284" t="n">
+        <v>251612.2093099614</v>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="1">
+      <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285">
-        <v>241379.5928926225</v>
+      <c r="B285" t="n">
+        <v>239942.2731278234</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="1">
+      <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286">
-        <v>234517.2747726373</v>
+      <c r="B286" t="n">
+        <v>255830.6218244853</v>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="1">
+      <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287">
-        <v>230242.256731449</v>
+      <c r="B287" t="n">
+        <v>249694.9882062065</v>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="1">
+      <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288">
-        <v>223495.1272607772</v>
+      <c r="B288" t="n">
+        <v>252010.024206128</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="1">
+      <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289">
-        <v>234029.7653012383</v>
+      <c r="B289" t="n">
+        <v>269996.542603778</v>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="1">
+      <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290">
-        <v>223671.50209362</v>
+      <c r="B290" t="n">
+        <v>259105.8165872766</v>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="1">
+      <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291">
-        <v>220888.6057243255</v>
+      <c r="B291" t="n">
+        <v>264333.9709820134</v>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="1">
+      <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292">
-        <v>229133.3595800287</v>
+      <c r="B292" t="n">
+        <v>325090.7495045241</v>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="1">
+      <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293">
-        <v>230701.2530220088</v>
+      <c r="B293" t="n">
+        <v>368822.1465222278</v>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="1">
+      <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294">
-        <v>228887.042561033</v>
+      <c r="B294" t="n">
+        <v>330034.2963488803</v>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="1">
+      <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295">
-        <v>227895.7771673168</v>
+      <c r="B295" t="n">
+        <v>329045.6058248164</v>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="1">
+      <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296">
-        <v>233969.9525359409</v>
+      <c r="B296" t="n">
+        <v>316632.6980829035</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="1">
+      <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297">
-        <v>254014.712725957</v>
+      <c r="B297" t="n">
+        <v>297562.0522334217</v>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="1">
+      <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298">
-        <v>248015.9853713684</v>
+      <c r="B298" t="n">
+        <v>300997.1812574763</v>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="1">
+      <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299">
-        <v>238165.9661927305</v>
+      <c r="B299" t="n">
+        <v>292159.4669950437</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="1">
+      <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300">
-        <v>232042.5263743989</v>
+      <c r="B300" t="n">
+        <v>289566.9343345421</v>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="1">
+      <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301">
-        <v>240977.5563114067</v>
+      <c r="B301" t="n">
+        <v>301553.5839017528</v>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="1">
+      <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302">
-        <v>243701.8059527543</v>
+      <c r="B302" t="n">
+        <v>288147.1233267154</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="1">
+      <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303">
-        <v>238126.6947051177</v>
+      <c r="B303" t="n">
+        <v>279665.9666732347</v>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="1">
+      <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304">
-        <v>233108.3284587735</v>
+      <c r="B304" t="n">
+        <v>283639.3919829506</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="1">
+      <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305">
-        <v>241950.097853935</v>
+      <c r="B305" t="n">
+        <v>271830.3213406157</v>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="1">
+      <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306">
-        <v>271000.533373181</v>
+      <c r="B306" t="n">
+        <v>282072.1399567646</v>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="1">
+      <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307">
-        <v>235857.3118849632</v>
+      <c r="B307" t="n">
+        <v>302760.0581903926</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="1">
+      <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308">
-        <v>248014.5680109795</v>
+      <c r="B308" t="n">
+        <v>286724.0233914953</v>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="1">
+      <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309">
-        <v>285616.1634070312</v>
+      <c r="B309" t="n">
+        <v>294530.1793238188</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="1">
+      <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310">
-        <v>327472.49649106</v>
+      <c r="B310" t="n">
+        <v>292144.7022246217</v>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="1">
+      <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311">
-        <v>315161.1745550619</v>
+      <c r="B311" t="n">
+        <v>292285.5804810505</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="1">
+      <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312">
-        <v>301229.2769840794</v>
+      <c r="B312" t="n">
+        <v>292168.1383731045</v>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="1">
+      <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313">
-        <v>302027.9610906667</v>
+      <c r="B313" t="n">
+        <v>294358.8610989141</v>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="1">
+      <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314">
-        <v>281185.2711296779</v>
+      <c r="B314" t="n">
+        <v>285701.8713930307</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="1">
+      <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315">
-        <v>274545.5214897158</v>
+      <c r="B315" t="n">
+        <v>277336.9204775881</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="1">
+      <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316">
-        <v>273932.2646460043</v>
+      <c r="B316" t="n">
+        <v>256534.906839</v>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="1">
+      <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317">
-        <v>292118.0969829845</v>
+      <c r="B317" t="n">
+        <v>273791.2812550747</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="1">
+      <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318">
-        <v>292245.5011767291</v>
+      <c r="B318" t="n">
+        <v>262171.4828917218</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="1">
+      <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319">
-        <v>290499.3907432615</v>
+      <c r="B319" t="n">
+        <v>261666.5248952321</v>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="1">
+      <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320">
-        <v>276456.7704624347</v>
+      <c r="B320" t="n">
+        <v>268561.4978421064</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="1">
+      <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321">
-        <v>298141.8017021908</v>
+      <c r="B321" t="n">
+        <v>243579.7150831581</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="1">
+      <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322">
-        <v>304402.1475052395</v>
+      <c r="B322" t="n">
+        <v>257608.2801082864</v>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="1">
+      <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323">
-        <v>318971.7696105171</v>
+      <c r="B323" t="n">
+        <v>252703.7190916135</v>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="1">
+      <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324">
-        <v>307958.3325917181</v>
+      <c r="B324" t="n">
+        <v>246385.461330399</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="1">
+      <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325">
-        <v>305952.8588923187</v>
+      <c r="B325" t="n">
+        <v>232991.1199448216</v>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="1">
+      <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326">
-        <v>294216.3727224536</v>
+      <c r="B326" t="n">
+        <v>246844.6514984841</v>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="1">
+      <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327">
-        <v>271534.4000616836</v>
+      <c r="B327" t="n">
+        <v>288610.5013742532</v>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="1">
+      <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328">
-        <v>271352.2436043367</v>
+      <c r="B328" t="n">
+        <v>270985.0626976406</v>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="1">
+      <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329">
-        <v>267561.4090701919</v>
+      <c r="B329" t="n">
+        <v>268863.7318368247</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="1">
+      <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330">
-        <v>279967.4461739713</v>
+      <c r="B330" t="n">
+        <v>248776.880136228</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="1">
+      <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331">
-        <v>291112.0749987223</v>
+      <c r="B331" t="n">
+        <v>263887.8774597923</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="1">
+      <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332">
-        <v>262629.6421642564</v>
+      <c r="B332" t="n">
+        <v>274334.3624407804</v>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="1">
+      <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333">
-        <v>257567.9283682534</v>
+      <c r="B333" t="n">
+        <v>274989.2510534768</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="1">
+      <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334">
-        <v>253625.9768703801</v>
+      <c r="B334" t="n">
+        <v>260766.8930178055</v>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="1">
+      <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335">
-        <v>252247.9498350709</v>
+      <c r="B335" t="n">
+        <v>260927.1724944018</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="1">
+      <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336">
-        <v>244632.8719225523</v>
+      <c r="B336" t="n">
+        <v>261453.8076053929</v>
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="1">
+      <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337">
-        <v>259641.0527051871</v>
+      <c r="B337" t="n">
+        <v>332318.4539074104</v>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="1">
+      <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338">
-        <v>251360.5796639551</v>
+      <c r="B338" t="n">
+        <v>327103.6710386468</v>
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="1">
+      <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339">
-        <v>247615.7392053487</v>
+      <c r="B339" t="n">
+        <v>320605.453800562</v>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="1">
+      <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340">
-        <v>243975.3328910198</v>
+      <c r="B340" t="n">
+        <v>307701.3561117874</v>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="1">
+      <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341">
-        <v>260829.3019584118</v>
+      <c r="B341" t="n">
+        <v>304297.5927513055</v>
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="1">
+      <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342">
-        <v>270768.282772221</v>
+      <c r="B342" t="n">
+        <v>293255.2581809434</v>
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="1">
+      <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343">
-        <v>278838.247431425</v>
+      <c r="B343" t="n">
+        <v>294684.2363266876</v>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="1">
+      <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344">
-        <v>284514.4864368422</v>
+      <c r="B344" t="n">
+        <v>293613.7273690265</v>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="1">
+      <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345">
-        <v>286315.6087407102</v>
+      <c r="B345" t="n">
+        <v>301762.7386119703</v>
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="1">
+      <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346">
-        <v>299124.625146682</v>
+      <c r="B346" t="n">
+        <v>318901.1930488757</v>
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="1">
+      <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347">
-        <v>303864.063068946</v>
+      <c r="B347" t="n">
+        <v>303999.4300795693</v>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="1">
+      <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348">
-        <v>330456.9072552212</v>
+      <c r="B348" t="n">
+        <v>304675.3349624011</v>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="1">
+      <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349">
-        <v>323824.7226278465</v>
+      <c r="B349" t="n">
+        <v>303268.9982001046</v>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="1">
+      <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350">
-        <v>307636.3771826634</v>
+      <c r="B350" t="n">
+        <v>316285.8939793305</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="1">
+      <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351">
-        <v>295849.4479567274</v>
+      <c r="B351" t="n">
+        <v>302107.6386699146</v>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="1">
+      <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352">
-        <v>282792.4485403859</v>
+      <c r="B352" t="n">
+        <v>307174.7418522423</v>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="1">
+      <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353">
-        <v>275131.6962555808</v>
+      <c r="B353" t="n">
+        <v>292650.4577774772</v>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="1">
+      <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B354">
-        <v>271420.3933764365</v>
+      <c r="B354" t="n">
+        <v>304117.0026428067</v>
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="1">
+      <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B355">
-        <v>275633.0983169181</v>
+      <c r="B355" t="n">
+        <v>296718.8113436741</v>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="1">
+      <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B356">
-        <v>304755.5540764763</v>
+      <c r="B356" t="n">
+        <v>308075.7003327164</v>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="1">
+      <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357">
-        <v>285409.2311498214</v>
+      <c r="B357" t="n">
+        <v>325116.7276728342</v>
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="1">
+      <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358">
-        <v>256976.9579759516</v>
+      <c r="B358" t="n">
+        <v>356986.338130758</v>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="1">
+      <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359">
-        <v>264660.779838454</v>
+      <c r="B359" t="n">
+        <v>394098.0123740783</v>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="1">
+      <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B360">
-        <v>254881.8874890123</v>
+      <c r="B360" t="n">
+        <v>402361.0656330854</v>
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="1">
+      <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361">
-        <v>271387.1453883781</v>
+      <c r="B361" t="n">
+        <v>424812.0695391931</v>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="1">
+      <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362">
-        <v>284402.7078929927</v>
+      <c r="B362" t="n">
+        <v>429155.9181767152</v>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="1">
+      <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="B363">
-        <v>303254.6860858632</v>
+      <c r="B363" t="n">
+        <v>442144.1741206794</v>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="1">
+      <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B364">
-        <v>300305.3086566066</v>
+      <c r="B364" t="n">
+        <v>467426.690718931</v>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="1">
+      <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="B365">
-        <v>314218.1660410424</v>
+      <c r="B365" t="n">
+        <v>459965.7050685901</v>
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="1">
+      <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B366">
-        <v>334159.6184309074</v>
+      <c r="B366" t="n">
+        <v>442719.0106537333</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
+++ b/Stochastic_engine/PNW_hydro/PNW_hydro_daily.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>PNW</t>
   </si>
@@ -24,22 +23,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,26 +57,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -361,18 +373,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B731"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
@@ -380,2926 +386,5846 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>304126.5748877892</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>313765.5882063406</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>349334.1645164972</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>317569.1279095726</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>297452.7236169889</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>285226.0492611245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>280287.2946881825</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>303676.4263149374</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>293235.5962529621</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>290407.3391163252</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>307793.9683861078</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>296297.802196213</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>299427.386794424</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>308859.7671024217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>303460.0767542874</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>283002.2553640901</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>282320.3597054243</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>323255.4905116767</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>399812.4828676779</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>457502.3790298359</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>501331.8070246292</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>504160.6554801058</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>509194.5032194709</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>506622.0991694832</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>506482.9307675409</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>498580.0520515225</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>493834.264171888</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>497030.9549833122</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>485638.7567110526</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>465800.9452378568</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>474635.8590511894</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>473199.4342383595</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>437812.8273128436</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>439042.8156945741</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>420281.1564776672</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>410728.3748423549</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>428523.4823861613</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>415671.2314512111</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>420907.6342189785</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>383335.1817014942</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>415262.3786678416</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>407016.3464959812</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>402379.9308941724</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>402231.0292017806</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>402521.4520841378</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>405316.3447915499</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>384216.5667750243</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>364255.137774744</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>349892.6862468065</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>357221.0749421235</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>349738.1026524586</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>348591.6450271262</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>357253.3507527713</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>356182.9988245602</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>348811.9338362953</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>363101.2257113654</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>355471.6024194647</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>350427.9410034431</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>341141.6092698702</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>356455.2300316368</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>306921.3290264286</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>308350.4474682534</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>300462.2712298353</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>307009.5933165855</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>298319.891752999</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>296988.0764843727</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>298193.1728001835</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>311465.4872110775</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>314499.6241532741</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>341863.0922487922</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>332076.1236319486</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>339512.8669428971</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>335645.4230769233</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>322650.5512248417</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>324967.7672675037</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>392784.3565498939</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>424721.0865044618</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>388098.8247608315</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>382812.3365599316</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>397116.3554667574</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>398199.0801821543</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>390259.7416980027</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>372403.3549483129</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>318534.6786608521</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>341951.7998571387</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>350130.7136952791</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>412504.9795141469</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>444685.203282947</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>457551.1315516904</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>444567.7054851404</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>386141.3940391935</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>389670.4357766702</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>379109.4287444934</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>357382.6346930437</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>371150.1989173952</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>367547.8402559367</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>415450.2874041447</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>437453.2907967702</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>440106.0463282881</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>445492.7694728711</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>448684.4374544179</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>446426.7963236763</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>436551.9512592819</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>439250.5156510411</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>434808.8952299449</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>399011.8046492181</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>424499.0847596087</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>433144.1672558864</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>425615.3506729687</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>422165.5020953</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>415432.678963647</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>422654.1966048245</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>435481.1197806</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>454601.4511306309</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>481049.7207678961</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>494744.24708515</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>502104.8838834091</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>511794.1518494042</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>506451.9417271709</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>508615.5971367923</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>334029.8169528782</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>343679.3598401705</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>305556.8167373516</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>331539.0107784483</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>312406.6614974729</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>351995.4878409841</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>373542.1507451843</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>407106.428106216</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>423574.5241633186</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>465740.3799827539</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>470330.1317191238</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>479150.8784449897</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>468013.9193607519</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>476481.9680099059</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>502443.9906816493</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>513775.6615275636</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>533280.6308679008</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>541097.2968439896</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>532765.8965707263</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>557971.4658721338</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>550491.1044006947</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>547848.6068954006</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>540333.8273932426</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>537814.5618677306</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>526223.5264637109</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>532907.7870085028</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>507029.7904685689</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>503989.4302335192</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>517671.3618078033</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>525879.9731155308</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>522307.3340258801</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>546434.374326429</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>550748.8199288521</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>547110.4203919751</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>540758.3904115316</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>537239.0970516556</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>541742.0379415207</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>541438.5963051084</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>542363.8801008635</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>530038.412886626</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>528295.1172415247</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>518684.3100057188</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>515684.3899614022</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>490184.8036583589</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>497215.6834220516</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>482396.073332331</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>469098.8962744192</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>459591.4937279215</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>518051.5072587125</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>539559.7687920255</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>533749.4687421719</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>514915.5042984886</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>513460.6973179246</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>491881.5097053346</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>514013.3339546221</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>479519.7913349677</v>
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>473910.7192535962</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>454878.9924835594</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>460467.6407083967</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>470956.2124514097</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>448643.3854162394</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>453667.6125982353</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>489360.3582115357</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>455571.2814752143</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>432478.240702868</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>413919.4934122292</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>412834.2562730719</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>417467.5913592149</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>424445.6163732052</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>393743.8513097261</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>411744.8336466171</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>397364.4197744608</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>376084.33778326</v>
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>351162.2446018351</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>343286.4806503851</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>326580.6673395906</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>324948.2270163058</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>377526.5343914774</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>428768.3648879245</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>384497.6018551094</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>382887.8289134694</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>348773.6243355047</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>357906.7520831931</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>361694.5516873202</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>386489.4107578699</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>348233.0504961264</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>333323.5041290224</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>315003.7348150626</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>307395.1901845852</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>312650.808103694</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>312786.569182309</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>302660.4643814824</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>297920.807074948</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>267690.0566884166</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>261258.928773562</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>254363.560692215</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>254990.0847878351</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>247276.9286326189</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>248422.8003392634</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>235250.1371093076</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>247528.6157083414</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>242160.4401089572</v>
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>241282.8142974083</v>
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>248022.8747257538</v>
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>228420.3656479127</v>
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>236453.607569069</v>
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>240412.3116244958</v>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>251142.1781016646</v>
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>252567.3052254376</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>269238.4324266711</v>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>271213.8535304568</v>
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>263846.944480239</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="1" t="n">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>255112.555342501</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="1" t="n">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>258732.7112982816</v>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="1" t="n">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>260274.1956937276</v>
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="1" t="n">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>250106.0331206119</v>
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="1" t="n">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>238525.9273605927</v>
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="1" t="n">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>237822.9070755102</v>
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1" t="n">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>242195.5106124322</v>
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="1" t="n">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>229473.0132437693</v>
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1" t="n">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>229525.2118296836</v>
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="1" t="n">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>249897.3369915156</v>
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="1" t="n">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>299246.6913786291</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="1" t="n">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>207997.0617135983</v>
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="1" t="n">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>193216.5174040669</v>
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="1" t="n">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>198556.8327868797</v>
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="1" t="n">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>180797.0037987478</v>
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="1" t="n">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>176912.0407378164</v>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="1" t="n">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>164246.3270405226</v>
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="1" t="n">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>174511.1116555841</v>
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="1" t="n">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>154486.2223729274</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="1" t="n">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>175593.3555147444</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="1" t="n">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>183800.6186540504</v>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="1" t="n">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>178851.2291227218</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="1" t="n">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>191395.5931564237</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="1" t="n">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>180952.6135162956</v>
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="1" t="n">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>182811.6788248937</v>
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="1" t="n">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>188798.3584672322</v>
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="1" t="n">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>192627.0624798968</v>
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="1" t="n">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>183009.7616143336</v>
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="1" t="n">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>175257.0598891108</v>
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="1" t="n">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>166893.4441936639</v>
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="1" t="n">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>183537.7810673092</v>
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="1" t="n">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>186367.120546342</v>
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="1" t="n">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>188771.5498221488</v>
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="1" t="n">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>188323.1296740824</v>
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="1" t="n">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>176905.5515511441</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="1" t="n">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>175626.5046670562</v>
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="1" t="n">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>180620.8135683137</v>
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="1" t="n">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>192598.0771056746</v>
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="1" t="n">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>174032.3097602302</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="1" t="n">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>188171.5037406262</v>
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="1" t="n">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>237277.887555245</v>
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="1" t="n">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>304292.0062301319</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="1" t="n">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>305669.641744455</v>
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="1" t="n">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>277955.2331262611</v>
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="1" t="n">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>270035.7912513737</v>
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="1" t="n">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>261543.4996920214</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="1" t="n">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>244496.0012381381</v>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="1" t="n">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>240896.0323353049</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1" t="n">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>257883.5649114688</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="1" t="n">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>239579.8082032953</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="1" t="n">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>251612.2093099614</v>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="1" t="n">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>239942.2731278234</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="1" t="n">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>255830.6218244853</v>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="1" t="n">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>249694.9882062065</v>
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="1" t="n">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>252010.024206128</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="1" t="n">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>269996.542603778</v>
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="1" t="n">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>259105.8165872766</v>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="1" t="n">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>264333.9709820134</v>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="1" t="n">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>325090.7495045241</v>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="1" t="n">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>368822.1465222278</v>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="1" t="n">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>330034.2963488803</v>
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="1" t="n">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>329045.6058248164</v>
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="1" t="n">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>316632.6980829035</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="1" t="n">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>297562.0522334217</v>
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="1" t="n">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>300997.1812574763</v>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="1" t="n">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>292159.4669950437</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="1" t="n">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>289566.9343345421</v>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="1" t="n">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>301553.5839017528</v>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="1" t="n">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>288147.1233267154</v>
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="1" t="n">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>279665.9666732347</v>
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="1" t="n">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>283639.3919829506</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="1" t="n">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>271830.3213406157</v>
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="1" t="n">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>282072.1399567646</v>
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="1" t="n">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>302760.0581903926</v>
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="1" t="n">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>286724.0233914953</v>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="1" t="n">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>294530.1793238188</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="1" t="n">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>292144.7022246217</v>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="1" t="n">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>292285.5804810505</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="1" t="n">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>292168.1383731045</v>
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="1" t="n">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>294358.8610989141</v>
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="1" t="n">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>285701.8713930307</v>
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="1" t="n">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>277336.9204775881</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="1" t="n">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>256534.906839</v>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="1" t="n">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>273791.2812550747</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="1" t="n">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>262171.4828917218</v>
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="1" t="n">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>261666.5248952321</v>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="1" t="n">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>268561.4978421064</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="1" t="n">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>243579.7150831581</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="1" t="n">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>257608.2801082864</v>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="1" t="n">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>252703.7190916135</v>
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="1" t="n">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>246385.461330399</v>
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="1" t="n">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>232991.1199448216</v>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="1" t="n">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>246844.6514984841</v>
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="1" t="n">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>288610.5013742532</v>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="1" t="n">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>270985.0626976406</v>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="1" t="n">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>268863.7318368247</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="1" t="n">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>248776.880136228</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="1" t="n">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>263887.8774597923</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="1" t="n">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>274334.3624407804</v>
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="1" t="n">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>274989.2510534768</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="1" t="n">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>260766.8930178055</v>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="1" t="n">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>260927.1724944018</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="1" t="n">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>261453.8076053929</v>
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="1" t="n">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>332318.4539074104</v>
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="1" t="n">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>327103.6710386468</v>
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="1" t="n">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>320605.453800562</v>
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="1" t="n">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>307701.3561117874</v>
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="1" t="n">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>304297.5927513055</v>
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="1" t="n">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>293255.2581809434</v>
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="1" t="n">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>294684.2363266876</v>
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="1" t="n">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>293613.7273690265</v>
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="1" t="n">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>301762.7386119703</v>
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="1" t="n">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>318901.1930488757</v>
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="1" t="n">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>303999.4300795693</v>
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="1" t="n">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>304675.3349624011</v>
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="1" t="n">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>303268.9982001046</v>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="1" t="n">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>316285.8939793305</v>
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="1" t="n">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>302107.6386699146</v>
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="1" t="n">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>307174.7418522423</v>
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="1" t="n">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>292650.4577774772</v>
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="1" t="n">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>304117.0026428067</v>
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="1" t="n">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>296718.8113436741</v>
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="1" t="n">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>308075.7003327164</v>
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="1" t="n">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>325116.7276728342</v>
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="1" t="n">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>356986.338130758</v>
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="1" t="n">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>394098.0123740783</v>
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="1" t="n">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>402361.0656330854</v>
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="1" t="n">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>424812.0695391931</v>
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="1" t="n">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>429155.9181767152</v>
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="1" t="n">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>442144.1741206794</v>
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="1" t="n">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>467426.690718931</v>
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="1" t="n">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>459965.7050685901</v>
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="1" t="n">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>442719.0106537333</v>
       </c>
     </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>416034.3793067729</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>403125.5662181369</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>420742.1453482696</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>402872.0167009517</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>407062.383648645</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>413068.3921481947</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>405283.4025202752</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>399762.0873765413</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>407390.0809708319</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>398854.6201827491</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>399912.0363754892</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>390094.6024577498</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>388627.8348286253</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>398580.1806257755</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>388059.8802837086</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>417907.4934558502</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>389620.8993366776</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>396590.8008984294</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>398120.4784796602</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>389473.4824178259</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>386049.6066831228</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>391403.5864853195</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>387877.9377583467</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>391193.6405740252</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>392500.8952021556</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>377689.3127814621</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>380521.6204018494</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>385307.6064167286</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>394583.5129729128</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>373465.8271160618</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>376581.0077585558</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>405445.9164774138</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>420003.0684705299</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>461295.8408010306</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>468400.1301049524</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>468985.8556101991</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>487161.506150834</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>471627.0895524804</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>475522.7761275644</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>491452.6766644719</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>500412.1195335679</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>495139.480531187</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>501564.2013206204</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>481865.8471954681</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>515286.957630863</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>538976.0380848905</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>535073.2285963238</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>538252.6316212536</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>532943.695549704</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>528073.0662590102</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>528529.8153616101</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>525408.006401612</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>520464.5281225353</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>529565.9416170919</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>534233.5376033909</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>534819.6406751961</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>531081.6399513383</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>533557.1874956867</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>542018.4968063412</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>529390.2685470718</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>485698.4366594771</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>469168.4816008972</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>459071.2143269059</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>477041.9653047895</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>485289.1592171738</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>476257.3121526596</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>469585.9756361133</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>469280.3159900901</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>463657.7228258421</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>466775.4239173963</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>457688.9148615864</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>451263.0413651559</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>454919.5063347731</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>470147.5273084813</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>458946.5652028628</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>458390.3042263811</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>460474.5153993324</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>456929.4758716328</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>466220.0300054275</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>457220.3807046032</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>448331.6267373718</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>466656.8171865303</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>473817.2718232036</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>468677.8161150974</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>470273.3240046864</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>469701.8565860168</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>471608.0097435759</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>488931.5162208308</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>492112.4177728008</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>484353.3168752149</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>450841.5279639735</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>394812.3104689918</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>405989.8858908068</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>429574.7626987314</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>448710.2082587915</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>464732.4156986555</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>463318.3719920384</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>453079.1062090152</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>443446.816783788</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>448090.2256794335</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>452776.8238680325</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>477806.1802867191</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>491574.3104990229</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>517446.4669571971</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>530161.7740879686</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>538212.7401738779</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>540044.1734832985</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>542679.9770954235</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>535179.7379853608</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>547106.4600678993</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>537857.3044485396</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>545871.8748661428</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>545922.2022958809</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>547006.2217001349</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>545776.6845755498</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>545286.5284111527</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>542286.6283457583</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>546306.3282149587</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>545851.0391744965</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>546845.2652002318</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>532533.8919916978</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>442399.1082475131</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>421075.0176908772</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>468537.6656624252</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>468469.2282309413</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>505582.8150108723</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>451724.227418786</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>457282.219033149</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>391343.244513102</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>431340.9913311786</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>378413.6747286391</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>412447.8433938574</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>354066.5921019164</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>387234.6357007693</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>323164.9488329555</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>379627.6366816488</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>356156.2622346049</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>433263.4520070075</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>427968.5820370542</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>495881.1542642587</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>505149.3687440621</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>554249.8090825623</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>553610.9360816504</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>556634.3350993857</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>558039.5760675981</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>559158.114351372</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>558988.4845944741</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>559001.0736069358</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>541155.8511977619</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>546693.8230344626</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>529486.2251897036</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>552321.9301246392</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>539432.6773889478</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>546187.8045867642</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>538661.1198972658</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>549101.753471199</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>539552.3266088091</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>550855.4855170744</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>554892.5939391175</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>550567.133422357</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>555047.6454552691</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>560310.1494195312</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>548015.8343816103</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>554166.0773114929</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>545928.5240372793</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>554516.7084872997</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>551199.4506140508</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>551582.8696756237</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>550467.6417353639</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>546304.9166395682</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>529973.8068562512</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>516921.6901227466</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>509881.2086882994</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>520956.189102345</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>511504.5036964126</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>518815.7124205134</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>508685.1478148238</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>501118.1388476241</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>499932.9482484497</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>497827.1377085611</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>503745.7452114195</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>502392.5739230934</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>475829.9442853279</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>467797.3352973685</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>436275.4962326461</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>420582.1086419209</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>392557.7045544332</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>383837.0013481473</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>367600.2543920591</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>381387.0803695595</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>400249.5859160417</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>386087.5427134709</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>373852.0565073394</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>370396.6519639244</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>384761.2790369158</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>364484.0965018158</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>337417.1293432332</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>333261.5710894669</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>344701.9130102151</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>317855.7992214337</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>310597.4677258856</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>290850.1223942467</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>321188.6667208719</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>320868.3501400807</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>293571.1320409134</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>322947.6437714258</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>341392.929371745</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>287719.1191171163</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>307836.7123674533</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>292765.744814836</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>304302.4603832948</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>295051.1133446858</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>313826.0678368497</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>367759.5126487417</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>324023.1167349338</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>311402.6510479288</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>316532.6675392048</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>316270.0050426706</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>321676.5012949379</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>308312.5294117222</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>291313.5429658867</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>305094.0804192849</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>283304.6929243915</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>274427.2920036847</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>242697.5183259422</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>259878.2706135327</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>249650.3594729523</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>237770.3792703615</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>229430.2722512692</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>236572.5866999255</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>249487.923440264</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>241264.1760769481</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>246803.1965343917</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>238225.6017486535</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>220683.6388704914</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602">
+        <v>229920.6756214073</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603">
+        <v>236508.0924680193</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604">
+        <v>256239.8699636617</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605">
+        <v>247050.8502303847</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606">
+        <v>236644.1176255523</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607">
+        <v>218861.6463816488</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608">
+        <v>219935.778022305</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609">
+        <v>274957.4678617098</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610">
+        <v>216701.77883234</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611">
+        <v>202340.1781347027</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612">
+        <v>219458.4944253856</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613">
+        <v>223048.0751978479</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614">
+        <v>203656.260402178</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615">
+        <v>205615.2657310264</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616">
+        <v>195401.9156121896</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617">
+        <v>177747.790157456</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618">
+        <v>201539.1131776166</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619">
+        <v>209697.937754479</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620">
+        <v>216051.1274989479</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621">
+        <v>201811.3020107822</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622">
+        <v>206017.7226189492</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623">
+        <v>203206.9098301504</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624">
+        <v>230710.4917715547</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625">
+        <v>223994.2217648146</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626">
+        <v>232838.7464885159</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627">
+        <v>226881.5057554844</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628">
+        <v>243884.199919373</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629">
+        <v>251981.7274335147</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630">
+        <v>226811.0677028399</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631">
+        <v>247384.5266112596</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632">
+        <v>228339.4008661737</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633">
+        <v>215726.8114012591</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634">
+        <v>223864.0409352326</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635">
+        <v>215718.4921155149</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636">
+        <v>222906.829155906</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637">
+        <v>223629.7124704165</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638">
+        <v>214626.4775428854</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639">
+        <v>229205.6224344036</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640">
+        <v>292257.8631382803</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641">
+        <v>304149.7594854796</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="1">
+        <v>640</v>
+      </c>
+      <c r="B642">
+        <v>281836.0288214663</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="1">
+        <v>641</v>
+      </c>
+      <c r="B643">
+        <v>255316.3015757183</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="1">
+        <v>642</v>
+      </c>
+      <c r="B644">
+        <v>273518.1710073081</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="1">
+        <v>643</v>
+      </c>
+      <c r="B645">
+        <v>252210.2771657181</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="1">
+        <v>644</v>
+      </c>
+      <c r="B646">
+        <v>235782.2071135355</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="1">
+        <v>645</v>
+      </c>
+      <c r="B647">
+        <v>249948.8211866949</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="1">
+        <v>646</v>
+      </c>
+      <c r="B648">
+        <v>249118.2989848265</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="1">
+        <v>647</v>
+      </c>
+      <c r="B649">
+        <v>245585.3488855177</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="1">
+        <v>648</v>
+      </c>
+      <c r="B650">
+        <v>243662.9656341598</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="1">
+        <v>649</v>
+      </c>
+      <c r="B651">
+        <v>253051.6680190858</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="1">
+        <v>650</v>
+      </c>
+      <c r="B652">
+        <v>243599.2680517574</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="1">
+        <v>651</v>
+      </c>
+      <c r="B653">
+        <v>258407.868650037</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="1">
+        <v>652</v>
+      </c>
+      <c r="B654">
+        <v>253566.7178064906</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="1">
+        <v>653</v>
+      </c>
+      <c r="B655">
+        <v>251925.1018610184</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="1">
+        <v>654</v>
+      </c>
+      <c r="B656">
+        <v>254469.2352130239</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="1">
+        <v>655</v>
+      </c>
+      <c r="B657">
+        <v>264079.7590456838</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="1">
+        <v>656</v>
+      </c>
+      <c r="B658">
+        <v>267075.7983866842</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="1">
+        <v>657</v>
+      </c>
+      <c r="B659">
+        <v>265613.7551572513</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="1">
+        <v>658</v>
+      </c>
+      <c r="B660">
+        <v>267103.6546776557</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="1">
+        <v>659</v>
+      </c>
+      <c r="B661">
+        <v>290134.5178230285</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="1">
+        <v>660</v>
+      </c>
+      <c r="B662">
+        <v>287944.4256104067</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="1">
+        <v>661</v>
+      </c>
+      <c r="B663">
+        <v>267336.8365603204</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="1">
+        <v>662</v>
+      </c>
+      <c r="B664">
+        <v>268657.2169382916</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="1">
+        <v>663</v>
+      </c>
+      <c r="B665">
+        <v>264101.6381150035</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="1">
+        <v>664</v>
+      </c>
+      <c r="B666">
+        <v>263681.0354217832</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="1">
+        <v>665</v>
+      </c>
+      <c r="B667">
+        <v>258081.3831767007</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="1">
+        <v>666</v>
+      </c>
+      <c r="B668">
+        <v>266514.7429349805</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="1">
+        <v>667</v>
+      </c>
+      <c r="B669">
+        <v>270090.4674279878</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="1">
+        <v>668</v>
+      </c>
+      <c r="B670">
+        <v>258015.3342813035</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="1">
+        <v>669</v>
+      </c>
+      <c r="B671">
+        <v>249022.4137324761</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="1">
+        <v>670</v>
+      </c>
+      <c r="B672">
+        <v>243008.2979466589</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="1">
+        <v>671</v>
+      </c>
+      <c r="B673">
+        <v>240548.2491239936</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="1">
+        <v>672</v>
+      </c>
+      <c r="B674">
+        <v>244495.8612198205</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="1">
+        <v>673</v>
+      </c>
+      <c r="B675">
+        <v>251059.0983961534</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="1">
+        <v>674</v>
+      </c>
+      <c r="B676">
+        <v>244961.2800463564</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="1">
+        <v>675</v>
+      </c>
+      <c r="B677">
+        <v>253908.2769439966</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="1">
+        <v>676</v>
+      </c>
+      <c r="B678">
+        <v>243209.3990015259</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="1">
+        <v>677</v>
+      </c>
+      <c r="B679">
+        <v>233472.9389011351</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="1">
+        <v>678</v>
+      </c>
+      <c r="B680">
+        <v>249190.3414171532</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="1">
+        <v>679</v>
+      </c>
+      <c r="B681">
+        <v>237663.6144983506</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="1">
+        <v>680</v>
+      </c>
+      <c r="B682">
+        <v>220924.0972183901</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="1">
+        <v>681</v>
+      </c>
+      <c r="B683">
+        <v>222258.6216988558</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="1">
+        <v>682</v>
+      </c>
+      <c r="B684">
+        <v>222320.6521609117</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="1">
+        <v>683</v>
+      </c>
+      <c r="B685">
+        <v>222965.0230661398</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="1">
+        <v>684</v>
+      </c>
+      <c r="B686">
+        <v>220396.4614891128</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="1">
+        <v>685</v>
+      </c>
+      <c r="B687">
+        <v>209678.3791920804</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="1">
+        <v>686</v>
+      </c>
+      <c r="B688">
+        <v>219748.184056209</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="1">
+        <v>687</v>
+      </c>
+      <c r="B689">
+        <v>213528.3495427418</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="1">
+        <v>688</v>
+      </c>
+      <c r="B690">
+        <v>203511.2510804144</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="1">
+        <v>689</v>
+      </c>
+      <c r="B691">
+        <v>222441.269659222</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="1">
+        <v>690</v>
+      </c>
+      <c r="B692">
+        <v>205675.5577222557</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693">
+        <v>207989.6271165862</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694">
+        <v>208844.1930018707</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695">
+        <v>228004.6892786873</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696">
+        <v>247336.9409089077</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697">
+        <v>248784.3502313652</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698">
+        <v>253259.4299981573</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="1">
+        <v>697</v>
+      </c>
+      <c r="B699">
+        <v>238312.0807977944</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="1">
+        <v>698</v>
+      </c>
+      <c r="B700">
+        <v>248790.5868108905</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="1">
+        <v>699</v>
+      </c>
+      <c r="B701">
+        <v>236579.8735094663</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="1">
+        <v>700</v>
+      </c>
+      <c r="B702">
+        <v>293858.8691721791</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="1">
+        <v>701</v>
+      </c>
+      <c r="B703">
+        <v>291425.4916362402</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="1">
+        <v>702</v>
+      </c>
+      <c r="B704">
+        <v>300694.4413524077</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="1">
+        <v>703</v>
+      </c>
+      <c r="B705">
+        <v>290131.0699963294</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="1">
+        <v>704</v>
+      </c>
+      <c r="B706">
+        <v>290583.2650873331</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="1">
+        <v>705</v>
+      </c>
+      <c r="B707">
+        <v>285682.4693912183</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="1">
+        <v>706</v>
+      </c>
+      <c r="B708">
+        <v>296052.2815011231</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="1">
+        <v>707</v>
+      </c>
+      <c r="B709">
+        <v>308013.0664207386</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="1">
+        <v>708</v>
+      </c>
+      <c r="B710">
+        <v>309585.7773698678</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="1">
+        <v>709</v>
+      </c>
+      <c r="B711">
+        <v>310328.9808785467</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="1">
+        <v>710</v>
+      </c>
+      <c r="B712">
+        <v>294506.4695730985</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="1">
+        <v>711</v>
+      </c>
+      <c r="B713">
+        <v>288511.8641614327</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="1">
+        <v>712</v>
+      </c>
+      <c r="B714">
+        <v>292572.7554339672</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="1">
+        <v>713</v>
+      </c>
+      <c r="B715">
+        <v>298898.927792352</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="1">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <v>303581.2975194982</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="1">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <v>302188.9552496786</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="1">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <v>303465.3348684734</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="1">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <v>300847.6497074466</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="1">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <v>300633.2229089765</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="1">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <v>308892.9337699354</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="1">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <v>305069.9560116447</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="1">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <v>317262.8321175014</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="1">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <v>314950.8811008474</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="1">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <v>321721.5691534092</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="1">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <v>320079.1659744391</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="1">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <v>319810.2053132094</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="1">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <v>317811.4937581177</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="1">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <v>316470.0002576892</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="1">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <v>309912.9720054927</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="1">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <v>305273.6538130832</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>